--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -5,22 +5,22 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Genia\Final_pjt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83A07B-8E63-4815-9E7E-381FFA2CB585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D57C3F-0F70-4AEF-A1D4-18237237BDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="2025" windowWidth="20235" windowHeight="17760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Table" sheetId="2" r:id="rId3"/>
+    <sheet name="Table" sheetId="2" r:id="rId2"/>
+    <sheet name="기능 정의서" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Table!$C$6:$D$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Table!$A$1:$AI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$A$1:$M$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table!$C$6:$D$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Table!$A$1:$AI$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$A$1:$M$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>테스트</t>
   </si>
@@ -82,9 +82,6 @@
     <t>업무</t>
   </si>
   <si>
-    <t>데이터</t>
-  </si>
-  <si>
     <t>기간</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>전체공정</t>
-  </si>
-  <si>
-    <t>기능 구현</t>
   </si>
   <si>
     <t xml:space="preserve">진행비율 : </t>
@@ -159,10 +153,6 @@
   </si>
   <si>
     <t>인프라 구축</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델 활용 연구</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -216,15 +206,119 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Local 환경에서 Feature Test </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>코드 병합</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">진행율 기준일자 : </t>
+  </si>
+  <si>
+    <t>개발 일정 작성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 기능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 설명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">재생 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드한 영상을 재생할 수 있게 하여, 자신이 올린 영상이 맞는지 확인하게 하기 위함</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 정보에 대한 기본적인 메타 데이터들을 확인할 수 있게 함</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 탭을 만들어 사용자의 영상을 입력 받음</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 업로드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plotly Dash를 활용한 Web Page 제작</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 올린 영상을 서버에 전달하여 분석하기 위한 저장소, AWS S3 사용</t>
+  </si>
+  <si>
+    <t>지표 추출</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Local 환경에서 
+Model Feature Test </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Mockup 제작</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infra Pipeline 도식화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model 활용 및 Feature연구</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자로 부터 받은 동영상 처리 및 웹 서버 배포, AWS EC2 사용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS EC2 내 Python File의 모델을 통해 지표 추출</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석한 결과에 대한 데이터를 저장하고 웹에 배포하기 위한 저장소, AWS RDS 사용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 결과물들을 비교하여 그래프로 표현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -235,7 +329,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -307,8 +401,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.79998168889431442"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +508,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,8 +518,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="83">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1420,13 +1545,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1435,7 +1615,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1445,10 +1625,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1462,7 +1642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1598,11 +1778,188 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1622,20 +1979,11 @@
     <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1643,79 +1991,295 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
@@ -1727,272 +2291,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -2032,162 +2344,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33FF8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8F8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33FF8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8F8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2264,32 +2420,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF33FF8F"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFF8F8F"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFFF69"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2472,31 +2619,31 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="52"/>
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="totalRow" dxfId="50"/>
-      <tableStyleElement type="firstColumn" dxfId="49"/>
-      <tableStyleElement type="lastColumn" dxfId="48"/>
-      <tableStyleElement type="firstRowStripe" dxfId="47"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="46"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="totalRow" dxfId="29"/>
+      <tableStyleElement type="firstColumn" dxfId="28"/>
+      <tableStyleElement type="lastColumn" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
     </tableStyle>
     <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="totalRow" dxfId="43"/>
-      <tableStyleElement type="firstColumn" dxfId="42"/>
-      <tableStyleElement type="lastColumn" dxfId="41"/>
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="lastColumn" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF69"/>
       <color rgb="FFFF8F8F"/>
       <color rgb="FF33FF8F"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2832,17 +2979,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="2" customWidth="1"/>
@@ -2853,113 +3000,112 @@
     <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="161"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="163"/>
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="85"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="117"/>
-      <c r="B2" s="168" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="172">
+      <c r="A2" s="55"/>
+      <c r="B2" s="187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="190">
         <f ca="1">TODAY()</f>
-        <v>45253</v>
-      </c>
-      <c r="K2" s="173" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="174">
+        <v>45258</v>
+      </c>
+      <c r="K2" s="191" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="192">
         <f>K6</f>
         <v>0</v>
       </c>
       <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="164"/>
-      <c r="B3" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="47" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="131" t="s">
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="157" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="60"/>
+      <c r="K3" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="94"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="61"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="164"/>
-      <c r="B5" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="133"/>
-      <c r="K5" s="160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="118"/>
+      <c r="K5" s="84" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -2967,52 +3113,50 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="164"/>
-      <c r="B6" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="59"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="115"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="str">
         <f>CONCATENATE(NETWORKDAYS(F6,G6),"일")</f>
         <v>30일</v>
       </c>
       <c r="F6" s="18">
-        <f>MIN(F7:F26)</f>
+        <f>MIN(F7:F29)</f>
         <v>45250</v>
       </c>
       <c r="G6" s="18">
-        <f>MAX(G7:G26)</f>
+        <f>MAX(G7:G29)</f>
         <v>45289</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="19">
-        <f>SUM(K7, K14, K21, K23)</f>
+        <f>SUM(K7, K17, K24, K26)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="134">
-        <f>SUM(J7, J14, J21, J23)</f>
+      <c r="J6" s="64">
+        <f>SUM(J7, J17, J24, J26)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K6" s="124">
-        <f>SUM(K7, K14, K21, K23)</f>
+      <c r="K6" s="57">
+        <f>SUM(K7, K17, K24, K26)</f>
         <v>0</v>
       </c>
       <c r="L6" s="31">
-        <f ca="1">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
-        <v>36</v>
+        <f t="shared" ref="L6:L26" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="167" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="153"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="str">
         <f>CONCATENATE(NETWORKDAYS(F7,G7),"일")</f>
@@ -3032,33 +3176,33 @@
       <c r="I7" s="15">
         <v>0.1</v>
       </c>
-      <c r="J7" s="135">
+      <c r="J7" s="65">
         <f>I7</f>
         <v>0.1</v>
       </c>
-      <c r="K7" s="125">
+      <c r="K7" s="58">
         <f>SUM(K8:K11)</f>
         <v>0</v>
       </c>
       <c r="L7" s="32">
-        <f ca="1">IF(G7-$J$2&lt;=0,0,G7-$J$2)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
       </c>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="164"/>
-      <c r="B8" s="152" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="116" t="s">
-        <v>21</v>
+      <c r="C8" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f t="shared" ref="E8:E22" si="0">CONCATENATE(NETWORKDAYS(F8,G8),"일")</f>
+        <f t="shared" ref="E8:E25" si="1">CONCATENATE(NETWORKDAYS(F8,G8),"일")</f>
         <v>30일</v>
       </c>
       <c r="F8" s="1">
@@ -3073,27 +3217,27 @@
       <c r="I8" s="11">
         <v>0.8</v>
       </c>
-      <c r="J8" s="136"/>
-      <c r="K8" s="126">
+      <c r="J8" s="66"/>
+      <c r="K8" s="59">
         <f>I8*J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="33">
-        <f ca="1">IF(G8-$J$2&lt;=0,0,G8-$J$2)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="164"/>
-      <c r="B9" s="153"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4일</v>
       </c>
       <c r="F9" s="1">
@@ -3108,27 +3252,27 @@
       <c r="I9" s="11">
         <v>0.6</v>
       </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="126">
-        <f t="shared" ref="K9:K13" si="1">I9*J9</f>
+      <c r="J9" s="66"/>
+      <c r="K9" s="59">
+        <f t="shared" ref="K9:K16" si="2">I9*J9</f>
         <v>0</v>
       </c>
       <c r="L9" s="33">
-        <f ca="1">IF(G9-$J$2&lt;=0,0,G9-$J$2)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="164"/>
-      <c r="B10" s="153"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4일</v>
       </c>
       <c r="F10" s="1">
@@ -3143,27 +3287,27 @@
       <c r="I10" s="11">
         <v>0.3</v>
       </c>
-      <c r="J10" s="136"/>
-      <c r="K10" s="126">
-        <f t="shared" si="1"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="33">
-        <f ca="1">IF(G10-$J$2&lt;=0,0,G10-$J$2)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="164"/>
-      <c r="B11" s="153"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4일</v>
       </c>
       <c r="F11" s="1">
@@ -3178,27 +3322,27 @@
       <c r="I11" s="11">
         <v>0.3</v>
       </c>
-      <c r="J11" s="136"/>
-      <c r="K11" s="126">
-        <f t="shared" si="1"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="33">
-        <f ca="1">IF(G11-$J$2&lt;=0,0,G11-$J$2)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="164"/>
-      <c r="B12" s="153"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4일</v>
       </c>
       <c r="F12" s="1">
@@ -3211,29 +3355,29 @@
         <v>10</v>
       </c>
       <c r="I12" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="137"/>
-      <c r="K12" s="126">
-        <f t="shared" si="1"/>
+      <c r="L12" s="33">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="33">
-        <f ca="1">IF(G12-$J$2&lt;=0,0,G12-$J$2)</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="164"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="115" t="s">
-        <v>48</v>
+      <c r="A13" s="87"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="161" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4일</v>
       </c>
       <c r="F13" s="20">
@@ -3246,548 +3390,650 @@
         <v>10</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="138"/>
-      <c r="K13" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="33">
-        <f ca="1">IF(G13-$J$2&lt;=0,0,G13-$J$2)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="164"/>
-      <c r="B14" s="167" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F14,G14),"일")</f>
-        <v>13일</v>
-      </c>
-      <c r="F14" s="22">
-        <f>MIN(F15:F20)</f>
-        <v>45259</v>
-      </c>
-      <c r="G14" s="22">
-        <f>MAX(G15:G20)</f>
-        <v>45275</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="J14" s="139">
-        <f>I14</f>
-        <v>0.7</v>
-      </c>
-      <c r="K14" s="127">
-        <f>SUM(K15:K20)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="34">
-        <f ca="1">IF(G14-$J$2&lt;=0,0,G14-$J$2)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="164"/>
-      <c r="B15" s="152" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>13일</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45259</v>
-      </c>
-      <c r="G15" s="1">
-        <v>45275</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="136"/>
-      <c r="K15" s="126">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="33">
-        <f ca="1">IF(G15-$J$2&lt;=0,0,G15-$J$2)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="164"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2일</v>
-      </c>
-      <c r="F16" s="1">
-        <v>45259</v>
-      </c>
-      <c r="G16" s="1">
-        <v>45260</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="136"/>
-      <c r="K16" s="126">
-        <f t="shared" ref="K16:K20" si="2">I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="33">
-        <f ca="1">IF(G16-$J$2&lt;=0,0,G16-$J$2)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="164"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>13일</v>
-      </c>
-      <c r="F17" s="1">
-        <v>45259</v>
-      </c>
-      <c r="G17" s="1">
-        <v>45275</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="136"/>
-      <c r="K17" s="126">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="33">
-        <f ca="1">IF(G17-$J$2&lt;=0,0,G17-$J$2)</f>
-        <v>22</v>
+      <c r="L13" s="33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="87"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>4일</v>
+      </c>
+      <c r="F14" s="20">
+        <v>45253</v>
+      </c>
+      <c r="G14" s="20">
+        <v>45258</v>
+      </c>
+      <c r="H14" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="155">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="68"/>
+      <c r="K14" s="156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="157">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="87"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>2일</v>
+      </c>
+      <c r="F15" s="20">
+        <v>45257</v>
+      </c>
+      <c r="G15" s="20">
+        <v>45258</v>
+      </c>
+      <c r="H15" s="186"/>
+      <c r="I15" s="155">
+        <v>0.9</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="157">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="87"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>2일</v>
+      </c>
+      <c r="F16" s="20">
+        <v>45257</v>
+      </c>
+      <c r="G16" s="20">
+        <v>45258</v>
+      </c>
+      <c r="H16" s="163"/>
+      <c r="I16" s="155">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="68"/>
+      <c r="K16" s="156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="157">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="87"/>
+      <c r="B17" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="153"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F17,G17),"일")</f>
+        <v>13일</v>
+      </c>
+      <c r="F17" s="22">
+        <f>MIN(F18:F23)</f>
+        <v>45259</v>
+      </c>
+      <c r="G17" s="22">
+        <f>MAX(G18:G23)</f>
+        <v>45275</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="69">
+        <f>I17</f>
+        <v>0.7</v>
+      </c>
+      <c r="K17" s="60">
+        <f>SUM(K18:K23)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="164"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="111" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>11일</v>
+        <f t="shared" si="1"/>
+        <v>13일</v>
       </c>
       <c r="F18" s="1">
         <v>45259</v>
       </c>
       <c r="G18" s="1">
-        <v>45273</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>2</v>
+        <v>45275</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="136"/>
-      <c r="K18" s="126">
-        <f t="shared" si="2"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="59">
+        <f>I18*J18</f>
         <v>0</v>
       </c>
       <c r="L18" s="33">
-        <f ca="1">IF(G18-$J$2&lt;=0,0,G18-$J$2)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="164"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="52" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>13일</v>
+        <f t="shared" si="1"/>
+        <v>2일</v>
       </c>
       <c r="F19" s="1">
         <v>45259</v>
       </c>
       <c r="G19" s="1">
-        <v>45275</v>
+        <v>45260</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="136"/>
-      <c r="K19" s="126">
-        <f t="shared" si="2"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="59">
+        <f t="shared" ref="K19:K23" si="3">I19*J19</f>
         <v>0</v>
       </c>
       <c r="L19" s="33">
-        <f ca="1">IF(G19-$J$2&lt;=0,0,G19-$J$2)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="164"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="49" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>3일</v>
+        <f t="shared" si="1"/>
+        <v>13일</v>
       </c>
       <c r="F20" s="1">
-        <v>45273</v>
+        <v>45259</v>
       </c>
       <c r="G20" s="1">
         <v>45275</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" s="11">
         <v>0</v>
       </c>
-      <c r="J20" s="136"/>
-      <c r="K20" s="126">
-        <f t="shared" si="2"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="33">
-        <f ca="1">IF(G20-$J$2&lt;=0,0,G20-$J$2)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="164"/>
-      <c r="B21" s="167" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>11일</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45259</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45273</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11">
         <v>0</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F21,G21),"일")</f>
-        <v>5일</v>
-      </c>
-      <c r="F21" s="25">
-        <f>MIN(F22:F22)</f>
-        <v>45278</v>
-      </c>
-      <c r="G21" s="22">
-        <f>MAX(G22:G22)</f>
-        <v>45282</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J21" s="139">
-        <f>I21</f>
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="127">
-        <f>SUM(K22:K22)</f>
+      <c r="J21" s="66"/>
+      <c r="K21" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="34">
-        <f ca="1">IF(G21-$J$2&lt;=0,0,G21-$J$2)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="164"/>
-      <c r="B22" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="112" t="s">
-        <v>25</v>
-      </c>
+      <c r="L21" s="33">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="87"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>13일</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45259</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45275</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="66"/>
+      <c r="K22" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="33">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="87"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>3일</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45273</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45275</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="66"/>
+      <c r="K23" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="33">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="87"/>
+      <c r="B24" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F24,G24),"일")</f>
         <v>5일</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F24" s="25">
+        <f>MIN(F25:F25)</f>
         <v>45278</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G24" s="22">
+        <f>MAX(G25:G25)</f>
         <v>45282</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="H24" s="22"/>
+      <c r="I24" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="69">
+        <f>I24</f>
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="60">
+        <f>SUM(K25:K25)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="140"/>
-      <c r="K22" s="128">
-        <f t="shared" ref="K22" si="3">I22*J22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="35">
-        <f ca="1">IF(G22-$J$2&lt;=0,0,G22-$J$2)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
-      <c r="B23" s="167" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="21" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F23,G23),"일")</f>
-        <v>5일</v>
-      </c>
-      <c r="F23" s="22">
-        <f>MIN(F24:F26)</f>
-        <v>45285</v>
-      </c>
-      <c r="G23" s="22">
-        <f>MAX(G24:G26)</f>
-        <v>45289</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J23" s="139">
-        <f>I23</f>
-        <v>0.1</v>
-      </c>
-      <c r="K23" s="127">
-        <f>SUM(K24:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="34">
-        <f ca="1">IF(G23-$J$2&lt;=0,0,G23-$J$2)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
-      <c r="B24" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="26" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F25,G25),"일")</f>
-        <v>5일</v>
-      </c>
-      <c r="F24" s="122">
-        <v>45285</v>
-      </c>
-      <c r="G24" s="122">
-        <v>45289</v>
-      </c>
-      <c r="H24" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="29">
-        <v>0</v>
-      </c>
-      <c r="J24" s="141"/>
-      <c r="K24" s="129">
-        <f>I24*J24</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="37">
-        <f ca="1">IF(G25-$J$2&lt;=0,0,G25-$J$2)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="164"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="113" t="s">
+      <c r="L24" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="87"/>
+      <c r="B25" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F26,G26),"일")</f>
-        <v>1일</v>
+        <f t="shared" si="1"/>
+        <v>5일</v>
       </c>
       <c r="F25" s="1">
-        <v>45285</v>
+        <v>45278</v>
       </c>
       <c r="G25" s="1">
-        <v>45289</v>
-      </c>
-      <c r="H25" s="4" t="s">
+        <v>45282</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="12">
         <v>0</v>
       </c>
-      <c r="J25" s="142"/>
-      <c r="K25" s="130">
-        <f t="shared" ref="K25:K26" si="4">I25*J25</f>
+      <c r="J25" s="70"/>
+      <c r="K25" s="61">
+        <f t="shared" ref="K25" si="4">I25*J25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="33">
-        <f ca="1">IF(G26-$J$2&lt;=0,0,G26-$J$2)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="117"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="143" t="s">
+      <c r="L25" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="87"/>
+      <c r="B26" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="21" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F26,G26),"일")</f>
+        <v>5일</v>
+      </c>
+      <c r="F26" s="22">
+        <f>MIN(F27:F29)</f>
+        <v>45285</v>
+      </c>
+      <c r="G26" s="22">
+        <f>MAX(G27:G29)</f>
+        <v>45289</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="69">
+        <f>I26</f>
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="60">
+        <f>SUM(K27:K29)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="87"/>
+      <c r="B27" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="26" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F28,G28),"일")</f>
+        <v>5일</v>
+      </c>
+      <c r="F27" s="56">
+        <v>45285</v>
+      </c>
+      <c r="G27" s="56">
+        <v>45289</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0</v>
+      </c>
+      <c r="J27" s="71"/>
+      <c r="K27" s="62">
+        <f>I27*J27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="37">
+        <f ca="1">IF(G28-$J$2&lt;=0,0,G28-$J$2)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="87"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F29,G29),"일")</f>
+        <v>1일</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45285</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45289</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="63">
+        <f t="shared" ref="K28:K29" si="5">I28*J28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="33">
+        <f ca="1">IF(G29-$J$2&lt;=0,0,G29-$J$2)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="55"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="144" t="s">
+      <c r="D29" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="145" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F26,G26),"일")</f>
+      <c r="E29" s="75" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F29,G29),"일")</f>
         <v>1일</v>
       </c>
-      <c r="F26" s="146">
+      <c r="F29" s="76">
         <v>45289</v>
       </c>
-      <c r="G26" s="146">
+      <c r="G29" s="76">
         <v>45289</v>
       </c>
-      <c r="H26" s="147" t="s">
+      <c r="H29" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="148">
+      <c r="I29" s="78">
         <v>0</v>
       </c>
-      <c r="J26" s="149"/>
-      <c r="K26" s="150">
-        <f t="shared" si="4"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="151">
-        <f ca="1">IF(G26-$J$2&lt;=0,0,G26-$J$2)</f>
-        <v>36</v>
+      <c r="L29" s="81">
+        <f ca="1">IF(G29-$J$2&lt;=0,0,G29-$J$2)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="16">
     <mergeCell ref="J3:J5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B18:B23"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:I4"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="I24:I26 I22 I8:I13 I15:I20">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="between">
+  <conditionalFormatting sqref="D7:D29">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="계획">
+      <formula>NOT(ISERROR(SEARCH("계획",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="완료">
+      <formula>NOT(ISERROR(SEARCH("완료",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="진행">
+      <formula>NOT(ISERROR(SEARCH("진행",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H14 H17:H29">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="공통">
+      <formula>NOT(ISERROR(SEARCH("공통",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="김민수">
+      <formula>NOT(ISERROR(SEARCH("김민수",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="이찬녕">
+      <formula>NOT(ISERROR(SEARCH("이찬녕",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="임유하">
+      <formula>NOT(ISERROR(SEARCH("임유하",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="이형석">
+      <formula>NOT(ISERROR(SEARCH("이형석",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="전혁선">
+      <formula>NOT(ISERROR(SEARCH("전혁선",H6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I16 I18:I23 I25 I27:I29">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="between">
       <formula>0.01</formula>
       <formula>0.69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="between">
       <formula>0.7</formula>
       <formula>0.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H26">
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="공통">
-      <formula>NOT(ISERROR(SEARCH("공통",H6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="김민수">
-      <formula>NOT(ISERROR(SEARCH("김민수",H6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="이찬녕">
-      <formula>NOT(ISERROR(SEARCH("이찬녕",H6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="임유하">
-      <formula>NOT(ISERROR(SEARCH("임유하",H6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="이형석">
-      <formula>NOT(ISERROR(SEARCH("이형석",H6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="전혁선">
-      <formula>NOT(ISERROR(SEARCH("전혁선",H6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D26">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="계획">
-      <formula>NOT(ISERROR(SEARCH("계획",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="완료">
-      <formula>NOT(ISERROR(SEARCH("완료",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="진행">
-      <formula>NOT(ISERROR(SEARCH("진행",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H26" xr:uid="{A15ED28A-F900-44C7-B573-44B919FDAFCD}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H14 H17:H29" xr:uid="{A15ED28A-F900-44C7-B573-44B919FDAFCD}">
       <formula1>"공통, 김민수, 이찬녕, 이형석, 임유하, 전혁선"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"계획,진행,완료"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3797,27 +4043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCCBDBD-C958-464B-B4CF-07231AE54B8F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:AH17"/>
+  <dimension ref="B3:AH19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3828,145 +4059,145 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="79"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="121"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="67"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="124"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="62">
+      <c r="B5" s="145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="126">
         <v>1</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="65">
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129">
         <v>2</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68">
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="125">
         <v>3</v>
       </c>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68">
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="125">
         <v>4</v>
       </c>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="68">
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="125">
         <v>5</v>
       </c>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="93">
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="148">
         <v>6</v>
       </c>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="91"/>
-      <c r="AH5" s="92"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="128"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="40"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -3995,15 +4226,15 @@
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
       <c r="H7" s="27"/>
       <c r="I7" s="41"/>
       <c r="J7" s="40"/>
@@ -4034,19 +4265,19 @@
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="103"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="193"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="41"/>
@@ -4072,20 +4303,20 @@
       <c r="AH8" s="27"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B9" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="103"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="193"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="41"/>
@@ -4111,294 +4342,369 @@
       <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="106" t="s">
+      <c r="B10" s="216" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="141"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="208"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="210"/>
+      <c r="U10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="208"/>
+      <c r="X10" s="209"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B11" s="217"/>
+      <c r="C11" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="142"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B12" s="217"/>
+      <c r="C12" s="143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="144"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="202"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="202"/>
+      <c r="R12" s="202"/>
+      <c r="S12" s="203"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="202"/>
+      <c r="V12" s="202"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="203"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B13" s="217"/>
+      <c r="C13" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="212"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="213"/>
+      <c r="Q13" s="213"/>
+      <c r="R13" s="213"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="213"/>
+      <c r="V13" s="213"/>
+      <c r="W13" s="213"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="215"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B14" s="218"/>
+      <c r="C14" s="211" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="212"/>
+      <c r="E14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="213"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="215"/>
+      <c r="P14" s="213"/>
+      <c r="Q14" s="213"/>
+      <c r="R14" s="213"/>
+      <c r="S14" s="214"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="213"/>
+      <c r="V14" s="213"/>
+      <c r="W14" s="213"/>
+      <c r="X14" s="214"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B15" s="139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="151"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="196"/>
+      <c r="P15" s="196"/>
+      <c r="Q15" s="196"/>
+      <c r="R15" s="196"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="196"/>
+      <c r="V15" s="196"/>
+      <c r="W15" s="196"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B16" s="149"/>
+      <c r="C16" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="131"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="213"/>
+      <c r="M16" s="199"/>
+      <c r="N16" s="200"/>
+      <c r="O16" s="199"/>
+      <c r="P16" s="199"/>
+      <c r="Q16" s="199"/>
+      <c r="R16" s="199"/>
+      <c r="S16" s="200"/>
+      <c r="T16" s="201"/>
+      <c r="U16" s="199"/>
+      <c r="V16" s="199"/>
+      <c r="W16" s="199"/>
+      <c r="X16" s="200"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B17" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="138"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="195"/>
+      <c r="Z17" s="193"/>
+      <c r="AA17" s="193"/>
+      <c r="AB17" s="193"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="81"/>
-      <c r="C11" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="85"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="82"/>
-      <c r="C12" s="108" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="101"/>
-      <c r="C14" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="97" t="s">
+      <c r="C18" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="85"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="105"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="195"/>
+      <c r="AE18" s="193"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="193"/>
+      <c r="AH18" s="193"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B13:B14"/>
+  <mergeCells count="26">
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="E3:AH3"/>
     <mergeCell ref="E4:AH4"/>
     <mergeCell ref="T5:X5"/>
@@ -4406,10 +4712,10 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="O5:S5"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="AD5:AH5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C6:D16">
+  <conditionalFormatting sqref="C6:D12 C15:D18 C13:C14">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="공통">
       <formula>NOT(ISERROR(SEARCH("공통",C6)))</formula>
     </cfRule>
@@ -4430,14 +4736,135 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:D17" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>$V$6:$V$14</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:D19" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>$V$6:$V$16</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D10:D12 D15:D16 C6:C16" xr:uid="{22A8CB1A-FB55-4200-B183-D5E061690655}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 C6:C18 D17:D18 D10:D12" xr:uid="{22A8CB1A-FB55-4200-B183-D5E061690655}">
       <formula1>"공통, 김민수, 이찬녕, 이형석, 임유하, 전혁선"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" scale="63" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1965B8B1-C3DE-4DDB-81CA-EA27AF9D956D}">
+  <dimension ref="B3:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="169" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="169" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="173" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="165" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="173"/>
+      <c r="C5" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="180" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="174"/>
+      <c r="C6" s="176" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="177" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="181" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="178"/>
+      <c r="C8" s="171" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="182" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="178"/>
+      <c r="C9" s="171" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="182" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="178"/>
+      <c r="C10" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="182" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="178"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="182" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="179"/>
+      <c r="C12" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="164" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D57C3F-0F70-4AEF-A1D4-18237237BDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D80E07A-43C4-44DF-B262-B7E60424A810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2025" windowWidth="20235" windowHeight="17760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="2025" windowWidth="20235" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table!$C$6:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Table!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$A$1:$M$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$A$1:$M$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>테스트</t>
   </si>
@@ -288,11 +288,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Local 환경에서 
-Model Feature Test </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Web Mockup 제작</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -318,6 +313,14 @@
   </si>
   <si>
     <t>분석 결과물들을 비교하여 그래프로 표현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Feature Test &amp; Extraction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Feature Test &amp; Extraction</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1642,7 +1645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1913,6 +1916,159 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1979,318 +2135,18 @@
     <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2298,6 +2154,144 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2979,10 +2973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2991,9 +2985,10 @@
     <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
@@ -3016,26 +3011,26 @@
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="190">
+      <c r="J2" s="107">
         <f ca="1">TODAY()</f>
-        <v>45258</v>
-      </c>
-      <c r="K2" s="191" t="s">
+        <v>45264</v>
+      </c>
+      <c r="K2" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="192">
+      <c r="L2" s="109">
         <f>K6</f>
         <v>0</v>
       </c>
@@ -3043,44 +3038,44 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="116" t="s">
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="94"/>
+      <c r="L3" s="145"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87"/>
@@ -3104,7 +3099,7 @@
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="118"/>
+      <c r="J5" s="130"/>
       <c r="K5" s="84" t="s">
         <v>6</v>
       </c>
@@ -3114,49 +3109,49 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="166"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="str">
         <f>CONCATENATE(NETWORKDAYS(F6,G6),"일")</f>
         <v>30일</v>
       </c>
       <c r="F6" s="18">
-        <f>MIN(F7:F29)</f>
+        <f>MIN(F7:F31)</f>
         <v>45250</v>
       </c>
       <c r="G6" s="18">
-        <f>MAX(G7:G29)</f>
+        <f>MAX(G7:G31)</f>
         <v>45289</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="19">
-        <f>SUM(K7, K17, K24, K26)</f>
+        <f>SUM(K7, K17, K26, K28)</f>
         <v>0</v>
       </c>
       <c r="J6" s="64">
-        <f>SUM(J7, J17, J24, J26)</f>
+        <f>SUM(J7, J17, J26, J28)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="K6" s="57">
-        <f>SUM(K7, K17, K24, K26)</f>
+        <f>SUM(K7, K17, K26, K28)</f>
         <v>0</v>
       </c>
       <c r="L6" s="31">
-        <f t="shared" ref="L6:L26" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
-        <v>31</v>
+        <f t="shared" ref="L6:L28" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="153"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="str">
         <f>CONCATENATE(NETWORKDAYS(F7,G7),"일")</f>
@@ -3186,13 +3181,13 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="133" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -3202,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f t="shared" ref="E8:E25" si="1">CONCATENATE(NETWORKDAYS(F8,G8),"일")</f>
+        <f t="shared" ref="E8:E27" si="1">CONCATENATE(NETWORKDAYS(F8,G8),"일")</f>
         <v>30일</v>
       </c>
       <c r="F8" s="1">
@@ -3224,12 +3219,12 @@
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
-      <c r="B9" s="159"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -3264,7 +3259,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
-      <c r="B10" s="159"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
@@ -3299,7 +3294,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
-      <c r="B11" s="159"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -3334,7 +3329,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
-      <c r="B12" s="159"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3369,8 +3364,8 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="87"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="161" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="94" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3404,14 +3399,14 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
-      <c r="B14" s="159"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="154" t="str">
+      <c r="E14" s="90" t="str">
         <f t="shared" si="1"/>
         <v>4일</v>
       </c>
@@ -3421,32 +3416,32 @@
       <c r="G14" s="20">
         <v>45258</v>
       </c>
-      <c r="H14" s="162" t="s">
+      <c r="H14" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="155">
+      <c r="I14" s="91">
         <v>0.6</v>
       </c>
       <c r="J14" s="68"/>
-      <c r="K14" s="156">
+      <c r="K14" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="157">
+      <c r="L14" s="93">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="161" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="154" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="154" t="str">
+      <c r="E15" s="90" t="str">
         <f t="shared" si="1"/>
         <v>2일</v>
       </c>
@@ -3456,30 +3451,30 @@
       <c r="G15" s="20">
         <v>45258</v>
       </c>
-      <c r="H15" s="186"/>
-      <c r="I15" s="155">
+      <c r="H15" s="137"/>
+      <c r="I15" s="91">
         <v>0.9</v>
       </c>
       <c r="J15" s="68"/>
-      <c r="K15" s="156">
+      <c r="K15" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="157">
+      <c r="L15" s="93">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
-      <c r="B16" s="160"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="154" t="str">
+      <c r="E16" s="90" t="str">
         <f t="shared" si="1"/>
         <v>2일</v>
       </c>
@@ -3489,37 +3484,37 @@
       <c r="G16" s="20">
         <v>45258</v>
       </c>
-      <c r="H16" s="163"/>
-      <c r="I16" s="155">
-        <v>0.6</v>
+      <c r="H16" s="138"/>
+      <c r="I16" s="91">
+        <v>0.8</v>
       </c>
       <c r="J16" s="68"/>
-      <c r="K16" s="156">
+      <c r="K16" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="157">
+      <c r="L16" s="93">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="153"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F17,G17),"일")</f>
         <v>13일</v>
       </c>
       <c r="F17" s="22">
-        <f>MIN(F18:F23)</f>
+        <f>MIN(F18:F25)</f>
         <v>45259</v>
       </c>
       <c r="G17" s="22">
-        <f>MAX(G18:G23)</f>
+        <f>MAX(G18:G25)</f>
         <v>45275</v>
       </c>
       <c r="H17" s="22"/>
@@ -3531,24 +3526,24 @@
         <v>0.7</v>
       </c>
       <c r="K17" s="60">
-        <f>SUM(K18:K23)</f>
+        <f>SUM(K18:K25)</f>
         <v>0</v>
       </c>
       <c r="L17" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="183" t="s">
-        <v>68</v>
+      <c r="C18" s="213" t="s">
+        <v>75</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3573,15 +3568,15 @@
       </c>
       <c r="L18" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="184"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="214"/>
       <c r="D19" s="52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3601,20 +3596,20 @@
       </c>
       <c r="J19" s="66"/>
       <c r="K19" s="59">
-        <f t="shared" ref="K19:K23" si="3">I19*J19</f>
+        <f t="shared" ref="K19:K25" si="3">I19*J19</f>
         <v>0</v>
       </c>
       <c r="L19" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="185"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="214"/>
       <c r="D20" s="49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3639,30 +3634,28 @@
       </c>
       <c r="L20" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="113" t="s">
-        <v>46</v>
-      </c>
+      <c r="B21" s="149"/>
+      <c r="C21" s="215"/>
       <c r="D21" s="49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>11일</v>
+        <v>13일</v>
       </c>
       <c r="F21" s="1">
         <v>45259</v>
       </c>
       <c r="G21" s="1">
-        <v>45273</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>2</v>
+        <v>45275</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="I21" s="11">
         <v>0</v>
@@ -3674,28 +3667,30 @@
       </c>
       <c r="L21" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
+      <c r="B22" s="149"/>
+      <c r="C22" s="212" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>13일</v>
+        <f>CONCATENATE(NETWORKDAYS(F22,G22),"일")</f>
+        <v>3일</v>
       </c>
       <c r="F22" s="1">
-        <v>45259</v>
+        <v>45264</v>
       </c>
       <c r="G22" s="1">
-        <v>45275</v>
+        <v>45266</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I22" s="11">
         <v>0</v>
@@ -3707,29 +3702,29 @@
       </c>
       <c r="L22" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="149"/>
+      <c r="C23" s="163" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3일</v>
+        <v>11일</v>
       </c>
       <c r="F23" s="1">
+        <v>45259</v>
+      </c>
+      <c r="G23" s="1">
         <v>45273</v>
       </c>
-      <c r="G23" s="1">
-        <v>45275</v>
-      </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I23" s="11">
@@ -3742,104 +3737,97 @@
       </c>
       <c r="L23" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="149"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>13일</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45259</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45275</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="11">
         <v>0</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F24,G24),"일")</f>
-        <v>5일</v>
-      </c>
-      <c r="F24" s="25">
-        <f>MIN(F25:F25)</f>
-        <v>45278</v>
-      </c>
-      <c r="G24" s="22">
-        <f>MAX(G25:G25)</f>
-        <v>45282</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J24" s="69">
-        <f>I24</f>
-        <v>0.1</v>
-      </c>
-      <c r="K24" s="60">
-        <f>SUM(K25:K25)</f>
+      <c r="J24" s="66"/>
+      <c r="K24" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="87"/>
-      <c r="B25" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>24</v>
+      <c r="B25" s="150"/>
+      <c r="C25" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>5일</v>
+        <v>3일</v>
       </c>
       <c r="F25" s="1">
-        <v>45278</v>
+        <v>45273</v>
       </c>
       <c r="G25" s="1">
-        <v>45282</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="12">
+        <v>45275</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="11">
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="61">
-        <f t="shared" ref="K25" si="4">I25*J25</f>
+      <c r="J25" s="66"/>
+      <c r="K25" s="59">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="87"/>
       <c r="B26" s="89" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="D26" s="21"/>
       <c r="E26" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F26,G26),"일")</f>
         <v>5일</v>
       </c>
-      <c r="F26" s="22">
-        <f>MIN(F27:F29)</f>
-        <v>45285</v>
+      <c r="F26" s="25">
+        <f>MIN(F27:F27)</f>
+        <v>45278</v>
       </c>
       <c r="G26" s="22">
-        <f>MAX(G27:G29)</f>
-        <v>45289</v>
+        <f>MAX(G27:G27)</f>
+        <v>45282</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -3850,142 +3838,217 @@
         <v>0.1</v>
       </c>
       <c r="K26" s="60">
-        <f>SUM(K27:K29)</f>
+        <f>SUM(K27:K27)</f>
         <v>0</v>
       </c>
       <c r="L26" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>5일</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45278</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45282</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="70"/>
+      <c r="K27" s="61">
+        <f t="shared" ref="K27" si="4">I27*J27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="35">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="87"/>
+      <c r="B28" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="26" t="str">
+      <c r="C28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F28,G28),"일")</f>
         <v>5일</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F28" s="22">
+        <f>MIN(F29:F31)</f>
         <v>45285</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G28" s="22">
+        <f>MAX(G29:G31)</f>
         <v>45289</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="69">
+        <f>I28</f>
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="60">
+        <f>SUM(K29:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="87"/>
+      <c r="B29" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="26" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F30,G30),"일")</f>
+        <v>5일</v>
+      </c>
+      <c r="F29" s="56">
+        <v>45285</v>
+      </c>
+      <c r="G29" s="56">
+        <v>45289</v>
+      </c>
+      <c r="H29" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I29" s="29">
         <v>0</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="62">
-        <f>I27*J27</f>
+      <c r="J29" s="71"/>
+      <c r="K29" s="62">
+        <f>I29*J29</f>
         <v>0</v>
       </c>
-      <c r="L27" s="37">
-        <f ca="1">IF(G28-$J$2&lt;=0,0,G28-$J$2)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="51" t="s">
+      <c r="L29" s="37">
+        <f ca="1">IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="87"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="6" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F29,G29),"일")</f>
+      <c r="E30" s="6" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F31,G31),"일")</f>
         <v>1일</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F30" s="1">
         <v>45285</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G30" s="1">
         <v>45289</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I30" s="12">
         <v>0</v>
       </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="63">
-        <f t="shared" ref="K28:K29" si="5">I28*J28</f>
+      <c r="J30" s="72"/>
+      <c r="K30" s="63">
+        <f t="shared" ref="K30:K31" si="5">I30*J30</f>
         <v>0</v>
       </c>
-      <c r="L28" s="33">
-        <f ca="1">IF(G29-$J$2&lt;=0,0,G29-$J$2)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="55"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="73" t="s">
+      <c r="L30" s="33">
+        <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="55"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D31" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="75" t="str">
-        <f>CONCATENATE(NETWORKDAYS(F29,G29),"일")</f>
+      <c r="E31" s="75" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F31,G31),"일")</f>
         <v>1일</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F31" s="76">
         <v>45289</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G31" s="76">
         <v>45289</v>
       </c>
-      <c r="H29" s="77" t="s">
+      <c r="H31" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I31" s="78">
         <v>0</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80">
+      <c r="J31" s="79"/>
+      <c r="K31" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L29" s="81">
-        <f ca="1">IF(G29-$J$2&lt;=0,0,G29-$J$2)</f>
-        <v>31</v>
+      <c r="L31" s="81">
+        <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D29">
+  <conditionalFormatting sqref="D7:D31">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="계획">
       <formula>NOT(ISERROR(SEARCH("계획",D7)))</formula>
     </cfRule>
@@ -3996,7 +4059,7 @@
       <formula>NOT(ISERROR(SEARCH("진행",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H14 H17:H29">
+  <conditionalFormatting sqref="H6:H14 H17:H31">
     <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="공통">
       <formula>NOT(ISERROR(SEARCH("공통",H6)))</formula>
     </cfRule>
@@ -4016,7 +4079,7 @@
       <formula>NOT(ISERROR(SEARCH("전혁선",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I16 I18:I23 I25 I27:I29">
+  <conditionalFormatting sqref="I8:I16 I27 I29:I31 I18:I25">
     <cfRule type="cellIs" dxfId="8" priority="23" operator="between">
       <formula>0.01</formula>
       <formula>0.69</formula>
@@ -4030,10 +4093,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H14 H17:H29" xr:uid="{A15ED28A-F900-44C7-B573-44B919FDAFCD}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H14 H17:H31" xr:uid="{A15ED28A-F900-44C7-B573-44B919FDAFCD}">
       <formula1>"공통, 김민수, 이찬녕, 이형석, 임유하, 전혁선"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"계획,진행,완료"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4059,140 +4122,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="119" t="s">
+      <c r="D3" s="176"/>
+      <c r="E3" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="121"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="196"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="133"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="122" t="s">
+      <c r="B4" s="175"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="124"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="198"/>
+      <c r="W4" s="198"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="198"/>
+      <c r="Z4" s="198"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="198"/>
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="199"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="126">
+      <c r="C5" s="188"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="183">
         <v>1</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129">
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="203">
         <v>2</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="125">
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="200">
         <v>3</v>
       </c>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="125">
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="200">
         <v>4</v>
       </c>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="125">
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="200">
         <v>5</v>
       </c>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="148">
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="204">
         <v>6</v>
       </c>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="128"/>
+      <c r="AE5" s="201"/>
+      <c r="AF5" s="201"/>
+      <c r="AG5" s="201"/>
+      <c r="AH5" s="202"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="138"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -4228,13 +4291,13 @@
       <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="27"/>
       <c r="I7" s="41"/>
       <c r="J7" s="40"/>
@@ -4267,17 +4330,17 @@
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="138"/>
+      <c r="D8" s="180"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="193"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="110"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="41"/>
@@ -4306,17 +4369,17 @@
       <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="138"/>
+      <c r="D9" s="180"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="193"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="110"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="41"/>
@@ -4342,33 +4405,33 @@
       <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="216" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="140" t="s">
+      <c r="B10" s="167" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="208"/>
-      <c r="P10" s="208"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="210"/>
-      <c r="U10" s="208"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="209"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="126"/>
       <c r="Y10" s="27"/>
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
@@ -4381,20 +4444,20 @@
       <c r="AH10" s="27"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="217"/>
-      <c r="C11" s="126" t="s">
+      <c r="B11" s="168"/>
+      <c r="C11" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="184"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="206"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
       <c r="N11" s="41"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
@@ -4418,31 +4481,31 @@
       <c r="AH11" s="27"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="217"/>
-      <c r="C12" s="143" t="s">
+      <c r="B12" s="168"/>
+      <c r="C12" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="186"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="203"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="202"/>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="202"/>
-      <c r="S12" s="203"/>
-      <c r="T12" s="204"/>
-      <c r="U12" s="202"/>
-      <c r="V12" s="202"/>
-      <c r="W12" s="202"/>
-      <c r="X12" s="203"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="120"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
@@ -4455,32 +4518,32 @@
       <c r="AH12" s="27"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="217"/>
-      <c r="C13" s="211" t="s">
+      <c r="B13" s="168"/>
+      <c r="C13" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="212"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="213"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="215"/>
-      <c r="U13" s="213"/>
-      <c r="V13" s="213"/>
-      <c r="W13" s="213"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="215"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="40"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
@@ -4492,30 +4555,30 @@
       <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="218"/>
-      <c r="C14" s="211" t="s">
+      <c r="B14" s="169"/>
+      <c r="C14" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="212"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="213"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="215"/>
-      <c r="P14" s="213"/>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="213"/>
-      <c r="S14" s="214"/>
-      <c r="T14" s="215"/>
-      <c r="U14" s="213"/>
-      <c r="V14" s="213"/>
-      <c r="W14" s="213"/>
-      <c r="X14" s="214"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="41"/>
       <c r="Y14" s="40"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
@@ -4528,33 +4591,33 @@
       <c r="AH14" s="27"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="151"/>
+      <c r="D15" s="193"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="215"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="196"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="196"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="196"/>
-      <c r="V15" s="196"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="197"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="114"/>
       <c r="Y15" s="27"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
@@ -4567,31 +4630,31 @@
       <c r="AH15" s="27"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="149"/>
-      <c r="C16" s="130" t="s">
+      <c r="B16" s="191"/>
+      <c r="C16" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="213"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="200"/>
-      <c r="O16" s="199"/>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="199"/>
-      <c r="R16" s="199"/>
-      <c r="S16" s="200"/>
-      <c r="T16" s="201"/>
-      <c r="U16" s="199"/>
-      <c r="V16" s="199"/>
-      <c r="W16" s="199"/>
-      <c r="X16" s="200"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="117"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
@@ -4607,10 +4670,10 @@
       <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="138"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -4631,11 +4694,11 @@
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
       <c r="X17" s="41"/>
-      <c r="Y17" s="195"/>
-      <c r="Z17" s="193"/>
-      <c r="AA17" s="193"/>
-      <c r="AB17" s="193"/>
-      <c r="AC17" s="194"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="111"/>
       <c r="AD17" s="40"/>
       <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
@@ -4646,10 +4709,10 @@
       <c r="B18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="131"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -4675,11 +4738,11 @@
       <c r="AA18" s="27"/>
       <c r="AB18" s="27"/>
       <c r="AC18" s="41"/>
-      <c r="AD18" s="195"/>
-      <c r="AE18" s="193"/>
-      <c r="AF18" s="193"/>
-      <c r="AG18" s="193"/>
-      <c r="AH18" s="193"/>
+      <c r="AD18" s="112"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C19" s="28"/>
@@ -4687,6 +4750,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E3:AH3"/>
+    <mergeCell ref="E4:AH4"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="AD5:AH5"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -4703,19 +4776,9 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E3:AH3"/>
-    <mergeCell ref="E4:AH4"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="AD5:AH5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C6:D12 C15:D18 C13:C14">
+  <conditionalFormatting sqref="C6:D12 C13:C14 C15:D18">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="공통">
       <formula>NOT(ISERROR(SEARCH("공통",C6)))</formula>
     </cfRule>
@@ -4752,7 +4815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1965B8B1-C3DE-4DDB-81CA-EA27AF9D956D}">
   <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4765,97 +4828,97 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="99" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="96" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="173"/>
-      <c r="C5" s="175" t="s">
+      <c r="B5" s="205"/>
+      <c r="C5" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="104" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="174"/>
-      <c r="C6" s="176" t="s">
+      <c r="B6" s="206"/>
+      <c r="C6" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="95" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="207" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="181" t="s">
+      <c r="D7" s="105" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="178"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="208"/>
+      <c r="C8" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="182" t="s">
-        <v>75</v>
+      <c r="D8" s="104" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="178"/>
-      <c r="C9" s="171" t="s">
+      <c r="B9" s="208"/>
+      <c r="C9" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="208"/>
+      <c r="C10" s="210" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="208"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="104" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="178"/>
-      <c r="C10" s="166" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="182" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="178"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="182" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="179"/>
-      <c r="C12" s="172" t="s">
+      <c r="B12" s="209"/>
+      <c r="C12" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="164" t="s">
-        <v>72</v>
+      <c r="D12" s="95" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D80E07A-43C4-44DF-B262-B7E60424A810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0558AA-904F-4CE5-A2C1-C27F2A0DC151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2025" windowWidth="20235" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="2025" windowWidth="30645" windowHeight="17760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>테스트</t>
   </si>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>코드 병합</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">진행율 기준일자 : </t>
   </si>
   <si>
@@ -321,6 +317,14 @@
   </si>
   <si>
     <t>Text Feature Test &amp; Extraction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 테스트</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash 코드 병합 및 모듈화</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -1639,13 +1643,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2030,6 +2165,90 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2063,89 +2282,53 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2162,12 +2345,6 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2183,21 +2360,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2228,39 +2396,6 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2282,17 +2417,101 @@
     <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2633,9 +2852,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFF8F8F"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF69"/>
-      <color rgb="FFFF8F8F"/>
       <color rgb="FF33FF8F"/>
       <color rgb="FFFFFF99"/>
     </mruColors>
@@ -2975,8 +3194,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3011,21 +3230,21 @@
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
       <c r="I2" s="106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="107">
         <f ca="1">TODAY()</f>
-        <v>45264</v>
+        <v>45272</v>
       </c>
       <c r="K2" s="108" t="s">
         <v>31</v>
@@ -3038,44 +3257,44 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="157" t="s">
+      <c r="E3" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="128" t="s">
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="144" t="s">
+      <c r="K3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="145"/>
+      <c r="L3" s="134"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="147"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87"/>
@@ -3099,7 +3318,7 @@
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="130"/>
+      <c r="J5" s="158"/>
       <c r="K5" s="84" t="s">
         <v>6</v>
       </c>
@@ -3109,10 +3328,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="166"/>
+      <c r="C6" s="155"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="str">
         <f>CONCATENATE(NETWORKDAYS(F6,G6),"일")</f>
@@ -3143,15 +3362,15 @@
       </c>
       <c r="L6" s="31">
         <f t="shared" ref="L6:L28" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="132"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="str">
         <f>CONCATENATE(NETWORKDAYS(F7,G7),"일")</f>
@@ -3181,13 +3400,13 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="161" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -3219,12 +3438,12 @@
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
-      <c r="B9" s="134"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -3245,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J9" s="66"/>
       <c r="K9" s="59">
@@ -3259,12 +3478,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
-      <c r="B10" s="134"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3280,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="66"/>
       <c r="K10" s="59">
@@ -3294,7 +3513,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
-      <c r="B11" s="134"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -3329,7 +3548,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
-      <c r="B12" s="134"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3364,7 +3583,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="87"/>
-      <c r="B13" s="134"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="94" t="s">
         <v>45</v>
       </c>
@@ -3399,9 +3618,9 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
-      <c r="B14" s="134"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="90" t="s">
         <v>11</v>
@@ -3416,7 +3635,7 @@
       <c r="G14" s="20">
         <v>45258</v>
       </c>
-      <c r="H14" s="136" t="s">
+      <c r="H14" s="164" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="91">
@@ -3434,9 +3653,9 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
-      <c r="B15" s="134"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="90" t="s">
         <v>32</v>
@@ -3451,9 +3670,9 @@
       <c r="G15" s="20">
         <v>45258</v>
       </c>
-      <c r="H15" s="137"/>
+      <c r="H15" s="165"/>
       <c r="I15" s="91">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J15" s="68"/>
       <c r="K15" s="92">
@@ -3467,9 +3686,9 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
-      <c r="B16" s="135"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="90" t="s">
         <v>11</v>
@@ -3484,9 +3703,9 @@
       <c r="G16" s="20">
         <v>45258</v>
       </c>
-      <c r="H16" s="138"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="91">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J16" s="68"/>
       <c r="K16" s="92">
@@ -3500,10 +3719,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="132"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F17,G17),"일")</f>
@@ -3531,16 +3750,16 @@
       </c>
       <c r="L17" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="213" t="s">
-        <v>75</v>
+      <c r="C18" s="212" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
@@ -3559,7 +3778,7 @@
         <v>37</v>
       </c>
       <c r="I18" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J18" s="66"/>
       <c r="K18" s="59">
@@ -3568,13 +3787,13 @@
       </c>
       <c r="L18" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="214"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="213"/>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="66"/>
       <c r="K19" s="59">
@@ -3606,8 +3825,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
-      <c r="B20" s="149"/>
-      <c r="C20" s="214"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="213"/>
       <c r="D20" s="49" t="s">
         <v>11</v>
       </c>
@@ -3625,7 +3844,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J20" s="66"/>
       <c r="K20" s="59">
@@ -3634,13 +3853,13 @@
       </c>
       <c r="L20" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="215"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="214"/>
       <c r="D21" s="49" t="s">
         <v>11</v>
       </c>
@@ -3658,7 +3877,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J21" s="66"/>
       <c r="K21" s="59">
@@ -3667,14 +3886,14 @@
       </c>
       <c r="L21" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="212" t="s">
-        <v>76</v>
+      <c r="B22" s="138"/>
+      <c r="C22" s="215" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>11</v>
@@ -3693,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J22" s="66"/>
       <c r="K22" s="59">
@@ -3702,27 +3921,27 @@
       </c>
       <c r="L22" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="163" t="s">
+      <c r="B23" s="138"/>
+      <c r="C23" s="152" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>11일</v>
+        <v>3일</v>
       </c>
       <c r="F23" s="1">
-        <v>45259</v>
+        <v>45273</v>
       </c>
       <c r="G23" s="1">
-        <v>45273</v>
+        <v>45275</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>2</v>
@@ -3737,15 +3956,15 @@
       </c>
       <c r="L23" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="164"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3770,14 +3989,14 @@
       </c>
       <c r="L24" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="87"/>
-      <c r="B25" s="150"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="53" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
@@ -3805,7 +4024,7 @@
       </c>
       <c r="L25" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3843,7 +4062,7 @@
       </c>
       <c r="L26" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3852,7 +4071,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>6</v>
@@ -3880,7 +4099,7 @@
       </c>
       <c r="L27" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3918,12 +4137,12 @@
       </c>
       <c r="L28" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="130" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="50" t="s">
@@ -3955,12 +4174,12 @@
       </c>
       <c r="L29" s="37">
         <f ca="1">IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="87"/>
-      <c r="B30" s="142"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="51" t="s">
         <v>23</v>
       </c>
@@ -3990,12 +4209,12 @@
       </c>
       <c r="L30" s="33">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55"/>
-      <c r="B31" s="143"/>
+      <c r="B31" s="132"/>
       <c r="C31" s="73" t="s">
         <v>7</v>
       </c>
@@ -4025,7 +4244,7 @@
       </c>
       <c r="L31" s="81">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4079,7 +4298,7 @@
       <formula>NOT(ISERROR(SEARCH("전혁선",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I16 I27 I29:I31 I18:I25">
+  <conditionalFormatting sqref="I8:I16 I18:I25 I27 I29:I31">
     <cfRule type="cellIs" dxfId="8" priority="23" operator="between">
       <formula>0.01</formula>
       <formula>0.69</formula>
@@ -4110,8 +4329,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AH19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4122,140 +4341,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="194" t="s">
+      <c r="D3" s="190"/>
+      <c r="E3" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="196"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="173"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="175"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="197" t="s">
+      <c r="B4" s="189"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="198"/>
-      <c r="AG4" s="198"/>
-      <c r="AH4" s="199"/>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="187" t="s">
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="175"/>
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="175"/>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="175"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="175"/>
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="176"/>
+    </row>
+    <row r="5" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="183">
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="178">
         <v>1</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="203">
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="181">
         <v>2</v>
       </c>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="200">
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="177">
         <v>3</v>
       </c>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="200">
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="224">
         <v>4</v>
       </c>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="200">
+      <c r="U5" s="225"/>
+      <c r="V5" s="225"/>
+      <c r="W5" s="225"/>
+      <c r="X5" s="226"/>
+      <c r="Y5" s="177">
         <v>5</v>
       </c>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="199"/>
-      <c r="AD5" s="204">
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="182">
         <v>6</v>
       </c>
-      <c r="AE5" s="201"/>
-      <c r="AF5" s="201"/>
-      <c r="AG5" s="201"/>
-      <c r="AH5" s="202"/>
+      <c r="AE5" s="179"/>
+      <c r="AF5" s="179"/>
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="180"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="179" t="s">
+      <c r="C6" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="180"/>
+      <c r="D6" s="170"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -4270,12 +4489,12 @@
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="41"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="228"/>
+      <c r="U6" s="229"/>
+      <c r="V6" s="229"/>
+      <c r="W6" s="229"/>
+      <c r="X6" s="230"/>
       <c r="Y6" s="40"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
@@ -4291,10 +4510,10 @@
       <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="180"/>
+      <c r="D7" s="170"/>
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
       <c r="G7" s="110"/>
@@ -4309,12 +4528,12 @@
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="40"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="231"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="41"/>
+      <c r="X7" s="232"/>
       <c r="Y7" s="40"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
@@ -4330,10 +4549,10 @@
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="180"/>
+      <c r="D8" s="170"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="110"/>
@@ -4348,12 +4567,12 @@
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="40"/>
+      <c r="S8" s="218"/>
+      <c r="T8" s="231"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
-      <c r="X8" s="41"/>
+      <c r="X8" s="232"/>
       <c r="Y8" s="40"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
@@ -4369,10 +4588,10 @@
       <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="180"/>
+      <c r="D9" s="170"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="110"/>
@@ -4387,12 +4606,12 @@
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="40"/>
+      <c r="S9" s="218"/>
+      <c r="T9" s="231"/>
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
-      <c r="X9" s="41"/>
+      <c r="X9" s="232"/>
       <c r="Y9" s="40"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27"/>
@@ -4405,13 +4624,13 @@
       <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="167" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="181" t="s">
+      <c r="B10" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="182"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -4426,13 +4645,13 @@
       <c r="P10" s="125"/>
       <c r="Q10" s="125"/>
       <c r="R10" s="125"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
+      <c r="S10" s="219"/>
+      <c r="T10" s="233"/>
       <c r="U10" s="125"/>
       <c r="V10" s="125"/>
       <c r="W10" s="125"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="27"/>
+      <c r="X10" s="234"/>
+      <c r="Y10" s="40"/>
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
       <c r="AB10" s="27"/>
@@ -4444,11 +4663,11 @@
       <c r="AH10" s="27"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
-      <c r="C11" s="183" t="s">
+      <c r="B11" s="184"/>
+      <c r="C11" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="184"/>
+      <c r="D11" s="195"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -4463,13 +4682,13 @@
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="40"/>
+      <c r="S11" s="218"/>
+      <c r="T11" s="231"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="27"/>
+      <c r="X11" s="232"/>
+      <c r="Y11" s="40"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
@@ -4481,11 +4700,11 @@
       <c r="AH11" s="27"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
-      <c r="C12" s="185" t="s">
+      <c r="B12" s="184"/>
+      <c r="C12" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="186"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -4500,12 +4719,12 @@
       <c r="P12" s="119"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="121"/>
+      <c r="S12" s="220"/>
+      <c r="T12" s="235"/>
       <c r="U12" s="119"/>
       <c r="V12" s="119"/>
       <c r="W12" s="119"/>
-      <c r="X12" s="120"/>
+      <c r="X12" s="236"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
@@ -4518,11 +4737,11 @@
       <c r="AH12" s="27"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="168"/>
-      <c r="C13" s="170" t="s">
+      <c r="B13" s="184"/>
+      <c r="C13" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="187"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -4531,18 +4750,18 @@
       <c r="J13" s="115"/>
       <c r="K13" s="113"/>
       <c r="L13" s="113"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="40"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="221"/>
+      <c r="T13" s="231"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
-      <c r="X13" s="41"/>
+      <c r="X13" s="232"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
@@ -4555,11 +4774,11 @@
       <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="169"/>
-      <c r="C14" s="170" t="s">
+      <c r="B14" s="185"/>
+      <c r="C14" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="187"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="116"/>
@@ -4567,18 +4786,18 @@
       <c r="J14" s="118"/>
       <c r="K14" s="116"/>
       <c r="L14" s="116"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="40"/>
+      <c r="S14" s="218"/>
+      <c r="T14" s="231"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
-      <c r="X14" s="41"/>
+      <c r="X14" s="232"/>
       <c r="Y14" s="40"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
@@ -4591,13 +4810,13 @@
       <c r="AH14" s="27"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="192" t="s">
+      <c r="C15" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="193"/>
+      <c r="D15" s="204"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -4606,19 +4825,19 @@
       <c r="J15" s="40"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="115"/>
+      <c r="M15" s="216"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="216"/>
+      <c r="P15" s="216"/>
+      <c r="Q15" s="216"/>
+      <c r="R15" s="216"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="237"/>
       <c r="U15" s="113"/>
       <c r="V15" s="113"/>
       <c r="W15" s="113"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="27"/>
+      <c r="X15" s="238"/>
+      <c r="Y15" s="40"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
@@ -4630,11 +4849,11 @@
       <c r="AH15" s="27"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="191"/>
-      <c r="C16" s="172" t="s">
+      <c r="B16" s="202"/>
+      <c r="C16" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="173"/>
+      <c r="D16" s="168"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -4643,19 +4862,19 @@
       <c r="J16" s="40"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
+      <c r="M16" s="216"/>
+      <c r="N16" s="217"/>
+      <c r="O16" s="216"/>
+      <c r="P16" s="216"/>
+      <c r="Q16" s="216"/>
       <c r="R16" s="116"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="118"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="239"/>
       <c r="U16" s="116"/>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="27"/>
+      <c r="X16" s="240"/>
+      <c r="Y16" s="40"/>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
       <c r="AB16" s="27"/>
@@ -4670,10 +4889,10 @@
       <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="180"/>
+      <c r="D17" s="170"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -4688,12 +4907,12 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="40"/>
+      <c r="S17" s="218"/>
+      <c r="T17" s="231"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
-      <c r="X17" s="41"/>
+      <c r="X17" s="232"/>
       <c r="Y17" s="112"/>
       <c r="Z17" s="110"/>
       <c r="AA17" s="110"/>
@@ -4705,14 +4924,14 @@
       <c r="AG17" s="27"/>
       <c r="AH17" s="27"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="173"/>
+      <c r="D18" s="168"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -4727,12 +4946,12 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="41"/>
+      <c r="S18" s="218"/>
+      <c r="T18" s="241"/>
+      <c r="U18" s="242"/>
+      <c r="V18" s="242"/>
+      <c r="W18" s="242"/>
+      <c r="X18" s="243"/>
       <c r="Y18" s="40"/>
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
@@ -4747,19 +4966,10 @@
     <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
+      <c r="V19" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E3:AH3"/>
-    <mergeCell ref="E4:AH4"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="AD5:AH5"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -4776,6 +4986,16 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E3:AH3"/>
+    <mergeCell ref="E4:AH4"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="AD5:AH5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C6:D12 C13:C14 C15:D18">
@@ -4798,7 +5018,7 @@
       <formula>NOT(ISERROR(SEARCH("김민수",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:D19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$V$6:$V$16</formula1>
     </dataValidation>
@@ -4829,96 +5049,96 @@
   <sheetData>
     <row r="3" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="D3" s="99" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="205"/>
       <c r="C5" s="102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="206"/>
       <c r="C6" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="208"/>
       <c r="C8" s="101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="208"/>
       <c r="C9" s="101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="208"/>
       <c r="C10" s="210" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="208"/>
       <c r="C11" s="211"/>
       <c r="D11" s="104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="209"/>
       <c r="C12" s="97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0558AA-904F-4CE5-A2C1-C27F2A0DC151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9523149-9240-4575-AD90-B31B4439843A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2025" windowWidth="30645" windowHeight="17760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="3120" windowWidth="30645" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="2" r:id="rId2"/>
     <sheet name="기능 정의서" sheetId="3" r:id="rId3"/>
+    <sheet name="테이블 정의서" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table!$C$6:$D$18</definedName>
@@ -1780,7 +1781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2165,6 +2166,54 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2249,6 +2298,15 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2312,19 +2370,28 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2416,102 +2483,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="92" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="92" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="92" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="92" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3194,8 +3165,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3230,12 +3201,12 @@
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
@@ -3244,7 +3215,7 @@
       </c>
       <c r="J2" s="107">
         <f ca="1">TODAY()</f>
-        <v>45272</v>
+        <v>45278</v>
       </c>
       <c r="K2" s="108" t="s">
         <v>31</v>
@@ -3257,44 +3228,44 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="156" t="s">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="133" t="s">
+      <c r="K3" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="134"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="136"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="152"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87"/>
@@ -3318,7 +3289,7 @@
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="158"/>
+      <c r="J5" s="177"/>
       <c r="K5" s="84" t="s">
         <v>6</v>
       </c>
@@ -3328,10 +3299,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="155"/>
+      <c r="C6" s="171"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="str">
         <f>CONCATENATE(NETWORKDAYS(F6,G6),"일")</f>
@@ -3362,15 +3333,15 @@
       </c>
       <c r="L6" s="31">
         <f t="shared" ref="L6:L28" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="160"/>
+      <c r="C7" s="179"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="str">
         <f>CONCATENATE(NETWORKDAYS(F7,G7),"일")</f>
@@ -3400,13 +3371,13 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="180" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -3438,12 +3409,12 @@
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
-      <c r="B9" s="162"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -3478,7 +3449,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
-      <c r="B10" s="162"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
@@ -3513,7 +3484,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
-      <c r="B11" s="162"/>
+      <c r="B11" s="181"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -3534,7 +3505,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="11">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="J11" s="66"/>
       <c r="K11" s="59">
@@ -3548,7 +3519,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
-      <c r="B12" s="162"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3583,7 +3554,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="87"/>
-      <c r="B13" s="162"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="94" t="s">
         <v>45</v>
       </c>
@@ -3604,7 +3575,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="11">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="J13" s="68"/>
       <c r="K13" s="59">
@@ -3618,7 +3589,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
-      <c r="B14" s="162"/>
+      <c r="B14" s="181"/>
       <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
@@ -3635,11 +3606,11 @@
       <c r="G14" s="20">
         <v>45258</v>
       </c>
-      <c r="H14" s="164" t="s">
+      <c r="H14" s="183" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="91">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J14" s="68"/>
       <c r="K14" s="92">
@@ -3653,7 +3624,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
-      <c r="B15" s="162"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="94" t="s">
         <v>67</v>
       </c>
@@ -3670,7 +3641,7 @@
       <c r="G15" s="20">
         <v>45258</v>
       </c>
-      <c r="H15" s="165"/>
+      <c r="H15" s="184"/>
       <c r="I15" s="91">
         <v>1</v>
       </c>
@@ -3686,7 +3657,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
-      <c r="B16" s="163"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="53" t="s">
         <v>68</v>
       </c>
@@ -3703,7 +3674,7 @@
       <c r="G16" s="20">
         <v>45258</v>
       </c>
-      <c r="H16" s="166"/>
+      <c r="H16" s="185"/>
       <c r="I16" s="91">
         <v>0.9</v>
       </c>
@@ -3719,14 +3690,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="160"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F17,G17),"일")</f>
-        <v>13일</v>
+        <v>16일</v>
       </c>
       <c r="F17" s="22">
         <f>MIN(F18:F25)</f>
@@ -3734,7 +3705,7 @@
       </c>
       <c r="G17" s="22">
         <f>MAX(G18:G25)</f>
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -3750,15 +3721,15 @@
       </c>
       <c r="L17" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="172" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="52" t="s">
@@ -3787,13 +3758,13 @@
       </c>
       <c r="L18" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="213"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
@@ -3825,8 +3796,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="213"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="173"/>
       <c r="D20" s="49" t="s">
         <v>11</v>
       </c>
@@ -3853,13 +3824,13 @@
       </c>
       <c r="L20" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="214"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="49" t="s">
         <v>11</v>
       </c>
@@ -3886,13 +3857,13 @@
       </c>
       <c r="L21" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="215" t="s">
+      <c r="B22" s="154"/>
+      <c r="C22" s="128" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="49" t="s">
@@ -3926,8 +3897,8 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="152" t="s">
+      <c r="B23" s="154"/>
+      <c r="C23" s="168" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="49" t="s">
@@ -3935,19 +3906,19 @@
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3일</v>
+        <v>6일</v>
       </c>
       <c r="F23" s="1">
         <v>45273</v>
       </c>
       <c r="G23" s="1">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I23" s="11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J23" s="66"/>
       <c r="K23" s="59">
@@ -3956,31 +3927,31 @@
       </c>
       <c r="L23" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="153"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="169"/>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>13일</v>
+        <v>16일</v>
       </c>
       <c r="F24" s="1">
         <v>45259</v>
       </c>
       <c r="G24" s="1">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J24" s="66"/>
       <c r="K24" s="59">
@@ -3989,33 +3960,33 @@
       </c>
       <c r="L24" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="87"/>
-      <c r="B25" s="139"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="53" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3일</v>
+        <v>6일</v>
       </c>
       <c r="F25" s="1">
         <v>45273</v>
       </c>
       <c r="G25" s="1">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J25" s="66"/>
       <c r="K25" s="59">
@@ -4024,7 +3995,7 @@
       </c>
       <c r="L25" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -4062,7 +4033,7 @@
       </c>
       <c r="L26" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4099,7 +4070,7 @@
       </c>
       <c r="L27" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -4137,12 +4108,12 @@
       </c>
       <c r="L28" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="146" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="50" t="s">
@@ -4174,12 +4145,12 @@
       </c>
       <c r="L29" s="37">
         <f ca="1">IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="87"/>
-      <c r="B30" s="131"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="51" t="s">
         <v>23</v>
       </c>
@@ -4209,12 +4180,12 @@
       </c>
       <c r="L30" s="33">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55"/>
-      <c r="B31" s="132"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="73" t="s">
         <v>7</v>
       </c>
@@ -4244,7 +4215,7 @@
       </c>
       <c r="L31" s="81">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4329,8 +4300,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4341,140 +4312,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="171" t="s">
+      <c r="D3" s="212"/>
+      <c r="E3" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="173"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="191"/>
+      <c r="U3" s="191"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="191"/>
+      <c r="X3" s="191"/>
+      <c r="Y3" s="191"/>
+      <c r="Z3" s="191"/>
+      <c r="AA3" s="191"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="191"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="191"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="192"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="189"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="174" t="s">
+      <c r="B4" s="211"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="175"/>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="175"/>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
-      <c r="AD4" s="175"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="175"/>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="176"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="194"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="194"/>
+      <c r="V4" s="194"/>
+      <c r="W4" s="194"/>
+      <c r="X4" s="194"/>
+      <c r="Y4" s="194"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="194"/>
+      <c r="AB4" s="194"/>
+      <c r="AC4" s="194"/>
+      <c r="AD4" s="194"/>
+      <c r="AE4" s="194"/>
+      <c r="AF4" s="194"/>
+      <c r="AG4" s="194"/>
+      <c r="AH4" s="195"/>
     </row>
     <row r="5" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="178">
+      <c r="C5" s="221"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="199">
         <v>1</v>
       </c>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="181">
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="202">
         <v>2</v>
       </c>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="177">
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="203">
         <v>3</v>
       </c>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="176"/>
-      <c r="T5" s="224">
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="196">
         <v>4</v>
       </c>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="225"/>
-      <c r="X5" s="226"/>
-      <c r="Y5" s="177">
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="196">
         <v>5</v>
       </c>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="182">
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="204">
         <v>6</v>
       </c>
-      <c r="AE5" s="179"/>
-      <c r="AF5" s="179"/>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="180"/>
+      <c r="AE5" s="200"/>
+      <c r="AF5" s="200"/>
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="201"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="170"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -4489,17 +4460,17 @@
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="218"/>
-      <c r="T6" s="228"/>
-      <c r="U6" s="229"/>
-      <c r="V6" s="229"/>
-      <c r="W6" s="229"/>
-      <c r="X6" s="230"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="136"/>
       <c r="AD6" s="40"/>
       <c r="AE6" s="27"/>
       <c r="AF6" s="27"/>
@@ -4510,10 +4481,10 @@
       <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="170"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
       <c r="G7" s="110"/>
@@ -4528,17 +4499,17 @@
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="231"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="232"/>
-      <c r="Y7" s="40"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="137"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="41"/>
+      <c r="AC7" s="138"/>
       <c r="AD7" s="40"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
@@ -4549,10 +4520,10 @@
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="170"/>
+      <c r="D8" s="189"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="110"/>
@@ -4567,17 +4538,17 @@
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="231"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="40"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
-      <c r="X8" s="232"/>
-      <c r="Y8" s="40"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="137"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
       <c r="AB8" s="27"/>
-      <c r="AC8" s="41"/>
+      <c r="AC8" s="138"/>
       <c r="AD8" s="40"/>
       <c r="AE8" s="27"/>
       <c r="AF8" s="27"/>
@@ -4588,10 +4559,10 @@
       <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="169" t="s">
+      <c r="C9" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="170"/>
+      <c r="D9" s="189"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="110"/>
@@ -4606,17 +4577,17 @@
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="218"/>
-      <c r="T9" s="231"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
-      <c r="X9" s="232"/>
-      <c r="Y9" s="40"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="137"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
-      <c r="AC9" s="41"/>
+      <c r="AC9" s="138"/>
       <c r="AD9" s="40"/>
       <c r="AE9" s="27"/>
       <c r="AF9" s="27"/>
@@ -4624,13 +4595,13 @@
       <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="193" t="s">
+      <c r="C10" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="194"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -4645,29 +4616,29 @@
       <c r="P10" s="125"/>
       <c r="Q10" s="125"/>
       <c r="R10" s="125"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="233"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="127"/>
       <c r="U10" s="125"/>
       <c r="V10" s="125"/>
       <c r="W10" s="125"/>
-      <c r="X10" s="234"/>
-      <c r="Y10" s="40"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="137"/>
       <c r="Z10" s="27"/>
       <c r="AA10" s="27"/>
       <c r="AB10" s="27"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="27"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="40"/>
       <c r="AE10" s="27"/>
       <c r="AF10" s="27"/>
       <c r="AG10" s="27"/>
       <c r="AH10" s="27"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="184"/>
-      <c r="C11" s="178" t="s">
+      <c r="B11" s="206"/>
+      <c r="C11" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="195"/>
+      <c r="D11" s="217"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -4682,29 +4653,29 @@
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="218"/>
-      <c r="T11" s="231"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="40"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
-      <c r="X11" s="232"/>
-      <c r="Y11" s="40"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="137"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="27"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="40"/>
       <c r="AE11" s="27"/>
       <c r="AF11" s="27"/>
       <c r="AG11" s="27"/>
       <c r="AH11" s="27"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="184"/>
-      <c r="C12" s="196" t="s">
+      <c r="B12" s="206"/>
+      <c r="C12" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="197"/>
+      <c r="D12" s="219"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -4719,17 +4690,17 @@
       <c r="P12" s="119"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
-      <c r="S12" s="220"/>
-      <c r="T12" s="235"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="121"/>
       <c r="U12" s="119"/>
       <c r="V12" s="119"/>
       <c r="W12" s="119"/>
-      <c r="X12" s="236"/>
-      <c r="Y12" s="40"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="137"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
-      <c r="AC12" s="41"/>
+      <c r="AC12" s="138"/>
       <c r="AD12" s="40"/>
       <c r="AE12" s="27"/>
       <c r="AF12" s="27"/>
@@ -4737,11 +4708,11 @@
       <c r="AH12" s="27"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="184"/>
-      <c r="C13" s="186" t="s">
+      <c r="B13" s="206"/>
+      <c r="C13" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="187"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -4756,17 +4727,17 @@
       <c r="P13" s="113"/>
       <c r="Q13" s="113"/>
       <c r="R13" s="113"/>
-      <c r="S13" s="221"/>
-      <c r="T13" s="231"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="40"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
-      <c r="X13" s="232"/>
-      <c r="Y13" s="40"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="137"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
-      <c r="AC13" s="41"/>
+      <c r="AC13" s="138"/>
       <c r="AD13" s="40"/>
       <c r="AE13" s="27"/>
       <c r="AF13" s="27"/>
@@ -4774,11 +4745,11 @@
       <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="185"/>
-      <c r="C14" s="186" t="s">
+      <c r="B14" s="207"/>
+      <c r="C14" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="187"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="116"/>
@@ -4792,17 +4763,17 @@
       <c r="P14" s="116"/>
       <c r="Q14" s="116"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="218"/>
-      <c r="T14" s="231"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="40"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
-      <c r="X14" s="232"/>
-      <c r="Y14" s="40"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="137"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
       <c r="AB14" s="27"/>
-      <c r="AC14" s="41"/>
+      <c r="AC14" s="138"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="27"/>
@@ -4810,13 +4781,13 @@
       <c r="AH14" s="27"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="223" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="203" t="s">
+      <c r="C15" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="204"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -4825,35 +4796,35 @@
       <c r="J15" s="40"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
-      <c r="M15" s="216"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="216"/>
-      <c r="P15" s="216"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="216"/>
-      <c r="S15" s="222"/>
-      <c r="T15" s="237"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="115"/>
       <c r="U15" s="113"/>
       <c r="V15" s="113"/>
       <c r="W15" s="113"/>
-      <c r="X15" s="238"/>
-      <c r="Y15" s="40"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="137"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="27"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="40"/>
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="27"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="202"/>
-      <c r="C16" s="167" t="s">
+      <c r="B16" s="224"/>
+      <c r="C16" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="168"/>
+      <c r="D16" s="187"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -4862,24 +4833,24 @@
       <c r="J16" s="40"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="216"/>
-      <c r="N16" s="217"/>
-      <c r="O16" s="216"/>
-      <c r="P16" s="216"/>
-      <c r="Q16" s="216"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="116"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="239"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="118"/>
       <c r="U16" s="116"/>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
-      <c r="X16" s="240"/>
-      <c r="Y16" s="40"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="137"/>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
       <c r="AB16" s="27"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="27"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="40"/>
       <c r="AE16" s="27"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="27"/>
@@ -4889,10 +4860,10 @@
       <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="169" t="s">
+      <c r="C17" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="170"/>
+      <c r="D17" s="189"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -4907,17 +4878,17 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="218"/>
-      <c r="T17" s="231"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="40"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
-      <c r="X17" s="232"/>
-      <c r="Y17" s="112"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="142"/>
       <c r="Z17" s="110"/>
       <c r="AA17" s="110"/>
       <c r="AB17" s="110"/>
-      <c r="AC17" s="111"/>
+      <c r="AC17" s="143"/>
       <c r="AD17" s="40"/>
       <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
@@ -4928,10 +4899,10 @@
       <c r="B18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="168"/>
+      <c r="D18" s="187"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -4946,17 +4917,17 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="218"/>
-      <c r="T18" s="241"/>
-      <c r="U18" s="242"/>
-      <c r="V18" s="242"/>
-      <c r="W18" s="242"/>
-      <c r="X18" s="243"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="141"/>
       <c r="AD18" s="112"/>
       <c r="AE18" s="110"/>
       <c r="AF18" s="110"/>
@@ -4966,7 +4937,6 @@
     <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="V19" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -5059,7 +5029,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="227" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="102" t="s">
@@ -5070,7 +5040,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="205"/>
+      <c r="B5" s="227"/>
       <c r="C5" s="102" t="s">
         <v>53</v>
       </c>
@@ -5079,7 +5049,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="206"/>
+      <c r="B6" s="228"/>
       <c r="C6" s="103" t="s">
         <v>56</v>
       </c>
@@ -5088,7 +5058,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="229" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="100" t="s">
@@ -5099,7 +5069,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="208"/>
+      <c r="B8" s="230"/>
       <c r="C8" s="101" t="s">
         <v>59</v>
       </c>
@@ -5108,7 +5078,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="208"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="101" t="s">
         <v>66</v>
       </c>
@@ -5117,8 +5087,8 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="208"/>
-      <c r="C10" s="210" t="s">
+      <c r="B10" s="230"/>
+      <c r="C10" s="232" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="104" t="s">
@@ -5126,14 +5096,14 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="208"/>
-      <c r="C11" s="211"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="233"/>
       <c r="D11" s="104" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="209"/>
+      <c r="B12" s="231"/>
       <c r="C12" s="97" t="s">
         <v>61</v>
       </c>
@@ -5150,4 +5120,19 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC423-7150-45C7-9442-999712603200}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9523149-9240-4575-AD90-B31B4439843A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C99110-8888-42D8-9329-E5E28E575A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="3120" windowWidth="30645" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15330" yWindow="0" windowWidth="23130" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table!$C$6:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Table!$A$1:$AI$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$A$1:$M$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'테이블 정의서'!$A$2:$P$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="221">
   <si>
     <t>테스트</t>
   </si>
@@ -328,16 +329,590 @@
     <t>Dash 코드 병합 및 모듈화</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>VIDEO_FEATURE_EM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사 명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 교재</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture_num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>disgust</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fear</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>surprise</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정 분류 (화남)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>column name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>default value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정 분류 (경멸)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정 분류 (두려움)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정 분류 (기쁨)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정 분류 (슬픔)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>안면 윤곽 인식 비율</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIDEO_FEATURE_M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 내프레임 번호</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local에서 분석한 감정 분석과 안면 윤곽 인식 Feature Table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_EM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Input 시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3에 적재되는 파일 이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER INPUT 영상의 감정 분석과 안면 윤곽 인식 결과 Table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER INPUT 영상의 LandMark Position Table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local에서 분석한 LandMark Position Table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column Count :</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutral</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정 분류 (놀람)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정 분류 (중립)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 프레임 수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐지된 특정 프레임</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_frame</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect_frame</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>proba</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_proba</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 코 x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 코 y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 왼쪽 눈(안), x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 왼쪽 눈(안), y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 왼쪽 눈, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 왼쪽 눈, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 오른쪽 눈(안), x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 오른쪽 눈(안), y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 오른쪽 눈, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 오른쪽 눈, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 왼쪽 귀, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 왼쪽 귀, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 오른쪽 귀, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 오른쪽 귀, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 왼쪽 입, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 왼쪽 입, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 오른쪽 입, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴, 오른쪽 입, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 어깨, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 어깨, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 어깨, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 어깨, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 팔꿈치, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 팔꿈치, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 팔꿈치, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 팔꿈치, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 손목, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 손목, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 손목, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 손목, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 새끼손가락, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 새끼손가락, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 새끼손가락, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 새끼손가락, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 검지손가락, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 검지손가락, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 검지손가락, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 검지손가락, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 엄지손가락, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 왼쪽 엄지손가락, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 엄지손가락, x 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸, 오른쪽 엄지손가락, y 좌표</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_eye_i_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_eye_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_eye_o_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_eye_i_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_eye_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_eye_o_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_ear_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_ear_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_mouth_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_mouth_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_elbow_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_elbow_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_wrist_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_wrist_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_pinky_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_pinky_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_index_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_index_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_thumb_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_thumb_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_thumb_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_eye_i_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_eye_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_eye_o_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_eye_i_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_eye_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_eye_o_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_ear_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_ear_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_mouth_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_mouth_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_elbow_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_elbow_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_wrist_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_wrist_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_pinky_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_pinky_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_index_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_index_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_thumb_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>안면 윤곽 비인식 비율</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_shldr_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_shldr_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_shldr_y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_shldr_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -416,8 +991,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +1147,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="97">
+  <borders count="100">
     <border>
       <left/>
       <right/>
@@ -1775,13 +2384,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2214,6 +2852,120 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="93" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2482,6 +3234,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3165,7 +3941,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -3201,12 +3977,12 @@
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
@@ -3215,7 +3991,7 @@
       </c>
       <c r="J2" s="107">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="K2" s="108" t="s">
         <v>31</v>
@@ -3228,44 +4004,44 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="175" t="s">
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="150"/>
+      <c r="L3" s="188"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="152"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="190"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87"/>
@@ -3289,7 +4065,7 @@
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="177"/>
+      <c r="J5" s="215"/>
       <c r="K5" s="84" t="s">
         <v>6</v>
       </c>
@@ -3299,10 +4075,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="171"/>
+      <c r="C6" s="209"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="str">
         <f>CONCATENATE(NETWORKDAYS(F6,G6),"일")</f>
@@ -3333,15 +4109,15 @@
       </c>
       <c r="L6" s="31">
         <f t="shared" ref="L6:L28" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="217"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="str">
         <f>CONCATENATE(NETWORKDAYS(F7,G7),"일")</f>
@@ -3371,13 +4147,13 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="218" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -3409,12 +4185,12 @@
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
-      <c r="B9" s="181"/>
+      <c r="B9" s="219"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -3449,7 +4225,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
-      <c r="B10" s="181"/>
+      <c r="B10" s="219"/>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
@@ -3484,7 +4260,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
-      <c r="B11" s="181"/>
+      <c r="B11" s="219"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -3519,7 +4295,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
-      <c r="B12" s="181"/>
+      <c r="B12" s="219"/>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3554,7 +4330,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="87"/>
-      <c r="B13" s="181"/>
+      <c r="B13" s="219"/>
       <c r="C13" s="94" t="s">
         <v>45</v>
       </c>
@@ -3589,7 +4365,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
-      <c r="B14" s="181"/>
+      <c r="B14" s="219"/>
       <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
@@ -3606,7 +4382,7 @@
       <c r="G14" s="20">
         <v>45258</v>
       </c>
-      <c r="H14" s="183" t="s">
+      <c r="H14" s="221" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="91">
@@ -3624,7 +4400,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
-      <c r="B15" s="181"/>
+      <c r="B15" s="219"/>
       <c r="C15" s="94" t="s">
         <v>67</v>
       </c>
@@ -3641,7 +4417,7 @@
       <c r="G15" s="20">
         <v>45258</v>
       </c>
-      <c r="H15" s="184"/>
+      <c r="H15" s="222"/>
       <c r="I15" s="91">
         <v>1</v>
       </c>
@@ -3657,7 +4433,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
-      <c r="B16" s="182"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="53" t="s">
         <v>68</v>
       </c>
@@ -3674,7 +4450,7 @@
       <c r="G16" s="20">
         <v>45258</v>
       </c>
-      <c r="H16" s="185"/>
+      <c r="H16" s="223"/>
       <c r="I16" s="91">
         <v>0.9</v>
       </c>
@@ -3690,10 +4466,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="217"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F17,G17),"일")</f>
@@ -3721,15 +4497,15 @@
       </c>
       <c r="L17" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="210" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="52" t="s">
@@ -3763,8 +4539,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="173"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="211"/>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
@@ -3796,8 +4572,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="173"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="211"/>
       <c r="D20" s="49" t="s">
         <v>11</v>
       </c>
@@ -3829,8 +4605,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="174"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="212"/>
       <c r="D21" s="49" t="s">
         <v>11</v>
       </c>
@@ -3862,7 +4638,7 @@
     </row>
     <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
-      <c r="B22" s="154"/>
+      <c r="B22" s="192"/>
       <c r="C22" s="128" t="s">
         <v>75</v>
       </c>
@@ -3897,8 +4673,8 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="168" t="s">
+      <c r="B23" s="192"/>
+      <c r="C23" s="206" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="49" t="s">
@@ -3927,13 +4703,13 @@
       </c>
       <c r="L23" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="169"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="207"/>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
@@ -3960,12 +4736,12 @@
       </c>
       <c r="L24" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="87"/>
-      <c r="B25" s="155"/>
+      <c r="B25" s="193"/>
       <c r="C25" s="53" t="s">
         <v>77</v>
       </c>
@@ -3995,7 +4771,7 @@
       </c>
       <c r="L25" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -4033,7 +4809,7 @@
       </c>
       <c r="L26" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4070,7 +4846,7 @@
       </c>
       <c r="L27" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -4108,12 +4884,12 @@
       </c>
       <c r="L28" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="184" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="50" t="s">
@@ -4145,12 +4921,12 @@
       </c>
       <c r="L29" s="37">
         <f ca="1">IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="87"/>
-      <c r="B30" s="147"/>
+      <c r="B30" s="185"/>
       <c r="C30" s="51" t="s">
         <v>23</v>
       </c>
@@ -4180,12 +4956,12 @@
       </c>
       <c r="L30" s="33">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55"/>
-      <c r="B31" s="148"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="73" t="s">
         <v>7</v>
       </c>
@@ -4215,7 +4991,7 @@
       </c>
       <c r="L31" s="81">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4312,140 +5088,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="190" t="s">
+      <c r="D3" s="250"/>
+      <c r="E3" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="191"/>
-      <c r="AB3" s="191"/>
-      <c r="AC3" s="191"/>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="191"/>
-      <c r="AG3" s="191"/>
-      <c r="AH3" s="192"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="229"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="229"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="230"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="211"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="193" t="s">
+      <c r="B4" s="249"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="194"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
-      <c r="AD4" s="194"/>
-      <c r="AE4" s="194"/>
-      <c r="AF4" s="194"/>
-      <c r="AG4" s="194"/>
-      <c r="AH4" s="195"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="232"/>
+      <c r="O4" s="232"/>
+      <c r="P4" s="232"/>
+      <c r="Q4" s="232"/>
+      <c r="R4" s="232"/>
+      <c r="S4" s="232"/>
+      <c r="T4" s="232"/>
+      <c r="U4" s="232"/>
+      <c r="V4" s="232"/>
+      <c r="W4" s="232"/>
+      <c r="X4" s="232"/>
+      <c r="Y4" s="232"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="232"/>
+      <c r="AD4" s="232"/>
+      <c r="AE4" s="232"/>
+      <c r="AF4" s="232"/>
+      <c r="AG4" s="232"/>
+      <c r="AH4" s="233"/>
     </row>
     <row r="5" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="258" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="199">
+      <c r="C5" s="259"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="237">
         <v>1</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="202">
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="240">
         <v>2</v>
       </c>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="203">
+      <c r="K5" s="232"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="241">
         <v>3</v>
       </c>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-      <c r="S5" s="195"/>
-      <c r="T5" s="196">
+      <c r="P5" s="232"/>
+      <c r="Q5" s="232"/>
+      <c r="R5" s="232"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="234">
         <v>4</v>
       </c>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="196">
+      <c r="U5" s="235"/>
+      <c r="V5" s="235"/>
+      <c r="W5" s="235"/>
+      <c r="X5" s="236"/>
+      <c r="Y5" s="234">
         <v>5</v>
       </c>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="204">
+      <c r="Z5" s="235"/>
+      <c r="AA5" s="235"/>
+      <c r="AB5" s="235"/>
+      <c r="AC5" s="236"/>
+      <c r="AD5" s="242">
         <v>6</v>
       </c>
-      <c r="AE5" s="200"/>
-      <c r="AF5" s="200"/>
-      <c r="AG5" s="200"/>
-      <c r="AH5" s="201"/>
+      <c r="AE5" s="238"/>
+      <c r="AF5" s="238"/>
+      <c r="AG5" s="238"/>
+      <c r="AH5" s="239"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="189"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -4481,10 +5257,10 @@
       <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="189"/>
+      <c r="D7" s="227"/>
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
       <c r="G7" s="110"/>
@@ -4520,10 +5296,10 @@
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="189"/>
+      <c r="D8" s="227"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="110"/>
@@ -4559,10 +5335,10 @@
       <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="188" t="s">
+      <c r="C9" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="189"/>
+      <c r="D9" s="227"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="110"/>
@@ -4595,13 +5371,13 @@
       <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="254"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -4634,11 +5410,11 @@
       <c r="AH10" s="27"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="206"/>
-      <c r="C11" s="199" t="s">
+      <c r="B11" s="244"/>
+      <c r="C11" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="217"/>
+      <c r="D11" s="255"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -4671,11 +5447,11 @@
       <c r="AH11" s="27"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="206"/>
-      <c r="C12" s="218" t="s">
+      <c r="B12" s="244"/>
+      <c r="C12" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="219"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -4708,11 +5484,11 @@
       <c r="AH12" s="27"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="206"/>
-      <c r="C13" s="208" t="s">
+      <c r="B13" s="244"/>
+      <c r="C13" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="209"/>
+      <c r="D13" s="247"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -4745,11 +5521,11 @@
       <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="207"/>
-      <c r="C14" s="208" t="s">
+      <c r="B14" s="245"/>
+      <c r="C14" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="209"/>
+      <c r="D14" s="247"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="116"/>
@@ -4781,13 +5557,13 @@
       <c r="AH14" s="27"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="223" t="s">
+      <c r="B15" s="261" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="225" t="s">
+      <c r="C15" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="226"/>
+      <c r="D15" s="264"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -4820,11 +5596,11 @@
       <c r="AH15" s="27"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="224"/>
-      <c r="C16" s="186" t="s">
+      <c r="B16" s="262"/>
+      <c r="C16" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="187"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -4860,10 +5636,10 @@
       <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="188" t="s">
+      <c r="C17" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="189"/>
+      <c r="D17" s="227"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -4899,10 +5675,10 @@
       <c r="B18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="186" t="s">
+      <c r="C18" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="187"/>
+      <c r="D18" s="225"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -5029,7 +5805,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="227" t="s">
+      <c r="B4" s="265" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="102" t="s">
@@ -5040,7 +5816,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="227"/>
+      <c r="B5" s="265"/>
       <c r="C5" s="102" t="s">
         <v>53</v>
       </c>
@@ -5049,7 +5825,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="228"/>
+      <c r="B6" s="266"/>
       <c r="C6" s="103" t="s">
         <v>56</v>
       </c>
@@ -5058,7 +5834,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="267" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="100" t="s">
@@ -5069,7 +5845,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="230"/>
+      <c r="B8" s="268"/>
       <c r="C8" s="101" t="s">
         <v>59</v>
       </c>
@@ -5078,7 +5854,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="230"/>
+      <c r="B9" s="268"/>
       <c r="C9" s="101" t="s">
         <v>66</v>
       </c>
@@ -5087,8 +5863,8 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="230"/>
-      <c r="C10" s="232" t="s">
+      <c r="B10" s="268"/>
+      <c r="C10" s="270" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="104" t="s">
@@ -5096,14 +5872,14 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="230"/>
-      <c r="C11" s="233"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="271"/>
       <c r="D11" s="104" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="231"/>
+      <c r="B12" s="269"/>
       <c r="C12" s="97" t="s">
         <v>61</v>
       </c>
@@ -5119,20 +5895,2310 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC423-7150-45C7-9442-999712603200}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:P78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="8" max="8" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="19" max="19" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="278" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="279"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="172"/>
+      <c r="J3" s="178" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+    </row>
+    <row r="4" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="173"/>
+      <c r="H4" s="174"/>
+      <c r="J4" s="173"/>
+      <c r="P4" s="174"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="173"/>
+      <c r="C5" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="174"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="174"/>
+    </row>
+    <row r="6" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="173"/>
+      <c r="C6" s="275" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="277"/>
+      <c r="H6" s="174"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="275" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="276"/>
+      <c r="O6" s="277"/>
+      <c r="P6" s="174"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="173"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="174"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="174"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="173"/>
+      <c r="C8" s="272" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="150" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="174"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="167" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="169">
+        <v>25569.000011574073</v>
+      </c>
+      <c r="O8" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="174"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="173"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="174"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="154" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="154" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="163" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="174"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="173"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="154" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="151">
+        <v>0</v>
+      </c>
+      <c r="G10" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="174"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="152">
+        <v>0</v>
+      </c>
+      <c r="O10" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="174"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="173"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="152">
+        <v>0</v>
+      </c>
+      <c r="G11" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="174"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="152">
+        <v>0</v>
+      </c>
+      <c r="O11" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="174"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="173"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="152">
+        <v>0</v>
+      </c>
+      <c r="G12" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="174"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="152">
+        <v>0</v>
+      </c>
+      <c r="O12" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="174"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="173"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="152">
+        <v>0</v>
+      </c>
+      <c r="G13" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="174"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="152">
+        <v>0</v>
+      </c>
+      <c r="O13" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="174"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="173"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="152">
+        <v>0</v>
+      </c>
+      <c r="G14" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="174"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="152">
+        <v>0</v>
+      </c>
+      <c r="O14" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="174"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="173"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="152">
+        <v>0</v>
+      </c>
+      <c r="G15" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="174"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="152">
+        <v>0</v>
+      </c>
+      <c r="O15" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" s="174"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="173"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="152">
+        <v>0</v>
+      </c>
+      <c r="G16" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="174"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="152">
+        <v>0</v>
+      </c>
+      <c r="O16" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="174"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="173"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="150" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="152">
+        <v>0</v>
+      </c>
+      <c r="G17" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="174"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="152">
+        <v>0</v>
+      </c>
+      <c r="O17" s="162" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="174"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="173"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="152">
+        <v>0</v>
+      </c>
+      <c r="G18" s="162" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="174"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="152">
+        <v>0</v>
+      </c>
+      <c r="O18" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="174"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="173"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="152">
+        <v>0</v>
+      </c>
+      <c r="G19" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="174"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="150" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="161">
+        <v>0</v>
+      </c>
+      <c r="O19" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="174"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="173"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="150" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="161">
+        <v>0</v>
+      </c>
+      <c r="G20" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="174"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="154" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="153">
+        <v>0</v>
+      </c>
+      <c r="O20" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" s="174"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="173"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="154" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="153">
+        <v>0</v>
+      </c>
+      <c r="G21" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="174"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="180">
+        <f>ROWS(L8:L20)</f>
+        <v>13</v>
+      </c>
+      <c r="P21" s="174"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="173"/>
+      <c r="C22" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="181"/>
+      <c r="E22" s="180">
+        <f>ROWS(D8:D21)</f>
+        <v>14</v>
+      </c>
+      <c r="H22" s="174"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="170"/>
+      <c r="P22" s="174"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="173"/>
+      <c r="H23" s="174"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="170"/>
+      <c r="P23" s="174"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="173"/>
+      <c r="C24" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="174"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="174"/>
+    </row>
+    <row r="25" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="173"/>
+      <c r="C25" s="275" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="276"/>
+      <c r="E25" s="276"/>
+      <c r="F25" s="276"/>
+      <c r="G25" s="277"/>
+      <c r="H25" s="174"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="275" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="276"/>
+      <c r="M25" s="276"/>
+      <c r="N25" s="276"/>
+      <c r="O25" s="277"/>
+      <c r="P25" s="174"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="173"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="174"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="174"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="173"/>
+      <c r="C27" s="272" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="150" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="174"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="167" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="169">
+        <v>25569.000011574073</v>
+      </c>
+      <c r="O27" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="P27" s="174"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="173"/>
+      <c r="C28" s="273"/>
+      <c r="D28" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="174"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="150" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="174"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="173"/>
+      <c r="C29" s="273"/>
+      <c r="D29" s="150" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="152">
+        <v>0</v>
+      </c>
+      <c r="G29" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="174"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" s="151">
+        <v>0</v>
+      </c>
+      <c r="O29" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" s="174"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="173"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="151">
+        <v>0</v>
+      </c>
+      <c r="G30" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="174"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="M30" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N30" s="165">
+        <v>0</v>
+      </c>
+      <c r="O30" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="174"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="173"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="165">
+        <v>0</v>
+      </c>
+      <c r="G31" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="174"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="150" t="s">
+        <v>196</v>
+      </c>
+      <c r="M31" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="165">
+        <v>0</v>
+      </c>
+      <c r="O31" s="162" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="174"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="173"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="150" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="165">
+        <v>0</v>
+      </c>
+      <c r="G32" s="162" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="174"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="150" t="s">
+        <v>175</v>
+      </c>
+      <c r="M32" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="165">
+        <v>0</v>
+      </c>
+      <c r="O32" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" s="174"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="173"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="150" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="165">
+        <v>0</v>
+      </c>
+      <c r="G33" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="174"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="150" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" s="165">
+        <v>0</v>
+      </c>
+      <c r="O33" s="162" t="s">
+        <v>135</v>
+      </c>
+      <c r="P33" s="174"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="173"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="150" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="165">
+        <v>0</v>
+      </c>
+      <c r="G34" s="162" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="174"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="M34" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="165">
+        <v>0</v>
+      </c>
+      <c r="O34" s="162" t="s">
+        <v>136</v>
+      </c>
+      <c r="P34" s="174"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="173"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="165">
+        <v>0</v>
+      </c>
+      <c r="G35" s="162" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="174"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="M35" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" s="165">
+        <v>0</v>
+      </c>
+      <c r="O35" s="162" t="s">
+        <v>137</v>
+      </c>
+      <c r="P35" s="174"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="173"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="165">
+        <v>0</v>
+      </c>
+      <c r="G36" s="162" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="174"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="M36" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N36" s="165">
+        <v>0</v>
+      </c>
+      <c r="O36" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" s="174"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="173"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="165">
+        <v>0</v>
+      </c>
+      <c r="G37" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="174"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" s="165">
+        <v>0</v>
+      </c>
+      <c r="O37" s="162" t="s">
+        <v>135</v>
+      </c>
+      <c r="P37" s="174"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="173"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="165">
+        <v>0</v>
+      </c>
+      <c r="G38" s="162" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="174"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="M38" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N38" s="165">
+        <v>0</v>
+      </c>
+      <c r="O38" s="162" t="s">
+        <v>138</v>
+      </c>
+      <c r="P38" s="174"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="173"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="165">
+        <v>0</v>
+      </c>
+      <c r="G39" s="162" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="174"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="150" t="s">
+        <v>200</v>
+      </c>
+      <c r="M39" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" s="165">
+        <v>0</v>
+      </c>
+      <c r="O39" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" s="174"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="173"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="150" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="165">
+        <v>0</v>
+      </c>
+      <c r="G40" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="174"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N40" s="165">
+        <v>0</v>
+      </c>
+      <c r="O40" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="P40" s="174"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="173"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="165">
+        <v>0</v>
+      </c>
+      <c r="G41" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="174"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="150" t="s">
+        <v>201</v>
+      </c>
+      <c r="M41" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N41" s="165">
+        <v>0</v>
+      </c>
+      <c r="O41" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="P41" s="174"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="173"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="150" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="165">
+        <v>0</v>
+      </c>
+      <c r="G42" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="174"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="M42" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N42" s="165">
+        <v>0</v>
+      </c>
+      <c r="O42" s="162" t="s">
+        <v>138</v>
+      </c>
+      <c r="P42" s="174"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="173"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="165">
+        <v>0</v>
+      </c>
+      <c r="G43" s="162" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="174"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="M43" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N43" s="165">
+        <v>0</v>
+      </c>
+      <c r="O43" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" s="174"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="173"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="165">
+        <v>0</v>
+      </c>
+      <c r="G44" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="174"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="148"/>
+      <c r="L44" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="M44" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N44" s="165">
+        <v>0</v>
+      </c>
+      <c r="O44" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="P44" s="174"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="173"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="165">
+        <v>0</v>
+      </c>
+      <c r="G45" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="174"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="159"/>
+      <c r="L45" s="150" t="s">
+        <v>203</v>
+      </c>
+      <c r="M45" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N45" s="165">
+        <v>0</v>
+      </c>
+      <c r="O45" s="162" t="s">
+        <v>143</v>
+      </c>
+      <c r="P45" s="174"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="173"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="150" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="165">
+        <v>0</v>
+      </c>
+      <c r="G46" s="162" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="174"/>
+      <c r="J46" s="173"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="M46" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46" s="165">
+        <v>0</v>
+      </c>
+      <c r="O46" s="162" t="s">
+        <v>144</v>
+      </c>
+      <c r="P46" s="174"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="173"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="165">
+        <v>0</v>
+      </c>
+      <c r="G47" s="162" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="174"/>
+      <c r="J47" s="173"/>
+      <c r="K47" s="159"/>
+      <c r="L47" s="150" t="s">
+        <v>204</v>
+      </c>
+      <c r="M47" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" s="165">
+        <v>0</v>
+      </c>
+      <c r="O47" s="162" t="s">
+        <v>145</v>
+      </c>
+      <c r="P47" s="174"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="173"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="150" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="165">
+        <v>0</v>
+      </c>
+      <c r="G48" s="162" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="174"/>
+      <c r="J48" s="173"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="M48" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N48" s="165">
+        <v>0</v>
+      </c>
+      <c r="O48" s="162" t="s">
+        <v>146</v>
+      </c>
+      <c r="P48" s="174"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="173"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="165">
+        <v>0</v>
+      </c>
+      <c r="G49" s="162" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="174"/>
+      <c r="J49" s="173"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="150" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" s="165">
+        <v>0</v>
+      </c>
+      <c r="O49" s="162" t="s">
+        <v>147</v>
+      </c>
+      <c r="P49" s="174"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="173"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="150" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="165">
+        <v>0</v>
+      </c>
+      <c r="G50" s="162" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="174"/>
+      <c r="J50" s="179"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="M50" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N50" s="165">
+        <v>0</v>
+      </c>
+      <c r="O50" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="P50" s="174"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="173"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="165">
+        <v>0</v>
+      </c>
+      <c r="G51" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" s="174"/>
+      <c r="J51" s="173"/>
+      <c r="K51" s="159"/>
+      <c r="L51" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="M51" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N51" s="165">
+        <v>0</v>
+      </c>
+      <c r="O51" s="162" t="s">
+        <v>149</v>
+      </c>
+      <c r="P51" s="174"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="173"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="165">
+        <v>0</v>
+      </c>
+      <c r="G52" s="162" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" s="174"/>
+      <c r="J52" s="173"/>
+      <c r="K52" s="148"/>
+      <c r="L52" s="150" t="s">
+        <v>220</v>
+      </c>
+      <c r="M52" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N52" s="165">
+        <v>0</v>
+      </c>
+      <c r="O52" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="P52" s="174"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="173"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="150" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="165">
+        <v>0</v>
+      </c>
+      <c r="G53" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="174"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="148"/>
+      <c r="L53" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="M53" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N53" s="165">
+        <v>0</v>
+      </c>
+      <c r="O53" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="P53" s="174"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="173"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="165">
+        <v>0</v>
+      </c>
+      <c r="G54" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="174"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="M54" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N54" s="165">
+        <v>0</v>
+      </c>
+      <c r="O54" s="145" t="s">
+        <v>152</v>
+      </c>
+      <c r="P54" s="174"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="173"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="150" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="165">
+        <v>0</v>
+      </c>
+      <c r="G55" s="145" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="174"/>
+      <c r="J55" s="173"/>
+      <c r="K55" s="148"/>
+      <c r="L55" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="M55" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N55" s="165">
+        <v>0</v>
+      </c>
+      <c r="O55" s="145" t="s">
+        <v>153</v>
+      </c>
+      <c r="P55" s="174"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="173"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="165">
+        <v>0</v>
+      </c>
+      <c r="G56" s="145" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" s="174"/>
+      <c r="J56" s="173"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="M56" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N56" s="165">
+        <v>0</v>
+      </c>
+      <c r="O56" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="P56" s="174"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="173"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="165">
+        <v>0</v>
+      </c>
+      <c r="G57" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="174"/>
+      <c r="J57" s="173"/>
+      <c r="K57" s="148"/>
+      <c r="L57" s="150" t="s">
+        <v>207</v>
+      </c>
+      <c r="M57" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N57" s="165">
+        <v>0</v>
+      </c>
+      <c r="O57" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="P57" s="174"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="173"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="150" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="165">
+        <v>0</v>
+      </c>
+      <c r="G58" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="174"/>
+      <c r="J58" s="173"/>
+      <c r="K58" s="148"/>
+      <c r="L58" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="M58" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N58" s="165">
+        <v>0</v>
+      </c>
+      <c r="O58" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="P58" s="174"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="173"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="165">
+        <v>0</v>
+      </c>
+      <c r="G59" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="174"/>
+      <c r="J59" s="173"/>
+      <c r="K59" s="148"/>
+      <c r="L59" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="M59" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N59" s="165">
+        <v>0</v>
+      </c>
+      <c r="O59" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="P59" s="174"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="173"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="165">
+        <v>0</v>
+      </c>
+      <c r="G60" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H60" s="174"/>
+      <c r="J60" s="173"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="M60" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N60" s="165">
+        <v>0</v>
+      </c>
+      <c r="O60" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="P60" s="174"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="173"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="165">
+        <v>0</v>
+      </c>
+      <c r="G61" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="H61" s="174"/>
+      <c r="J61" s="173"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="M61" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N61" s="165">
+        <v>0</v>
+      </c>
+      <c r="O61" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="P61" s="174"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="173"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="150" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="165">
+        <v>0</v>
+      </c>
+      <c r="G62" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H62" s="174"/>
+      <c r="J62" s="173"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="M62" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N62" s="165">
+        <v>0</v>
+      </c>
+      <c r="O62" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="P62" s="174"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="173"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="165">
+        <v>0</v>
+      </c>
+      <c r="G63" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" s="174"/>
+      <c r="J63" s="173"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="M63" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N63" s="165">
+        <v>0</v>
+      </c>
+      <c r="O63" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="P63" s="174"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="173"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="165">
+        <v>0</v>
+      </c>
+      <c r="G64" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="174"/>
+      <c r="J64" s="173"/>
+      <c r="K64" s="148"/>
+      <c r="L64" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="M64" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N64" s="165">
+        <v>0</v>
+      </c>
+      <c r="O64" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="P64" s="174"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="173"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="165">
+        <v>0</v>
+      </c>
+      <c r="G65" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="H65" s="174"/>
+      <c r="J65" s="173"/>
+      <c r="K65" s="148"/>
+      <c r="L65" s="150" t="s">
+        <v>211</v>
+      </c>
+      <c r="M65" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N65" s="165">
+        <v>0</v>
+      </c>
+      <c r="O65" s="145" t="s">
+        <v>163</v>
+      </c>
+      <c r="P65" s="174"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" s="173"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="150" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="165">
+        <v>0</v>
+      </c>
+      <c r="G66" s="145" t="s">
+        <v>163</v>
+      </c>
+      <c r="H66" s="174"/>
+      <c r="J66" s="173"/>
+      <c r="K66" s="148"/>
+      <c r="L66" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="M66" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N66" s="165">
+        <v>0</v>
+      </c>
+      <c r="O66" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="P66" s="174"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="173"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="165">
+        <v>0</v>
+      </c>
+      <c r="G67" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" s="174"/>
+      <c r="J67" s="173"/>
+      <c r="K67" s="148"/>
+      <c r="L67" s="150" t="s">
+        <v>212</v>
+      </c>
+      <c r="M67" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N67" s="165">
+        <v>0</v>
+      </c>
+      <c r="O67" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P67" s="174"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="173"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="150" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="165">
+        <v>0</v>
+      </c>
+      <c r="G68" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" s="174"/>
+      <c r="J68" s="173"/>
+      <c r="K68" s="148"/>
+      <c r="L68" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="M68" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N68" s="165">
+        <v>0</v>
+      </c>
+      <c r="O68" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="P68" s="174"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="173"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="165">
+        <v>0</v>
+      </c>
+      <c r="G69" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="174"/>
+      <c r="J69" s="173"/>
+      <c r="K69" s="148"/>
+      <c r="L69" s="150" t="s">
+        <v>213</v>
+      </c>
+      <c r="M69" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N69" s="165">
+        <v>0</v>
+      </c>
+      <c r="O69" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="P69" s="174"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="173"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="150" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="165">
+        <v>0</v>
+      </c>
+      <c r="G70" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="H70" s="174"/>
+      <c r="J70" s="173"/>
+      <c r="K70" s="148"/>
+      <c r="L70" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="M70" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N70" s="165">
+        <v>0</v>
+      </c>
+      <c r="O70" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="P70" s="174"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="173"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="165">
+        <v>0</v>
+      </c>
+      <c r="G71" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="174"/>
+      <c r="J71" s="173"/>
+      <c r="K71" s="148"/>
+      <c r="L71" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="M71" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N71" s="165">
+        <v>0</v>
+      </c>
+      <c r="O71" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="P71" s="174"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="173"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="165">
+        <v>0</v>
+      </c>
+      <c r="G72" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="H72" s="174"/>
+      <c r="J72" s="173"/>
+      <c r="K72" s="148"/>
+      <c r="L72" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="M72" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N72" s="165">
+        <v>0</v>
+      </c>
+      <c r="O72" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="P72" s="174"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" s="173"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="165">
+        <v>0</v>
+      </c>
+      <c r="G73" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" s="174"/>
+      <c r="J73" s="173"/>
+      <c r="K73" s="148"/>
+      <c r="L73" s="150" t="s">
+        <v>215</v>
+      </c>
+      <c r="M73" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N73" s="165">
+        <v>0</v>
+      </c>
+      <c r="O73" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="P73" s="174"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="173"/>
+      <c r="C74" s="148"/>
+      <c r="D74" s="150" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="165">
+        <v>0</v>
+      </c>
+      <c r="G74" s="145" t="s">
+        <v>171</v>
+      </c>
+      <c r="H74" s="174"/>
+      <c r="J74" s="173"/>
+      <c r="K74" s="148"/>
+      <c r="L74" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="M74" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N74" s="165">
+        <v>0</v>
+      </c>
+      <c r="O74" s="145" t="s">
+        <v>172</v>
+      </c>
+      <c r="P74" s="174"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="173"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="165">
+        <v>0</v>
+      </c>
+      <c r="G75" s="145" t="s">
+        <v>172</v>
+      </c>
+      <c r="H75" s="174"/>
+      <c r="J75" s="173"/>
+      <c r="K75" s="149"/>
+      <c r="L75" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="M75" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="N75" s="166">
+        <v>0</v>
+      </c>
+      <c r="O75" s="146" t="s">
+        <v>173</v>
+      </c>
+      <c r="P75" s="174"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="173"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="166">
+        <v>0</v>
+      </c>
+      <c r="G76" s="146" t="s">
+        <v>173</v>
+      </c>
+      <c r="H76" s="174"/>
+      <c r="J76" s="173"/>
+      <c r="K76" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="M76" s="180">
+        <f>ROWS(L27:L75)</f>
+        <v>49</v>
+      </c>
+      <c r="P76" s="174"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" s="173"/>
+      <c r="C77" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="180">
+        <f>ROWS(D27:D76)</f>
+        <v>50</v>
+      </c>
+      <c r="H77" s="174"/>
+      <c r="J77" s="173"/>
+      <c r="P77" s="174"/>
+    </row>
+    <row r="78" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="175"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="176"/>
+      <c r="F78" s="176"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="177"/>
+      <c r="J78" s="175"/>
+      <c r="K78" s="176"/>
+      <c r="L78" s="176"/>
+      <c r="M78" s="176"/>
+      <c r="N78" s="176"/>
+      <c r="O78" s="176"/>
+      <c r="P78" s="177"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="K25:O25"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="15" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" min="1" max="78" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C99110-8888-42D8-9329-E5E28E575A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3621387-B5FB-4BAC-9A35-E753EFD8B61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="0" windowWidth="23130" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="645" windowWidth="33540" windowHeight="20070" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="221">
   <si>
     <t>테스트</t>
   </si>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>VIDEO_FEATURE_EM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>info</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -442,10 +438,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>VIDEO_FEATURE_M</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>frame</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -458,38 +450,18 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>USER_EM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_M</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>User Input 시간</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>S3에 적재되는 파일 이름</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER INPUT 영상의 감정 분석과 안면 윤곽 인식 결과 Table</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>USER INPUT 영상의 LandMark Position Table</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -899,6 +871,34 @@
   </si>
   <si>
     <t>l_shldr_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIDEO_FEATURE_LMP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER INPUT 영상의 안면 윤곽 인식 결과 Table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER INPUT 영상의 감정 분석 결과 Table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIDEO_FEATURE_EA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIDEO_FEATURE_FM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_EA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_FM</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2397,20 +2397,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2419,7 +2421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2861,9 +2863,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2912,22 +2911,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2945,320 +2932,332 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3977,12 +3976,12 @@
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
@@ -3991,7 +3990,7 @@
       </c>
       <c r="J2" s="107">
         <f ca="1">TODAY()</f>
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="K2" s="108" t="s">
         <v>31</v>
@@ -4004,44 +4003,44 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="196" t="s">
+      <c r="C3" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="200" t="s">
+      <c r="E3" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="213" t="s">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="187" t="s">
+      <c r="K3" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="188"/>
+      <c r="L3" s="180"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
-      <c r="B4" s="195"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="190"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="182"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87"/>
@@ -4065,7 +4064,7 @@
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="215"/>
+      <c r="J5" s="207"/>
       <c r="K5" s="84" t="s">
         <v>6</v>
       </c>
@@ -4075,10 +4074,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="209"/>
+      <c r="C6" s="201"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="str">
         <f>CONCATENATE(NETWORKDAYS(F6,G6),"일")</f>
@@ -4109,15 +4108,15 @@
       </c>
       <c r="L6" s="31">
         <f t="shared" ref="L6:L28" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="209"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="str">
         <f>CONCATENATE(NETWORKDAYS(F7,G7),"일")</f>
@@ -4147,13 +4146,13 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="210" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -4185,12 +4184,12 @@
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
-      <c r="B9" s="219"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -4225,7 +4224,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
-      <c r="B10" s="219"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
@@ -4260,7 +4259,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
-      <c r="B11" s="219"/>
+      <c r="B11" s="211"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -4295,7 +4294,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
-      <c r="B12" s="219"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
@@ -4330,7 +4329,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="87"/>
-      <c r="B13" s="219"/>
+      <c r="B13" s="211"/>
       <c r="C13" s="94" t="s">
         <v>45</v>
       </c>
@@ -4365,7 +4364,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
-      <c r="B14" s="219"/>
+      <c r="B14" s="211"/>
       <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
@@ -4382,7 +4381,7 @@
       <c r="G14" s="20">
         <v>45258</v>
       </c>
-      <c r="H14" s="221" t="s">
+      <c r="H14" s="213" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="91">
@@ -4400,7 +4399,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
-      <c r="B15" s="219"/>
+      <c r="B15" s="211"/>
       <c r="C15" s="94" t="s">
         <v>67</v>
       </c>
@@ -4417,7 +4416,7 @@
       <c r="G15" s="20">
         <v>45258</v>
       </c>
-      <c r="H15" s="222"/>
+      <c r="H15" s="214"/>
       <c r="I15" s="91">
         <v>1</v>
       </c>
@@ -4433,7 +4432,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
-      <c r="B16" s="220"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="53" t="s">
         <v>68</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="G16" s="20">
         <v>45258</v>
       </c>
-      <c r="H16" s="223"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="91">
         <v>0.9</v>
       </c>
@@ -4466,10 +4465,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="217"/>
+      <c r="C17" s="209"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F17,G17),"일")</f>
@@ -4497,15 +4496,15 @@
       </c>
       <c r="L17" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="210" t="s">
+      <c r="C18" s="202" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="52" t="s">
@@ -4539,8 +4538,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="211"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="203"/>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
@@ -4572,8 +4571,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="211"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="203"/>
       <c r="D20" s="49" t="s">
         <v>11</v>
       </c>
@@ -4605,8 +4604,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="212"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="204"/>
       <c r="D21" s="49" t="s">
         <v>11</v>
       </c>
@@ -4638,7 +4637,7 @@
     </row>
     <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
-      <c r="B22" s="192"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="128" t="s">
         <v>75</v>
       </c>
@@ -4673,8 +4672,8 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
-      <c r="B23" s="192"/>
-      <c r="C23" s="206" t="s">
+      <c r="B23" s="184"/>
+      <c r="C23" s="198" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="49" t="s">
@@ -4703,13 +4702,13 @@
       </c>
       <c r="L23" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="207"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="199"/>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
@@ -4736,12 +4735,12 @@
       </c>
       <c r="L24" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="87"/>
-      <c r="B25" s="193"/>
+      <c r="B25" s="185"/>
       <c r="C25" s="53" t="s">
         <v>77</v>
       </c>
@@ -4771,7 +4770,7 @@
       </c>
       <c r="L25" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -4809,7 +4808,7 @@
       </c>
       <c r="L26" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4846,7 +4845,7 @@
       </c>
       <c r="L27" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -4884,12 +4883,12 @@
       </c>
       <c r="L28" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
-      <c r="B29" s="184" t="s">
+      <c r="B29" s="176" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="50" t="s">
@@ -4921,12 +4920,12 @@
       </c>
       <c r="L29" s="37">
         <f ca="1">IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="87"/>
-      <c r="B30" s="185"/>
+      <c r="B30" s="177"/>
       <c r="C30" s="51" t="s">
         <v>23</v>
       </c>
@@ -4956,12 +4955,12 @@
       </c>
       <c r="L30" s="33">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55"/>
-      <c r="B31" s="186"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="73" t="s">
         <v>7</v>
       </c>
@@ -4991,7 +4990,7 @@
       </c>
       <c r="L31" s="81">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5088,140 +5087,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="250" t="s">
+      <c r="C3" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="228" t="s">
+      <c r="D3" s="225"/>
+      <c r="E3" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="229"/>
-      <c r="AB3" s="229"/>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="230"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="244"/>
+      <c r="AG3" s="244"/>
+      <c r="AH3" s="245"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="249"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="231" t="s">
+      <c r="B4" s="224"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="232"/>
-      <c r="N4" s="232"/>
-      <c r="O4" s="232"/>
-      <c r="P4" s="232"/>
-      <c r="Q4" s="232"/>
-      <c r="R4" s="232"/>
-      <c r="S4" s="232"/>
-      <c r="T4" s="232"/>
-      <c r="U4" s="232"/>
-      <c r="V4" s="232"/>
-      <c r="W4" s="232"/>
-      <c r="X4" s="232"/>
-      <c r="Y4" s="232"/>
-      <c r="Z4" s="232"/>
-      <c r="AA4" s="232"/>
-      <c r="AB4" s="232"/>
-      <c r="AC4" s="232"/>
-      <c r="AD4" s="232"/>
-      <c r="AE4" s="232"/>
-      <c r="AF4" s="232"/>
-      <c r="AG4" s="232"/>
-      <c r="AH4" s="233"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="247"/>
+      <c r="O4" s="247"/>
+      <c r="P4" s="247"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="247"/>
+      <c r="S4" s="247"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="247"/>
+      <c r="W4" s="247"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="247"/>
+      <c r="Z4" s="247"/>
+      <c r="AA4" s="247"/>
+      <c r="AB4" s="247"/>
+      <c r="AC4" s="247"/>
+      <c r="AD4" s="247"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="247"/>
+      <c r="AG4" s="247"/>
+      <c r="AH4" s="248"/>
     </row>
     <row r="5" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="237">
+      <c r="C5" s="237"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="232">
         <v>1</v>
       </c>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="240">
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="254">
         <v>2</v>
       </c>
-      <c r="K5" s="232"/>
-      <c r="L5" s="232"/>
-      <c r="M5" s="232"/>
-      <c r="N5" s="233"/>
-      <c r="O5" s="241">
+      <c r="K5" s="247"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="247"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="255">
         <v>3</v>
       </c>
-      <c r="P5" s="232"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="232"/>
-      <c r="S5" s="233"/>
-      <c r="T5" s="234">
+      <c r="P5" s="247"/>
+      <c r="Q5" s="247"/>
+      <c r="R5" s="247"/>
+      <c r="S5" s="248"/>
+      <c r="T5" s="249">
         <v>4</v>
       </c>
-      <c r="U5" s="235"/>
-      <c r="V5" s="235"/>
-      <c r="W5" s="235"/>
-      <c r="X5" s="236"/>
-      <c r="Y5" s="234">
+      <c r="U5" s="250"/>
+      <c r="V5" s="250"/>
+      <c r="W5" s="250"/>
+      <c r="X5" s="251"/>
+      <c r="Y5" s="249">
         <v>5</v>
       </c>
-      <c r="Z5" s="235"/>
-      <c r="AA5" s="235"/>
-      <c r="AB5" s="235"/>
-      <c r="AC5" s="236"/>
-      <c r="AD5" s="242">
+      <c r="Z5" s="250"/>
+      <c r="AA5" s="250"/>
+      <c r="AB5" s="250"/>
+      <c r="AC5" s="251"/>
+      <c r="AD5" s="256">
         <v>6</v>
       </c>
-      <c r="AE5" s="238"/>
-      <c r="AF5" s="238"/>
-      <c r="AG5" s="238"/>
-      <c r="AH5" s="239"/>
+      <c r="AE5" s="252"/>
+      <c r="AF5" s="252"/>
+      <c r="AG5" s="252"/>
+      <c r="AH5" s="253"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="227"/>
+      <c r="D6" s="229"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -5257,10 +5256,10 @@
       <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="226" t="s">
+      <c r="C7" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="227"/>
+      <c r="D7" s="229"/>
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
       <c r="G7" s="110"/>
@@ -5296,10 +5295,10 @@
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="227"/>
+      <c r="D8" s="229"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="110"/>
@@ -5335,10 +5334,10 @@
       <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="226" t="s">
+      <c r="C9" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="227"/>
+      <c r="D9" s="229"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="110"/>
@@ -5371,13 +5370,13 @@
       <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="243" t="s">
+      <c r="B10" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="253" t="s">
+      <c r="C10" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="254"/>
+      <c r="D10" s="231"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -5410,11 +5409,11 @@
       <c r="AH10" s="27"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="244"/>
-      <c r="C11" s="237" t="s">
+      <c r="B11" s="217"/>
+      <c r="C11" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="255"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -5447,11 +5446,11 @@
       <c r="AH11" s="27"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="244"/>
-      <c r="C12" s="256" t="s">
+      <c r="B12" s="217"/>
+      <c r="C12" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="257"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -5484,11 +5483,11 @@
       <c r="AH12" s="27"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="244"/>
-      <c r="C13" s="246" t="s">
+      <c r="B13" s="217"/>
+      <c r="C13" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="247"/>
+      <c r="D13" s="220"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -5521,11 +5520,11 @@
       <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="245"/>
-      <c r="C14" s="246" t="s">
+      <c r="B14" s="218"/>
+      <c r="C14" s="219" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="247"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="116"/>
@@ -5557,13 +5556,13 @@
       <c r="AH14" s="27"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="261" t="s">
+      <c r="B15" s="239" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="263" t="s">
+      <c r="C15" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="264"/>
+      <c r="D15" s="242"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -5596,11 +5595,11 @@
       <c r="AH15" s="27"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="262"/>
-      <c r="C16" s="224" t="s">
+      <c r="B16" s="240"/>
+      <c r="C16" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="225"/>
+      <c r="D16" s="222"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -5636,10 +5635,10 @@
       <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="226" t="s">
+      <c r="C17" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="227"/>
+      <c r="D17" s="229"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -5675,10 +5674,10 @@
       <c r="B18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="224" t="s">
+      <c r="C18" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="225"/>
+      <c r="D18" s="222"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -5716,6 +5715,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E3:AH3"/>
+    <mergeCell ref="E4:AH4"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="AD5:AH5"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -5732,16 +5741,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E3:AH3"/>
-    <mergeCell ref="E4:AH4"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="AD5:AH5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C6:D12 C13:C14 C15:D18">
@@ -5805,7 +5804,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="257" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="102" t="s">
@@ -5816,7 +5815,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="265"/>
+      <c r="B5" s="257"/>
       <c r="C5" s="102" t="s">
         <v>53</v>
       </c>
@@ -5825,7 +5824,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="266"/>
+      <c r="B6" s="258"/>
       <c r="C6" s="103" t="s">
         <v>56</v>
       </c>
@@ -5834,7 +5833,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="267" t="s">
+      <c r="B7" s="259" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="100" t="s">
@@ -5845,7 +5844,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="268"/>
+      <c r="B8" s="260"/>
       <c r="C8" s="101" t="s">
         <v>59</v>
       </c>
@@ -5854,7 +5853,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="268"/>
+      <c r="B9" s="260"/>
       <c r="C9" s="101" t="s">
         <v>66</v>
       </c>
@@ -5863,8 +5862,8 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="268"/>
-      <c r="C10" s="270" t="s">
+      <c r="B10" s="260"/>
+      <c r="C10" s="262" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="104" t="s">
@@ -5872,14 +5871,14 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="268"/>
-      <c r="C11" s="271"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="263"/>
       <c r="D11" s="104" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="269"/>
+      <c r="B12" s="261"/>
       <c r="C12" s="97" t="s">
         <v>61</v>
       </c>
@@ -5904,10 +5903,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:P78"/>
+  <dimension ref="B2:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5932,2263 +5931,2348 @@
   <sheetData>
     <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="264" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="265"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="167"/>
+      <c r="J3" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+    </row>
+    <row r="4" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="168"/>
+      <c r="H4" s="169"/>
+      <c r="J4" s="168"/>
+      <c r="P4" s="169"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="168"/>
+      <c r="C5" s="165" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="169"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="165" t="s">
+        <v>216</v>
+      </c>
+      <c r="P5" s="169"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="168"/>
+      <c r="C6" s="269" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="169"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="269" t="s">
+        <v>219</v>
+      </c>
+      <c r="L6" s="270"/>
+      <c r="M6" s="270"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="271"/>
+      <c r="P6" s="169"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="168"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="169"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="169"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="168"/>
+      <c r="C8" s="266" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="169"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="159" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="169"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="168"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="161" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="169"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="151">
+        <v>0</v>
+      </c>
+      <c r="O9" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="169"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="168"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="150">
+        <v>0</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="169"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="151">
+        <v>0</v>
+      </c>
+      <c r="O10" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="169"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="168"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="151">
+        <v>0</v>
+      </c>
+      <c r="G11" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="169"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="151">
+        <v>0</v>
+      </c>
+      <c r="O11" s="161" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="169"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="168"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="151">
+        <v>0</v>
+      </c>
+      <c r="G12" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="169"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="151">
+        <v>0</v>
+      </c>
+      <c r="O12" s="161" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="169"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="168"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="151">
+        <v>0</v>
+      </c>
+      <c r="G13" s="161" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="169"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="149" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="151">
+        <v>0</v>
+      </c>
+      <c r="O13" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="169"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="168"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="151">
+        <v>0</v>
+      </c>
+      <c r="G14" s="161" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="169"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="151">
+        <v>0</v>
+      </c>
+      <c r="O14" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="169"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="168"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="149" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="151">
+        <v>0</v>
+      </c>
+      <c r="G15" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="169"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="150">
+        <v>0</v>
+      </c>
+      <c r="O15" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" s="169"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="168"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="151">
+        <v>0</v>
+      </c>
+      <c r="G16" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="169"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="172" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="172">
+        <f>ROWS(L8:L15)</f>
+        <v>8</v>
+      </c>
+      <c r="P16" s="169"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="168"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="150">
+        <v>0</v>
+      </c>
+      <c r="G17" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="169"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="P17" s="169"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="168"/>
+      <c r="C18" s="173" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="173"/>
+      <c r="E18" s="172">
+        <f>ROWS(D8:D17)</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="169"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="165" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" s="169"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="168"/>
+      <c r="H19" s="169"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="269" t="s">
+        <v>220</v>
+      </c>
+      <c r="L19" s="270"/>
+      <c r="M19" s="270"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="271"/>
+      <c r="P19" s="169"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="168"/>
+      <c r="C20" s="165" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="169"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="169"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="168"/>
+      <c r="C21" s="269" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="270"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="270"/>
+      <c r="G21" s="271"/>
+      <c r="H21" s="169"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="159" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="169"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="168"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="169"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="151">
+        <v>0</v>
+      </c>
+      <c r="O22" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="169"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="168"/>
+      <c r="C23" s="266" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="169"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="151">
+        <v>0</v>
+      </c>
+      <c r="O23" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="J3" s="178" t="s">
+      <c r="P23" s="169"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="168"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="161" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="169"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="149" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="160">
+        <v>0</v>
+      </c>
+      <c r="O24" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="169"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="168"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="150">
+        <v>0</v>
+      </c>
+      <c r="G25" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="169"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="152">
+        <v>0</v>
+      </c>
+      <c r="O25" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="P25" s="169"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="168"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-    </row>
-    <row r="4" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="173"/>
-      <c r="H4" s="174"/>
-      <c r="J4" s="173"/>
-      <c r="P4" s="174"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="173"/>
-      <c r="C5" s="170" t="s">
+      <c r="E26" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="151">
+        <v>0</v>
+      </c>
+      <c r="G26" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="169"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="172" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="172">
+        <f>ROWS(L21:L25)</f>
+        <v>5</v>
+      </c>
+      <c r="P26" s="169"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="168"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="151">
+        <v>0</v>
+      </c>
+      <c r="G27" s="161" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="169"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="165"/>
+      <c r="P27" s="169"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="168"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="149" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="160">
+        <v>0</v>
+      </c>
+      <c r="G28" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="169"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="169"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="168"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="152">
+        <v>0</v>
+      </c>
+      <c r="G29" s="162" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="169"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="269" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="270"/>
+      <c r="M29" s="270"/>
+      <c r="N29" s="270"/>
+      <c r="O29" s="271"/>
+      <c r="P29" s="169"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="168"/>
+      <c r="C30" s="173" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="173"/>
+      <c r="E30" s="172">
+        <f>ROWS(D23:D29)</f>
+        <v>7</v>
+      </c>
+      <c r="H30" s="169"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="O30" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="169"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="168"/>
+      <c r="H31" s="169"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="273" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="274" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="174"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="170" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" s="174"/>
-    </row>
-    <row r="6" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173"/>
-      <c r="C6" s="275" t="s">
+      <c r="M31" s="274" t="s">
+        <v>82</v>
+      </c>
+      <c r="N31" s="274" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" s="276" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" s="169"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="168"/>
+      <c r="C32" s="165" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="169"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="272"/>
+      <c r="L32" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="M32" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N32" s="163">
+        <v>0</v>
+      </c>
+      <c r="O32" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" s="169"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="168"/>
+      <c r="C33" s="269" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="169"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="149" t="s">
+        <v>189</v>
+      </c>
+      <c r="M33" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33" s="163">
+        <v>0</v>
+      </c>
+      <c r="O33" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="P33" s="169"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="168"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="276"/>
-      <c r="E6" s="276"/>
-      <c r="F6" s="276"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="174"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="275" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="276"/>
-      <c r="M6" s="276"/>
-      <c r="N6" s="276"/>
-      <c r="O6" s="277"/>
-      <c r="P6" s="174"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="173"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="158" t="s">
+      <c r="H34" s="169"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="149" t="s">
+        <v>168</v>
+      </c>
+      <c r="M34" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="163">
+        <v>0</v>
+      </c>
+      <c r="O34" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="169"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="168"/>
+      <c r="C35" s="273" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="274" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="274" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="275">
+        <v>0</v>
+      </c>
+      <c r="G35" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="169"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="163">
+        <v>0</v>
+      </c>
+      <c r="O35" s="161" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" s="169"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="168"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="174"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="174"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="173"/>
-      <c r="C8" s="272" t="s">
+      <c r="H36" s="169"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="149" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="163">
+        <v>0</v>
+      </c>
+      <c r="O36" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" s="169"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="168"/>
+      <c r="C37" s="272"/>
+      <c r="D37" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="150" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="162" t="s">
+      <c r="G37" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="174"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="147" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="167" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="169">
-        <v>25569.000011574073</v>
-      </c>
-      <c r="O8" s="168" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="174"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="173"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="150" t="s">
+      <c r="H37" s="169"/>
+      <c r="J37" s="168"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="149" t="s">
+        <v>191</v>
+      </c>
+      <c r="M37" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N37" s="163">
+        <v>0</v>
+      </c>
+      <c r="O37" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="169"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="168"/>
+      <c r="C38" s="272"/>
+      <c r="D38" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="162" t="s">
+      <c r="E38" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="151">
+        <v>0</v>
+      </c>
+      <c r="G38" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="174"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="154" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="163" t="s">
+      <c r="H38" s="169"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="149" t="s">
+        <v>170</v>
+      </c>
+      <c r="M38" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" s="163">
+        <v>0</v>
+      </c>
+      <c r="O38" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="169"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="168"/>
+      <c r="C39" s="272"/>
+      <c r="D39" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="163">
+        <v>0</v>
+      </c>
+      <c r="G39" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="169"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="M39" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" s="163">
+        <v>0</v>
+      </c>
+      <c r="O39" s="161" t="s">
+        <v>128</v>
+      </c>
+      <c r="P39" s="169"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="168"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="149" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="163">
+        <v>0</v>
+      </c>
+      <c r="G40" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="169"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="M40" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N40" s="163">
+        <v>0</v>
+      </c>
+      <c r="O40" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="P40" s="169"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="168"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="149" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="163">
+        <v>0</v>
+      </c>
+      <c r="G41" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="169"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="149" t="s">
+        <v>193</v>
+      </c>
+      <c r="M41" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="163">
+        <v>0</v>
+      </c>
+      <c r="O41" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="P41" s="169"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="168"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="163">
+        <v>0</v>
+      </c>
+      <c r="G42" s="161" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="169"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="149" t="s">
+        <v>172</v>
+      </c>
+      <c r="M42" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N42" s="163">
+        <v>0</v>
+      </c>
+      <c r="O42" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" s="169"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="168"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="149" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="163">
+        <v>0</v>
+      </c>
+      <c r="G43" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="169"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="149" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N43" s="163">
+        <v>0</v>
+      </c>
+      <c r="O43" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" s="169"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="168"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="149" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="163">
+        <v>0</v>
+      </c>
+      <c r="G44" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="169"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="149" t="s">
+        <v>173</v>
+      </c>
+      <c r="M44" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" s="163">
+        <v>0</v>
+      </c>
+      <c r="O44" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="P44" s="169"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="168"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="149" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="163">
+        <v>0</v>
+      </c>
+      <c r="G45" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="169"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="149" t="s">
+        <v>195</v>
+      </c>
+      <c r="M45" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45" s="163">
+        <v>0</v>
+      </c>
+      <c r="O45" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="P45" s="169"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="168"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="163">
+        <v>0</v>
+      </c>
+      <c r="G46" s="161" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="169"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="149" t="s">
+        <v>174</v>
+      </c>
+      <c r="M46" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N46" s="163">
+        <v>0</v>
+      </c>
+      <c r="O46" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="P46" s="169"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="168"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="163">
+        <v>0</v>
+      </c>
+      <c r="G47" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="169"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="M47" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N47" s="163">
+        <v>0</v>
+      </c>
+      <c r="O47" s="161" t="s">
+        <v>136</v>
+      </c>
+      <c r="P47" s="169"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="168"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="149" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="163">
+        <v>0</v>
+      </c>
+      <c r="G48" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="169"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="158"/>
+      <c r="L48" s="149" t="s">
+        <v>175</v>
+      </c>
+      <c r="M48" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N48" s="163">
+        <v>0</v>
+      </c>
+      <c r="O48" s="161" t="s">
+        <v>137</v>
+      </c>
+      <c r="P48" s="169"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="168"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="149" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="163">
+        <v>0</v>
+      </c>
+      <c r="G49" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="169"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="149" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N49" s="163">
+        <v>0</v>
+      </c>
+      <c r="O49" s="161" t="s">
+        <v>138</v>
+      </c>
+      <c r="P49" s="169"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="168"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="149" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="163">
+        <v>0</v>
+      </c>
+      <c r="G50" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="169"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="158"/>
+      <c r="L50" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="M50" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="163">
+        <v>0</v>
+      </c>
+      <c r="O50" s="161" t="s">
+        <v>139</v>
+      </c>
+      <c r="P50" s="169"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="168"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="149" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="163">
+        <v>0</v>
+      </c>
+      <c r="G51" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="169"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="M51" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="163">
+        <v>0</v>
+      </c>
+      <c r="O51" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="P51" s="169"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="168"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="149" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="163">
+        <v>0</v>
+      </c>
+      <c r="G52" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="169"/>
+      <c r="J52" s="168"/>
+      <c r="K52" s="158"/>
+      <c r="L52" s="149" t="s">
+        <v>177</v>
+      </c>
+      <c r="M52" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N52" s="163">
+        <v>0</v>
+      </c>
+      <c r="O52" s="161" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" s="169"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="168"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="149" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="163">
+        <v>0</v>
+      </c>
+      <c r="G53" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="169"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="149" t="s">
+        <v>199</v>
+      </c>
+      <c r="M53" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N53" s="163">
+        <v>0</v>
+      </c>
+      <c r="O53" s="161" t="s">
+        <v>142</v>
+      </c>
+      <c r="P53" s="169"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="168"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="163">
+        <v>0</v>
+      </c>
+      <c r="G54" s="161" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="169"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="158"/>
+      <c r="L54" s="149" t="s">
+        <v>213</v>
+      </c>
+      <c r="M54" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N54" s="163">
+        <v>0</v>
+      </c>
+      <c r="O54" s="145" t="s">
+        <v>143</v>
+      </c>
+      <c r="P54" s="169"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="168"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="149" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="163">
+        <v>0</v>
+      </c>
+      <c r="G55" s="161" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="169"/>
+      <c r="J55" s="168"/>
+      <c r="K55" s="147"/>
+      <c r="L55" s="149" t="s">
+        <v>210</v>
+      </c>
+      <c r="M55" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N55" s="163">
+        <v>0</v>
+      </c>
+      <c r="O55" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="P55" s="169"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="168"/>
+      <c r="C56" s="158"/>
+      <c r="D56" s="149" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="163">
+        <v>0</v>
+      </c>
+      <c r="G56" s="161" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="169"/>
+      <c r="J56" s="168"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="M56" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N56" s="163">
+        <v>0</v>
+      </c>
+      <c r="O56" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56" s="169"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="168"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="163">
+        <v>0</v>
+      </c>
+      <c r="G57" s="161" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="169"/>
+      <c r="J57" s="168"/>
+      <c r="K57" s="147"/>
+      <c r="L57" s="149" t="s">
+        <v>212</v>
+      </c>
+      <c r="M57" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N57" s="163">
+        <v>0</v>
+      </c>
+      <c r="O57" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="P57" s="169"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="168"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="163">
+        <v>0</v>
+      </c>
+      <c r="G58" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="169"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="147"/>
+      <c r="L58" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="M58" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N58" s="163">
+        <v>0</v>
+      </c>
+      <c r="O58" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="P58" s="169"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="168"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="149" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="163">
+        <v>0</v>
+      </c>
+      <c r="G59" s="161" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="169"/>
+      <c r="J59" s="168"/>
+      <c r="K59" s="147"/>
+      <c r="L59" s="149" t="s">
+        <v>200</v>
+      </c>
+      <c r="M59" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N59" s="163">
+        <v>0</v>
+      </c>
+      <c r="O59" s="145" t="s">
+        <v>147</v>
+      </c>
+      <c r="P59" s="169"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="168"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="149" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="163">
+        <v>0</v>
+      </c>
+      <c r="G60" s="161" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" s="169"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="149" t="s">
+        <v>179</v>
+      </c>
+      <c r="M60" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N60" s="163">
+        <v>0</v>
+      </c>
+      <c r="O60" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="P60" s="169"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="168"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="149" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="163">
+        <v>0</v>
+      </c>
+      <c r="G61" s="145" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="169"/>
+      <c r="J61" s="168"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="M61" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N61" s="163">
+        <v>0</v>
+      </c>
+      <c r="O61" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="P61" s="169"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="168"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="149" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="163">
+        <v>0</v>
+      </c>
+      <c r="G62" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="169"/>
+      <c r="J62" s="168"/>
+      <c r="K62" s="147"/>
+      <c r="L62" s="149" t="s">
+        <v>180</v>
+      </c>
+      <c r="M62" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N62" s="163">
+        <v>0</v>
+      </c>
+      <c r="O62" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="P62" s="169"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="168"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="163">
+        <v>0</v>
+      </c>
+      <c r="G63" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="169"/>
+      <c r="J63" s="168"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="M63" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N63" s="163">
+        <v>0</v>
+      </c>
+      <c r="O63" s="145" t="s">
+        <v>152</v>
+      </c>
+      <c r="P63" s="169"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="168"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="149" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="163">
+        <v>0</v>
+      </c>
+      <c r="G64" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="169"/>
+      <c r="J64" s="168"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="149" t="s">
+        <v>181</v>
+      </c>
+      <c r="M64" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N64" s="163">
+        <v>0</v>
+      </c>
+      <c r="O64" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="P64" s="169"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="168"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="163">
+        <v>0</v>
+      </c>
+      <c r="G65" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" s="169"/>
+      <c r="J65" s="168"/>
+      <c r="K65" s="147"/>
+      <c r="L65" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="M65" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N65" s="163">
+        <v>0</v>
+      </c>
+      <c r="O65" s="145" t="s">
+        <v>153</v>
+      </c>
+      <c r="P65" s="169"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" s="168"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="149" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="163">
+        <v>0</v>
+      </c>
+      <c r="G66" s="145" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" s="169"/>
+      <c r="J66" s="168"/>
+      <c r="K66" s="147"/>
+      <c r="L66" s="149" t="s">
+        <v>182</v>
+      </c>
+      <c r="M66" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N66" s="163">
+        <v>0</v>
+      </c>
+      <c r="O66" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="P66" s="169"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="168"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="149" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="163">
+        <v>0</v>
+      </c>
+      <c r="G67" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="H67" s="169"/>
+      <c r="J67" s="168"/>
+      <c r="K67" s="147"/>
+      <c r="L67" s="149" t="s">
+        <v>204</v>
+      </c>
+      <c r="M67" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N67" s="163">
+        <v>0</v>
+      </c>
+      <c r="O67" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="P67" s="169"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="168"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="163">
+        <v>0</v>
+      </c>
+      <c r="G68" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68" s="169"/>
+      <c r="J68" s="168"/>
+      <c r="K68" s="147"/>
+      <c r="L68" s="149" t="s">
+        <v>183</v>
+      </c>
+      <c r="M68" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N68" s="163">
+        <v>0</v>
+      </c>
+      <c r="O68" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="P68" s="169"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="168"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="149" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="163">
+        <v>0</v>
+      </c>
+      <c r="G69" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69" s="169"/>
+      <c r="J69" s="168"/>
+      <c r="K69" s="147"/>
+      <c r="L69" s="149" t="s">
+        <v>205</v>
+      </c>
+      <c r="M69" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N69" s="163">
+        <v>0</v>
+      </c>
+      <c r="O69" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="P69" s="169"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="168"/>
+      <c r="C70" s="147"/>
+      <c r="D70" s="149" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="163">
+        <v>0</v>
+      </c>
+      <c r="G70" s="145" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" s="169"/>
+      <c r="J70" s="168"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="M70" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N70" s="163">
+        <v>0</v>
+      </c>
+      <c r="O70" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="P70" s="169"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="168"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="149" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="163">
+        <v>0</v>
+      </c>
+      <c r="G71" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="169"/>
+      <c r="J71" s="168"/>
+      <c r="K71" s="147"/>
+      <c r="L71" s="149" t="s">
+        <v>206</v>
+      </c>
+      <c r="M71" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N71" s="163">
+        <v>0</v>
+      </c>
+      <c r="O71" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="P71" s="169"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="168"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="163">
+        <v>0</v>
+      </c>
+      <c r="G72" s="145" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" s="169"/>
+      <c r="J72" s="168"/>
+      <c r="K72" s="147"/>
+      <c r="L72" s="149" t="s">
+        <v>185</v>
+      </c>
+      <c r="M72" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N72" s="163">
+        <v>0</v>
+      </c>
+      <c r="O72" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="P72" s="169"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" s="168"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="149" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" s="163">
+        <v>0</v>
+      </c>
+      <c r="G73" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="169"/>
+      <c r="J73" s="168"/>
+      <c r="K73" s="147"/>
+      <c r="L73" s="149" t="s">
+        <v>207</v>
+      </c>
+      <c r="M73" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N73" s="163">
+        <v>0</v>
+      </c>
+      <c r="O73" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="P73" s="169"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="168"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="149" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="163">
+        <v>0</v>
+      </c>
+      <c r="G74" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" s="169"/>
+      <c r="J74" s="168"/>
+      <c r="K74" s="147"/>
+      <c r="L74" s="149" t="s">
+        <v>186</v>
+      </c>
+      <c r="M74" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N74" s="163">
+        <v>0</v>
+      </c>
+      <c r="O74" s="145" t="s">
+        <v>163</v>
+      </c>
+      <c r="P74" s="169"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="168"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="149" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="163">
+        <v>0</v>
+      </c>
+      <c r="G75" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="H75" s="169"/>
+      <c r="J75" s="168"/>
+      <c r="K75" s="147"/>
+      <c r="L75" s="149" t="s">
+        <v>208</v>
+      </c>
+      <c r="M75" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N75" s="163">
+        <v>0</v>
+      </c>
+      <c r="O75" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="P75" s="169"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="168"/>
+      <c r="C76" s="147"/>
+      <c r="D76" s="149" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" s="163">
+        <v>0</v>
+      </c>
+      <c r="G76" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="H76" s="169"/>
+      <c r="J76" s="168"/>
+      <c r="K76" s="147"/>
+      <c r="L76" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="M76" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N76" s="163">
+        <v>0</v>
+      </c>
+      <c r="O76" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P76" s="169"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" s="168"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="163">
+        <v>0</v>
+      </c>
+      <c r="G77" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H77" s="169"/>
+      <c r="J77" s="168"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="M77" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="N77" s="164">
+        <v>0</v>
+      </c>
+      <c r="O77" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="P77" s="169"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B78" s="277"/>
+      <c r="C78" s="147"/>
+      <c r="D78" s="149" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="163">
+        <v>0</v>
+      </c>
+      <c r="G78" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="H78" s="278"/>
+      <c r="J78" s="168"/>
+      <c r="K78" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="P9" s="174"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="173"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="154" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="151">
-        <v>0</v>
-      </c>
-      <c r="G10" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="174"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="152">
-        <v>0</v>
-      </c>
-      <c r="O10" s="162" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" s="174"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="173"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="152">
-        <v>0</v>
-      </c>
-      <c r="G11" s="162" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="174"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="152">
-        <v>0</v>
-      </c>
-      <c r="O11" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="174"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="173"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="152">
-        <v>0</v>
-      </c>
-      <c r="G12" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="174"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="152">
-        <v>0</v>
-      </c>
-      <c r="O12" s="162" t="s">
-        <v>102</v>
-      </c>
-      <c r="P12" s="174"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="173"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="152">
-        <v>0</v>
-      </c>
-      <c r="G13" s="162" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="174"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="152">
-        <v>0</v>
-      </c>
-      <c r="O13" s="162" t="s">
-        <v>103</v>
-      </c>
-      <c r="P13" s="174"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="173"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="152">
-        <v>0</v>
-      </c>
-      <c r="G14" s="162" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="174"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="152">
-        <v>0</v>
-      </c>
-      <c r="O14" s="162" t="s">
-        <v>104</v>
-      </c>
-      <c r="P14" s="174"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="173"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="152">
-        <v>0</v>
-      </c>
-      <c r="G15" s="162" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="174"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="150" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="152">
-        <v>0</v>
-      </c>
-      <c r="O15" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="P15" s="174"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="173"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="150" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="152">
-        <v>0</v>
-      </c>
-      <c r="G16" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="174"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="150" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="152">
-        <v>0</v>
-      </c>
-      <c r="O16" s="162" t="s">
-        <v>125</v>
-      </c>
-      <c r="P16" s="174"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="173"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="150" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="152">
-        <v>0</v>
-      </c>
-      <c r="G17" s="162" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="174"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="150" t="s">
-        <v>128</v>
-      </c>
-      <c r="M17" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="152">
-        <v>0</v>
-      </c>
-      <c r="O17" s="162" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" s="174"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="173"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="150" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="152">
-        <v>0</v>
-      </c>
-      <c r="G18" s="162" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="174"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" s="152">
-        <v>0</v>
-      </c>
-      <c r="O18" s="162" t="s">
-        <v>127</v>
-      </c>
-      <c r="P18" s="174"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="173"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="152">
-        <v>0</v>
-      </c>
-      <c r="G19" s="162" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="174"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="150" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="161">
-        <v>0</v>
-      </c>
-      <c r="O19" s="162" t="s">
-        <v>105</v>
-      </c>
-      <c r="P19" s="174"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="173"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="150" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="161">
-        <v>0</v>
-      </c>
-      <c r="G20" s="162" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="174"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="154" t="s">
-        <v>96</v>
-      </c>
-      <c r="N20" s="153">
-        <v>0</v>
-      </c>
-      <c r="O20" s="163" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="174"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="173"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="154" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="153">
-        <v>0</v>
-      </c>
-      <c r="G21" s="163" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="174"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="180" t="s">
-        <v>122</v>
-      </c>
-      <c r="M21" s="180">
-        <f>ROWS(L8:L20)</f>
-        <v>13</v>
-      </c>
-      <c r="P21" s="174"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="173"/>
-      <c r="C22" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="180">
-        <f>ROWS(D8:D21)</f>
-        <v>14</v>
-      </c>
-      <c r="H22" s="174"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="170"/>
-      <c r="P22" s="174"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="173"/>
-      <c r="H23" s="174"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="170"/>
-      <c r="P23" s="174"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="173"/>
-      <c r="C24" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="174"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="P24" s="174"/>
-    </row>
-    <row r="25" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="173"/>
-      <c r="C25" s="275" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="276"/>
-      <c r="E25" s="276"/>
-      <c r="F25" s="276"/>
-      <c r="G25" s="277"/>
-      <c r="H25" s="174"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="275" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="276"/>
-      <c r="M25" s="276"/>
-      <c r="N25" s="276"/>
-      <c r="O25" s="277"/>
-      <c r="P25" s="174"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="173"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="174"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="M26" s="157" t="s">
-        <v>99</v>
-      </c>
-      <c r="N26" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="O26" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="174"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="173"/>
-      <c r="C27" s="272" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="150" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="162" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="174"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="147" t="s">
-        <v>88</v>
-      </c>
-      <c r="L27" s="167" t="s">
-        <v>112</v>
-      </c>
-      <c r="M27" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="N27" s="169">
-        <v>25569.000011574073</v>
-      </c>
-      <c r="O27" s="168" t="s">
-        <v>114</v>
-      </c>
-      <c r="P27" s="174"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="173"/>
-      <c r="C28" s="273"/>
-      <c r="D28" s="150" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="162" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="174"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="150" t="s">
-        <v>113</v>
-      </c>
-      <c r="M28" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="N28" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="162" t="s">
+      <c r="M78" s="172">
+        <f>ROWS(L31:L77)</f>
+        <v>47</v>
+      </c>
+      <c r="P78" s="169"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C79" s="147"/>
+      <c r="D79" s="149" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="163">
+        <v>0</v>
+      </c>
+      <c r="G79" s="145" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C80" s="147"/>
+      <c r="D80" s="149" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" s="163">
+        <v>0</v>
+      </c>
+      <c r="G80" s="145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C81" s="147"/>
+      <c r="D81" s="149" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="163">
+        <v>0</v>
+      </c>
+      <c r="G81" s="145" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="147"/>
+      <c r="D82" s="149" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="163">
+        <v>0</v>
+      </c>
+      <c r="G82" s="145" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C83" s="147"/>
+      <c r="D83" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="163">
+        <v>0</v>
+      </c>
+      <c r="G83" s="145" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C84" s="148"/>
+      <c r="D84" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="164">
+        <v>0</v>
+      </c>
+      <c r="G84" s="146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="P28" s="174"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="173"/>
-      <c r="C29" s="273"/>
-      <c r="D29" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="152">
-        <v>0</v>
-      </c>
-      <c r="G29" s="162" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="174"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="144" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="N29" s="151">
-        <v>0</v>
-      </c>
-      <c r="O29" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="P29" s="174"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="173"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="154" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="151">
-        <v>0</v>
-      </c>
-      <c r="G30" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="174"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="150" t="s">
-        <v>174</v>
-      </c>
-      <c r="M30" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N30" s="165">
-        <v>0</v>
-      </c>
-      <c r="O30" s="162" t="s">
-        <v>132</v>
-      </c>
-      <c r="P30" s="174"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="173"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="150" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="165">
-        <v>0</v>
-      </c>
-      <c r="G31" s="162" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="174"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="150" t="s">
-        <v>196</v>
-      </c>
-      <c r="M31" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N31" s="165">
-        <v>0</v>
-      </c>
-      <c r="O31" s="162" t="s">
-        <v>133</v>
-      </c>
-      <c r="P31" s="174"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="173"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="150" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="165">
-        <v>0</v>
-      </c>
-      <c r="G32" s="162" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="174"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="150" t="s">
-        <v>175</v>
-      </c>
-      <c r="M32" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N32" s="165">
-        <v>0</v>
-      </c>
-      <c r="O32" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="P32" s="174"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="173"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="150" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="165">
-        <v>0</v>
-      </c>
-      <c r="G33" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="174"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="150" t="s">
-        <v>197</v>
-      </c>
-      <c r="M33" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N33" s="165">
-        <v>0</v>
-      </c>
-      <c r="O33" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="P33" s="174"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="173"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="150" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="165">
-        <v>0</v>
-      </c>
-      <c r="G34" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" s="174"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="150" t="s">
-        <v>176</v>
-      </c>
-      <c r="M34" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N34" s="165">
-        <v>0</v>
-      </c>
-      <c r="O34" s="162" t="s">
-        <v>136</v>
-      </c>
-      <c r="P34" s="174"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="173"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="150" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="165">
-        <v>0</v>
-      </c>
-      <c r="G35" s="162" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="174"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="150" t="s">
-        <v>198</v>
-      </c>
-      <c r="M35" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N35" s="165">
-        <v>0</v>
-      </c>
-      <c r="O35" s="162" t="s">
-        <v>137</v>
-      </c>
-      <c r="P35" s="174"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="173"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="150" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="165">
-        <v>0</v>
-      </c>
-      <c r="G36" s="162" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="174"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="150" t="s">
-        <v>177</v>
-      </c>
-      <c r="M36" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N36" s="165">
-        <v>0</v>
-      </c>
-      <c r="O36" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="P36" s="174"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="173"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="150" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="165">
-        <v>0</v>
-      </c>
-      <c r="G37" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="174"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="150" t="s">
-        <v>199</v>
-      </c>
-      <c r="M37" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N37" s="165">
-        <v>0</v>
-      </c>
-      <c r="O37" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="P37" s="174"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="173"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="150" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="165">
-        <v>0</v>
-      </c>
-      <c r="G38" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" s="174"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="150" t="s">
-        <v>178</v>
-      </c>
-      <c r="M38" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N38" s="165">
-        <v>0</v>
-      </c>
-      <c r="O38" s="162" t="s">
-        <v>138</v>
-      </c>
-      <c r="P38" s="174"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="173"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="150" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="165">
-        <v>0</v>
-      </c>
-      <c r="G39" s="162" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="174"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="M39" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N39" s="165">
-        <v>0</v>
-      </c>
-      <c r="O39" s="162" t="s">
-        <v>139</v>
-      </c>
-      <c r="P39" s="174"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="173"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="165">
-        <v>0</v>
-      </c>
-      <c r="G40" s="162" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="174"/>
-      <c r="J40" s="173"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="150" t="s">
-        <v>179</v>
-      </c>
-      <c r="M40" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N40" s="165">
-        <v>0</v>
-      </c>
-      <c r="O40" s="162" t="s">
-        <v>140</v>
-      </c>
-      <c r="P40" s="174"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="173"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="150" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="165">
-        <v>0</v>
-      </c>
-      <c r="G41" s="162" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="174"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="150" t="s">
-        <v>201</v>
-      </c>
-      <c r="M41" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N41" s="165">
-        <v>0</v>
-      </c>
-      <c r="O41" s="162" t="s">
-        <v>141</v>
-      </c>
-      <c r="P41" s="174"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="173"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="150" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="165">
-        <v>0</v>
-      </c>
-      <c r="G42" s="162" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="174"/>
-      <c r="J42" s="173"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="150" t="s">
-        <v>180</v>
-      </c>
-      <c r="M42" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N42" s="165">
-        <v>0</v>
-      </c>
-      <c r="O42" s="162" t="s">
-        <v>138</v>
-      </c>
-      <c r="P42" s="174"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="173"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="150" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="165">
-        <v>0</v>
-      </c>
-      <c r="G43" s="162" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="174"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="150" t="s">
-        <v>202</v>
-      </c>
-      <c r="M43" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N43" s="165">
-        <v>0</v>
-      </c>
-      <c r="O43" s="162" t="s">
-        <v>139</v>
-      </c>
-      <c r="P43" s="174"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="173"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="150" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="165">
-        <v>0</v>
-      </c>
-      <c r="G44" s="162" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="174"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="150" t="s">
-        <v>181</v>
-      </c>
-      <c r="M44" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N44" s="165">
-        <v>0</v>
-      </c>
-      <c r="O44" s="162" t="s">
-        <v>142</v>
-      </c>
-      <c r="P44" s="174"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="173"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="150" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="165">
-        <v>0</v>
-      </c>
-      <c r="G45" s="162" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="174"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="159"/>
-      <c r="L45" s="150" t="s">
-        <v>203</v>
-      </c>
-      <c r="M45" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N45" s="165">
-        <v>0</v>
-      </c>
-      <c r="O45" s="162" t="s">
-        <v>143</v>
-      </c>
-      <c r="P45" s="174"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="173"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="150" t="s">
-        <v>203</v>
-      </c>
-      <c r="E46" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="165">
-        <v>0</v>
-      </c>
-      <c r="G46" s="162" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="174"/>
-      <c r="J46" s="173"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="M46" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N46" s="165">
-        <v>0</v>
-      </c>
-      <c r="O46" s="162" t="s">
-        <v>144</v>
-      </c>
-      <c r="P46" s="174"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="173"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="165">
-        <v>0</v>
-      </c>
-      <c r="G47" s="162" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="174"/>
-      <c r="J47" s="173"/>
-      <c r="K47" s="159"/>
-      <c r="L47" s="150" t="s">
-        <v>204</v>
-      </c>
-      <c r="M47" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N47" s="165">
-        <v>0</v>
-      </c>
-      <c r="O47" s="162" t="s">
-        <v>145</v>
-      </c>
-      <c r="P47" s="174"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="173"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="150" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="165">
-        <v>0</v>
-      </c>
-      <c r="G48" s="162" t="s">
-        <v>145</v>
-      </c>
-      <c r="H48" s="174"/>
-      <c r="J48" s="173"/>
-      <c r="K48" s="148"/>
-      <c r="L48" s="150" t="s">
-        <v>183</v>
-      </c>
-      <c r="M48" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N48" s="165">
-        <v>0</v>
-      </c>
-      <c r="O48" s="162" t="s">
-        <v>146</v>
-      </c>
-      <c r="P48" s="174"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="173"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="150" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="165">
-        <v>0</v>
-      </c>
-      <c r="G49" s="162" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="174"/>
-      <c r="J49" s="173"/>
-      <c r="K49" s="159"/>
-      <c r="L49" s="150" t="s">
-        <v>205</v>
-      </c>
-      <c r="M49" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N49" s="165">
-        <v>0</v>
-      </c>
-      <c r="O49" s="162" t="s">
-        <v>147</v>
-      </c>
-      <c r="P49" s="174"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="173"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="150" t="s">
-        <v>205</v>
-      </c>
-      <c r="E50" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="165">
-        <v>0</v>
-      </c>
-      <c r="G50" s="162" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" s="174"/>
-      <c r="J50" s="179"/>
-      <c r="K50" s="148"/>
-      <c r="L50" s="150" t="s">
-        <v>184</v>
-      </c>
-      <c r="M50" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N50" s="165">
-        <v>0</v>
-      </c>
-      <c r="O50" s="162" t="s">
-        <v>148</v>
-      </c>
-      <c r="P50" s="174"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="173"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="150" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51" s="165">
-        <v>0</v>
-      </c>
-      <c r="G51" s="162" t="s">
-        <v>148</v>
-      </c>
-      <c r="H51" s="174"/>
-      <c r="J51" s="173"/>
-      <c r="K51" s="159"/>
-      <c r="L51" s="150" t="s">
-        <v>206</v>
-      </c>
-      <c r="M51" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N51" s="165">
-        <v>0</v>
-      </c>
-      <c r="O51" s="162" t="s">
-        <v>149</v>
-      </c>
-      <c r="P51" s="174"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="173"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="150" t="s">
-        <v>206</v>
-      </c>
-      <c r="E52" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="165">
-        <v>0</v>
-      </c>
-      <c r="G52" s="162" t="s">
-        <v>149</v>
-      </c>
-      <c r="H52" s="174"/>
-      <c r="J52" s="173"/>
-      <c r="K52" s="148"/>
-      <c r="L52" s="150" t="s">
-        <v>220</v>
-      </c>
-      <c r="M52" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N52" s="165">
-        <v>0</v>
-      </c>
-      <c r="O52" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="P52" s="174"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="173"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="150" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="165">
-        <v>0</v>
-      </c>
-      <c r="G53" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="H53" s="174"/>
-      <c r="J53" s="173"/>
-      <c r="K53" s="148"/>
-      <c r="L53" s="150" t="s">
-        <v>217</v>
-      </c>
-      <c r="M53" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N53" s="165">
-        <v>0</v>
-      </c>
-      <c r="O53" s="145" t="s">
-        <v>151</v>
-      </c>
-      <c r="P53" s="174"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="173"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="150" t="s">
-        <v>217</v>
-      </c>
-      <c r="E54" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="165">
-        <v>0</v>
-      </c>
-      <c r="G54" s="145" t="s">
-        <v>151</v>
-      </c>
-      <c r="H54" s="174"/>
-      <c r="J54" s="173"/>
-      <c r="K54" s="148"/>
-      <c r="L54" s="150" t="s">
-        <v>218</v>
-      </c>
-      <c r="M54" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N54" s="165">
-        <v>0</v>
-      </c>
-      <c r="O54" s="145" t="s">
-        <v>152</v>
-      </c>
-      <c r="P54" s="174"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="173"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="150" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" s="165">
-        <v>0</v>
-      </c>
-      <c r="G55" s="145" t="s">
-        <v>152</v>
-      </c>
-      <c r="H55" s="174"/>
-      <c r="J55" s="173"/>
-      <c r="K55" s="148"/>
-      <c r="L55" s="150" t="s">
-        <v>219</v>
-      </c>
-      <c r="M55" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N55" s="165">
-        <v>0</v>
-      </c>
-      <c r="O55" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="P55" s="174"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="173"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="150" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="165">
-        <v>0</v>
-      </c>
-      <c r="G56" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="H56" s="174"/>
-      <c r="J56" s="173"/>
-      <c r="K56" s="148"/>
-      <c r="L56" s="150" t="s">
-        <v>185</v>
-      </c>
-      <c r="M56" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N56" s="165">
-        <v>0</v>
-      </c>
-      <c r="O56" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="P56" s="174"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="173"/>
-      <c r="C57" s="148"/>
-      <c r="D57" s="150" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="165">
-        <v>0</v>
-      </c>
-      <c r="G57" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="H57" s="174"/>
-      <c r="J57" s="173"/>
-      <c r="K57" s="148"/>
-      <c r="L57" s="150" t="s">
-        <v>207</v>
-      </c>
-      <c r="M57" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N57" s="165">
-        <v>0</v>
-      </c>
-      <c r="O57" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="P57" s="174"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="173"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="150" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="165">
-        <v>0</v>
-      </c>
-      <c r="G58" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="H58" s="174"/>
-      <c r="J58" s="173"/>
-      <c r="K58" s="148"/>
-      <c r="L58" s="150" t="s">
-        <v>186</v>
-      </c>
-      <c r="M58" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N58" s="165">
-        <v>0</v>
-      </c>
-      <c r="O58" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="P58" s="174"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="173"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="150" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="165">
-        <v>0</v>
-      </c>
-      <c r="G59" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="H59" s="174"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="148"/>
-      <c r="L59" s="150" t="s">
-        <v>208</v>
-      </c>
-      <c r="M59" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N59" s="165">
-        <v>0</v>
-      </c>
-      <c r="O59" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="P59" s="174"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="173"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="150" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="165">
-        <v>0</v>
-      </c>
-      <c r="G60" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="H60" s="174"/>
-      <c r="J60" s="173"/>
-      <c r="K60" s="148"/>
-      <c r="L60" s="150" t="s">
-        <v>187</v>
-      </c>
-      <c r="M60" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N60" s="165">
-        <v>0</v>
-      </c>
-      <c r="O60" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="P60" s="174"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="173"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="150" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" s="165">
-        <v>0</v>
-      </c>
-      <c r="G61" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="H61" s="174"/>
-      <c r="J61" s="173"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="M61" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N61" s="165">
-        <v>0</v>
-      </c>
-      <c r="O61" s="145" t="s">
-        <v>159</v>
-      </c>
-      <c r="P61" s="174"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="173"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="E62" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="165">
-        <v>0</v>
-      </c>
-      <c r="G62" s="145" t="s">
-        <v>159</v>
-      </c>
-      <c r="H62" s="174"/>
-      <c r="J62" s="173"/>
-      <c r="K62" s="148"/>
-      <c r="L62" s="150" t="s">
-        <v>188</v>
-      </c>
-      <c r="M62" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N62" s="165">
-        <v>0</v>
-      </c>
-      <c r="O62" s="145" t="s">
-        <v>161</v>
-      </c>
-      <c r="P62" s="174"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="173"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="150" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="165">
-        <v>0</v>
-      </c>
-      <c r="G63" s="145" t="s">
-        <v>161</v>
-      </c>
-      <c r="H63" s="174"/>
-      <c r="J63" s="173"/>
-      <c r="K63" s="148"/>
-      <c r="L63" s="150" t="s">
-        <v>210</v>
-      </c>
-      <c r="M63" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N63" s="165">
-        <v>0</v>
-      </c>
-      <c r="O63" s="145" t="s">
-        <v>160</v>
-      </c>
-      <c r="P63" s="174"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="173"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="150" t="s">
-        <v>210</v>
-      </c>
-      <c r="E64" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F64" s="165">
-        <v>0</v>
-      </c>
-      <c r="G64" s="145" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" s="174"/>
-      <c r="J64" s="173"/>
-      <c r="K64" s="148"/>
-      <c r="L64" s="150" t="s">
-        <v>189</v>
-      </c>
-      <c r="M64" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N64" s="165">
-        <v>0</v>
-      </c>
-      <c r="O64" s="145" t="s">
-        <v>162</v>
-      </c>
-      <c r="P64" s="174"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="173"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="150" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" s="165">
-        <v>0</v>
-      </c>
-      <c r="G65" s="145" t="s">
-        <v>162</v>
-      </c>
-      <c r="H65" s="174"/>
-      <c r="J65" s="173"/>
-      <c r="K65" s="148"/>
-      <c r="L65" s="150" t="s">
-        <v>211</v>
-      </c>
-      <c r="M65" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N65" s="165">
-        <v>0</v>
-      </c>
-      <c r="O65" s="145" t="s">
-        <v>163</v>
-      </c>
-      <c r="P65" s="174"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="173"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="150" t="s">
-        <v>211</v>
-      </c>
-      <c r="E66" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F66" s="165">
-        <v>0</v>
-      </c>
-      <c r="G66" s="145" t="s">
-        <v>163</v>
-      </c>
-      <c r="H66" s="174"/>
-      <c r="J66" s="173"/>
-      <c r="K66" s="148"/>
-      <c r="L66" s="150" t="s">
-        <v>190</v>
-      </c>
-      <c r="M66" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N66" s="165">
-        <v>0</v>
-      </c>
-      <c r="O66" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="P66" s="174"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="173"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="150" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F67" s="165">
-        <v>0</v>
-      </c>
-      <c r="G67" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="H67" s="174"/>
-      <c r="J67" s="173"/>
-      <c r="K67" s="148"/>
-      <c r="L67" s="150" t="s">
-        <v>212</v>
-      </c>
-      <c r="M67" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N67" s="165">
-        <v>0</v>
-      </c>
-      <c r="O67" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="P67" s="174"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="173"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="150" t="s">
-        <v>212</v>
-      </c>
-      <c r="E68" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="165">
-        <v>0</v>
-      </c>
-      <c r="G68" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="H68" s="174"/>
-      <c r="J68" s="173"/>
-      <c r="K68" s="148"/>
-      <c r="L68" s="150" t="s">
-        <v>191</v>
-      </c>
-      <c r="M68" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N68" s="165">
-        <v>0</v>
-      </c>
-      <c r="O68" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="P68" s="174"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="173"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="150" t="s">
-        <v>191</v>
-      </c>
-      <c r="E69" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F69" s="165">
-        <v>0</v>
-      </c>
-      <c r="G69" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" s="174"/>
-      <c r="J69" s="173"/>
-      <c r="K69" s="148"/>
-      <c r="L69" s="150" t="s">
-        <v>213</v>
-      </c>
-      <c r="M69" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N69" s="165">
-        <v>0</v>
-      </c>
-      <c r="O69" s="145" t="s">
-        <v>167</v>
-      </c>
-      <c r="P69" s="174"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="173"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="150" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="165">
-        <v>0</v>
-      </c>
-      <c r="G70" s="145" t="s">
-        <v>167</v>
-      </c>
-      <c r="H70" s="174"/>
-      <c r="J70" s="173"/>
-      <c r="K70" s="148"/>
-      <c r="L70" s="150" t="s">
-        <v>192</v>
-      </c>
-      <c r="M70" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N70" s="165">
-        <v>0</v>
-      </c>
-      <c r="O70" s="145" t="s">
-        <v>168</v>
-      </c>
-      <c r="P70" s="174"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="173"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="150" t="s">
-        <v>192</v>
-      </c>
-      <c r="E71" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="165">
-        <v>0</v>
-      </c>
-      <c r="G71" s="145" t="s">
-        <v>168</v>
-      </c>
-      <c r="H71" s="174"/>
-      <c r="J71" s="173"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="150" t="s">
-        <v>214</v>
-      </c>
-      <c r="M71" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N71" s="165">
-        <v>0</v>
-      </c>
-      <c r="O71" s="145" t="s">
-        <v>169</v>
-      </c>
-      <c r="P71" s="174"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="173"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="150" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" s="165">
-        <v>0</v>
-      </c>
-      <c r="G72" s="145" t="s">
-        <v>169</v>
-      </c>
-      <c r="H72" s="174"/>
-      <c r="J72" s="173"/>
-      <c r="K72" s="148"/>
-      <c r="L72" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="M72" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N72" s="165">
-        <v>0</v>
-      </c>
-      <c r="O72" s="145" t="s">
-        <v>170</v>
-      </c>
-      <c r="P72" s="174"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="173"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="E73" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" s="165">
-        <v>0</v>
-      </c>
-      <c r="G73" s="145" t="s">
-        <v>170</v>
-      </c>
-      <c r="H73" s="174"/>
-      <c r="J73" s="173"/>
-      <c r="K73" s="148"/>
-      <c r="L73" s="150" t="s">
-        <v>215</v>
-      </c>
-      <c r="M73" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N73" s="165">
-        <v>0</v>
-      </c>
-      <c r="O73" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="P73" s="174"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="173"/>
-      <c r="C74" s="148"/>
-      <c r="D74" s="150" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F74" s="165">
-        <v>0</v>
-      </c>
-      <c r="G74" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="H74" s="174"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="148"/>
-      <c r="L74" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="M74" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="N74" s="165">
-        <v>0</v>
-      </c>
-      <c r="O74" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="P74" s="174"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="173"/>
-      <c r="C75" s="148"/>
-      <c r="D75" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="E75" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="165">
-        <v>0</v>
-      </c>
-      <c r="G75" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="H75" s="174"/>
-      <c r="J75" s="173"/>
-      <c r="K75" s="149"/>
-      <c r="L75" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="M75" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="N75" s="166">
-        <v>0</v>
-      </c>
-      <c r="O75" s="146" t="s">
-        <v>173</v>
-      </c>
-      <c r="P75" s="174"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="173"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="166">
-        <v>0</v>
-      </c>
-      <c r="G76" s="146" t="s">
-        <v>173</v>
-      </c>
-      <c r="H76" s="174"/>
-      <c r="J76" s="173"/>
-      <c r="K76" s="170" t="s">
-        <v>122</v>
-      </c>
-      <c r="M76" s="180">
-        <f>ROWS(L27:L75)</f>
-        <v>49</v>
-      </c>
-      <c r="P76" s="174"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="173"/>
-      <c r="C77" s="170" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="180">
-        <f>ROWS(D27:D76)</f>
+      <c r="E85" s="172">
+        <f>ROWS(D35:D84)</f>
         <v>50</v>
       </c>
-      <c r="H77" s="174"/>
-      <c r="J77" s="173"/>
-      <c r="P77" s="174"/>
-    </row>
-    <row r="78" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="175"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="176"/>
-      <c r="E78" s="176"/>
-      <c r="F78" s="176"/>
-      <c r="G78" s="176"/>
-      <c r="H78" s="177"/>
-      <c r="J78" s="175"/>
-      <c r="K78" s="176"/>
-      <c r="L78" s="176"/>
-      <c r="M78" s="176"/>
-      <c r="N78" s="176"/>
-      <c r="O78" s="176"/>
-      <c r="P78" s="177"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="K19:O19"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="K6:O6"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3621387-B5FB-4BAC-9A35-E753EFD8B61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2F77E-F064-4B3A-8743-552AB5CEB3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="645" windowWidth="33540" windowHeight="20070" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="테이블 정의서" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table!$C$6:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table!$C$6:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Table!$A$1:$AI$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$A$1:$M$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'테이블 정의서'!$A$2:$P$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'테이블 정의서'!$A$2:$Q$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="222">
   <si>
     <t>테스트</t>
   </si>
@@ -890,15 +890,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>VIDEO_FEATURE_FM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_EA</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>USER_FM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Increase Number</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1166,7 +1170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="100">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -2065,21 +2069,6 @@
         <color auto="1"/>
       </right>
       <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -2395,24 +2384,52 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2421,7 +2438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2563,12 +2580,6 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2623,19 +2634,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2644,25 +2646,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2674,7 +2673,7 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2695,13 +2694,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2740,16 +2739,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1">
@@ -2824,6 +2823,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2836,28 +2838,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="92" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
@@ -2905,7 +2892,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2929,7 +2916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2941,33 +2928,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3046,19 +3042,19 @@
     <xf numFmtId="49" fontId="4" fillId="11" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3068,6 +3064,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3085,12 +3135,6 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3106,21 +3150,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3151,48 +3186,6 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3214,50 +3207,137 @@
     <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="94" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="95" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3938,10 +4018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3961,94 +4041,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85"/>
+      <c r="A1" s="79"/>
       <c r="B1" s="45"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="86"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="174" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106" t="s">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="107">
+      <c r="J2" s="101">
         <f ca="1">TODAY()</f>
-        <v>45280</v>
-      </c>
-      <c r="K2" s="108" t="s">
+        <v>45286</v>
+      </c>
+      <c r="K2" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="109">
+      <c r="L2" s="103">
         <f>K6</f>
-        <v>0</v>
+        <v>0.56500000000000006</v>
       </c>
       <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
-      <c r="B3" s="186" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="190" t="s">
+      <c r="D3" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="192" t="s">
+      <c r="E3" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="205" t="s">
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="180"/>
+      <c r="L3" s="173"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="182"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="175"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
@@ -4064,8 +4144,8 @@
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="207"/>
-      <c r="K5" s="84" t="s">
+      <c r="J5" s="200"/>
+      <c r="K5" s="78" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -4073,11 +4153,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" s="200" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="201"/>
+      <c r="C6" s="194"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="str">
         <f>CONCATENATE(NETWORKDAYS(F6,G6),"일")</f>
@@ -4096,27 +4176,27 @@
       </c>
       <c r="I6" s="19">
         <f>SUM(K7, K17, K26, K28)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="64">
+        <v>0.56500000000000006</v>
+      </c>
+      <c r="J6" s="62">
         <f>SUM(J7, J17, J26, J28)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="55">
         <f>SUM(K7, K17, K26, K28)</f>
-        <v>0</v>
+        <v>0.56500000000000006</v>
       </c>
       <c r="L6" s="31">
         <f t="shared" ref="L6:L28" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
-      <c r="B7" s="208" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="209"/>
+      <c r="C7" s="202"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="str">
         <f>CONCATENATE(NETWORKDAYS(F7,G7),"일")</f>
@@ -4136,26 +4216,26 @@
       <c r="I7" s="15">
         <v>0.1</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="63">
         <f>I7</f>
         <v>0.1</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="56">
         <f>SUM(K8:K11)</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L7" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
-      <c r="B8" s="210" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="52" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4177,19 +4257,22 @@
       <c r="I8" s="11">
         <v>0.8</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="59">
+      <c r="J8" s="64">
+        <f>$J$7/COUNT($I$8:$I$16)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K8" s="57">
         <f>I8*J8</f>
-        <v>0</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="211"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -4212,10 +4295,13 @@
       <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="59">
-        <f t="shared" ref="K9:K16" si="2">I9*J9</f>
-        <v>0</v>
+      <c r="J9" s="64">
+        <f t="shared" ref="J9:J16" si="2">$J$7/COUNT($I$8:$I$16)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K9" s="57">
+        <f t="shared" ref="K9:K16" si="3">I9*J9</f>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="L9" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4223,8 +4309,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="211"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
@@ -4247,10 +4333,13 @@
       <c r="I10" s="11">
         <v>1</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="59">
+      <c r="J10" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K10" s="57">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="L10" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4258,8 +4347,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
-      <c r="B11" s="211"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -4282,10 +4371,13 @@
       <c r="I11" s="11">
         <v>0.8</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="59">
+      <c r="J11" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K11" s="57">
+        <f t="shared" si="3"/>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="L11" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4293,8 +4385,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="211"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
@@ -4317,10 +4409,13 @@
       <c r="I12" s="11">
         <v>0.8</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="59">
+      <c r="J12" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K12" s="57">
+        <f t="shared" si="3"/>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="L12" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4328,9 +4423,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="94" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="88" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4352,10 +4447,13 @@
       <c r="I13" s="11">
         <v>0.7</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="59">
+      <c r="J13" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K13" s="57">
+        <f t="shared" si="3"/>
+        <v>7.7777777777777776E-3</v>
       </c>
       <c r="L13" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4363,15 +4461,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="211"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="90" t="str">
+      <c r="E14" s="84" t="str">
         <f t="shared" si="1"/>
         <v>4일</v>
       </c>
@@ -4381,32 +4479,35 @@
       <c r="G14" s="20">
         <v>45258</v>
       </c>
-      <c r="H14" s="213" t="s">
+      <c r="H14" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="91">
+      <c r="I14" s="85">
         <v>0.7</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="92">
+      <c r="J14" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="93">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K14" s="86">
+        <f t="shared" si="3"/>
+        <v>7.7777777777777776E-3</v>
+      </c>
+      <c r="L14" s="87">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
-      <c r="B15" s="211"/>
-      <c r="C15" s="94" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="90" t="str">
+      <c r="E15" s="84" t="str">
         <f t="shared" si="1"/>
         <v>2일</v>
       </c>
@@ -4416,30 +4517,33 @@
       <c r="G15" s="20">
         <v>45258</v>
       </c>
-      <c r="H15" s="214"/>
-      <c r="I15" s="91">
+      <c r="H15" s="207"/>
+      <c r="I15" s="85">
         <v>1</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="92">
+      <c r="J15" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="93">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K15" s="86">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="L15" s="87">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="90" t="str">
+      <c r="E16" s="84" t="str">
         <f t="shared" si="1"/>
         <v>2일</v>
       </c>
@@ -4449,26 +4553,29 @@
       <c r="G16" s="20">
         <v>45258</v>
       </c>
-      <c r="H16" s="215"/>
-      <c r="I16" s="91">
+      <c r="H16" s="208"/>
+      <c r="I16" s="85">
         <v>0.9</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="92">
+      <c r="J16" s="64">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="93">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K16" s="86">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="87">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="208" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="209"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F17,G17),"일")</f>
@@ -4486,13 +4593,13 @@
       <c r="I17" s="23">
         <v>0.7</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="65">
         <f>I17</f>
         <v>0.7</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="58">
         <f>SUM(K18:K25)</f>
-        <v>0</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="L17" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4500,14 +4607,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="183" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="202" t="s">
+      <c r="C18" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="5" t="str">
@@ -4526,10 +4633,13 @@
       <c r="I18" s="11">
         <v>0.8</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="59">
+      <c r="J18" s="64">
+        <f>$J$17/COUNT($I$18:$I$25)</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K18" s="57">
         <f>I18*J18</f>
-        <v>0</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="L18" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4537,10 +4647,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="87"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="52" t="s">
+      <c r="A19" s="81"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="5" t="str">
@@ -4559,10 +4669,13 @@
       <c r="I19" s="11">
         <v>1</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="59">
-        <f t="shared" ref="K19:K25" si="3">I19*J19</f>
-        <v>0</v>
+      <c r="J19" s="64">
+        <f t="shared" ref="J19:J25" si="4">$J$17/COUNT($I$18:$I$25)</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K19" s="57">
+        <f t="shared" ref="K19:K25" si="5">I19*J19</f>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="L19" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4570,10 +4683,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="49" t="s">
+      <c r="A20" s="81"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="5" t="str">
@@ -4592,10 +4705,13 @@
       <c r="I20" s="11">
         <v>0.8</v>
       </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="J20" s="64">
+        <f t="shared" si="4"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K20" s="57">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="L20" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4603,10 +4719,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="49" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="5" t="str">
@@ -4625,10 +4741,13 @@
       <c r="I21" s="11">
         <v>0.8</v>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="J21" s="64">
+        <f t="shared" si="4"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K21" s="57">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="L21" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4636,12 +4755,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="128" t="s">
+      <c r="A22" s="81"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="5" t="str">
@@ -4660,10 +4779,13 @@
       <c r="I22" s="11">
         <v>0.8</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="J22" s="64">
+        <f t="shared" si="4"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K22" s="57">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="L22" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4671,12 +4793,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="198" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="5" t="str">
@@ -4693,12 +4815,15 @@
         <v>2</v>
       </c>
       <c r="I23" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="J23" s="64">
+        <f t="shared" si="4"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K23" s="57">
+        <f t="shared" si="5"/>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L23" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4706,9 +4831,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="199"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
@@ -4726,12 +4851,15 @@
         <v>38</v>
       </c>
       <c r="I24" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="J24" s="66"/>
-      <c r="K24" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="64">
+        <f t="shared" si="4"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K24" s="57">
+        <f t="shared" si="5"/>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L24" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4739,9 +4867,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="51" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -4761,12 +4889,15 @@
         <v>2</v>
       </c>
       <c r="I25" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="J25" s="66"/>
-      <c r="K25" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="64">
+        <f t="shared" si="4"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K25" s="57">
+        <f t="shared" si="5"/>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="L25" s="33">
         <f t="shared" ca="1" si="0"/>
@@ -4774,8 +4905,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="89" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4798,29 +4929,29 @@
       <c r="I26" s="23">
         <v>0.1</v>
       </c>
-      <c r="J26" s="69">
+      <c r="J26" s="65">
         <f>I26</f>
         <v>0.1</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="58">
         <f>SUM(K27:K27)</f>
         <v>0</v>
       </c>
       <c r="L26" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="48" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4838,19 +4969,21 @@
       <c r="I27" s="12">
         <v>0</v>
       </c>
-      <c r="J27" s="70"/>
-      <c r="K27" s="61">
-        <f t="shared" ref="K27" si="4">I27*J27</f>
+      <c r="J27" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="59">
+        <f t="shared" ref="K27" si="6">I27*J27</f>
         <v>0</v>
       </c>
       <c r="L27" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
-      <c r="B28" s="89" t="s">
+      <c r="A28" s="81"/>
+      <c r="B28" s="83" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="38" t="s">
@@ -4873,25 +5006,25 @@
       <c r="I28" s="23">
         <v>0.1</v>
       </c>
-      <c r="J28" s="69">
+      <c r="J28" s="65">
         <f>I28</f>
         <v>0.1</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="58">
         <f>SUM(K29:K31)</f>
         <v>0</v>
       </c>
       <c r="L28" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
-      <c r="B29" s="176" t="s">
+      <c r="A29" s="81"/>
+      <c r="B29" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="26" t="s">
@@ -4901,32 +5034,35 @@
         <f>CONCATENATE(NETWORKDAYS(F30,G30),"일")</f>
         <v>5일</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="54">
         <v>45285</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="54">
         <v>45289</v>
       </c>
-      <c r="H29" s="56" t="s">
+      <c r="H29" s="54" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="29">
         <v>0</v>
       </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="62">
+      <c r="J29" s="66">
+        <f>$J$28/COUNT($I$29:$I$31)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K29" s="60">
         <f>I29*J29</f>
         <v>0</v>
       </c>
       <c r="L29" s="37">
         <f ca="1">IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="51" t="s">
+      <c r="A30" s="81"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -4948,50 +5084,59 @@
       <c r="I30" s="12">
         <v>0</v>
       </c>
-      <c r="J30" s="72"/>
-      <c r="K30" s="63">
-        <f t="shared" ref="K30:K31" si="5">I30*J30</f>
+      <c r="J30" s="67">
+        <f>$J$28/COUNT($I$29:$I$31)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K30" s="61">
+        <f>I30*J30</f>
         <v>0</v>
       </c>
       <c r="L30" s="33">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="55"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="73" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="75" t="str">
+      <c r="E31" s="70" t="str">
         <f>CONCATENATE(NETWORKDAYS(F31,G31),"일")</f>
         <v>1일</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="71">
         <v>45289</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="71">
         <v>45289</v>
       </c>
-      <c r="H31" s="77" t="s">
+      <c r="H31" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="78">
-        <v>0</v>
-      </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="81">
+      <c r="I31" s="73">
+        <v>0</v>
+      </c>
+      <c r="J31" s="299">
+        <f>$J$28/COUNT($I$29:$I$31)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K31" s="74">
+        <f>I31*J31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="75">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J32" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5073,10 +5218,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:AH19"/>
+  <dimension ref="B3:AH20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5087,145 +5232,145 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="234"/>
+      <c r="E3" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="244"/>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="244"/>
-      <c r="AG3" s="244"/>
-      <c r="AH3" s="245"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="214"/>
+      <c r="AG3" s="214"/>
+      <c r="AH3" s="215"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="224"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="246" t="s">
+      <c r="B4" s="233"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="247"/>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="247"/>
-      <c r="AH4" s="248"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
+      <c r="AE4" s="217"/>
+      <c r="AF4" s="217"/>
+      <c r="AG4" s="217"/>
+      <c r="AH4" s="218"/>
     </row>
     <row r="5" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="232">
+      <c r="C5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="222">
         <v>1</v>
       </c>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="254">
+      <c r="F5" s="223"/>
+      <c r="G5" s="223"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="225">
         <v>2</v>
       </c>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="248"/>
-      <c r="O5" s="255">
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="226">
         <v>3</v>
       </c>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="248"/>
-      <c r="T5" s="249">
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="218"/>
+      <c r="T5" s="219">
         <v>4</v>
       </c>
-      <c r="U5" s="250"/>
-      <c r="V5" s="250"/>
-      <c r="W5" s="250"/>
-      <c r="X5" s="251"/>
-      <c r="Y5" s="249">
+      <c r="U5" s="220"/>
+      <c r="V5" s="220"/>
+      <c r="W5" s="220"/>
+      <c r="X5" s="221"/>
+      <c r="Y5" s="219">
         <v>5</v>
       </c>
-      <c r="Z5" s="250"/>
-      <c r="AA5" s="250"/>
-      <c r="AB5" s="250"/>
-      <c r="AC5" s="251"/>
-      <c r="AD5" s="256">
+      <c r="Z5" s="220"/>
+      <c r="AA5" s="220"/>
+      <c r="AB5" s="220"/>
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="287">
         <v>6</v>
       </c>
-      <c r="AE5" s="252"/>
-      <c r="AF5" s="252"/>
-      <c r="AG5" s="252"/>
-      <c r="AH5" s="253"/>
+      <c r="AE5" s="288"/>
+      <c r="AF5" s="288"/>
+      <c r="AG5" s="288"/>
+      <c r="AH5" s="289"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="228" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
+      <c r="C6" s="211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="212"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="40"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -5240,29 +5385,29 @@
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="275"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="128"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="130"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="228" t="s">
+      <c r="C7" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="27"/>
       <c r="I7" s="41"/>
       <c r="J7" s="40"/>
@@ -5279,33 +5424,33 @@
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="137"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="275"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="40"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="131"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
+      <c r="AH7" s="132"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="228" t="s">
+      <c r="C8" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="229"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="110"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="104"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="41"/>
@@ -5318,33 +5463,33 @@
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="137"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="275"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
       <c r="AB8" s="27"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="40"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="131"/>
       <c r="AE8" s="27"/>
       <c r="AF8" s="27"/>
       <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
+      <c r="AH8" s="132"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="228" t="s">
+      <c r="C9" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="229"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="110"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="41"/>
@@ -5357,72 +5502,72 @@
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="137"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="275"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="40"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="131"/>
       <c r="AE9" s="27"/>
       <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
+      <c r="AH9" s="132"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="216" t="s">
+      <c r="B10" s="227" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="230" t="s">
+      <c r="C10" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="231"/>
+      <c r="D10" s="238"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="280"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="290"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
       <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
+      <c r="AH10" s="132"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="217"/>
-      <c r="C11" s="232" t="s">
+      <c r="B11" s="228"/>
+      <c r="C11" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="233"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
       <c r="N11" s="41"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
@@ -5433,136 +5578,136 @@
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="137"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="275"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="40"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="131"/>
       <c r="AE11" s="27"/>
       <c r="AF11" s="27"/>
       <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
+      <c r="AH11" s="132"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="217"/>
-      <c r="C12" s="234" t="s">
+      <c r="B12" s="228"/>
+      <c r="C12" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="235"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="137"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="275"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="40"/>
+      <c r="AC12" s="123"/>
+      <c r="AD12" s="131"/>
       <c r="AE12" s="27"/>
       <c r="AF12" s="27"/>
       <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
+      <c r="AH12" s="132"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="217"/>
-      <c r="C13" s="219" t="s">
+      <c r="B13" s="228"/>
+      <c r="C13" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="220"/>
+      <c r="D13" s="231"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="114"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="108"/>
       <c r="T13" s="40"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="137"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="275"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="40"/>
+      <c r="AC13" s="123"/>
+      <c r="AD13" s="131"/>
       <c r="AE13" s="27"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
+      <c r="AH13" s="132"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="218"/>
-      <c r="C14" s="219" t="s">
+      <c r="B14" s="229"/>
+      <c r="C14" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="220"/>
+      <c r="D14" s="231"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
       <c r="R14" s="27"/>
       <c r="S14" s="41"/>
       <c r="T14" s="40"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="137"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="275"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
       <c r="AB14" s="27"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="40"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="131"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
+      <c r="AH14" s="132"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="239" t="s">
+      <c r="B15" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="241" t="s">
+      <c r="C15" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="242"/>
+      <c r="D15" s="248"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -5578,28 +5723,28 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="41"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="282"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="291"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
       <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
+      <c r="AH15" s="132"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="240"/>
-      <c r="C16" s="221" t="s">
+      <c r="B16" s="281"/>
+      <c r="C16" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="222"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -5613,32 +5758,30 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="283"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="292"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
       <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
+      <c r="AH16" s="132"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="228" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="229"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="212"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -5652,32 +5795,32 @@
       <c r="O17" s="40"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="142"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="143"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
+      <c r="R17" s="277"/>
+      <c r="S17" s="279"/>
+      <c r="T17" s="276"/>
+      <c r="U17" s="277"/>
+      <c r="V17" s="277"/>
+      <c r="W17" s="277"/>
+      <c r="X17" s="285"/>
+      <c r="Y17" s="284"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="293"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
       <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-    </row>
-    <row r="18" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="221" t="s">
+      <c r="AH17" s="132"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="222"/>
+      <c r="D18" s="212"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -5697,24 +5840,80 @@
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="140"/>
-      <c r="AA18" s="140"/>
-      <c r="AB18" s="140"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="112"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="278"/>
+      <c r="Z18" s="277"/>
+      <c r="AA18" s="277"/>
+      <c r="AB18" s="277"/>
+      <c r="AC18" s="286"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="132"/>
+    </row>
+    <row r="19" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="275"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="294"/>
+      <c r="AE19" s="295"/>
+      <c r="AF19" s="295"/>
+      <c r="AG19" s="296"/>
+      <c r="AH19" s="297"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E3:AH3"/>
@@ -5725,25 +5924,9 @@
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="O5:S5"/>
     <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C6:D12 C13:C14 C15:D18">
+  <conditionalFormatting sqref="C6:D12 C13:C14 C15:D16 C18:D19 C17">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="공통">
       <formula>NOT(ISERROR(SEARCH("공통",C6)))</formula>
     </cfRule>
@@ -5763,11 +5946,11 @@
       <formula>NOT(ISERROR(SEARCH("김민수",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:D19" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:D20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$V$6:$V$16</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 C6:C18 D17:D18 D10:D12" xr:uid="{22A8CB1A-FB55-4200-B183-D5E061690655}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D18:D19 D10:D12 C6:C19" xr:uid="{22A8CB1A-FB55-4200-B183-D5E061690655}">
       <formula1>"공통, 김민수, 이찬녕, 이형석, 임유하, 전혁선"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5781,7 +5964,7 @@
   <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5793,96 +5976,96 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="93" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="90" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="257"/>
-      <c r="C5" s="102" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="98" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="258"/>
-      <c r="C6" s="103" t="s">
+      <c r="B6" s="250"/>
+      <c r="C6" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="89" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="251" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="99" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="260"/>
-      <c r="C8" s="101" t="s">
+      <c r="B8" s="252"/>
+      <c r="C8" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="98" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="260"/>
-      <c r="C9" s="101" t="s">
+      <c r="B9" s="252"/>
+      <c r="C9" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="98" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="260"/>
-      <c r="C10" s="262" t="s">
+      <c r="B10" s="252"/>
+      <c r="C10" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="98" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="260"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="104" t="s">
+      <c r="B11" s="252"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="98" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="261"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="253"/>
+      <c r="C12" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="89" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5903,10 +6086,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:P85"/>
+  <dimension ref="B2:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5931,2358 +6114,2369 @@
   <sheetData>
     <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="264" t="s">
+      <c r="B3" s="259" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="265"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="167"/>
-      <c r="J3" s="170" t="s">
+      <c r="C3" s="260"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
+      <c r="J3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
     </row>
     <row r="4" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="168"/>
-      <c r="H4" s="169"/>
-      <c r="J4" s="168"/>
-      <c r="P4" s="169"/>
+      <c r="B4" s="158"/>
+      <c r="H4" s="159"/>
+      <c r="J4" s="158"/>
+      <c r="P4" s="159"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="168"/>
-      <c r="C5" s="165" t="s">
+      <c r="B5" s="158"/>
+      <c r="C5" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="165" t="s">
+      <c r="H5" s="159"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="P5" s="169"/>
+      <c r="P5" s="159"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="168"/>
-      <c r="C6" s="269" t="s">
+      <c r="B6" s="158"/>
+      <c r="C6" s="256" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="169"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="269" t="s">
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="159"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="256" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="258"/>
+      <c r="P6" s="159"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="158"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="159"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="159"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="158"/>
+      <c r="C8" s="163" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="164"/>
+      <c r="G8" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="159"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="149" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="143" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="159"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="158"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="141">
+        <v>0</v>
+      </c>
+      <c r="G9" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="159"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="261" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="261" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="261"/>
+      <c r="O9" s="151" t="s">
+        <v>221</v>
+      </c>
+      <c r="P9" s="159"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="158"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="141">
+        <v>0</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="159"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="141">
+        <v>0</v>
+      </c>
+      <c r="O10" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="159"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="158"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="141">
+        <v>0</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="159"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="141">
+        <v>0</v>
+      </c>
+      <c r="O11" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="159"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="158"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="141">
+        <v>0</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="159"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="141">
+        <v>0</v>
+      </c>
+      <c r="O12" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="159"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="158"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="141">
+        <v>0</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="159"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="141">
+        <v>0</v>
+      </c>
+      <c r="O13" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="159"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="158"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="141">
+        <v>0</v>
+      </c>
+      <c r="G14" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="159"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="141">
+        <v>0</v>
+      </c>
+      <c r="O14" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="159"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="158"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="141">
+        <v>0</v>
+      </c>
+      <c r="G15" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="159"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="141">
+        <v>0</v>
+      </c>
+      <c r="O15" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" s="159"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="158"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="141">
+        <v>0</v>
+      </c>
+      <c r="G16" s="151" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="159"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="140">
+        <v>0</v>
+      </c>
+      <c r="O16" s="152" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="159"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="158"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="150">
+        <v>0</v>
+      </c>
+      <c r="G17" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="159"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="162">
+        <f>ROWS(L8:L16)</f>
+        <v>9</v>
+      </c>
+      <c r="P17" s="159"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="158"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="261" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="261" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="264">
+        <v>0</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="159"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="P18" s="159"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="158"/>
+      <c r="C19" s="262"/>
+      <c r="D19" s="261" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="261" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="261" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="151" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="159"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="155" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" s="159"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="158"/>
+      <c r="C20" s="262"/>
+      <c r="D20" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="151" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="159"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="256" t="s">
         <v>219</v>
       </c>
-      <c r="L6" s="270"/>
-      <c r="M6" s="270"/>
-      <c r="N6" s="270"/>
-      <c r="O6" s="271"/>
-      <c r="P6" s="169"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="168"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155" t="s">
+      <c r="L20" s="257"/>
+      <c r="M20" s="257"/>
+      <c r="N20" s="257"/>
+      <c r="O20" s="258"/>
+      <c r="P20" s="159"/>
+      <c r="R20" s="269"/>
+      <c r="S20" s="269"/>
+      <c r="T20" s="269"/>
+      <c r="U20" s="269"/>
+      <c r="V20" s="269"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="158"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="140">
+        <v>0</v>
+      </c>
+      <c r="G21" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="159"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="M21" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="N21" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="157" t="s">
+      <c r="O21" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="155" t="s">
+      <c r="P21" s="159"/>
+      <c r="R21" s="269"/>
+      <c r="S21" s="270"/>
+      <c r="T21" s="270"/>
+      <c r="U21" s="270"/>
+      <c r="V21" s="270"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="158"/>
+      <c r="C22" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="162">
+        <f>ROWS(D8:D21)</f>
+        <v>14</v>
+      </c>
+      <c r="H22" s="159"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="149" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="143" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="159"/>
+      <c r="R22" s="261"/>
+      <c r="S22" s="261"/>
+      <c r="T22" s="261"/>
+      <c r="U22" s="261"/>
+      <c r="V22" s="266"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="158"/>
+      <c r="H23" s="159"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="261" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="261" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="261"/>
+      <c r="O23" s="151" t="s">
+        <v>221</v>
+      </c>
+      <c r="P23" s="159"/>
+      <c r="R23" s="261"/>
+      <c r="S23" s="261"/>
+      <c r="T23" s="261"/>
+      <c r="U23" s="261"/>
+      <c r="V23" s="266"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="158"/>
+      <c r="C24" s="271" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="271"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="271"/>
+      <c r="H24" s="159"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="141">
+        <v>0</v>
+      </c>
+      <c r="O24" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="159"/>
+      <c r="R24" s="261"/>
+      <c r="S24" s="261"/>
+      <c r="T24" s="261"/>
+      <c r="U24" s="267"/>
+      <c r="V24" s="266"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="158"/>
+      <c r="C25" s="256" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="257"/>
+      <c r="E25" s="257"/>
+      <c r="F25" s="257"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="159"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N25" s="141">
+        <v>0</v>
+      </c>
+      <c r="O25" s="151" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="159"/>
+      <c r="R25" s="268"/>
+      <c r="S25" s="261"/>
+      <c r="T25" s="261"/>
+      <c r="U25" s="267"/>
+      <c r="V25" s="266"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="158"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="156" t="s">
+      <c r="E26" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="155" t="s">
+      <c r="F26" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="157" t="s">
+      <c r="G26" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="169"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="168"/>
-      <c r="C8" s="266" t="s">
+      <c r="H26" s="159"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="150">
+        <v>0</v>
+      </c>
+      <c r="O26" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="159"/>
+      <c r="R26" s="268"/>
+      <c r="S26" s="261"/>
+      <c r="T26" s="261"/>
+      <c r="U26" s="267"/>
+      <c r="V26" s="266"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="158"/>
+      <c r="C27" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D27" s="164" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="165">
+        <v>0</v>
+      </c>
+      <c r="G27" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="159"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" s="143" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" s="142">
+        <v>0</v>
+      </c>
+      <c r="O27" s="152" t="s">
+        <v>209</v>
+      </c>
+      <c r="P27" s="159"/>
+      <c r="R27" s="268"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="261"/>
+      <c r="U27" s="264"/>
+      <c r="V27" s="266"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="158"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="149" t="s">
+      <c r="E28" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="149" t="s">
+      <c r="F28" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="161" t="s">
+      <c r="G28" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="159" t="s">
+      <c r="H28" s="159"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="162">
+        <f>ROWS(L22:L27)</f>
+        <v>6</v>
+      </c>
+      <c r="P28" s="159"/>
+      <c r="R28" s="268"/>
+      <c r="S28" s="261"/>
+      <c r="T28" s="261"/>
+      <c r="U28" s="264"/>
+      <c r="V28" s="266"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="158"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="151" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="159"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="155"/>
+      <c r="P29" s="159"/>
+      <c r="R29" s="265"/>
+      <c r="S29" s="265"/>
+      <c r="T29" s="162"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="158"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="141">
+        <v>0</v>
+      </c>
+      <c r="G30" s="151" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="159"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" s="159"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="158"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="153">
+        <v>0</v>
+      </c>
+      <c r="G31" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="159"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="256" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="257"/>
+      <c r="M31" s="257"/>
+      <c r="N31" s="257"/>
+      <c r="O31" s="258"/>
+      <c r="P31" s="159"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B32" s="158"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="139" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="153">
+        <v>0</v>
+      </c>
+      <c r="G32" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="159"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="O32" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="159"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="158"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="153">
+        <v>0</v>
+      </c>
+      <c r="G33" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="159"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="153" t="s">
+      <c r="L33" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="153" t="s">
+      <c r="M33" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="153" t="s">
+      <c r="N33" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="162" t="s">
+      <c r="O33" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="169"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="168"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="161" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="169"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="151">
-        <v>0</v>
-      </c>
-      <c r="O9" s="161" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="169"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="168"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="153" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="150">
-        <v>0</v>
-      </c>
-      <c r="G10" s="162" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="169"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="151">
-        <v>0</v>
-      </c>
-      <c r="O10" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="P10" s="169"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="151">
-        <v>0</v>
-      </c>
-      <c r="G11" s="161" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="169"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="149" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="151">
-        <v>0</v>
-      </c>
-      <c r="O11" s="161" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="169"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="151">
-        <v>0</v>
-      </c>
-      <c r="G12" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="169"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="149" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="151">
-        <v>0</v>
-      </c>
-      <c r="O12" s="161" t="s">
-        <v>102</v>
-      </c>
-      <c r="P12" s="169"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="168"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="149" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="151">
-        <v>0</v>
-      </c>
-      <c r="G13" s="161" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="169"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="149" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="151">
-        <v>0</v>
-      </c>
-      <c r="O13" s="161" t="s">
-        <v>103</v>
-      </c>
-      <c r="P13" s="169"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="168"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="149" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="151">
-        <v>0</v>
-      </c>
-      <c r="G14" s="161" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="169"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N14" s="151">
-        <v>0</v>
-      </c>
-      <c r="O14" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" s="169"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="168"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="149" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="151">
-        <v>0</v>
-      </c>
-      <c r="G15" s="161" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="169"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="153" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="150">
-        <v>0</v>
-      </c>
-      <c r="O15" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="P15" s="169"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="168"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="151">
-        <v>0</v>
-      </c>
-      <c r="G16" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="169"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="172" t="s">
+      <c r="P33" s="159"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="158"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="139" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="153">
+        <v>0</v>
+      </c>
+      <c r="G34" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="159"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="153">
+        <v>0</v>
+      </c>
+      <c r="O34" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" s="159"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="158"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="139" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="153">
+        <v>0</v>
+      </c>
+      <c r="G35" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="159"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="139" t="s">
+        <v>189</v>
+      </c>
+      <c r="M35" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="153">
+        <v>0</v>
+      </c>
+      <c r="O35" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="P35" s="159"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="158"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="153">
+        <v>0</v>
+      </c>
+      <c r="G36" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="159"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="M36" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="153">
+        <v>0</v>
+      </c>
+      <c r="O36" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="P36" s="159"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="158"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="153">
+        <v>0</v>
+      </c>
+      <c r="G37" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="159"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="139" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N37" s="153">
+        <v>0</v>
+      </c>
+      <c r="O37" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="P37" s="159"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="158"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="139" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="153">
+        <v>0</v>
+      </c>
+      <c r="G38" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="159"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="139" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" s="153">
+        <v>0</v>
+      </c>
+      <c r="O38" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="P38" s="159"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="158"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="153">
+        <v>0</v>
+      </c>
+      <c r="G39" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="159"/>
+      <c r="J39" s="158"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="M39" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" s="153">
+        <v>0</v>
+      </c>
+      <c r="O39" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="P39" s="159"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="158"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="153">
+        <v>0</v>
+      </c>
+      <c r="G40" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="159"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="M40" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N40" s="153">
+        <v>0</v>
+      </c>
+      <c r="O40" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="P40" s="159"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="158"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="153">
+        <v>0</v>
+      </c>
+      <c r="G41" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="159"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="139" t="s">
+        <v>192</v>
+      </c>
+      <c r="M41" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="153">
+        <v>0</v>
+      </c>
+      <c r="O41" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="P41" s="159"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="158"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="139" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="153">
+        <v>0</v>
+      </c>
+      <c r="G42" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" s="159"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N42" s="153">
+        <v>0</v>
+      </c>
+      <c r="O42" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" s="159"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="158"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="153">
+        <v>0</v>
+      </c>
+      <c r="G43" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="159"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="M43" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N43" s="153">
+        <v>0</v>
+      </c>
+      <c r="O43" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="P43" s="159"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="158"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="139" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="153">
+        <v>0</v>
+      </c>
+      <c r="G44" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="159"/>
+      <c r="J44" s="158"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="M44" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" s="153">
+        <v>0</v>
+      </c>
+      <c r="O44" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="P44" s="159"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="158"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="153">
+        <v>0</v>
+      </c>
+      <c r="G45" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="159"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="137"/>
+      <c r="L45" s="139" t="s">
+        <v>194</v>
+      </c>
+      <c r="M45" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45" s="153">
+        <v>0</v>
+      </c>
+      <c r="O45" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="P45" s="159"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="158"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="139" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="153">
+        <v>0</v>
+      </c>
+      <c r="G46" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="159"/>
+      <c r="J46" s="158"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="M46" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N46" s="153">
+        <v>0</v>
+      </c>
+      <c r="O46" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="P46" s="159"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="158"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="139" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="153">
+        <v>0</v>
+      </c>
+      <c r="G47" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="159"/>
+      <c r="J47" s="158"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="139" t="s">
+        <v>195</v>
+      </c>
+      <c r="M47" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N47" s="153">
+        <v>0</v>
+      </c>
+      <c r="O47" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="P47" s="159"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="158"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="153">
+        <v>0</v>
+      </c>
+      <c r="G48" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="159"/>
+      <c r="J48" s="158"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="M48" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N48" s="153">
+        <v>0</v>
+      </c>
+      <c r="O48" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="P48" s="159"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="158"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="153">
+        <v>0</v>
+      </c>
+      <c r="G49" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" s="159"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="139" t="s">
+        <v>196</v>
+      </c>
+      <c r="M49" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N49" s="153">
+        <v>0</v>
+      </c>
+      <c r="O49" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="P49" s="159"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="158"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="139" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="153">
+        <v>0</v>
+      </c>
+      <c r="G50" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" s="159"/>
+      <c r="J50" s="158"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="139" t="s">
+        <v>175</v>
+      </c>
+      <c r="M50" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="153">
+        <v>0</v>
+      </c>
+      <c r="O50" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" s="159"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="158"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="139" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="153">
+        <v>0</v>
+      </c>
+      <c r="G51" s="151" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="159"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="137"/>
+      <c r="L51" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="M51" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="153">
+        <v>0</v>
+      </c>
+      <c r="O51" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="P51" s="159"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="158"/>
+      <c r="C52" s="148"/>
+      <c r="D52" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="153">
+        <v>0</v>
+      </c>
+      <c r="G52" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="159"/>
+      <c r="J52" s="158"/>
+      <c r="K52" s="148"/>
+      <c r="L52" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="M52" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N52" s="153">
+        <v>0</v>
+      </c>
+      <c r="O52" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="P52" s="159"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="158"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="153">
+        <v>0</v>
+      </c>
+      <c r="G53" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="159"/>
+      <c r="J53" s="158"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="139" t="s">
+        <v>198</v>
+      </c>
+      <c r="M53" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N53" s="153">
+        <v>0</v>
+      </c>
+      <c r="O53" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="P53" s="159"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="158"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="139" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="153">
+        <v>0</v>
+      </c>
+      <c r="G54" s="135" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="159"/>
+      <c r="J54" s="158"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="139" t="s">
+        <v>177</v>
+      </c>
+      <c r="M54" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N54" s="153">
+        <v>0</v>
+      </c>
+      <c r="O54" s="151" t="s">
+        <v>141</v>
+      </c>
+      <c r="P54" s="159"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="158"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="153">
+        <v>0</v>
+      </c>
+      <c r="G55" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" s="159"/>
+      <c r="J55" s="158"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="M55" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N55" s="153">
+        <v>0</v>
+      </c>
+      <c r="O55" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="P55" s="159"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="158"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="139" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="153">
+        <v>0</v>
+      </c>
+      <c r="G56" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="159"/>
+      <c r="J56" s="158"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="M56" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N56" s="153">
+        <v>0</v>
+      </c>
+      <c r="O56" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="P56" s="159"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="158"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="153">
+        <v>0</v>
+      </c>
+      <c r="G57" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="H57" s="159"/>
+      <c r="J57" s="158"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="139" t="s">
+        <v>210</v>
+      </c>
+      <c r="M57" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N57" s="153">
+        <v>0</v>
+      </c>
+      <c r="O57" s="135" t="s">
+        <v>144</v>
+      </c>
+      <c r="P57" s="159"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="158"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="139" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="153">
+        <v>0</v>
+      </c>
+      <c r="G58" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="H58" s="159"/>
+      <c r="J58" s="158"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="M58" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N58" s="153">
+        <v>0</v>
+      </c>
+      <c r="O58" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="P58" s="159"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="158"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="153">
+        <v>0</v>
+      </c>
+      <c r="G59" s="135" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" s="159"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="139" t="s">
+        <v>212</v>
+      </c>
+      <c r="M59" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N59" s="153">
+        <v>0</v>
+      </c>
+      <c r="O59" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="P59" s="159"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="158"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="153">
+        <v>0</v>
+      </c>
+      <c r="G60" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="H60" s="159"/>
+      <c r="J60" s="158"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="M60" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N60" s="153">
+        <v>0</v>
+      </c>
+      <c r="O60" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="P60" s="159"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="158"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="153">
+        <v>0</v>
+      </c>
+      <c r="G61" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="159"/>
+      <c r="J61" s="158"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="139" t="s">
+        <v>200</v>
+      </c>
+      <c r="M61" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N61" s="153">
+        <v>0</v>
+      </c>
+      <c r="O61" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="P61" s="159"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="158"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="139" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="153">
+        <v>0</v>
+      </c>
+      <c r="G62" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="H62" s="159"/>
+      <c r="J62" s="158"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="M62" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N62" s="153">
+        <v>0</v>
+      </c>
+      <c r="O62" s="135" t="s">
+        <v>149</v>
+      </c>
+      <c r="P62" s="159"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="158"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="153">
+        <v>0</v>
+      </c>
+      <c r="G63" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="H63" s="159"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="M63" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N63" s="153">
+        <v>0</v>
+      </c>
+      <c r="O63" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="P63" s="159"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="158"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="139" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="153">
+        <v>0</v>
+      </c>
+      <c r="G64" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="H64" s="159"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="M64" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N64" s="153">
+        <v>0</v>
+      </c>
+      <c r="O64" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="P64" s="159"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="158"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="153">
+        <v>0</v>
+      </c>
+      <c r="G65" s="135" t="s">
+        <v>155</v>
+      </c>
+      <c r="H65" s="159"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="137"/>
+      <c r="L65" s="139" t="s">
+        <v>202</v>
+      </c>
+      <c r="M65" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N65" s="153">
+        <v>0</v>
+      </c>
+      <c r="O65" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="P65" s="159"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" s="158"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="153">
+        <v>0</v>
+      </c>
+      <c r="G66" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="159"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="M66" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N66" s="153">
+        <v>0</v>
+      </c>
+      <c r="O66" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="P66" s="159"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="158"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="139" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="153">
+        <v>0</v>
+      </c>
+      <c r="G67" s="135" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" s="159"/>
+      <c r="J67" s="158"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="139" t="s">
+        <v>203</v>
+      </c>
+      <c r="M67" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N67" s="153">
+        <v>0</v>
+      </c>
+      <c r="O67" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="P67" s="159"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="158"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="139" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="153">
+        <v>0</v>
+      </c>
+      <c r="G68" s="135" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" s="159"/>
+      <c r="J68" s="158"/>
+      <c r="K68" s="137"/>
+      <c r="L68" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="M68" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N68" s="153">
+        <v>0</v>
+      </c>
+      <c r="O68" s="135" t="s">
+        <v>155</v>
+      </c>
+      <c r="P68" s="159"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="158"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="153">
+        <v>0</v>
+      </c>
+      <c r="G69" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="H69" s="159"/>
+      <c r="J69" s="158"/>
+      <c r="K69" s="137"/>
+      <c r="L69" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="M69" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N69" s="153">
+        <v>0</v>
+      </c>
+      <c r="O69" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="P69" s="159"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="158"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="139" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="153">
+        <v>0</v>
+      </c>
+      <c r="G70" s="135" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" s="159"/>
+      <c r="J70" s="158"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="139" t="s">
+        <v>183</v>
+      </c>
+      <c r="M70" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N70" s="153">
+        <v>0</v>
+      </c>
+      <c r="O70" s="135" t="s">
+        <v>157</v>
+      </c>
+      <c r="P70" s="159"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="158"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="139" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="153">
+        <v>0</v>
+      </c>
+      <c r="G71" s="135" t="s">
+        <v>161</v>
+      </c>
+      <c r="H71" s="159"/>
+      <c r="J71" s="158"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="139" t="s">
+        <v>205</v>
+      </c>
+      <c r="M71" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N71" s="153">
+        <v>0</v>
+      </c>
+      <c r="O71" s="135" t="s">
+        <v>158</v>
+      </c>
+      <c r="P71" s="159"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="158"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="153">
+        <v>0</v>
+      </c>
+      <c r="G72" s="135" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72" s="159"/>
+      <c r="J72" s="158"/>
+      <c r="K72" s="137"/>
+      <c r="L72" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="M72" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N72" s="153">
+        <v>0</v>
+      </c>
+      <c r="O72" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="P72" s="159"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" s="158"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="139" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" s="153">
+        <v>0</v>
+      </c>
+      <c r="G73" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" s="159"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="137"/>
+      <c r="L73" s="139" t="s">
+        <v>206</v>
+      </c>
+      <c r="M73" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N73" s="153">
+        <v>0</v>
+      </c>
+      <c r="O73" s="135" t="s">
+        <v>160</v>
+      </c>
+      <c r="P73" s="159"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="158"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="153">
+        <v>0</v>
+      </c>
+      <c r="G74" s="135" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" s="159"/>
+      <c r="J74" s="158"/>
+      <c r="K74" s="137"/>
+      <c r="L74" s="139" t="s">
+        <v>185</v>
+      </c>
+      <c r="M74" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N74" s="153">
+        <v>0</v>
+      </c>
+      <c r="O74" s="135" t="s">
+        <v>161</v>
+      </c>
+      <c r="P74" s="159"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="158"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="139" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="153">
+        <v>0</v>
+      </c>
+      <c r="G75" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" s="159"/>
+      <c r="J75" s="158"/>
+      <c r="K75" s="137"/>
+      <c r="L75" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="M75" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N75" s="153">
+        <v>0</v>
+      </c>
+      <c r="O75" s="135" t="s">
+        <v>162</v>
+      </c>
+      <c r="P75" s="159"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="158"/>
+      <c r="C76" s="138"/>
+      <c r="D76" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" s="154">
+        <v>0</v>
+      </c>
+      <c r="G76" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" s="159"/>
+      <c r="J76" s="158"/>
+      <c r="K76" s="137"/>
+      <c r="L76" s="139" t="s">
+        <v>186</v>
+      </c>
+      <c r="M76" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N76" s="153">
+        <v>0</v>
+      </c>
+      <c r="O76" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="P76" s="159"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" s="158"/>
+      <c r="C77" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="M16" s="172">
-        <f>ROWS(L8:L15)</f>
-        <v>8</v>
-      </c>
-      <c r="P16" s="169"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="168"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="149" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="150">
-        <v>0</v>
-      </c>
-      <c r="G17" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="169"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="P17" s="169"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="168"/>
-      <c r="C18" s="173" t="s">
+      <c r="E77" s="162">
+        <f>ROWS(D27:D76)</f>
+        <v>50</v>
+      </c>
+      <c r="H77" s="159"/>
+      <c r="J77" s="158"/>
+      <c r="K77" s="137"/>
+      <c r="L77" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="M77" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N77" s="153">
+        <v>0</v>
+      </c>
+      <c r="O77" s="135" t="s">
+        <v>164</v>
+      </c>
+      <c r="P77" s="159"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B78" s="158"/>
+      <c r="C78" s="268"/>
+      <c r="G78" s="268"/>
+      <c r="H78" s="159"/>
+      <c r="J78" s="158"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="139" t="s">
+        <v>187</v>
+      </c>
+      <c r="M78" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N78" s="153">
+        <v>0</v>
+      </c>
+      <c r="O78" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="P78" s="159"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B79" s="158"/>
+      <c r="H79" s="159"/>
+      <c r="J79" s="158"/>
+      <c r="K79" s="138"/>
+      <c r="L79" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="M79" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="N79" s="154">
+        <v>0</v>
+      </c>
+      <c r="O79" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="P79" s="159"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B80" s="158"/>
+      <c r="H80" s="159"/>
+      <c r="J80" s="158"/>
+      <c r="K80" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="172">
-        <f>ROWS(D8:D17)</f>
-        <v>10</v>
-      </c>
-      <c r="H18" s="169"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="165" t="s">
-        <v>215</v>
-      </c>
-      <c r="P18" s="169"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="168"/>
-      <c r="H19" s="169"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="269" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="270"/>
-      <c r="M19" s="270"/>
-      <c r="N19" s="270"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="169"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="168"/>
-      <c r="C20" s="165" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="169"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" s="155" t="s">
-        <v>99</v>
-      </c>
-      <c r="O20" s="157" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="169"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="168"/>
-      <c r="C21" s="269" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="270"/>
-      <c r="E21" s="270"/>
-      <c r="F21" s="270"/>
-      <c r="G21" s="271"/>
-      <c r="H21" s="169"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="159" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="153" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="153" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" s="153" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="P21" s="169"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="168"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="155" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="157" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="169"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" s="151">
-        <v>0</v>
-      </c>
-      <c r="O22" s="161" t="s">
-        <v>119</v>
-      </c>
-      <c r="P22" s="169"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="168"/>
-      <c r="C23" s="266" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="149" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="169"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="149" t="s">
-        <v>122</v>
-      </c>
-      <c r="M23" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N23" s="151">
-        <v>0</v>
-      </c>
-      <c r="O23" s="161" t="s">
-        <v>120</v>
-      </c>
-      <c r="P23" s="169"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="168"/>
-      <c r="C24" s="267"/>
-      <c r="D24" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="161" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="169"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="149" t="s">
-        <v>123</v>
-      </c>
-      <c r="M24" s="149" t="s">
-        <v>95</v>
-      </c>
-      <c r="N24" s="160">
-        <v>0</v>
-      </c>
-      <c r="O24" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="P24" s="169"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="168"/>
-      <c r="C25" s="268"/>
-      <c r="D25" s="153" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="150">
-        <v>0</v>
-      </c>
-      <c r="G25" s="162" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="169"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="153" t="s">
-        <v>124</v>
-      </c>
-      <c r="M25" s="153" t="s">
-        <v>95</v>
-      </c>
-      <c r="N25" s="152">
-        <v>0</v>
-      </c>
-      <c r="O25" s="162" t="s">
-        <v>209</v>
-      </c>
-      <c r="P25" s="169"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="168"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="151">
-        <v>0</v>
-      </c>
-      <c r="G26" s="161" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="169"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="172" t="s">
-        <v>115</v>
-      </c>
-      <c r="M26" s="172">
-        <f>ROWS(L21:L25)</f>
-        <v>5</v>
-      </c>
-      <c r="P26" s="169"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="168"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="149" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="151">
-        <v>0</v>
-      </c>
-      <c r="G27" s="161" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="169"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="165"/>
-      <c r="P27" s="169"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="168"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="149" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="149" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="160">
-        <v>0</v>
-      </c>
-      <c r="G28" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="169"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="165" t="s">
-        <v>111</v>
-      </c>
-      <c r="P28" s="169"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="168"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="153" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="153" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="152">
-        <v>0</v>
-      </c>
-      <c r="G29" s="162" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="169"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="269" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="270"/>
-      <c r="M29" s="270"/>
-      <c r="N29" s="270"/>
-      <c r="O29" s="271"/>
-      <c r="P29" s="169"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="168"/>
-      <c r="C30" s="173" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="172">
-        <f>ROWS(D23:D29)</f>
-        <v>7</v>
-      </c>
-      <c r="H30" s="169"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="N30" s="155" t="s">
-        <v>99</v>
-      </c>
-      <c r="O30" s="157" t="s">
-        <v>78</v>
-      </c>
-      <c r="P30" s="169"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="168"/>
-      <c r="H31" s="169"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="273" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="274" t="s">
-        <v>109</v>
-      </c>
-      <c r="M31" s="274" t="s">
-        <v>82</v>
-      </c>
-      <c r="N31" s="274" t="s">
-        <v>88</v>
-      </c>
-      <c r="O31" s="276" t="s">
-        <v>110</v>
-      </c>
-      <c r="P31" s="169"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="168"/>
-      <c r="C32" s="165" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="169"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="272"/>
-      <c r="L32" s="149" t="s">
-        <v>167</v>
-      </c>
-      <c r="M32" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N32" s="163">
-        <v>0</v>
-      </c>
-      <c r="O32" s="161" t="s">
-        <v>125</v>
-      </c>
-      <c r="P32" s="169"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="168"/>
-      <c r="C33" s="269" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="169"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="149" t="s">
-        <v>189</v>
-      </c>
-      <c r="M33" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N33" s="163">
-        <v>0</v>
-      </c>
-      <c r="O33" s="161" t="s">
-        <v>126</v>
-      </c>
-      <c r="P33" s="169"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="168"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="155" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="157" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="169"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="M34" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N34" s="163">
-        <v>0</v>
-      </c>
-      <c r="O34" s="161" t="s">
-        <v>127</v>
-      </c>
-      <c r="P34" s="169"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="168"/>
-      <c r="C35" s="273" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="274" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="274" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="275">
-        <v>0</v>
-      </c>
-      <c r="G35" s="276" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="169"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="149" t="s">
-        <v>190</v>
-      </c>
-      <c r="M35" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N35" s="163">
-        <v>0</v>
-      </c>
-      <c r="O35" s="161" t="s">
-        <v>128</v>
-      </c>
-      <c r="P35" s="169"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="168"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="149" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="169"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="149" t="s">
-        <v>169</v>
-      </c>
-      <c r="M36" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N36" s="163">
-        <v>0</v>
-      </c>
-      <c r="O36" s="161" t="s">
-        <v>129</v>
-      </c>
-      <c r="P36" s="169"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="168"/>
-      <c r="C37" s="272"/>
-      <c r="D37" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="161" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="169"/>
-      <c r="J37" s="168"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="149" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N37" s="163">
-        <v>0</v>
-      </c>
-      <c r="O37" s="161" t="s">
-        <v>130</v>
-      </c>
-      <c r="P37" s="169"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="168"/>
-      <c r="C38" s="272"/>
-      <c r="D38" s="149" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="151">
-        <v>0</v>
-      </c>
-      <c r="G38" s="161" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" s="169"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="149" t="s">
-        <v>170</v>
-      </c>
-      <c r="M38" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N38" s="163">
-        <v>0</v>
-      </c>
-      <c r="O38" s="161" t="s">
-        <v>127</v>
-      </c>
-      <c r="P38" s="169"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="168"/>
-      <c r="C39" s="272"/>
-      <c r="D39" s="149" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="163">
-        <v>0</v>
-      </c>
-      <c r="G39" s="161" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="169"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="149" t="s">
-        <v>192</v>
-      </c>
-      <c r="M39" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N39" s="163">
-        <v>0</v>
-      </c>
-      <c r="O39" s="161" t="s">
-        <v>128</v>
-      </c>
-      <c r="P39" s="169"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="168"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="149" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="163">
-        <v>0</v>
-      </c>
-      <c r="G40" s="161" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="169"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="149" t="s">
-        <v>171</v>
-      </c>
-      <c r="M40" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N40" s="163">
-        <v>0</v>
-      </c>
-      <c r="O40" s="161" t="s">
-        <v>131</v>
-      </c>
-      <c r="P40" s="169"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="168"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="163">
-        <v>0</v>
-      </c>
-      <c r="G41" s="161" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="169"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="147"/>
-      <c r="L41" s="149" t="s">
-        <v>193</v>
-      </c>
-      <c r="M41" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N41" s="163">
-        <v>0</v>
-      </c>
-      <c r="O41" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="P41" s="169"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="168"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="149" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="163">
-        <v>0</v>
-      </c>
-      <c r="G42" s="161" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="169"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="149" t="s">
-        <v>172</v>
-      </c>
-      <c r="M42" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N42" s="163">
-        <v>0</v>
-      </c>
-      <c r="O42" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="P42" s="169"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="168"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="149" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="163">
-        <v>0</v>
-      </c>
-      <c r="G43" s="161" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" s="169"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="M43" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N43" s="163">
-        <v>0</v>
-      </c>
-      <c r="O43" s="161" t="s">
-        <v>134</v>
-      </c>
-      <c r="P43" s="169"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="168"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="149" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="163">
-        <v>0</v>
-      </c>
-      <c r="G44" s="161" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="169"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="149" t="s">
-        <v>173</v>
-      </c>
-      <c r="M44" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N44" s="163">
-        <v>0</v>
-      </c>
-      <c r="O44" s="161" t="s">
-        <v>131</v>
-      </c>
-      <c r="P44" s="169"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="168"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="149" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="163">
-        <v>0</v>
-      </c>
-      <c r="G45" s="161" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="169"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="149" t="s">
-        <v>195</v>
-      </c>
-      <c r="M45" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N45" s="163">
-        <v>0</v>
-      </c>
-      <c r="O45" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="P45" s="169"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="168"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="149" t="s">
-        <v>192</v>
-      </c>
-      <c r="E46" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="163">
-        <v>0</v>
-      </c>
-      <c r="G46" s="161" t="s">
-        <v>128</v>
-      </c>
-      <c r="H46" s="169"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="M46" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N46" s="163">
-        <v>0</v>
-      </c>
-      <c r="O46" s="161" t="s">
-        <v>135</v>
-      </c>
-      <c r="P46" s="169"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="168"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="149" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="163">
-        <v>0</v>
-      </c>
-      <c r="G47" s="161" t="s">
-        <v>131</v>
-      </c>
-      <c r="H47" s="169"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="149" t="s">
-        <v>196</v>
-      </c>
-      <c r="M47" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N47" s="163">
-        <v>0</v>
-      </c>
-      <c r="O47" s="161" t="s">
-        <v>136</v>
-      </c>
-      <c r="P47" s="169"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="168"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="149" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="163">
-        <v>0</v>
-      </c>
-      <c r="G48" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" s="169"/>
-      <c r="J48" s="168"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="149" t="s">
-        <v>175</v>
-      </c>
-      <c r="M48" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N48" s="163">
-        <v>0</v>
-      </c>
-      <c r="O48" s="161" t="s">
-        <v>137</v>
-      </c>
-      <c r="P48" s="169"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="168"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="149" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="163">
-        <v>0</v>
-      </c>
-      <c r="G49" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49" s="169"/>
-      <c r="J49" s="168"/>
-      <c r="K49" s="147"/>
-      <c r="L49" s="149" t="s">
-        <v>197</v>
-      </c>
-      <c r="M49" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N49" s="163">
-        <v>0</v>
-      </c>
-      <c r="O49" s="161" t="s">
-        <v>138</v>
-      </c>
-      <c r="P49" s="169"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="168"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="163">
-        <v>0</v>
-      </c>
-      <c r="G50" s="161" t="s">
-        <v>134</v>
-      </c>
-      <c r="H50" s="169"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="149" t="s">
-        <v>176</v>
-      </c>
-      <c r="M50" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N50" s="163">
-        <v>0</v>
-      </c>
-      <c r="O50" s="161" t="s">
-        <v>139</v>
-      </c>
-      <c r="P50" s="169"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="168"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="149" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="163">
-        <v>0</v>
-      </c>
-      <c r="G51" s="161" t="s">
-        <v>131</v>
-      </c>
-      <c r="H51" s="169"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="147"/>
-      <c r="L51" s="149" t="s">
-        <v>198</v>
-      </c>
-      <c r="M51" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N51" s="163">
-        <v>0</v>
-      </c>
-      <c r="O51" s="161" t="s">
-        <v>140</v>
-      </c>
-      <c r="P51" s="169"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="168"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="149" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="163">
-        <v>0</v>
-      </c>
-      <c r="G52" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" s="169"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="149" t="s">
-        <v>177</v>
-      </c>
-      <c r="M52" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N52" s="163">
-        <v>0</v>
-      </c>
-      <c r="O52" s="161" t="s">
-        <v>141</v>
-      </c>
-      <c r="P52" s="169"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="168"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="163">
-        <v>0</v>
-      </c>
-      <c r="G53" s="161" t="s">
-        <v>135</v>
-      </c>
-      <c r="H53" s="169"/>
-      <c r="J53" s="168"/>
-      <c r="K53" s="147"/>
-      <c r="L53" s="149" t="s">
-        <v>199</v>
-      </c>
-      <c r="M53" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N53" s="163">
-        <v>0</v>
-      </c>
-      <c r="O53" s="161" t="s">
-        <v>142</v>
-      </c>
-      <c r="P53" s="169"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="168"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="149" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="163">
-        <v>0</v>
-      </c>
-      <c r="G54" s="161" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="169"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="M54" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N54" s="163">
-        <v>0</v>
-      </c>
-      <c r="O54" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="P54" s="169"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="168"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="149" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="163">
-        <v>0</v>
-      </c>
-      <c r="G55" s="161" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="169"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="147"/>
-      <c r="L55" s="149" t="s">
-        <v>210</v>
-      </c>
-      <c r="M55" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N55" s="163">
-        <v>0</v>
-      </c>
-      <c r="O55" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="P55" s="169"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="168"/>
-      <c r="C56" s="158"/>
-      <c r="D56" s="149" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="163">
-        <v>0</v>
-      </c>
-      <c r="G56" s="161" t="s">
-        <v>138</v>
-      </c>
-      <c r="H56" s="169"/>
-      <c r="J56" s="168"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="149" t="s">
-        <v>211</v>
-      </c>
-      <c r="M56" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N56" s="163">
-        <v>0</v>
-      </c>
-      <c r="O56" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="P56" s="169"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="168"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="149" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="163">
-        <v>0</v>
-      </c>
-      <c r="G57" s="161" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="169"/>
-      <c r="J57" s="168"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="149" t="s">
-        <v>212</v>
-      </c>
-      <c r="M57" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N57" s="163">
-        <v>0</v>
-      </c>
-      <c r="O57" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="P57" s="169"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="168"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="149" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="163">
-        <v>0</v>
-      </c>
-      <c r="G58" s="161" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" s="169"/>
-      <c r="J58" s="168"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="149" t="s">
-        <v>178</v>
-      </c>
-      <c r="M58" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N58" s="163">
-        <v>0</v>
-      </c>
-      <c r="O58" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="P58" s="169"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="168"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="149" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="163">
-        <v>0</v>
-      </c>
-      <c r="G59" s="161" t="s">
-        <v>141</v>
-      </c>
-      <c r="H59" s="169"/>
-      <c r="J59" s="168"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="149" t="s">
-        <v>200</v>
-      </c>
-      <c r="M59" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N59" s="163">
-        <v>0</v>
-      </c>
-      <c r="O59" s="145" t="s">
-        <v>147</v>
-      </c>
-      <c r="P59" s="169"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="168"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="149" t="s">
-        <v>199</v>
-      </c>
-      <c r="E60" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="163">
-        <v>0</v>
-      </c>
-      <c r="G60" s="161" t="s">
-        <v>142</v>
-      </c>
-      <c r="H60" s="169"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="147"/>
-      <c r="L60" s="149" t="s">
-        <v>179</v>
-      </c>
-      <c r="M60" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N60" s="163">
-        <v>0</v>
-      </c>
-      <c r="O60" s="145" t="s">
-        <v>149</v>
-      </c>
-      <c r="P60" s="169"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="168"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="E61" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="163">
-        <v>0</v>
-      </c>
-      <c r="G61" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="H61" s="169"/>
-      <c r="J61" s="168"/>
-      <c r="K61" s="147"/>
-      <c r="L61" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="M61" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N61" s="163">
-        <v>0</v>
-      </c>
-      <c r="O61" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="P61" s="169"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="168"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="149" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="163">
-        <v>0</v>
-      </c>
-      <c r="G62" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62" s="169"/>
-      <c r="J62" s="168"/>
-      <c r="K62" s="147"/>
-      <c r="L62" s="149" t="s">
-        <v>180</v>
-      </c>
-      <c r="M62" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N62" s="163">
-        <v>0</v>
-      </c>
-      <c r="O62" s="145" t="s">
-        <v>151</v>
-      </c>
-      <c r="P62" s="169"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="168"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="149" t="s">
-        <v>211</v>
-      </c>
-      <c r="E63" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="163">
-        <v>0</v>
-      </c>
-      <c r="G63" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="169"/>
-      <c r="J63" s="168"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="M63" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N63" s="163">
-        <v>0</v>
-      </c>
-      <c r="O63" s="145" t="s">
-        <v>152</v>
-      </c>
-      <c r="P63" s="169"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="168"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="149" t="s">
-        <v>212</v>
-      </c>
-      <c r="E64" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F64" s="163">
-        <v>0</v>
-      </c>
-      <c r="G64" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="H64" s="169"/>
-      <c r="J64" s="168"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="149" t="s">
-        <v>181</v>
-      </c>
-      <c r="M64" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N64" s="163">
-        <v>0</v>
-      </c>
-      <c r="O64" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="P64" s="169"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="168"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="149" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" s="163">
-        <v>0</v>
-      </c>
-      <c r="G65" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="H65" s="169"/>
-      <c r="J65" s="168"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="M65" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N65" s="163">
-        <v>0</v>
-      </c>
-      <c r="O65" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="P65" s="169"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="168"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="149" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="163">
-        <v>0</v>
-      </c>
-      <c r="G66" s="145" t="s">
-        <v>147</v>
-      </c>
-      <c r="H66" s="169"/>
-      <c r="J66" s="168"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="149" t="s">
-        <v>182</v>
-      </c>
-      <c r="M66" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N66" s="163">
-        <v>0</v>
-      </c>
-      <c r="O66" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="P66" s="169"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="168"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="149" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F67" s="163">
-        <v>0</v>
-      </c>
-      <c r="G67" s="145" t="s">
-        <v>149</v>
-      </c>
-      <c r="H67" s="169"/>
-      <c r="J67" s="168"/>
-      <c r="K67" s="147"/>
-      <c r="L67" s="149" t="s">
-        <v>204</v>
-      </c>
-      <c r="M67" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N67" s="163">
-        <v>0</v>
-      </c>
-      <c r="O67" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="P67" s="169"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="168"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="149" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F68" s="163">
-        <v>0</v>
-      </c>
-      <c r="G68" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="169"/>
-      <c r="J68" s="168"/>
-      <c r="K68" s="147"/>
-      <c r="L68" s="149" t="s">
-        <v>183</v>
-      </c>
-      <c r="M68" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N68" s="163">
-        <v>0</v>
-      </c>
-      <c r="O68" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="P68" s="169"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="168"/>
-      <c r="C69" s="147"/>
-      <c r="D69" s="149" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="163">
-        <v>0</v>
-      </c>
-      <c r="G69" s="145" t="s">
-        <v>151</v>
-      </c>
-      <c r="H69" s="169"/>
-      <c r="J69" s="168"/>
-      <c r="K69" s="147"/>
-      <c r="L69" s="149" t="s">
-        <v>205</v>
-      </c>
-      <c r="M69" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N69" s="163">
-        <v>0</v>
-      </c>
-      <c r="O69" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="P69" s="169"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="168"/>
-      <c r="C70" s="147"/>
-      <c r="D70" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="E70" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="163">
-        <v>0</v>
-      </c>
-      <c r="G70" s="145" t="s">
-        <v>152</v>
-      </c>
-      <c r="H70" s="169"/>
-      <c r="J70" s="168"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="149" t="s">
-        <v>184</v>
-      </c>
-      <c r="M70" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N70" s="163">
-        <v>0</v>
-      </c>
-      <c r="O70" s="145" t="s">
-        <v>159</v>
-      </c>
-      <c r="P70" s="169"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="168"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="149" t="s">
-        <v>181</v>
-      </c>
-      <c r="E71" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" s="163">
-        <v>0</v>
-      </c>
-      <c r="G71" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="H71" s="169"/>
-      <c r="J71" s="168"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="149" t="s">
-        <v>206</v>
-      </c>
-      <c r="M71" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N71" s="163">
-        <v>0</v>
-      </c>
-      <c r="O71" s="145" t="s">
-        <v>160</v>
-      </c>
-      <c r="P71" s="169"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="168"/>
-      <c r="C72" s="147"/>
-      <c r="D72" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="163">
-        <v>0</v>
-      </c>
-      <c r="G72" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="H72" s="169"/>
-      <c r="J72" s="168"/>
-      <c r="K72" s="147"/>
-      <c r="L72" s="149" t="s">
-        <v>185</v>
-      </c>
-      <c r="M72" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N72" s="163">
-        <v>0</v>
-      </c>
-      <c r="O72" s="145" t="s">
-        <v>161</v>
-      </c>
-      <c r="P72" s="169"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="168"/>
-      <c r="C73" s="147"/>
-      <c r="D73" s="149" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="163">
-        <v>0</v>
-      </c>
-      <c r="G73" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="H73" s="169"/>
-      <c r="J73" s="168"/>
-      <c r="K73" s="147"/>
-      <c r="L73" s="149" t="s">
-        <v>207</v>
-      </c>
-      <c r="M73" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N73" s="163">
-        <v>0</v>
-      </c>
-      <c r="O73" s="145" t="s">
-        <v>162</v>
-      </c>
-      <c r="P73" s="169"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="168"/>
-      <c r="C74" s="147"/>
-      <c r="D74" s="149" t="s">
-        <v>204</v>
-      </c>
-      <c r="E74" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="163">
-        <v>0</v>
-      </c>
-      <c r="G74" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" s="169"/>
-      <c r="J74" s="168"/>
-      <c r="K74" s="147"/>
-      <c r="L74" s="149" t="s">
-        <v>186</v>
-      </c>
-      <c r="M74" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N74" s="163">
-        <v>0</v>
-      </c>
-      <c r="O74" s="145" t="s">
-        <v>163</v>
-      </c>
-      <c r="P74" s="169"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="168"/>
-      <c r="C75" s="147"/>
-      <c r="D75" s="149" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" s="163">
-        <v>0</v>
-      </c>
-      <c r="G75" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="H75" s="169"/>
-      <c r="J75" s="168"/>
-      <c r="K75" s="147"/>
-      <c r="L75" s="149" t="s">
-        <v>208</v>
-      </c>
-      <c r="M75" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N75" s="163">
-        <v>0</v>
-      </c>
-      <c r="O75" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="P75" s="169"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="168"/>
-      <c r="C76" s="147"/>
-      <c r="D76" s="149" t="s">
-        <v>205</v>
-      </c>
-      <c r="E76" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="163">
-        <v>0</v>
-      </c>
-      <c r="G76" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="H76" s="169"/>
-      <c r="J76" s="168"/>
-      <c r="K76" s="147"/>
-      <c r="L76" s="149" t="s">
-        <v>187</v>
-      </c>
-      <c r="M76" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="N76" s="163">
-        <v>0</v>
-      </c>
-      <c r="O76" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="P76" s="169"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="168"/>
-      <c r="C77" s="147"/>
-      <c r="D77" s="149" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="163">
-        <v>0</v>
-      </c>
-      <c r="G77" s="145" t="s">
-        <v>159</v>
-      </c>
-      <c r="H77" s="169"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="148"/>
-      <c r="L77" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="M77" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="N77" s="164">
-        <v>0</v>
-      </c>
-      <c r="O77" s="146" t="s">
-        <v>166</v>
-      </c>
-      <c r="P77" s="169"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="277"/>
-      <c r="C78" s="147"/>
-      <c r="D78" s="149" t="s">
-        <v>206</v>
-      </c>
-      <c r="E78" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" s="163">
-        <v>0</v>
-      </c>
-      <c r="G78" s="145" t="s">
-        <v>160</v>
-      </c>
-      <c r="H78" s="278"/>
-      <c r="J78" s="168"/>
-      <c r="K78" s="165" t="s">
-        <v>115</v>
-      </c>
-      <c r="M78" s="172">
-        <f>ROWS(L31:L77)</f>
+      <c r="M80" s="162">
+        <f>ROWS(L33:L79)</f>
         <v>47</v>
       </c>
-      <c r="P78" s="169"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C79" s="147"/>
-      <c r="D79" s="149" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="163">
-        <v>0</v>
-      </c>
-      <c r="G79" s="145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C80" s="147"/>
-      <c r="D80" s="149" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="163">
-        <v>0</v>
-      </c>
-      <c r="G80" s="145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C81" s="147"/>
-      <c r="D81" s="149" t="s">
-        <v>186</v>
-      </c>
-      <c r="E81" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F81" s="163">
-        <v>0</v>
-      </c>
-      <c r="G81" s="145" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C82" s="147"/>
-      <c r="D82" s="149" t="s">
-        <v>208</v>
-      </c>
-      <c r="E82" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" s="163">
-        <v>0</v>
-      </c>
-      <c r="G82" s="145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C83" s="147"/>
-      <c r="D83" s="149" t="s">
-        <v>187</v>
-      </c>
-      <c r="E83" s="149" t="s">
-        <v>83</v>
-      </c>
-      <c r="F83" s="163">
-        <v>0</v>
-      </c>
-      <c r="G83" s="145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C84" s="148"/>
-      <c r="D84" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="E84" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="164">
-        <v>0</v>
-      </c>
-      <c r="G84" s="146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C85" s="165" t="s">
-        <v>115</v>
-      </c>
-      <c r="E85" s="172">
-        <f>ROWS(D35:D84)</f>
-        <v>50</v>
-      </c>
+      <c r="P80" s="159"/>
+    </row>
+    <row r="81" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="272"/>
+      <c r="C81" s="273"/>
+      <c r="D81" s="273"/>
+      <c r="E81" s="273"/>
+      <c r="F81" s="273"/>
+      <c r="G81" s="273"/>
+      <c r="H81" s="274"/>
+      <c r="J81" s="272"/>
+      <c r="K81" s="273"/>
+      <c r="L81" s="273"/>
+      <c r="M81" s="273"/>
+      <c r="N81" s="273"/>
+      <c r="O81" s="273"/>
+      <c r="P81" s="274"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="K19:O19"/>
+  <mergeCells count="6">
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="K20:O20"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="K6:O6"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="15" man="1"/>
+    <brk id="14" max="16" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="2" min="1" max="78" man="1"/>
+    <brk id="2" min="1" max="82" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2F77E-F064-4B3A-8743-552AB5CEB3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CCBAD-7FEC-4C57-BCBC-D01DCB0F762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="224">
   <si>
     <t>테스트</t>
   </si>
@@ -450,10 +450,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>USER_M</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -903,6 +899,18 @@
   </si>
   <si>
     <t>Auto Increase Number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_LMP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 Index</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -910,11 +918,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -2438,7 +2447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2940,6 +2949,75 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="99" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="94" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="95" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3066,58 +3144,19 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3135,6 +3174,12 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3156,6 +3201,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3174,18 +3222,60 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3222,121 +3312,13 @@
     <xf numFmtId="0" fontId="12" fillId="26" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="99" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="99" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="99" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="91" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="91" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="91" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="91" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="94" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="95" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4020,7 +4002,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -4056,12 +4038,12 @@
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
       <c r="H2" s="100"/>
@@ -4070,7 +4052,7 @@
       </c>
       <c r="J2" s="101">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="K2" s="102" t="s">
         <v>31</v>
@@ -4083,44 +4065,44 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="81"/>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="181" t="s">
+      <c r="C3" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="183" t="s">
+      <c r="D3" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="185" t="s">
+      <c r="E3" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="198" t="s">
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="172" t="s">
+      <c r="K3" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="173"/>
+      <c r="L3" s="196"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="81"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="175"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="198"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="81"/>
@@ -4144,7 +4126,7 @@
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="200"/>
+      <c r="J5" s="223"/>
       <c r="K5" s="78" t="s">
         <v>6</v>
       </c>
@@ -4154,10 +4136,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="81"/>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="194"/>
+      <c r="C6" s="217"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="str">
         <f>CONCATENATE(NETWORKDAYS(F6,G6),"일")</f>
@@ -4188,15 +4170,15 @@
       </c>
       <c r="L6" s="31">
         <f t="shared" ref="L6:L28" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="81"/>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="202"/>
+      <c r="C7" s="225"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="str">
         <f>CONCATENATE(NETWORKDAYS(F7,G7),"일")</f>
@@ -4226,13 +4208,13 @@
       </c>
       <c r="L7" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="81"/>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="226" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="52" t="s">
@@ -4267,12 +4249,12 @@
       </c>
       <c r="L8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="81"/>
-      <c r="B9" s="204"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -4310,7 +4292,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="81"/>
-      <c r="B10" s="204"/>
+      <c r="B10" s="227"/>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
@@ -4348,7 +4330,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="81"/>
-      <c r="B11" s="204"/>
+      <c r="B11" s="227"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -4386,7 +4368,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="81"/>
-      <c r="B12" s="204"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
@@ -4424,7 +4406,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="81"/>
-      <c r="B13" s="204"/>
+      <c r="B13" s="227"/>
       <c r="C13" s="88" t="s">
         <v>45</v>
       </c>
@@ -4462,7 +4444,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="81"/>
-      <c r="B14" s="204"/>
+      <c r="B14" s="227"/>
       <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
@@ -4479,7 +4461,7 @@
       <c r="G14" s="20">
         <v>45258</v>
       </c>
-      <c r="H14" s="206" t="s">
+      <c r="H14" s="229" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="85">
@@ -4500,7 +4482,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="81"/>
-      <c r="B15" s="204"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="88" t="s">
         <v>67</v>
       </c>
@@ -4517,7 +4499,7 @@
       <c r="G15" s="20">
         <v>45258</v>
       </c>
-      <c r="H15" s="207"/>
+      <c r="H15" s="230"/>
       <c r="I15" s="85">
         <v>1</v>
       </c>
@@ -4536,7 +4518,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="81"/>
-      <c r="B16" s="205"/>
+      <c r="B16" s="228"/>
       <c r="C16" s="51" t="s">
         <v>68</v>
       </c>
@@ -4553,7 +4535,7 @@
       <c r="G16" s="20">
         <v>45258</v>
       </c>
-      <c r="H16" s="208"/>
+      <c r="H16" s="231"/>
       <c r="I16" s="85">
         <v>0.9</v>
       </c>
@@ -4572,10 +4554,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="81"/>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="202"/>
+      <c r="C17" s="225"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="str">
         <f>CONCATENATE(NETWORKDAYS(F17,G17),"일")</f>
@@ -4608,10 +4590,10 @@
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="81"/>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="195" t="s">
+      <c r="C18" s="218" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="50" t="s">
@@ -4648,8 +4630,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="81"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="196"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="219"/>
       <c r="D19" s="50" t="s">
         <v>11</v>
       </c>
@@ -4684,8 +4666,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="81"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="196"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="219"/>
       <c r="D20" s="47" t="s">
         <v>11</v>
       </c>
@@ -4720,8 +4702,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="81"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="197"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="220"/>
       <c r="D21" s="47" t="s">
         <v>11</v>
       </c>
@@ -4756,7 +4738,7 @@
     </row>
     <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="81"/>
-      <c r="B22" s="177"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="122" t="s">
         <v>75</v>
       </c>
@@ -4794,8 +4776,8 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="81"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="191" t="s">
+      <c r="B23" s="200"/>
+      <c r="C23" s="214" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="47" t="s">
@@ -4832,8 +4814,8 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="81"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="192"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="215"/>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
@@ -4868,7 +4850,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="81"/>
-      <c r="B25" s="178"/>
+      <c r="B25" s="201"/>
       <c r="C25" s="51" t="s">
         <v>77</v>
       </c>
@@ -5016,12 +4998,12 @@
       </c>
       <c r="L28" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="81"/>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="192" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -5056,12 +5038,12 @@
       </c>
       <c r="L29" s="37">
         <f ca="1">IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="81"/>
-      <c r="B30" s="170"/>
+      <c r="B30" s="193"/>
       <c r="C30" s="49" t="s">
         <v>23</v>
       </c>
@@ -5094,12 +5076,12 @@
       </c>
       <c r="L30" s="33">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="53"/>
-      <c r="B31" s="171"/>
+      <c r="B31" s="194"/>
       <c r="C31" s="68" t="s">
         <v>7</v>
       </c>
@@ -5122,7 +5104,7 @@
       <c r="I31" s="73">
         <v>0</v>
       </c>
-      <c r="J31" s="299">
+      <c r="J31" s="189">
         <f>$J$28/COUNT($I$29:$I$31)</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -5132,11 +5114,11 @@
       </c>
       <c r="L31" s="75">
         <f ca="1">IF(G31-$J$2&lt;=0,0,G31-$J$2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J32" s="298"/>
+      <c r="J32" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5232,140 +5214,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="244" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="234" t="s">
+      <c r="C3" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="213" t="s">
+      <c r="D3" s="246"/>
+      <c r="E3" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="214"/>
-      <c r="AB3" s="214"/>
-      <c r="AC3" s="214"/>
-      <c r="AD3" s="214"/>
-      <c r="AE3" s="214"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="214"/>
-      <c r="AH3" s="215"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="261"/>
+      <c r="U3" s="261"/>
+      <c r="V3" s="261"/>
+      <c r="W3" s="261"/>
+      <c r="X3" s="261"/>
+      <c r="Y3" s="261"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="261"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="261"/>
+      <c r="AD3" s="261"/>
+      <c r="AE3" s="261"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="261"/>
+      <c r="AH3" s="262"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="233"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="216" t="s">
+      <c r="B4" s="245"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="217"/>
-      <c r="U4" s="217"/>
-      <c r="V4" s="217"/>
-      <c r="W4" s="217"/>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="217"/>
-      <c r="Z4" s="217"/>
-      <c r="AA4" s="217"/>
-      <c r="AB4" s="217"/>
-      <c r="AC4" s="217"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="217"/>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="217"/>
-      <c r="AH4" s="218"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="264"/>
+      <c r="O4" s="264"/>
+      <c r="P4" s="264"/>
+      <c r="Q4" s="264"/>
+      <c r="R4" s="264"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="264"/>
+      <c r="U4" s="264"/>
+      <c r="V4" s="264"/>
+      <c r="W4" s="264"/>
+      <c r="X4" s="264"/>
+      <c r="Y4" s="264"/>
+      <c r="Z4" s="264"/>
+      <c r="AA4" s="264"/>
+      <c r="AB4" s="264"/>
+      <c r="AC4" s="264"/>
+      <c r="AD4" s="264"/>
+      <c r="AE4" s="264"/>
+      <c r="AF4" s="264"/>
+      <c r="AG4" s="264"/>
+      <c r="AH4" s="265"/>
     </row>
     <row r="5" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="242" t="s">
+      <c r="B5" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="222">
+      <c r="C5" s="256"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="251">
         <v>1</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="225">
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="270"/>
+      <c r="J5" s="271">
         <v>2</v>
       </c>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="226">
+      <c r="K5" s="264"/>
+      <c r="L5" s="264"/>
+      <c r="M5" s="264"/>
+      <c r="N5" s="265"/>
+      <c r="O5" s="272">
         <v>3</v>
       </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="218"/>
-      <c r="T5" s="219">
+      <c r="P5" s="264"/>
+      <c r="Q5" s="264"/>
+      <c r="R5" s="264"/>
+      <c r="S5" s="265"/>
+      <c r="T5" s="266">
         <v>4</v>
       </c>
-      <c r="U5" s="220"/>
-      <c r="V5" s="220"/>
-      <c r="W5" s="220"/>
-      <c r="X5" s="221"/>
-      <c r="Y5" s="219">
+      <c r="U5" s="267"/>
+      <c r="V5" s="267"/>
+      <c r="W5" s="267"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="266">
         <v>5</v>
       </c>
-      <c r="Z5" s="220"/>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="221"/>
-      <c r="AD5" s="287">
+      <c r="Z5" s="267"/>
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="267"/>
+      <c r="AC5" s="268"/>
+      <c r="AD5" s="273">
         <v>6</v>
       </c>
-      <c r="AE5" s="288"/>
-      <c r="AF5" s="288"/>
-      <c r="AG5" s="288"/>
-      <c r="AH5" s="289"/>
+      <c r="AE5" s="274"/>
+      <c r="AF5" s="274"/>
+      <c r="AG5" s="274"/>
+      <c r="AH5" s="275"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="212"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="104"/>
       <c r="F6" s="104"/>
       <c r="G6" s="104"/>
@@ -5386,7 +5368,7 @@
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
       <c r="X6" s="123"/>
-      <c r="Y6" s="275"/>
+      <c r="Y6" s="174"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
@@ -5401,10 +5383,10 @@
       <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="104"/>
       <c r="F7" s="104"/>
       <c r="G7" s="104"/>
@@ -5425,7 +5407,7 @@
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="123"/>
-      <c r="Y7" s="275"/>
+      <c r="Y7" s="174"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
@@ -5440,10 +5422,10 @@
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="211" t="s">
+      <c r="C8" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="212"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="104"/>
@@ -5464,7 +5446,7 @@
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
       <c r="X8" s="123"/>
-      <c r="Y8" s="275"/>
+      <c r="Y8" s="174"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
       <c r="AB8" s="27"/>
@@ -5479,10 +5461,10 @@
       <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="211" t="s">
+      <c r="C9" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="104"/>
@@ -5503,7 +5485,7 @@
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
       <c r="X9" s="123"/>
-      <c r="Y9" s="275"/>
+      <c r="Y9" s="174"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
@@ -5515,13 +5497,13 @@
       <c r="AH9" s="132"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="237" t="s">
+      <c r="C10" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="238"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -5542,23 +5524,23 @@
       <c r="V10" s="119"/>
       <c r="W10" s="119"/>
       <c r="X10" s="124"/>
-      <c r="Y10" s="280"/>
+      <c r="Y10" s="175"/>
       <c r="Z10" s="119"/>
       <c r="AA10" s="119"/>
       <c r="AB10" s="119"/>
       <c r="AC10" s="124"/>
-      <c r="AD10" s="290"/>
+      <c r="AD10" s="180"/>
       <c r="AE10" s="119"/>
       <c r="AF10" s="119"/>
       <c r="AG10" s="27"/>
       <c r="AH10" s="132"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="228"/>
-      <c r="C11" s="222" t="s">
+      <c r="B11" s="238"/>
+      <c r="C11" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="239"/>
+      <c r="D11" s="252"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -5579,7 +5561,7 @@
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
       <c r="X11" s="123"/>
-      <c r="Y11" s="275"/>
+      <c r="Y11" s="174"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
@@ -5591,11 +5573,11 @@
       <c r="AH11" s="132"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="228"/>
-      <c r="C12" s="240" t="s">
+      <c r="B12" s="238"/>
+      <c r="C12" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="241"/>
+      <c r="D12" s="254"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -5616,7 +5598,7 @@
       <c r="V12" s="113"/>
       <c r="W12" s="113"/>
       <c r="X12" s="125"/>
-      <c r="Y12" s="275"/>
+      <c r="Y12" s="174"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
@@ -5628,11 +5610,11 @@
       <c r="AH12" s="132"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="228"/>
-      <c r="C13" s="230" t="s">
+      <c r="B13" s="238"/>
+      <c r="C13" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="231"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -5653,7 +5635,7 @@
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
       <c r="X13" s="123"/>
-      <c r="Y13" s="275"/>
+      <c r="Y13" s="174"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
@@ -5665,11 +5647,11 @@
       <c r="AH13" s="132"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="229"/>
-      <c r="C14" s="230" t="s">
+      <c r="B14" s="239"/>
+      <c r="C14" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="231"/>
+      <c r="D14" s="241"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="110"/>
@@ -5689,7 +5671,7 @@
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
       <c r="X14" s="123"/>
-      <c r="Y14" s="275"/>
+      <c r="Y14" s="174"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
       <c r="AB14" s="27"/>
@@ -5701,13 +5683,13 @@
       <c r="AH14" s="132"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="245" t="s">
+      <c r="B15" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="247" t="s">
+      <c r="C15" s="258" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="248"/>
+      <c r="D15" s="259"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -5728,23 +5710,23 @@
       <c r="V15" s="107"/>
       <c r="W15" s="107"/>
       <c r="X15" s="126"/>
-      <c r="Y15" s="282"/>
+      <c r="Y15" s="176"/>
       <c r="Z15" s="107"/>
       <c r="AA15" s="107"/>
       <c r="AB15" s="107"/>
       <c r="AC15" s="126"/>
-      <c r="AD15" s="291"/>
+      <c r="AD15" s="181"/>
       <c r="AE15" s="107"/>
       <c r="AF15" s="107"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="132"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="281"/>
-      <c r="C16" s="209" t="s">
+      <c r="B16" s="235"/>
+      <c r="C16" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="210"/>
+      <c r="D16" s="243"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -5765,23 +5747,23 @@
       <c r="V16" s="110"/>
       <c r="W16" s="110"/>
       <c r="X16" s="127"/>
-      <c r="Y16" s="283"/>
+      <c r="Y16" s="177"/>
       <c r="Z16" s="110"/>
       <c r="AA16" s="110"/>
       <c r="AB16" s="110"/>
       <c r="AC16" s="127"/>
-      <c r="AD16" s="292"/>
+      <c r="AD16" s="182"/>
       <c r="AE16" s="110"/>
       <c r="AF16" s="110"/>
       <c r="AG16" s="27"/>
       <c r="AH16" s="132"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="246"/>
-      <c r="C17" s="211" t="s">
+      <c r="B17" s="236"/>
+      <c r="C17" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="212"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -5795,19 +5777,19 @@
       <c r="O17" s="40"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
-      <c r="R17" s="277"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="276"/>
-      <c r="U17" s="277"/>
-      <c r="V17" s="277"/>
-      <c r="W17" s="277"/>
-      <c r="X17" s="285"/>
-      <c r="Y17" s="284"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="178"/>
       <c r="Z17" s="113"/>
       <c r="AA17" s="113"/>
       <c r="AB17" s="113"/>
       <c r="AC17" s="125"/>
-      <c r="AD17" s="293"/>
+      <c r="AD17" s="183"/>
       <c r="AE17" s="113"/>
       <c r="AF17" s="113"/>
       <c r="AG17" s="27"/>
@@ -5817,10 +5799,10 @@
       <c r="B18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
+      <c r="D18" s="233"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -5841,11 +5823,11 @@
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
       <c r="X18" s="123"/>
-      <c r="Y18" s="278"/>
-      <c r="Z18" s="277"/>
-      <c r="AA18" s="277"/>
-      <c r="AB18" s="277"/>
-      <c r="AC18" s="286"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="179"/>
       <c r="AD18" s="133"/>
       <c r="AE18" s="104"/>
       <c r="AF18" s="104"/>
@@ -5856,10 +5838,10 @@
       <c r="B19" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="210"/>
+      <c r="D19" s="243"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -5880,16 +5862,16 @@
       <c r="V19" s="27"/>
       <c r="W19" s="27"/>
       <c r="X19" s="123"/>
-      <c r="Y19" s="275"/>
+      <c r="Y19" s="174"/>
       <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
       <c r="AB19" s="27"/>
       <c r="AC19" s="123"/>
-      <c r="AD19" s="294"/>
-      <c r="AE19" s="295"/>
-      <c r="AF19" s="295"/>
-      <c r="AG19" s="296"/>
-      <c r="AH19" s="297"/>
+      <c r="AD19" s="184"/>
+      <c r="AE19" s="185"/>
+      <c r="AF19" s="185"/>
+      <c r="AG19" s="186"/>
+      <c r="AH19" s="187"/>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C20" s="28"/>
@@ -5897,11 +5879,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E3:AH3"/>
+    <mergeCell ref="E4:AH4"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="AD5:AH5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D4"/>
@@ -5916,17 +5901,14 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E3:AH3"/>
-    <mergeCell ref="E4:AH4"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C6:D12 C13:C14 C15:D16 C18:D19 C17">
+  <conditionalFormatting sqref="C6:D12 C13:C14 C15:D16 C17 C18:D19">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="공통">
       <formula>NOT(ISERROR(SEARCH("공통",C6)))</formula>
     </cfRule>
@@ -5987,7 +5969,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="276" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="96" t="s">
@@ -5998,7 +5980,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="249"/>
+      <c r="B5" s="276"/>
       <c r="C5" s="96" t="s">
         <v>53</v>
       </c>
@@ -6007,7 +5989,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="250"/>
+      <c r="B6" s="277"/>
       <c r="C6" s="97" t="s">
         <v>56</v>
       </c>
@@ -6016,7 +5998,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="278" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="94" t="s">
@@ -6027,7 +6009,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="252"/>
+      <c r="B8" s="279"/>
       <c r="C8" s="95" t="s">
         <v>59</v>
       </c>
@@ -6036,7 +6018,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="252"/>
+      <c r="B9" s="279"/>
       <c r="C9" s="95" t="s">
         <v>66</v>
       </c>
@@ -6045,8 +6027,8 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="252"/>
-      <c r="C10" s="254" t="s">
+      <c r="B10" s="279"/>
+      <c r="C10" s="281" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="98" t="s">
@@ -6054,14 +6036,14 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="252"/>
-      <c r="C11" s="255"/>
+      <c r="B11" s="279"/>
+      <c r="C11" s="282"/>
       <c r="D11" s="98" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="253"/>
+      <c r="B12" s="280"/>
       <c r="C12" s="91" t="s">
         <v>61</v>
       </c>
@@ -6086,10 +6068,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:V81"/>
+  <dimension ref="B2:V83"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T58" sqref="T58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6114,17 +6096,17 @@
   <sheetData>
     <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="259" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="260"/>
+      <c r="B3" s="286" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="156"/>
       <c r="E3" s="156"/>
       <c r="F3" s="156"/>
       <c r="G3" s="156"/>
       <c r="H3" s="157"/>
       <c r="J3" s="160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K3" s="156"/>
       <c r="L3" s="156"/>
@@ -6147,28 +6129,28 @@
       <c r="H5" s="159"/>
       <c r="J5" s="158"/>
       <c r="K5" s="155" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P5" s="159"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="158"/>
-      <c r="C6" s="256" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="257"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="258"/>
+      <c r="C6" s="283" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="285"/>
       <c r="H6" s="159"/>
       <c r="J6" s="158"/>
-      <c r="K6" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="257"/>
-      <c r="M6" s="257"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="258"/>
+      <c r="K6" s="283" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="284"/>
+      <c r="M6" s="284"/>
+      <c r="N6" s="284"/>
+      <c r="O6" s="285"/>
       <c r="P6" s="159"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -6209,14 +6191,16 @@
         <v>87</v>
       </c>
       <c r="D8" s="164" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="288">
+        <v>0</v>
+      </c>
+      <c r="G8" s="166" t="s">
         <v>220</v>
-      </c>
-      <c r="E8" s="164" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="164"/>
-      <c r="G8" s="166" t="s">
-        <v>221</v>
       </c>
       <c r="H8" s="159"/>
       <c r="J8" s="158"/>
@@ -6224,7 +6208,7 @@
         <v>87</v>
       </c>
       <c r="L8" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="143" t="s">
         <v>82</v>
@@ -6233,7 +6217,7 @@
         <v>88</v>
       </c>
       <c r="O8" s="152" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P8" s="159"/>
     </row>
@@ -6255,15 +6239,17 @@
       <c r="H9" s="159"/>
       <c r="J9" s="158"/>
       <c r="K9" s="148"/>
-      <c r="L9" s="261" t="s">
+      <c r="L9" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="M9" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="289">
+        <v>1</v>
+      </c>
+      <c r="O9" s="151" t="s">
         <v>220</v>
-      </c>
-      <c r="M9" s="261" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="261"/>
-      <c r="O9" s="151" t="s">
-        <v>221</v>
       </c>
       <c r="P9" s="159"/>
     </row>
@@ -6408,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="151" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H14" s="159"/>
       <c r="J14" s="158"/>
@@ -6431,7 +6417,7 @@
       <c r="B15" s="158"/>
       <c r="C15" s="137"/>
       <c r="D15" s="139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="139" t="s">
         <v>83</v>
@@ -6440,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="151" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="159"/>
       <c r="J15" s="158"/>
@@ -6455,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="151" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P15" s="159"/>
     </row>
@@ -6463,7 +6449,7 @@
       <c r="B16" s="158"/>
       <c r="C16" s="137"/>
       <c r="D16" s="139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="139" t="s">
         <v>83</v>
@@ -6472,13 +6458,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" s="159"/>
       <c r="J16" s="158"/>
       <c r="K16" s="138"/>
       <c r="L16" s="143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="143" t="s">
         <v>83</v>
@@ -6487,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="152" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P16" s="159"/>
     </row>
@@ -6495,7 +6481,7 @@
       <c r="B17" s="158"/>
       <c r="C17" s="137"/>
       <c r="D17" s="139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="139" t="s">
         <v>95</v>
@@ -6509,7 +6495,7 @@
       <c r="H17" s="159"/>
       <c r="J17" s="158"/>
       <c r="K17" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M17" s="162">
         <f>ROWS(L8:L16)</f>
@@ -6520,17 +6506,17 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="158"/>
       <c r="C18" s="137"/>
-      <c r="D18" s="261" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="261" t="s">
+      <c r="D18" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="264">
+      <c r="F18" s="150">
         <v>0</v>
       </c>
       <c r="G18" s="151" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H18" s="159"/>
       <c r="J18" s="158"/>
@@ -6540,14 +6526,14 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="158"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="261" t="s">
+      <c r="C19" s="99"/>
+      <c r="D19" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="261" t="s">
+      <c r="E19" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="261" t="s">
+      <c r="F19" s="139" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="151" t="s">
@@ -6556,13 +6542,13 @@
       <c r="H19" s="159"/>
       <c r="J19" s="158"/>
       <c r="K19" s="155" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P19" s="159"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="158"/>
-      <c r="C20" s="262"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="139" t="s">
         <v>85</v>
       </c>
@@ -6577,23 +6563,23 @@
       </c>
       <c r="H20" s="159"/>
       <c r="J20" s="158"/>
-      <c r="K20" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="257"/>
-      <c r="M20" s="257"/>
-      <c r="N20" s="257"/>
-      <c r="O20" s="258"/>
+      <c r="K20" s="283" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="284"/>
+      <c r="M20" s="284"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="285"/>
       <c r="P20" s="159"/>
-      <c r="R20" s="269"/>
-      <c r="S20" s="269"/>
-      <c r="T20" s="269"/>
-      <c r="U20" s="269"/>
-      <c r="V20" s="269"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="158"/>
-      <c r="C21" s="263"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="143" t="s">
         <v>86</v>
       </c>
@@ -6622,16 +6608,16 @@
         <v>78</v>
       </c>
       <c r="P21" s="159"/>
-      <c r="R21" s="269"/>
-      <c r="S21" s="270"/>
-      <c r="T21" s="270"/>
-      <c r="U21" s="270"/>
-      <c r="V21" s="270"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="169"/>
+      <c r="T21" s="169"/>
+      <c r="U21" s="169"/>
+      <c r="V21" s="169"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="158"/>
       <c r="C22" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="162">
         <f>ROWS(D8:D21)</f>
@@ -6643,7 +6629,7 @@
         <v>87</v>
       </c>
       <c r="L22" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M22" s="143" t="s">
         <v>82</v>
@@ -6652,50 +6638,46 @@
         <v>88</v>
       </c>
       <c r="O22" s="152" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P22" s="159"/>
-      <c r="R22" s="261"/>
-      <c r="S22" s="261"/>
-      <c r="T22" s="261"/>
-      <c r="U22" s="261"/>
-      <c r="V22" s="266"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="167"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="158"/>
       <c r="H23" s="159"/>
       <c r="J23" s="158"/>
       <c r="K23" s="148"/>
-      <c r="L23" s="261" t="s">
+      <c r="L23" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="289">
+        <v>1</v>
+      </c>
+      <c r="O23" s="151" t="s">
         <v>220</v>
       </c>
-      <c r="M23" s="261" t="s">
-        <v>83</v>
-      </c>
-      <c r="N23" s="261"/>
-      <c r="O23" s="151" t="s">
-        <v>221</v>
-      </c>
       <c r="P23" s="159"/>
-      <c r="R23" s="261"/>
-      <c r="S23" s="261"/>
-      <c r="T23" s="261"/>
-      <c r="U23" s="261"/>
-      <c r="V23" s="266"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="167"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="158"/>
-      <c r="C24" s="271" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="271"/>
-      <c r="E24" s="271"/>
-      <c r="F24" s="271"/>
       <c r="H24" s="159"/>
       <c r="J24" s="158"/>
       <c r="K24" s="137"/>
       <c r="L24" s="139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M24" s="139" t="s">
         <v>83</v>
@@ -6704,29 +6686,22 @@
         <v>0</v>
       </c>
       <c r="O24" s="151" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P24" s="159"/>
-      <c r="R24" s="261"/>
-      <c r="S24" s="261"/>
-      <c r="T24" s="261"/>
-      <c r="U24" s="267"/>
-      <c r="V24" s="266"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="167"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="158"/>
-      <c r="C25" s="256" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="257"/>
-      <c r="E25" s="257"/>
-      <c r="F25" s="257"/>
-      <c r="G25" s="258"/>
       <c r="H25" s="159"/>
       <c r="J25" s="158"/>
       <c r="K25" s="137"/>
       <c r="L25" s="139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M25" s="139" t="s">
         <v>83</v>
@@ -6735,35 +6710,27 @@
         <v>0</v>
       </c>
       <c r="O25" s="151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P25" s="159"/>
-      <c r="R25" s="268"/>
-      <c r="S25" s="261"/>
-      <c r="T25" s="261"/>
-      <c r="U25" s="267"/>
-      <c r="V25" s="266"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="167"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="158"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="146" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="145" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="147" t="s">
-        <v>78</v>
-      </c>
+      <c r="C26" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
       <c r="H26" s="159"/>
       <c r="J26" s="158"/>
       <c r="K26" s="137"/>
       <c r="L26" s="139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M26" s="139" t="s">
         <v>95</v>
@@ -6775,34 +6742,25 @@
         <v>104</v>
       </c>
       <c r="P26" s="159"/>
-      <c r="R26" s="268"/>
-      <c r="S26" s="261"/>
-      <c r="T26" s="261"/>
-      <c r="U26" s="267"/>
-      <c r="V26" s="266"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="167"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="158"/>
-      <c r="C27" s="163" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="164" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="164" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="165">
-        <v>0</v>
-      </c>
-      <c r="G27" s="166" t="s">
-        <v>106</v>
-      </c>
+      <c r="C27" s="283" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="284"/>
+      <c r="E27" s="284"/>
+      <c r="F27" s="284"/>
+      <c r="G27" s="285"/>
       <c r="H27" s="159"/>
       <c r="J27" s="158"/>
       <c r="K27" s="138"/>
       <c r="L27" s="143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M27" s="143" t="s">
         <v>95</v>
@@ -6811,88 +6769,88 @@
         <v>0</v>
       </c>
       <c r="O27" s="152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P27" s="159"/>
-      <c r="R27" s="268"/>
-      <c r="S27" s="261"/>
-      <c r="T27" s="261"/>
-      <c r="U27" s="264"/>
-      <c r="V27" s="266"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="167"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="158"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="151" t="s">
-        <v>79</v>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="147" t="s">
+        <v>78</v>
       </c>
       <c r="H28" s="159"/>
       <c r="J28" s="158"/>
       <c r="K28" s="162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M28" s="162">
         <f>ROWS(L22:L27)</f>
         <v>6</v>
       </c>
       <c r="P28" s="159"/>
-      <c r="R28" s="268"/>
-      <c r="S28" s="261"/>
-      <c r="T28" s="261"/>
-      <c r="U28" s="264"/>
-      <c r="V28" s="266"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="167"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="158"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="151" t="s">
-        <v>80</v>
+      <c r="C29" s="163" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="164" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="165">
+        <v>1</v>
+      </c>
+      <c r="G29" s="166" t="s">
+        <v>223</v>
       </c>
       <c r="H29" s="159"/>
       <c r="J29" s="158"/>
       <c r="K29" s="155"/>
       <c r="P29" s="159"/>
-      <c r="R29" s="265"/>
-      <c r="S29" s="265"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="155"/>
       <c r="T29" s="162"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="158"/>
       <c r="C30" s="99"/>
       <c r="D30" s="139" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="141">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="F30" s="139" t="s">
+        <v>88</v>
       </c>
       <c r="G30" s="151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H30" s="159"/>
       <c r="J30" s="158"/>
       <c r="K30" s="155" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P30" s="159"/>
     </row>
@@ -6900,42 +6858,42 @@
       <c r="B31" s="158"/>
       <c r="C31" s="99"/>
       <c r="D31" s="139" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="E31" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="153">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="F31" s="139" t="s">
+        <v>88</v>
       </c>
       <c r="G31" s="151" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H31" s="159"/>
       <c r="J31" s="158"/>
-      <c r="K31" s="256" t="s">
-        <v>108</v>
-      </c>
-      <c r="L31" s="257"/>
-      <c r="M31" s="257"/>
-      <c r="N31" s="257"/>
-      <c r="O31" s="258"/>
+      <c r="K31" s="283" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="284"/>
+      <c r="M31" s="284"/>
+      <c r="N31" s="284"/>
+      <c r="O31" s="285"/>
       <c r="P31" s="159"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="158"/>
-      <c r="C32" s="137"/>
+      <c r="C32" s="99"/>
       <c r="D32" s="139" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="E32" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="153">
+      <c r="F32" s="141">
         <v>0</v>
       </c>
       <c r="G32" s="151" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H32" s="159"/>
       <c r="J32" s="158"/>
@@ -6956,18 +6914,18 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="158"/>
-      <c r="C33" s="137"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="139" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E33" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="153">
-        <v>0</v>
+      <c r="F33" s="141">
+        <v>1</v>
       </c>
       <c r="G33" s="151" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H33" s="159"/>
       <c r="J33" s="158"/>
@@ -6975,24 +6933,24 @@
         <v>87</v>
       </c>
       <c r="L33" s="164" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="M33" s="164" t="s">
-        <v>82</v>
-      </c>
-      <c r="N33" s="164" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="N33" s="164">
+        <v>1</v>
       </c>
       <c r="O33" s="166" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="P33" s="159"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="158"/>
-      <c r="C34" s="137"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="139" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E34" s="139" t="s">
         <v>83</v>
@@ -7001,22 +6959,22 @@
         <v>0</v>
       </c>
       <c r="G34" s="151" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H34" s="159"/>
       <c r="J34" s="158"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="M34" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="N34" s="153">
-        <v>0</v>
+      <c r="K34" s="148"/>
+      <c r="L34" s="290" t="s">
+        <v>108</v>
+      </c>
+      <c r="M34" s="290" t="s">
+        <v>82</v>
+      </c>
+      <c r="N34" s="290" t="s">
+        <v>88</v>
       </c>
       <c r="O34" s="151" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="P34" s="159"/>
     </row>
@@ -7024,7 +6982,7 @@
       <c r="B35" s="158"/>
       <c r="C35" s="137"/>
       <c r="D35" s="139" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="E35" s="139" t="s">
         <v>83</v>
@@ -7033,22 +6991,22 @@
         <v>0</v>
       </c>
       <c r="G35" s="151" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H35" s="159"/>
       <c r="J35" s="158"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="139" t="s">
-        <v>189</v>
-      </c>
-      <c r="M35" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="N35" s="153">
-        <v>0</v>
+      <c r="K35" s="148"/>
+      <c r="L35" s="290" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" s="290" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="290">
+        <v>1</v>
       </c>
       <c r="O35" s="151" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="P35" s="159"/>
     </row>
@@ -7056,7 +7014,7 @@
       <c r="B36" s="158"/>
       <c r="C36" s="137"/>
       <c r="D36" s="139" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E36" s="139" t="s">
         <v>83</v>
@@ -7065,13 +7023,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="151" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H36" s="159"/>
       <c r="J36" s="158"/>
-      <c r="K36" s="137"/>
+      <c r="K36" s="99"/>
       <c r="L36" s="139" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M36" s="139" t="s">
         <v>83</v>
@@ -7080,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="151" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P36" s="159"/>
     </row>
@@ -7088,7 +7046,7 @@
       <c r="B37" s="158"/>
       <c r="C37" s="137"/>
       <c r="D37" s="139" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E37" s="139" t="s">
         <v>83</v>
@@ -7103,7 +7061,7 @@
       <c r="J37" s="158"/>
       <c r="K37" s="137"/>
       <c r="L37" s="139" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M37" s="139" t="s">
         <v>83</v>
@@ -7112,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="151" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P37" s="159"/>
     </row>
@@ -7120,7 +7078,7 @@
       <c r="B38" s="158"/>
       <c r="C38" s="137"/>
       <c r="D38" s="139" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E38" s="139" t="s">
         <v>83</v>
@@ -7135,7 +7093,7 @@
       <c r="J38" s="158"/>
       <c r="K38" s="137"/>
       <c r="L38" s="139" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M38" s="139" t="s">
         <v>83</v>
@@ -7144,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="151" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P38" s="159"/>
     </row>
@@ -7152,7 +7110,7 @@
       <c r="B39" s="158"/>
       <c r="C39" s="137"/>
       <c r="D39" s="139" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E39" s="139" t="s">
         <v>83</v>
@@ -7161,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="151" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H39" s="159"/>
       <c r="J39" s="158"/>
       <c r="K39" s="137"/>
       <c r="L39" s="139" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M39" s="139" t="s">
         <v>83</v>
@@ -7176,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="151" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P39" s="159"/>
     </row>
@@ -7184,7 +7142,7 @@
       <c r="B40" s="158"/>
       <c r="C40" s="137"/>
       <c r="D40" s="139" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E40" s="139" t="s">
         <v>83</v>
@@ -7193,13 +7151,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="151" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H40" s="159"/>
       <c r="J40" s="158"/>
       <c r="K40" s="137"/>
       <c r="L40" s="139" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M40" s="139" t="s">
         <v>83</v>
@@ -7208,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="151" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P40" s="159"/>
     </row>
@@ -7216,7 +7174,7 @@
       <c r="B41" s="158"/>
       <c r="C41" s="137"/>
       <c r="D41" s="139" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E41" s="139" t="s">
         <v>83</v>
@@ -7225,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="151" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H41" s="159"/>
       <c r="J41" s="158"/>
       <c r="K41" s="137"/>
       <c r="L41" s="139" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M41" s="139" t="s">
         <v>83</v>
@@ -7240,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="151" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P41" s="159"/>
     </row>
@@ -7248,7 +7206,7 @@
       <c r="B42" s="158"/>
       <c r="C42" s="137"/>
       <c r="D42" s="139" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E42" s="139" t="s">
         <v>83</v>
@@ -7257,13 +7215,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="151" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H42" s="159"/>
       <c r="J42" s="158"/>
       <c r="K42" s="137"/>
       <c r="L42" s="139" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M42" s="139" t="s">
         <v>83</v>
@@ -7272,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="151" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P42" s="159"/>
     </row>
@@ -7280,7 +7238,7 @@
       <c r="B43" s="158"/>
       <c r="C43" s="137"/>
       <c r="D43" s="139" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E43" s="139" t="s">
         <v>83</v>
@@ -7295,7 +7253,7 @@
       <c r="J43" s="158"/>
       <c r="K43" s="137"/>
       <c r="L43" s="139" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M43" s="139" t="s">
         <v>83</v>
@@ -7304,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="151" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P43" s="159"/>
     </row>
@@ -7312,7 +7270,7 @@
       <c r="B44" s="158"/>
       <c r="C44" s="137"/>
       <c r="D44" s="139" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E44" s="139" t="s">
         <v>83</v>
@@ -7327,7 +7285,7 @@
       <c r="J44" s="158"/>
       <c r="K44" s="137"/>
       <c r="L44" s="139" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M44" s="139" t="s">
         <v>83</v>
@@ -7336,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="151" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P44" s="159"/>
     </row>
@@ -7344,7 +7302,7 @@
       <c r="B45" s="158"/>
       <c r="C45" s="137"/>
       <c r="D45" s="139" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E45" s="139" t="s">
         <v>83</v>
@@ -7353,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="151" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H45" s="159"/>
       <c r="J45" s="158"/>
       <c r="K45" s="137"/>
       <c r="L45" s="139" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M45" s="139" t="s">
         <v>83</v>
@@ -7368,15 +7326,15 @@
         <v>0</v>
       </c>
       <c r="O45" s="151" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P45" s="159"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="158"/>
-      <c r="C46" s="148"/>
+      <c r="C46" s="137"/>
       <c r="D46" s="139" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E46" s="139" t="s">
         <v>83</v>
@@ -7385,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="151" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H46" s="159"/>
       <c r="J46" s="158"/>
       <c r="K46" s="137"/>
       <c r="L46" s="139" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M46" s="139" t="s">
         <v>83</v>
@@ -7400,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="151" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P46" s="159"/>
     </row>
@@ -7408,7 +7366,7 @@
       <c r="B47" s="158"/>
       <c r="C47" s="137"/>
       <c r="D47" s="139" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E47" s="139" t="s">
         <v>83</v>
@@ -7417,13 +7375,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="151" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H47" s="159"/>
       <c r="J47" s="158"/>
       <c r="K47" s="137"/>
       <c r="L47" s="139" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M47" s="139" t="s">
         <v>83</v>
@@ -7432,15 +7390,15 @@
         <v>0</v>
       </c>
       <c r="O47" s="151" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P47" s="159"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="158"/>
-      <c r="C48" s="148"/>
+      <c r="C48" s="137"/>
       <c r="D48" s="139" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E48" s="139" t="s">
         <v>83</v>
@@ -7449,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="151" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H48" s="159"/>
       <c r="J48" s="158"/>
       <c r="K48" s="137"/>
       <c r="L48" s="139" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M48" s="139" t="s">
         <v>83</v>
@@ -7464,15 +7422,15 @@
         <v>0</v>
       </c>
       <c r="O48" s="151" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P48" s="159"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="158"/>
-      <c r="C49" s="137"/>
+      <c r="C49" s="148"/>
       <c r="D49" s="139" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E49" s="139" t="s">
         <v>83</v>
@@ -7481,13 +7439,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="151" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H49" s="159"/>
       <c r="J49" s="158"/>
       <c r="K49" s="137"/>
       <c r="L49" s="139" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M49" s="139" t="s">
         <v>83</v>
@@ -7496,15 +7454,15 @@
         <v>0</v>
       </c>
       <c r="O49" s="151" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P49" s="159"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="158"/>
-      <c r="C50" s="148"/>
+      <c r="C50" s="137"/>
       <c r="D50" s="139" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E50" s="139" t="s">
         <v>83</v>
@@ -7513,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="151" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H50" s="159"/>
       <c r="J50" s="158"/>
-      <c r="K50" s="148"/>
+      <c r="K50" s="137"/>
       <c r="L50" s="139" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M50" s="139" t="s">
         <v>83</v>
@@ -7528,15 +7486,15 @@
         <v>0</v>
       </c>
       <c r="O50" s="151" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P50" s="159"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="158"/>
-      <c r="C51" s="137"/>
+      <c r="C51" s="148"/>
       <c r="D51" s="139" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E51" s="139" t="s">
         <v>83</v>
@@ -7545,13 +7503,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="151" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H51" s="159"/>
       <c r="J51" s="161"/>
       <c r="K51" s="137"/>
       <c r="L51" s="139" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M51" s="139" t="s">
         <v>83</v>
@@ -7560,15 +7518,15 @@
         <v>0</v>
       </c>
       <c r="O51" s="151" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P51" s="159"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="158"/>
-      <c r="C52" s="148"/>
+      <c r="C52" s="137"/>
       <c r="D52" s="139" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E52" s="139" t="s">
         <v>83</v>
@@ -7577,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="151" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H52" s="159"/>
       <c r="J52" s="158"/>
       <c r="K52" s="148"/>
       <c r="L52" s="139" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M52" s="139" t="s">
         <v>83</v>
@@ -7592,15 +7550,15 @@
         <v>0</v>
       </c>
       <c r="O52" s="151" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P52" s="159"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="158"/>
-      <c r="C53" s="137"/>
+      <c r="C53" s="148"/>
       <c r="D53" s="139" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E53" s="139" t="s">
         <v>83</v>
@@ -7608,14 +7566,14 @@
       <c r="F53" s="153">
         <v>0</v>
       </c>
-      <c r="G53" s="135" t="s">
-        <v>143</v>
+      <c r="G53" s="151" t="s">
+        <v>139</v>
       </c>
       <c r="H53" s="159"/>
       <c r="J53" s="158"/>
       <c r="K53" s="137"/>
       <c r="L53" s="139" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M53" s="139" t="s">
         <v>83</v>
@@ -7624,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="151" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P53" s="159"/>
     </row>
@@ -7632,7 +7590,7 @@
       <c r="B54" s="158"/>
       <c r="C54" s="137"/>
       <c r="D54" s="139" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="E54" s="139" t="s">
         <v>83</v>
@@ -7640,14 +7598,14 @@
       <c r="F54" s="153">
         <v>0</v>
       </c>
-      <c r="G54" s="135" t="s">
-        <v>144</v>
+      <c r="G54" s="151" t="s">
+        <v>140</v>
       </c>
       <c r="H54" s="159"/>
       <c r="J54" s="158"/>
       <c r="K54" s="148"/>
       <c r="L54" s="139" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M54" s="139" t="s">
         <v>83</v>
@@ -7656,15 +7614,15 @@
         <v>0</v>
       </c>
       <c r="O54" s="151" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P54" s="159"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="158"/>
-      <c r="C55" s="137"/>
+      <c r="C55" s="148"/>
       <c r="D55" s="139" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E55" s="139" t="s">
         <v>83</v>
@@ -7672,14 +7630,14 @@
       <c r="F55" s="153">
         <v>0</v>
       </c>
-      <c r="G55" s="135" t="s">
-        <v>145</v>
+      <c r="G55" s="151" t="s">
+        <v>141</v>
       </c>
       <c r="H55" s="159"/>
       <c r="J55" s="158"/>
       <c r="K55" s="137"/>
       <c r="L55" s="139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M55" s="139" t="s">
         <v>83</v>
@@ -7688,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="151" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P55" s="159"/>
     </row>
@@ -7705,13 +7663,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="135" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H56" s="159"/>
       <c r="J56" s="158"/>
       <c r="K56" s="148"/>
       <c r="L56" s="139" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="M56" s="139" t="s">
         <v>83</v>
@@ -7719,8 +7677,8 @@
       <c r="N56" s="153">
         <v>0</v>
       </c>
-      <c r="O56" s="135" t="s">
-        <v>143</v>
+      <c r="O56" s="151" t="s">
+        <v>140</v>
       </c>
       <c r="P56" s="159"/>
     </row>
@@ -7728,7 +7686,7 @@
       <c r="B57" s="158"/>
       <c r="C57" s="137"/>
       <c r="D57" s="139" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E57" s="139" t="s">
         <v>83</v>
@@ -7737,13 +7695,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="135" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H57" s="159"/>
       <c r="J57" s="158"/>
       <c r="K57" s="137"/>
       <c r="L57" s="139" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M57" s="139" t="s">
         <v>83</v>
@@ -7751,8 +7709,8 @@
       <c r="N57" s="153">
         <v>0</v>
       </c>
-      <c r="O57" s="135" t="s">
-        <v>144</v>
+      <c r="O57" s="151" t="s">
+        <v>141</v>
       </c>
       <c r="P57" s="159"/>
     </row>
@@ -7760,7 +7718,7 @@
       <c r="B58" s="158"/>
       <c r="C58" s="137"/>
       <c r="D58" s="139" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E58" s="139" t="s">
         <v>83</v>
@@ -7769,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="135" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H58" s="159"/>
       <c r="J58" s="158"/>
-      <c r="K58" s="137"/>
+      <c r="K58" s="148"/>
       <c r="L58" s="139" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M58" s="139" t="s">
         <v>83</v>
@@ -7784,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="135" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P58" s="159"/>
     </row>
@@ -7792,7 +7750,7 @@
       <c r="B59" s="158"/>
       <c r="C59" s="137"/>
       <c r="D59" s="139" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E59" s="139" t="s">
         <v>83</v>
@@ -7801,13 +7759,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="135" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H59" s="159"/>
       <c r="J59" s="158"/>
       <c r="K59" s="137"/>
       <c r="L59" s="139" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M59" s="139" t="s">
         <v>83</v>
@@ -7816,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="135" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P59" s="159"/>
     </row>
@@ -7824,7 +7782,7 @@
       <c r="B60" s="158"/>
       <c r="C60" s="137"/>
       <c r="D60" s="139" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E60" s="139" t="s">
         <v>83</v>
@@ -7833,13 +7791,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="135" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H60" s="159"/>
       <c r="J60" s="158"/>
       <c r="K60" s="137"/>
       <c r="L60" s="139" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="M60" s="139" t="s">
         <v>83</v>
@@ -7848,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="135" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P60" s="159"/>
     </row>
@@ -7856,7 +7814,7 @@
       <c r="B61" s="158"/>
       <c r="C61" s="137"/>
       <c r="D61" s="139" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E61" s="139" t="s">
         <v>83</v>
@@ -7865,13 +7823,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="135" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H61" s="159"/>
       <c r="J61" s="158"/>
       <c r="K61" s="137"/>
       <c r="L61" s="139" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M61" s="139" t="s">
         <v>83</v>
@@ -7880,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P61" s="159"/>
     </row>
@@ -7888,7 +7846,7 @@
       <c r="B62" s="158"/>
       <c r="C62" s="137"/>
       <c r="D62" s="139" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E62" s="139" t="s">
         <v>83</v>
@@ -7897,13 +7855,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="135" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H62" s="159"/>
       <c r="J62" s="158"/>
       <c r="K62" s="137"/>
       <c r="L62" s="139" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M62" s="139" t="s">
         <v>83</v>
@@ -7912,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="135" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P62" s="159"/>
     </row>
@@ -7920,7 +7878,7 @@
       <c r="B63" s="158"/>
       <c r="C63" s="137"/>
       <c r="D63" s="139" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E63" s="139" t="s">
         <v>83</v>
@@ -7929,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="135" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H63" s="159"/>
       <c r="J63" s="158"/>
       <c r="K63" s="137"/>
       <c r="L63" s="139" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M63" s="139" t="s">
         <v>83</v>
@@ -7944,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="135" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P63" s="159"/>
     </row>
@@ -7952,7 +7910,7 @@
       <c r="B64" s="158"/>
       <c r="C64" s="137"/>
       <c r="D64" s="139" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E64" s="139" t="s">
         <v>83</v>
@@ -7961,13 +7919,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="135" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H64" s="159"/>
       <c r="J64" s="158"/>
       <c r="K64" s="137"/>
       <c r="L64" s="139" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M64" s="139" t="s">
         <v>83</v>
@@ -7976,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="135" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P64" s="159"/>
     </row>
@@ -7984,7 +7942,7 @@
       <c r="B65" s="158"/>
       <c r="C65" s="137"/>
       <c r="D65" s="139" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E65" s="139" t="s">
         <v>83</v>
@@ -7993,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="135" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H65" s="159"/>
       <c r="J65" s="158"/>
       <c r="K65" s="137"/>
       <c r="L65" s="139" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M65" s="139" t="s">
         <v>83</v>
@@ -8008,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="135" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P65" s="159"/>
     </row>
@@ -8016,7 +7974,7 @@
       <c r="B66" s="158"/>
       <c r="C66" s="137"/>
       <c r="D66" s="139" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E66" s="139" t="s">
         <v>83</v>
@@ -8025,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="135" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H66" s="159"/>
       <c r="J66" s="158"/>
       <c r="K66" s="137"/>
       <c r="L66" s="139" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M66" s="139" t="s">
         <v>83</v>
@@ -8040,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="135" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P66" s="159"/>
     </row>
@@ -8048,7 +8006,7 @@
       <c r="B67" s="158"/>
       <c r="C67" s="137"/>
       <c r="D67" s="139" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E67" s="139" t="s">
         <v>83</v>
@@ -8057,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="135" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H67" s="159"/>
       <c r="J67" s="158"/>
       <c r="K67" s="137"/>
       <c r="L67" s="139" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M67" s="139" t="s">
         <v>83</v>
@@ -8072,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P67" s="159"/>
     </row>
@@ -8080,7 +8038,7 @@
       <c r="B68" s="158"/>
       <c r="C68" s="137"/>
       <c r="D68" s="139" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E68" s="139" t="s">
         <v>83</v>
@@ -8089,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="135" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H68" s="159"/>
       <c r="J68" s="158"/>
       <c r="K68" s="137"/>
       <c r="L68" s="139" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M68" s="139" t="s">
         <v>83</v>
@@ -8104,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="135" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P68" s="159"/>
     </row>
@@ -8112,7 +8070,7 @@
       <c r="B69" s="158"/>
       <c r="C69" s="137"/>
       <c r="D69" s="139" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="E69" s="139" t="s">
         <v>83</v>
@@ -8121,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="135" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H69" s="159"/>
       <c r="J69" s="158"/>
       <c r="K69" s="137"/>
       <c r="L69" s="139" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M69" s="139" t="s">
         <v>83</v>
@@ -8136,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="135" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P69" s="159"/>
     </row>
@@ -8144,7 +8102,7 @@
       <c r="B70" s="158"/>
       <c r="C70" s="137"/>
       <c r="D70" s="139" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E70" s="139" t="s">
         <v>83</v>
@@ -8153,13 +8111,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="135" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H70" s="159"/>
       <c r="J70" s="158"/>
       <c r="K70" s="137"/>
       <c r="L70" s="139" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M70" s="139" t="s">
         <v>83</v>
@@ -8168,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="135" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P70" s="159"/>
     </row>
@@ -8176,7 +8134,7 @@
       <c r="B71" s="158"/>
       <c r="C71" s="137"/>
       <c r="D71" s="139" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="E71" s="139" t="s">
         <v>83</v>
@@ -8185,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="135" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H71" s="159"/>
       <c r="J71" s="158"/>
       <c r="K71" s="137"/>
       <c r="L71" s="139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M71" s="139" t="s">
         <v>83</v>
@@ -8200,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="135" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P71" s="159"/>
     </row>
@@ -8208,7 +8166,7 @@
       <c r="B72" s="158"/>
       <c r="C72" s="137"/>
       <c r="D72" s="139" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E72" s="139" t="s">
         <v>83</v>
@@ -8217,13 +8175,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="135" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H72" s="159"/>
       <c r="J72" s="158"/>
       <c r="K72" s="137"/>
       <c r="L72" s="139" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M72" s="139" t="s">
         <v>83</v>
@@ -8232,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="135" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P72" s="159"/>
     </row>
@@ -8240,7 +8198,7 @@
       <c r="B73" s="158"/>
       <c r="C73" s="137"/>
       <c r="D73" s="139" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="E73" s="139" t="s">
         <v>83</v>
@@ -8249,13 +8207,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="135" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H73" s="159"/>
       <c r="J73" s="158"/>
       <c r="K73" s="137"/>
       <c r="L73" s="139" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M73" s="139" t="s">
         <v>83</v>
@@ -8264,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="135" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P73" s="159"/>
     </row>
@@ -8272,7 +8230,7 @@
       <c r="B74" s="158"/>
       <c r="C74" s="137"/>
       <c r="D74" s="139" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E74" s="139" t="s">
         <v>83</v>
@@ -8281,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="135" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H74" s="159"/>
       <c r="J74" s="158"/>
       <c r="K74" s="137"/>
       <c r="L74" s="139" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M74" s="139" t="s">
         <v>83</v>
@@ -8296,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="135" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P74" s="159"/>
     </row>
@@ -8304,7 +8262,7 @@
       <c r="B75" s="158"/>
       <c r="C75" s="137"/>
       <c r="D75" s="139" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="E75" s="139" t="s">
         <v>83</v>
@@ -8313,13 +8271,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="135" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H75" s="159"/>
       <c r="J75" s="158"/>
       <c r="K75" s="137"/>
       <c r="L75" s="139" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M75" s="139" t="s">
         <v>83</v>
@@ -8328,30 +8286,30 @@
         <v>0</v>
       </c>
       <c r="O75" s="135" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P75" s="159"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="158"/>
-      <c r="C76" s="138"/>
-      <c r="D76" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="154">
-        <v>0</v>
-      </c>
-      <c r="G76" s="136" t="s">
-        <v>166</v>
+      <c r="C76" s="137"/>
+      <c r="D76" s="139" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" s="153">
+        <v>0</v>
+      </c>
+      <c r="G76" s="135" t="s">
+        <v>162</v>
       </c>
       <c r="H76" s="159"/>
       <c r="J76" s="158"/>
       <c r="K76" s="137"/>
       <c r="L76" s="139" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M76" s="139" t="s">
         <v>83</v>
@@ -8360,24 +8318,30 @@
         <v>0</v>
       </c>
       <c r="O76" s="135" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P76" s="159"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="158"/>
-      <c r="C77" s="155" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="162">
-        <f>ROWS(D27:D76)</f>
-        <v>50</v>
+      <c r="C77" s="137"/>
+      <c r="D77" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="153">
+        <v>0</v>
+      </c>
+      <c r="G77" s="135" t="s">
+        <v>163</v>
       </c>
       <c r="H77" s="159"/>
       <c r="J77" s="158"/>
       <c r="K77" s="137"/>
       <c r="L77" s="139" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M77" s="139" t="s">
         <v>83</v>
@@ -8386,19 +8350,30 @@
         <v>0</v>
       </c>
       <c r="O77" s="135" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P77" s="159"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="158"/>
-      <c r="C78" s="268"/>
-      <c r="G78" s="268"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="139" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="153">
+        <v>0</v>
+      </c>
+      <c r="G78" s="135" t="s">
+        <v>164</v>
+      </c>
       <c r="H78" s="159"/>
       <c r="J78" s="158"/>
       <c r="K78" s="137"/>
       <c r="L78" s="139" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M78" s="139" t="s">
         <v>83</v>
@@ -8407,57 +8382,115 @@
         <v>0</v>
       </c>
       <c r="O78" s="135" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P78" s="159"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="158"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="154">
+        <v>0</v>
+      </c>
+      <c r="G79" s="136" t="s">
+        <v>165</v>
+      </c>
       <c r="H79" s="159"/>
       <c r="J79" s="158"/>
-      <c r="K79" s="138"/>
-      <c r="L79" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="M79" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="N79" s="154">
-        <v>0</v>
-      </c>
-      <c r="O79" s="136" t="s">
-        <v>166</v>
+      <c r="K79" s="137"/>
+      <c r="L79" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="M79" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N79" s="153">
+        <v>0</v>
+      </c>
+      <c r="O79" s="135" t="s">
+        <v>163</v>
       </c>
       <c r="P79" s="159"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="158"/>
+      <c r="C80" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="162">
+        <f>ROWS(D29:D79)</f>
+        <v>51</v>
+      </c>
       <c r="H80" s="159"/>
       <c r="J80" s="158"/>
-      <c r="K80" s="155" t="s">
-        <v>115</v>
-      </c>
-      <c r="M80" s="162">
-        <f>ROWS(L33:L79)</f>
-        <v>47</v>
+      <c r="K80" s="137"/>
+      <c r="L80" s="139" t="s">
+        <v>186</v>
+      </c>
+      <c r="M80" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="N80" s="153">
+        <v>0</v>
+      </c>
+      <c r="O80" s="135" t="s">
+        <v>164</v>
       </c>
       <c r="P80" s="159"/>
     </row>
-    <row r="81" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="272"/>
-      <c r="C81" s="273"/>
-      <c r="D81" s="273"/>
-      <c r="E81" s="273"/>
-      <c r="F81" s="273"/>
-      <c r="G81" s="273"/>
-      <c r="H81" s="274"/>
-      <c r="J81" s="272"/>
-      <c r="K81" s="273"/>
-      <c r="L81" s="273"/>
-      <c r="M81" s="273"/>
-      <c r="N81" s="273"/>
-      <c r="O81" s="273"/>
-      <c r="P81" s="274"/>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B81" s="158"/>
+      <c r="H81" s="159"/>
+      <c r="J81" s="158"/>
+      <c r="K81" s="138"/>
+      <c r="L81" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="M81" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="N81" s="154">
+        <v>0</v>
+      </c>
+      <c r="O81" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="P81" s="159"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B82" s="158"/>
+      <c r="H82" s="159"/>
+      <c r="J82" s="158"/>
+      <c r="K82" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="M82" s="162">
+        <f>ROWS(L33:L81)</f>
+        <v>49</v>
+      </c>
+      <c r="P82" s="159"/>
+    </row>
+    <row r="83" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="171"/>
+      <c r="C83" s="172"/>
+      <c r="D83" s="172"/>
+      <c r="E83" s="172"/>
+      <c r="F83" s="172"/>
+      <c r="G83" s="172"/>
+      <c r="H83" s="173"/>
+      <c r="J83" s="171"/>
+      <c r="K83" s="172"/>
+      <c r="L83" s="172"/>
+      <c r="M83" s="172"/>
+      <c r="N83" s="172"/>
+      <c r="O83" s="172"/>
+      <c r="P83" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8466,7 +8499,7 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="K6:O6"/>
-    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C27:G27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Genia\Final_pjt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsl\Desktop\Github\Genia\Final_pjt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67007208-4246-45EC-9920-FC98BB0611BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">WBS!$A$1:$M$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'테이블 정의서'!$A$2:$Q$83</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -923,7 +922,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -3256,6 +3255,75 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3292,21 +3360,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3335,66 +3394,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3751,7 +3750,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="31"/>
       <tableStyleElement type="headerRow" dxfId="30"/>
       <tableStyleElement type="totalRow" dxfId="29"/>
@@ -3760,7 +3759,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="26"/>
       <tableStyleElement type="firstColumnStripe" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -4110,12 +4109,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4163,15 +4162,15 @@
         <v>45</v>
       </c>
       <c r="J2" s="89">
-        <f ca="1">TODAY()</f>
-        <v>45289</v>
+        <f>DATE(2024,1,2)</f>
+        <v>45293</v>
       </c>
       <c r="K2" s="90" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="91">
         <f>K6</f>
-        <v>0.65722222222222237</v>
+        <v>0.76222222222222225</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -4270,7 +4269,7 @@
       </c>
       <c r="I6" s="19">
         <f>SUM(K7, K17, K26, K28)</f>
-        <v>0.65722222222222237</v>
+        <v>0.76222222222222225</v>
       </c>
       <c r="J6" s="56">
         <f>SUM(J7, J17, J26, J28)</f>
@@ -4278,10 +4277,10 @@
       </c>
       <c r="K6" s="50">
         <f>SUM(K7, K17, K26, K28)</f>
-        <v>0.65722222222222237</v>
+        <v>0.76222222222222225</v>
       </c>
       <c r="L6" s="31">
-        <f t="shared" ref="L6:L26" ca="1" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
+        <f t="shared" ref="L6:L26" si="0">IF(G6-$J$2&lt;=0,0,G6-$J$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4319,7 +4318,7 @@
         <v>4.2222222222222223E-2</v>
       </c>
       <c r="L7" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="36"/>
@@ -4360,7 +4359,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="L8" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4398,7 +4397,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="L9" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4436,7 +4435,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="L10" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4474,7 +4473,7 @@
         <v>8.8888888888888889E-3</v>
       </c>
       <c r="L11" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4512,7 +4511,7 @@
         <v>0.01</v>
       </c>
       <c r="L12" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4550,7 +4549,7 @@
         <v>0.01</v>
       </c>
       <c r="L13" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4588,7 +4587,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="L14" s="76">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4624,7 +4623,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="L15" s="76">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4660,7 +4659,7 @@
         <v>0.01</v>
       </c>
       <c r="L16" s="76">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4693,10 +4692,10 @@
       </c>
       <c r="K17" s="53">
         <f>SUM(K18:K25)</f>
-        <v>0.52500000000000002</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="L17" s="34">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4736,7 +4735,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="L18" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4772,7 +4771,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="L19" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4808,7 +4807,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="L20" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4844,7 +4843,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="L21" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4882,7 +4881,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="L22" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4909,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J23" s="58">
         <f t="shared" si="4"/>
@@ -4917,10 +4916,10 @@
       </c>
       <c r="K23" s="52">
         <f t="shared" si="5"/>
-        <v>5.2499999999999998E-2</v>
+        <v>6.1249999999999992E-2</v>
       </c>
       <c r="L23" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4945,7 +4944,7 @@
         <v>37</v>
       </c>
       <c r="I24" s="11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J24" s="58">
         <f t="shared" si="4"/>
@@ -4953,10 +4952,10 @@
       </c>
       <c r="K24" s="52">
         <f t="shared" si="5"/>
-        <v>5.2499999999999998E-2</v>
+        <v>6.1249999999999992E-2</v>
       </c>
       <c r="L24" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4983,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J25" s="58">
         <f t="shared" si="4"/>
@@ -4991,10 +4990,10 @@
       </c>
       <c r="K25" s="52">
         <f t="shared" si="5"/>
-        <v>5.2499999999999998E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="L25" s="33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5029,10 +5028,10 @@
       </c>
       <c r="K26" s="53">
         <f>SUM(K27:K27)</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L26" s="34">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5061,17 +5060,17 @@
         <v>9</v>
       </c>
       <c r="I27" s="12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J27" s="60">
         <v>0.1</v>
       </c>
       <c r="K27" s="54">
         <f t="shared" ref="K27" si="6">I27*J27</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L27" s="35">
-        <f ca="1">IF(G27-$J$2&lt;=0,0,G27-$J$2)</f>
+        <f>IF(G27-$J$2&lt;=0,0,G27-$J$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5106,10 +5105,10 @@
       </c>
       <c r="K28" s="53">
         <f>SUM(K29:K30)</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="34">
-        <f ca="1">IF(G28-$J$2&lt;=0,0,G28-$J$2)</f>
+        <f>IF(G28-$J$2&lt;=0,0,G28-$J$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5138,7 +5137,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J29" s="60">
         <f>$J$28/COUNT($I$29:$I$30)</f>
@@ -5146,10 +5145,10 @@
       </c>
       <c r="K29" s="55">
         <f>I29*J29</f>
-        <v>2.0000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L29" s="37">
-        <f ca="1">IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
+        <f>IF(G30-$J$2&lt;=0,0,G30-$J$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5176,7 +5175,7 @@
         <v>9</v>
       </c>
       <c r="I30" s="63">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J30" s="162">
         <f>$J$28/COUNT($I$29:$I$30)</f>
@@ -5184,10 +5183,10 @@
       </c>
       <c r="K30" s="168">
         <f>I30*J30</f>
-        <v>2.0000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L30" s="64">
-        <f ca="1">IF(F30-$J$2&lt;=0,0,F30-$J$2)</f>
+        <f>IF(F30-$J$2&lt;=0,0,F30-$J$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5268,10 +5267,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H14 H17:H30" xr:uid="{A15ED28A-F900-44C7-B573-44B919FDAFCD}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H14 H17:H30">
       <formula1>"공통, 김민수, 이찬녕, 이형석, 임유하, 전혁선"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D30" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D30">
       <formula1>"계획,진행,완료"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5281,7 +5280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AH20"/>
   <sheetViews>
@@ -5298,140 +5297,140 @@
   <sheetData>
     <row r="2" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="234" t="s">
+      <c r="C3" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="255" t="s">
+      <c r="D3" s="257"/>
+      <c r="E3" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="256"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256"/>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="256"/>
-      <c r="AD3" s="256"/>
-      <c r="AE3" s="256"/>
-      <c r="AF3" s="256"/>
-      <c r="AG3" s="256"/>
-      <c r="AH3" s="257"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="231"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="231"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="231"/>
+      <c r="U3" s="231"/>
+      <c r="V3" s="231"/>
+      <c r="W3" s="231"/>
+      <c r="X3" s="231"/>
+      <c r="Y3" s="231"/>
+      <c r="Z3" s="231"/>
+      <c r="AA3" s="231"/>
+      <c r="AB3" s="231"/>
+      <c r="AC3" s="231"/>
+      <c r="AD3" s="231"/>
+      <c r="AE3" s="231"/>
+      <c r="AF3" s="231"/>
+      <c r="AG3" s="231"/>
+      <c r="AH3" s="232"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="233"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="258" t="s">
+      <c r="B4" s="256"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="259"/>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="259"/>
-      <c r="U4" s="259"/>
-      <c r="V4" s="259"/>
-      <c r="W4" s="259"/>
-      <c r="X4" s="259"/>
-      <c r="Y4" s="259"/>
-      <c r="Z4" s="259"/>
-      <c r="AA4" s="259"/>
-      <c r="AB4" s="259"/>
-      <c r="AC4" s="259"/>
-      <c r="AD4" s="259"/>
-      <c r="AE4" s="259"/>
-      <c r="AF4" s="259"/>
-      <c r="AG4" s="259"/>
-      <c r="AH4" s="260"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="234"/>
+      <c r="U4" s="234"/>
+      <c r="V4" s="234"/>
+      <c r="W4" s="234"/>
+      <c r="X4" s="234"/>
+      <c r="Y4" s="234"/>
+      <c r="Z4" s="234"/>
+      <c r="AA4" s="234"/>
+      <c r="AB4" s="234"/>
+      <c r="AC4" s="234"/>
+      <c r="AD4" s="234"/>
+      <c r="AE4" s="234"/>
+      <c r="AF4" s="234"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="241">
+      <c r="C5" s="266"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="239">
         <v>1</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="266">
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="242">
         <v>2</v>
       </c>
-      <c r="K5" s="259"/>
-      <c r="L5" s="259"/>
-      <c r="M5" s="259"/>
-      <c r="N5" s="267"/>
-      <c r="O5" s="268">
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
+      <c r="M5" s="234"/>
+      <c r="N5" s="243"/>
+      <c r="O5" s="244">
         <v>3</v>
       </c>
-      <c r="P5" s="259"/>
-      <c r="Q5" s="259"/>
-      <c r="R5" s="259"/>
-      <c r="S5" s="267"/>
-      <c r="T5" s="261">
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234"/>
+      <c r="S5" s="243"/>
+      <c r="T5" s="236">
         <v>4</v>
       </c>
-      <c r="U5" s="262"/>
-      <c r="V5" s="262"/>
-      <c r="W5" s="262"/>
-      <c r="X5" s="263"/>
-      <c r="Y5" s="261">
+      <c r="U5" s="237"/>
+      <c r="V5" s="237"/>
+      <c r="W5" s="237"/>
+      <c r="X5" s="238"/>
+      <c r="Y5" s="236">
         <v>5</v>
       </c>
-      <c r="Z5" s="262"/>
-      <c r="AA5" s="262"/>
-      <c r="AB5" s="262"/>
-      <c r="AC5" s="263"/>
-      <c r="AD5" s="269">
+      <c r="Z5" s="237"/>
+      <c r="AA5" s="237"/>
+      <c r="AB5" s="237"/>
+      <c r="AC5" s="238"/>
+      <c r="AD5" s="245">
         <v>6</v>
       </c>
-      <c r="AE5" s="270"/>
-      <c r="AF5" s="270"/>
-      <c r="AG5" s="270"/>
-      <c r="AH5" s="271"/>
+      <c r="AE5" s="246"/>
+      <c r="AF5" s="246"/>
+      <c r="AG5" s="246"/>
+      <c r="AH5" s="247"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="237" t="s">
+      <c r="C6" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="238"/>
+      <c r="D6" s="226"/>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
       <c r="G6" s="92"/>
@@ -5467,10 +5466,10 @@
       <c r="B7" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="237" t="s">
+      <c r="C7" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="92"/>
       <c r="F7" s="92"/>
       <c r="G7" s="92"/>
@@ -5506,10 +5505,10 @@
       <c r="B8" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="C8" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="238"/>
+      <c r="D8" s="226"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="92"/>
@@ -5545,10 +5544,10 @@
       <c r="B9" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="238"/>
+      <c r="D9" s="226"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="92"/>
@@ -5581,13 +5580,13 @@
       <c r="AH9" s="173"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="248" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="239" t="s">
+      <c r="C10" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="240"/>
+      <c r="D10" s="261"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -5620,11 +5619,11 @@
       <c r="AH10" s="173"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="226"/>
-      <c r="C11" s="241" t="s">
+      <c r="B11" s="249"/>
+      <c r="C11" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="242"/>
+      <c r="D11" s="262"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -5657,11 +5656,11 @@
       <c r="AH11" s="173"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="226"/>
-      <c r="C12" s="243" t="s">
+      <c r="B12" s="249"/>
+      <c r="C12" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="244"/>
+      <c r="D12" s="264"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -5694,11 +5693,11 @@
       <c r="AH12" s="173"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="226"/>
-      <c r="C13" s="228" t="s">
+      <c r="B13" s="249"/>
+      <c r="C13" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="229"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -5731,11 +5730,11 @@
       <c r="AH13" s="173"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="227"/>
-      <c r="C14" s="228" t="s">
+      <c r="B14" s="250"/>
+      <c r="C14" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="229"/>
+      <c r="D14" s="252"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="98"/>
@@ -5767,13 +5766,13 @@
       <c r="AH14" s="173"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="252" t="s">
+      <c r="B15" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="248" t="s">
+      <c r="C15" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="249"/>
+      <c r="D15" s="269"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -5806,11 +5805,11 @@
       <c r="AH15" s="173"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="253"/>
-      <c r="C16" s="250" t="s">
+      <c r="B16" s="228"/>
+      <c r="C16" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="251"/>
+      <c r="D16" s="271"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -5843,11 +5842,11 @@
       <c r="AH16" s="173"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="254"/>
-      <c r="C17" s="237" t="s">
+      <c r="B17" s="229"/>
+      <c r="C17" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="238"/>
+      <c r="D17" s="226"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -5883,10 +5882,10 @@
       <c r="B18" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="237" t="s">
+      <c r="C18" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="238"/>
+      <c r="D18" s="226"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -5922,10 +5921,10 @@
       <c r="B19" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="230" t="s">
+      <c r="C19" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="231"/>
+      <c r="D19" s="254"/>
       <c r="E19" s="171"/>
       <c r="F19" s="171"/>
       <c r="G19" s="171"/>
@@ -5963,6 +5962,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B15:B17"/>
@@ -5977,19 +5989,6 @@
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C6:D12 C13:C14 C15:D16 C17 C18:D19">
@@ -6013,10 +6012,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:D20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:D20">
       <formula1>$V$6:$V$16</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D18:D19 D10:D12 C6:C19" xr:uid="{22A8CB1A-FB55-4200-B183-D5E061690655}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D18:D19 D10:D12 C6:C19">
       <formula1>"공통, 김민수, 이찬녕, 이형석, 임유하, 전혁선"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6026,7 +6025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1965B8B1-C3DE-4DDB-81CA-EA27AF9D956D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6178,13 +6177,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC423-7150-45C7-9442-999712603200}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>

--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070"/>
+    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -211,18 +211,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>업로드한 영상을 재생할 수 있게 하여, 자신이 올린 영상이 맞는지 확인하게 하기 위함</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>영상 정보</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>영상 정보에 대한 기본적인 메타 데이터들을 확인할 수 있게 함</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>업로드 탭을 만들어 사용자의 영상을 입력 받음</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -244,10 +236,6 @@
   </si>
   <si>
     <t>동영상 업로드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plotly Dash를 활용한 Web Page 제작</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -899,6 +887,26 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>DEV</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드한 영상을 재생할 수 있게 하여, 자신이 올린 영상이 맞는지 확인하게 하기 위함</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 정보에 대한 기본적인 메타 데이터들을 확인할 수 있게 함</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plotly Dash를 활용한 Web Page 제작</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 결과물들을 시각적으로 비교분석 할 수 있는 Plotly 패키지 사용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>AWS RDS 서비스를 이용하여, 분석한 결과에 대한 데이터를 저장하고 실시간 처리되는 비언어 Feature를 적재하는데 사용</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -907,15 +915,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>AWS ECR 서비스슬 이용하여, Docker Image를 push하여 Lambda로 구동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>분석 결과물들을 시각적으로 비교분석 할 수 있는 Plotly 패키지 사용</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV</t>
+    <t>AWS ECR 서비스를 이용하여, Docker Image를 push하여 Lambda로 구동</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3255,12 +3255,72 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3295,9 +3355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3337,63 +3394,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4113,8 +4113,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L30"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4150,7 +4150,7 @@
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48"/>
       <c r="B2" s="184" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C2" s="185"/>
       <c r="D2" s="185"/>
@@ -4595,7 +4595,7 @@
       <c r="A15" s="70"/>
       <c r="B15" s="220"/>
       <c r="C15" s="77" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>31</v>
@@ -4631,7 +4631,7 @@
       <c r="A16" s="70"/>
       <c r="B16" s="221"/>
       <c r="C16" s="46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>31</v>
@@ -4705,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="211" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>31</v>
@@ -4851,7 +4851,7 @@
       <c r="A22" s="70"/>
       <c r="B22" s="193"/>
       <c r="C22" s="110" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>31</v>
@@ -4963,7 +4963,7 @@
       <c r="A25" s="70"/>
       <c r="B25" s="194"/>
       <c r="C25" s="46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>10</v>
@@ -5041,7 +5041,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>10</v>
@@ -5284,8 +5284,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AH20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5297,140 +5297,140 @@
   <sheetData>
     <row r="2" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="257"/>
-      <c r="E3" s="230" t="s">
+      <c r="D3" s="229"/>
+      <c r="E3" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="231"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="231"/>
-      <c r="U3" s="231"/>
-      <c r="V3" s="231"/>
-      <c r="W3" s="231"/>
-      <c r="X3" s="231"/>
-      <c r="Y3" s="231"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="231"/>
-      <c r="AB3" s="231"/>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="231"/>
-      <c r="AG3" s="231"/>
-      <c r="AH3" s="232"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
+      <c r="Y3" s="251"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="251"/>
+      <c r="AB3" s="251"/>
+      <c r="AC3" s="251"/>
+      <c r="AD3" s="251"/>
+      <c r="AE3" s="251"/>
+      <c r="AF3" s="251"/>
+      <c r="AG3" s="251"/>
+      <c r="AH3" s="252"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="256"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="233" t="s">
+      <c r="B4" s="228"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
-      <c r="U4" s="234"/>
-      <c r="V4" s="234"/>
-      <c r="W4" s="234"/>
-      <c r="X4" s="234"/>
-      <c r="Y4" s="234"/>
-      <c r="Z4" s="234"/>
-      <c r="AA4" s="234"/>
-      <c r="AB4" s="234"/>
-      <c r="AC4" s="234"/>
-      <c r="AD4" s="234"/>
-      <c r="AE4" s="234"/>
-      <c r="AF4" s="234"/>
-      <c r="AG4" s="234"/>
-      <c r="AH4" s="235"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="254"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="254"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="254"/>
+      <c r="AC4" s="254"/>
+      <c r="AD4" s="254"/>
+      <c r="AE4" s="254"/>
+      <c r="AF4" s="254"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="255"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="265" t="s">
+      <c r="B5" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="266"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="239">
+      <c r="C5" s="241"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="236">
         <v>1</v>
       </c>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="242">
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="261">
         <v>2</v>
       </c>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234"/>
-      <c r="M5" s="234"/>
-      <c r="N5" s="243"/>
-      <c r="O5" s="244">
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="263">
         <v>3</v>
       </c>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="234"/>
-      <c r="S5" s="243"/>
-      <c r="T5" s="236">
+      <c r="P5" s="254"/>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="254"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="256">
         <v>4</v>
       </c>
-      <c r="U5" s="237"/>
-      <c r="V5" s="237"/>
-      <c r="W5" s="237"/>
-      <c r="X5" s="238"/>
-      <c r="Y5" s="236">
+      <c r="U5" s="257"/>
+      <c r="V5" s="257"/>
+      <c r="W5" s="257"/>
+      <c r="X5" s="258"/>
+      <c r="Y5" s="256">
         <v>5</v>
       </c>
-      <c r="Z5" s="237"/>
-      <c r="AA5" s="237"/>
-      <c r="AB5" s="237"/>
-      <c r="AC5" s="238"/>
-      <c r="AD5" s="245">
+      <c r="Z5" s="257"/>
+      <c r="AA5" s="257"/>
+      <c r="AB5" s="257"/>
+      <c r="AC5" s="258"/>
+      <c r="AD5" s="264">
         <v>6</v>
       </c>
-      <c r="AE5" s="246"/>
-      <c r="AF5" s="246"/>
-      <c r="AG5" s="246"/>
-      <c r="AH5" s="247"/>
+      <c r="AE5" s="265"/>
+      <c r="AF5" s="265"/>
+      <c r="AG5" s="265"/>
+      <c r="AH5" s="266"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="226"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
       <c r="G6" s="92"/>
@@ -5466,10 +5466,10 @@
       <c r="B7" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="225" t="s">
+      <c r="C7" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="226"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="92"/>
       <c r="F7" s="92"/>
       <c r="G7" s="92"/>
@@ -5505,10 +5505,10 @@
       <c r="B8" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="226"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="92"/>
@@ -5544,10 +5544,10 @@
       <c r="B9" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="225" t="s">
+      <c r="C9" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="226"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="92"/>
@@ -5580,13 +5580,13 @@
       <c r="AH9" s="173"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="248" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="260" t="s">
+      <c r="B10" s="267" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="261"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -5619,11 +5619,11 @@
       <c r="AH10" s="173"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="249"/>
-      <c r="C11" s="239" t="s">
+      <c r="B11" s="268"/>
+      <c r="C11" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="262"/>
+      <c r="D11" s="237"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -5656,11 +5656,11 @@
       <c r="AH11" s="173"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="249"/>
-      <c r="C12" s="263" t="s">
+      <c r="B12" s="268"/>
+      <c r="C12" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="264"/>
+      <c r="D12" s="239"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -5693,11 +5693,11 @@
       <c r="AH12" s="173"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="249"/>
-      <c r="C13" s="251" t="s">
+      <c r="B13" s="268"/>
+      <c r="C13" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="252"/>
+      <c r="D13" s="271"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -5730,11 +5730,11 @@
       <c r="AH13" s="173"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="250"/>
-      <c r="C14" s="251" t="s">
+      <c r="B14" s="269"/>
+      <c r="C14" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="252"/>
+      <c r="D14" s="271"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="98"/>
@@ -5766,13 +5766,13 @@
       <c r="AH14" s="173"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="268" t="s">
+      <c r="C15" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="269"/>
+      <c r="D15" s="244"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -5805,11 +5805,11 @@
       <c r="AH15" s="173"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="228"/>
-      <c r="C16" s="270" t="s">
+      <c r="B16" s="248"/>
+      <c r="C16" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="271"/>
+      <c r="D16" s="246"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -5842,11 +5842,11 @@
       <c r="AH16" s="173"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="229"/>
-      <c r="C17" s="225" t="s">
+      <c r="B17" s="249"/>
+      <c r="C17" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="226"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -5882,10 +5882,10 @@
       <c r="B18" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="225" t="s">
+      <c r="C18" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="226"/>
+      <c r="D18" s="233"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -5921,10 +5921,10 @@
       <c r="B19" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="253" t="s">
+      <c r="C19" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="254"/>
+      <c r="D19" s="226"/>
       <c r="E19" s="171"/>
       <c r="F19" s="171"/>
       <c r="G19" s="171"/>
@@ -5962,6 +5962,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E3:AH3"/>
+    <mergeCell ref="E4:AH4"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="AD5:AH5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D4"/>
@@ -5978,17 +5989,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="E3:AH3"/>
-    <mergeCell ref="E4:AH4"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C6:D12 C13:C14 C15:D16 C17 C18:D19">
@@ -6029,7 +6029,7 @@
   <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6051,21 +6051,21 @@
         <v>49</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="272" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="169" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -6074,94 +6074,94 @@
         <v>50</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="E5" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="273"/>
       <c r="C6" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="E6" s="130" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="276" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="E7" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="277"/>
       <c r="C8" s="83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="277"/>
       <c r="C9" s="274" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E9" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="277"/>
       <c r="C10" s="275"/>
       <c r="D10" s="86" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E10" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="277"/>
       <c r="C11" s="83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E11" s="131" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="278"/>
       <c r="C12" s="170" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E12" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6210,7 +6210,7 @@
     <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B3" s="282" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="283"/>
       <c r="D3" s="138"/>
@@ -6219,7 +6219,7 @@
       <c r="G3" s="138"/>
       <c r="H3" s="139"/>
       <c r="J3" s="142" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K3" s="138"/>
       <c r="L3" s="138"/>
@@ -6237,19 +6237,19 @@
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="140"/>
       <c r="C5" s="137" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H5" s="141"/>
       <c r="J5" s="140"/>
       <c r="K5" s="137" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P5" s="141"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="140"/>
       <c r="C6" s="279" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D6" s="280"/>
       <c r="E6" s="280"/>
@@ -6258,7 +6258,7 @@
       <c r="H6" s="141"/>
       <c r="J6" s="140"/>
       <c r="K6" s="279" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L6" s="280"/>
       <c r="M6" s="280"/>
@@ -6270,67 +6270,67 @@
       <c r="B7" s="140"/>
       <c r="C7" s="126"/>
       <c r="D7" s="127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="128" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7" s="129" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7" s="141"/>
       <c r="J7" s="140"/>
       <c r="K7" s="126"/>
       <c r="L7" s="127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M7" s="128" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N7" s="127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O7" s="129" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P7" s="141"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="140"/>
       <c r="C8" s="145" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="146" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E8" s="146" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" s="163">
         <v>0</v>
       </c>
       <c r="G8" s="148" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H8" s="141"/>
       <c r="J8" s="140"/>
       <c r="K8" s="131" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L8" s="125" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M8" s="125" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N8" s="125" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O8" s="134" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P8" s="141"/>
     </row>
@@ -6338,31 +6338,31 @@
       <c r="B9" s="140"/>
       <c r="C9" s="119"/>
       <c r="D9" s="121" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="123">
         <v>0</v>
       </c>
       <c r="G9" s="133" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H9" s="141"/>
       <c r="J9" s="140"/>
       <c r="K9" s="130"/>
       <c r="L9" s="121" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M9" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N9" s="164">
         <v>1</v>
       </c>
       <c r="O9" s="133" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P9" s="141"/>
     </row>
@@ -6370,31 +6370,31 @@
       <c r="B10" s="140"/>
       <c r="C10" s="119"/>
       <c r="D10" s="121" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="123">
         <v>0</v>
       </c>
       <c r="G10" s="133" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" s="141"/>
       <c r="J10" s="140"/>
       <c r="K10" s="119"/>
       <c r="L10" s="121" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M10" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N10" s="123">
         <v>0</v>
       </c>
       <c r="O10" s="133" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P10" s="141"/>
     </row>
@@ -6402,31 +6402,31 @@
       <c r="B11" s="140"/>
       <c r="C11" s="119"/>
       <c r="D11" s="121" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11" s="123">
         <v>0</v>
       </c>
       <c r="G11" s="133" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="141"/>
       <c r="J11" s="140"/>
       <c r="K11" s="119"/>
       <c r="L11" s="121" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M11" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N11" s="123">
         <v>0</v>
       </c>
       <c r="O11" s="133" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P11" s="141"/>
     </row>
@@ -6434,31 +6434,31 @@
       <c r="B12" s="140"/>
       <c r="C12" s="119"/>
       <c r="D12" s="121" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" s="123">
         <v>0</v>
       </c>
       <c r="G12" s="133" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H12" s="141"/>
       <c r="J12" s="140"/>
       <c r="K12" s="119"/>
       <c r="L12" s="121" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M12" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N12" s="123">
         <v>0</v>
       </c>
       <c r="O12" s="133" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P12" s="141"/>
     </row>
@@ -6466,31 +6466,31 @@
       <c r="B13" s="140"/>
       <c r="C13" s="119"/>
       <c r="D13" s="121" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E13" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" s="123">
         <v>0</v>
       </c>
       <c r="G13" s="133" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H13" s="141"/>
       <c r="J13" s="140"/>
       <c r="K13" s="119"/>
       <c r="L13" s="121" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M13" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N13" s="123">
         <v>0</v>
       </c>
       <c r="O13" s="133" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P13" s="141"/>
     </row>
@@ -6498,31 +6498,31 @@
       <c r="B14" s="140"/>
       <c r="C14" s="119"/>
       <c r="D14" s="121" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E14" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="123">
         <v>0</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H14" s="141"/>
       <c r="J14" s="140"/>
       <c r="K14" s="119"/>
       <c r="L14" s="121" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M14" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N14" s="123">
         <v>0</v>
       </c>
       <c r="O14" s="133" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P14" s="141"/>
     </row>
@@ -6530,31 +6530,31 @@
       <c r="B15" s="140"/>
       <c r="C15" s="119"/>
       <c r="D15" s="121" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="123">
         <v>0</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H15" s="141"/>
       <c r="J15" s="140"/>
       <c r="K15" s="119"/>
       <c r="L15" s="121" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M15" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N15" s="123">
         <v>0</v>
       </c>
       <c r="O15" s="133" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P15" s="141"/>
     </row>
@@ -6562,31 +6562,31 @@
       <c r="B16" s="140"/>
       <c r="C16" s="119"/>
       <c r="D16" s="121" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F16" s="123">
         <v>0</v>
       </c>
       <c r="G16" s="133" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H16" s="141"/>
       <c r="J16" s="140"/>
       <c r="K16" s="120"/>
       <c r="L16" s="125" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M16" s="125" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N16" s="122">
         <v>0</v>
       </c>
       <c r="O16" s="134" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P16" s="141"/>
     </row>
@@ -6594,21 +6594,21 @@
       <c r="B17" s="140"/>
       <c r="C17" s="119"/>
       <c r="D17" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="123">
         <v>0</v>
       </c>
       <c r="G17" s="133" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H17" s="141"/>
       <c r="J17" s="140"/>
       <c r="K17" s="144" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M17" s="144">
         <f>ROWS(L8:L16)</f>
@@ -6620,16 +6620,16 @@
       <c r="B18" s="140"/>
       <c r="C18" s="119"/>
       <c r="D18" s="121" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E18" s="121" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="132">
         <v>0</v>
       </c>
       <c r="G18" s="133" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H18" s="141"/>
       <c r="J18" s="140"/>
@@ -6641,21 +6641,21 @@
       <c r="B19" s="140"/>
       <c r="C19" s="119"/>
       <c r="D19" s="121" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E19" s="121" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19" s="132">
         <v>0</v>
       </c>
       <c r="G19" s="133" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H19" s="141"/>
       <c r="J19" s="140"/>
       <c r="K19" s="137" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P19" s="141"/>
     </row>
@@ -6663,21 +6663,21 @@
       <c r="B20" s="140"/>
       <c r="C20" s="87"/>
       <c r="D20" s="121" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="121" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" s="133" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H20" s="141"/>
       <c r="J20" s="140"/>
       <c r="K20" s="279" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L20" s="280"/>
       <c r="M20" s="280"/>
@@ -6694,31 +6694,31 @@
       <c r="B21" s="140"/>
       <c r="C21" s="87"/>
       <c r="D21" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="121" t="s">
-        <v>78</v>
-      </c>
       <c r="G21" s="133" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H21" s="141"/>
       <c r="J21" s="140"/>
       <c r="K21" s="126"/>
       <c r="L21" s="127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M21" s="128" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N21" s="127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O21" s="129" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P21" s="141"/>
       <c r="R21" s="150"/>
@@ -6731,33 +6731,33 @@
       <c r="B22" s="140"/>
       <c r="C22" s="78"/>
       <c r="D22" s="125" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22" s="122">
         <v>0</v>
       </c>
       <c r="G22" s="134" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H22" s="141"/>
       <c r="J22" s="140"/>
       <c r="K22" s="131" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L22" s="125" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M22" s="125" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N22" s="125" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O22" s="134" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P22" s="141"/>
       <c r="R22" s="121"/>
@@ -6769,7 +6769,7 @@
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="140"/>
       <c r="C23" s="144" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E23" s="144">
         <f>ROWS(D8:D22)</f>
@@ -6779,16 +6779,16 @@
       <c r="J23" s="140"/>
       <c r="K23" s="130"/>
       <c r="L23" s="121" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M23" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N23" s="164">
         <v>1</v>
       </c>
       <c r="O23" s="133" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P23" s="141"/>
       <c r="R23" s="121"/>
@@ -6803,16 +6803,16 @@
       <c r="J24" s="140"/>
       <c r="K24" s="119"/>
       <c r="L24" s="121" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M24" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N24" s="123">
         <v>0</v>
       </c>
       <c r="O24" s="133" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P24" s="141"/>
       <c r="R24" s="121"/>
@@ -6824,7 +6824,7 @@
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="140"/>
       <c r="C25" s="152" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" s="152"/>
       <c r="E25" s="152"/>
@@ -6833,16 +6833,16 @@
       <c r="J25" s="140"/>
       <c r="K25" s="119"/>
       <c r="L25" s="121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M25" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N25" s="123">
         <v>0</v>
       </c>
       <c r="O25" s="133" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P25" s="141"/>
       <c r="S25" s="121"/>
@@ -6853,7 +6853,7 @@
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="140"/>
       <c r="C26" s="279" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D26" s="280"/>
       <c r="E26" s="280"/>
@@ -6863,16 +6863,16 @@
       <c r="J26" s="140"/>
       <c r="K26" s="119"/>
       <c r="L26" s="121" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M26" s="121" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N26" s="132">
         <v>0</v>
       </c>
       <c r="O26" s="133" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P26" s="141"/>
       <c r="S26" s="121"/>
@@ -6884,31 +6884,31 @@
       <c r="B27" s="140"/>
       <c r="C27" s="126"/>
       <c r="D27" s="127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E27" s="128" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F27" s="127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G27" s="129" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H27" s="141"/>
       <c r="J27" s="140"/>
       <c r="K27" s="120"/>
       <c r="L27" s="125" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M27" s="125" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N27" s="124">
         <v>0</v>
       </c>
       <c r="O27" s="134" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P27" s="141"/>
       <c r="S27" s="121"/>
@@ -6919,24 +6919,24 @@
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="140"/>
       <c r="C28" s="145" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" s="146" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E28" s="146" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F28" s="147">
         <v>1</v>
       </c>
       <c r="G28" s="148" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H28" s="141"/>
       <c r="J28" s="140"/>
       <c r="K28" s="144" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M28" s="144">
         <f>ROWS(L22:L27)</f>
@@ -6952,16 +6952,16 @@
       <c r="B29" s="140"/>
       <c r="C29" s="87"/>
       <c r="D29" s="121" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="121" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G29" s="133" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H29" s="141"/>
       <c r="J29" s="140"/>
@@ -6975,21 +6975,21 @@
       <c r="B30" s="140"/>
       <c r="C30" s="87"/>
       <c r="D30" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="121" t="s">
-        <v>78</v>
-      </c>
       <c r="G30" s="133" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H30" s="141"/>
       <c r="J30" s="140"/>
       <c r="K30" s="137" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P30" s="141"/>
     </row>
@@ -6997,21 +6997,21 @@
       <c r="B31" s="140"/>
       <c r="C31" s="87"/>
       <c r="D31" s="121" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F31" s="123">
         <v>0</v>
       </c>
       <c r="G31" s="133" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H31" s="141"/>
       <c r="J31" s="140"/>
       <c r="K31" s="279" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L31" s="280"/>
       <c r="M31" s="280"/>
@@ -7023,31 +7023,31 @@
       <c r="B32" s="140"/>
       <c r="C32" s="87"/>
       <c r="D32" s="121" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E32" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F32" s="123">
         <v>1</v>
       </c>
       <c r="G32" s="133" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H32" s="141"/>
       <c r="J32" s="140"/>
       <c r="K32" s="126"/>
       <c r="L32" s="127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M32" s="128" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N32" s="127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O32" s="129" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P32" s="141"/>
     </row>
@@ -7055,33 +7055,33 @@
       <c r="B33" s="140"/>
       <c r="C33" s="87"/>
       <c r="D33" s="121" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E33" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F33" s="135">
         <v>0</v>
       </c>
       <c r="G33" s="133" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H33" s="141"/>
       <c r="J33" s="140"/>
       <c r="K33" s="145" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L33" s="146" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M33" s="146" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N33" s="146">
         <v>1</v>
       </c>
       <c r="O33" s="148" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P33" s="141"/>
     </row>
@@ -7089,31 +7089,31 @@
       <c r="B34" s="140"/>
       <c r="C34" s="119"/>
       <c r="D34" s="121" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E34" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F34" s="135">
         <v>0</v>
       </c>
       <c r="G34" s="133" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H34" s="141"/>
       <c r="J34" s="140"/>
       <c r="K34" s="130"/>
       <c r="L34" s="121" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M34" s="121" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N34" s="121" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O34" s="133" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P34" s="141"/>
     </row>
@@ -7121,31 +7121,31 @@
       <c r="B35" s="140"/>
       <c r="C35" s="119"/>
       <c r="D35" s="121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E35" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F35" s="135">
         <v>0</v>
       </c>
       <c r="G35" s="133" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H35" s="141"/>
       <c r="J35" s="140"/>
       <c r="K35" s="130"/>
       <c r="L35" s="121" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M35" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N35" s="121">
         <v>1</v>
       </c>
       <c r="O35" s="133" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P35" s="141"/>
     </row>
@@ -7153,31 +7153,31 @@
       <c r="B36" s="140"/>
       <c r="C36" s="119"/>
       <c r="D36" s="121" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E36" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F36" s="135">
         <v>0</v>
       </c>
       <c r="G36" s="133" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H36" s="141"/>
       <c r="J36" s="140"/>
       <c r="K36" s="87"/>
       <c r="L36" s="121" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M36" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N36" s="135">
         <v>0</v>
       </c>
       <c r="O36" s="133" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P36" s="141"/>
     </row>
@@ -7185,31 +7185,31 @@
       <c r="B37" s="140"/>
       <c r="C37" s="119"/>
       <c r="D37" s="121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E37" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" s="135">
         <v>0</v>
       </c>
       <c r="G37" s="133" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H37" s="141"/>
       <c r="J37" s="140"/>
       <c r="K37" s="119"/>
       <c r="L37" s="121" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M37" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N37" s="135">
         <v>0</v>
       </c>
       <c r="O37" s="133" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P37" s="141"/>
     </row>
@@ -7217,31 +7217,31 @@
       <c r="B38" s="140"/>
       <c r="C38" s="119"/>
       <c r="D38" s="121" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E38" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" s="135">
         <v>0</v>
       </c>
       <c r="G38" s="133" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H38" s="141"/>
       <c r="J38" s="140"/>
       <c r="K38" s="119"/>
       <c r="L38" s="121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M38" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N38" s="135">
         <v>0</v>
       </c>
       <c r="O38" s="133" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P38" s="141"/>
     </row>
@@ -7249,31 +7249,31 @@
       <c r="B39" s="140"/>
       <c r="C39" s="119"/>
       <c r="D39" s="121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E39" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F39" s="135">
         <v>0</v>
       </c>
       <c r="G39" s="133" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H39" s="141"/>
       <c r="J39" s="140"/>
       <c r="K39" s="119"/>
       <c r="L39" s="121" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M39" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N39" s="135">
         <v>0</v>
       </c>
       <c r="O39" s="133" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P39" s="141"/>
     </row>
@@ -7281,31 +7281,31 @@
       <c r="B40" s="140"/>
       <c r="C40" s="119"/>
       <c r="D40" s="121" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E40" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F40" s="135">
         <v>0</v>
       </c>
       <c r="G40" s="133" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H40" s="141"/>
       <c r="J40" s="140"/>
       <c r="K40" s="119"/>
       <c r="L40" s="121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M40" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N40" s="135">
         <v>0</v>
       </c>
       <c r="O40" s="133" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P40" s="141"/>
     </row>
@@ -7313,31 +7313,31 @@
       <c r="B41" s="140"/>
       <c r="C41" s="119"/>
       <c r="D41" s="121" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E41" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F41" s="135">
         <v>0</v>
       </c>
       <c r="G41" s="133" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H41" s="141"/>
       <c r="J41" s="140"/>
       <c r="K41" s="119"/>
       <c r="L41" s="121" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M41" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N41" s="135">
         <v>0</v>
       </c>
       <c r="O41" s="133" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P41" s="141"/>
     </row>
@@ -7345,31 +7345,31 @@
       <c r="B42" s="140"/>
       <c r="C42" s="119"/>
       <c r="D42" s="121" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E42" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F42" s="135">
         <v>0</v>
       </c>
       <c r="G42" s="133" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H42" s="141"/>
       <c r="J42" s="140"/>
       <c r="K42" s="119"/>
       <c r="L42" s="121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M42" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N42" s="135">
         <v>0</v>
       </c>
       <c r="O42" s="133" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P42" s="141"/>
     </row>
@@ -7377,31 +7377,31 @@
       <c r="B43" s="140"/>
       <c r="C43" s="119"/>
       <c r="D43" s="121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E43" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F43" s="135">
         <v>0</v>
       </c>
       <c r="G43" s="133" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H43" s="141"/>
       <c r="J43" s="140"/>
       <c r="K43" s="119"/>
       <c r="L43" s="121" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M43" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N43" s="135">
         <v>0</v>
       </c>
       <c r="O43" s="133" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P43" s="141"/>
     </row>
@@ -7409,31 +7409,31 @@
       <c r="B44" s="140"/>
       <c r="C44" s="119"/>
       <c r="D44" s="121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E44" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F44" s="135">
         <v>0</v>
       </c>
       <c r="G44" s="133" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H44" s="141"/>
       <c r="J44" s="140"/>
       <c r="K44" s="119"/>
       <c r="L44" s="121" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M44" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N44" s="135">
         <v>0</v>
       </c>
       <c r="O44" s="133" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P44" s="141"/>
     </row>
@@ -7441,31 +7441,31 @@
       <c r="B45" s="140"/>
       <c r="C45" s="119"/>
       <c r="D45" s="121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E45" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F45" s="135">
         <v>0</v>
       </c>
       <c r="G45" s="133" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H45" s="141"/>
       <c r="J45" s="140"/>
       <c r="K45" s="119"/>
       <c r="L45" s="121" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M45" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N45" s="135">
         <v>0</v>
       </c>
       <c r="O45" s="133" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P45" s="141"/>
     </row>
@@ -7473,31 +7473,31 @@
       <c r="B46" s="140"/>
       <c r="C46" s="119"/>
       <c r="D46" s="121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E46" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F46" s="135">
         <v>0</v>
       </c>
       <c r="G46" s="133" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H46" s="141"/>
       <c r="J46" s="140"/>
       <c r="K46" s="119"/>
       <c r="L46" s="121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M46" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N46" s="135">
         <v>0</v>
       </c>
       <c r="O46" s="133" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P46" s="141"/>
     </row>
@@ -7505,31 +7505,31 @@
       <c r="B47" s="140"/>
       <c r="C47" s="119"/>
       <c r="D47" s="121" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E47" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F47" s="135">
         <v>0</v>
       </c>
       <c r="G47" s="133" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H47" s="141"/>
       <c r="J47" s="140"/>
       <c r="K47" s="119"/>
       <c r="L47" s="121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M47" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N47" s="135">
         <v>0</v>
       </c>
       <c r="O47" s="133" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P47" s="141"/>
     </row>
@@ -7537,31 +7537,31 @@
       <c r="B48" s="140"/>
       <c r="C48" s="130"/>
       <c r="D48" s="121" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E48" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F48" s="135">
         <v>0</v>
       </c>
       <c r="G48" s="133" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H48" s="141"/>
       <c r="J48" s="140"/>
       <c r="K48" s="119"/>
       <c r="L48" s="121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M48" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N48" s="135">
         <v>0</v>
       </c>
       <c r="O48" s="133" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P48" s="141"/>
     </row>
@@ -7569,31 +7569,31 @@
       <c r="B49" s="140"/>
       <c r="C49" s="119"/>
       <c r="D49" s="121" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E49" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F49" s="135">
         <v>0</v>
       </c>
       <c r="G49" s="133" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H49" s="141"/>
       <c r="J49" s="140"/>
       <c r="K49" s="119"/>
       <c r="L49" s="121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M49" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N49" s="135">
         <v>0</v>
       </c>
       <c r="O49" s="133" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P49" s="141"/>
     </row>
@@ -7601,31 +7601,31 @@
       <c r="B50" s="140"/>
       <c r="C50" s="130"/>
       <c r="D50" s="121" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E50" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F50" s="135">
         <v>0</v>
       </c>
       <c r="G50" s="133" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H50" s="141"/>
       <c r="J50" s="140"/>
       <c r="K50" s="119"/>
       <c r="L50" s="121" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M50" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N50" s="135">
         <v>0</v>
       </c>
       <c r="O50" s="133" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P50" s="141"/>
     </row>
@@ -7633,31 +7633,31 @@
       <c r="B51" s="140"/>
       <c r="C51" s="119"/>
       <c r="D51" s="121" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E51" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F51" s="135">
         <v>0</v>
       </c>
       <c r="G51" s="133" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H51" s="141"/>
       <c r="J51" s="143"/>
       <c r="K51" s="119"/>
       <c r="L51" s="121" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M51" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N51" s="135">
         <v>0</v>
       </c>
       <c r="O51" s="133" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P51" s="141"/>
     </row>
@@ -7665,31 +7665,31 @@
       <c r="B52" s="140"/>
       <c r="C52" s="130"/>
       <c r="D52" s="121" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E52" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F52" s="135">
         <v>0</v>
       </c>
       <c r="G52" s="133" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H52" s="141"/>
       <c r="J52" s="140"/>
       <c r="K52" s="130"/>
       <c r="L52" s="121" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M52" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N52" s="135">
         <v>0</v>
       </c>
       <c r="O52" s="133" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P52" s="141"/>
     </row>
@@ -7697,31 +7697,31 @@
       <c r="B53" s="140"/>
       <c r="C53" s="119"/>
       <c r="D53" s="121" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E53" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F53" s="135">
         <v>0</v>
       </c>
       <c r="G53" s="133" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H53" s="141"/>
       <c r="J53" s="140"/>
       <c r="K53" s="119"/>
       <c r="L53" s="121" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M53" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N53" s="135">
         <v>0</v>
       </c>
       <c r="O53" s="133" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P53" s="141"/>
     </row>
@@ -7729,31 +7729,31 @@
       <c r="B54" s="140"/>
       <c r="C54" s="130"/>
       <c r="D54" s="121" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E54" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F54" s="135">
         <v>0</v>
       </c>
       <c r="G54" s="133" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H54" s="141"/>
       <c r="J54" s="140"/>
       <c r="K54" s="130"/>
       <c r="L54" s="121" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M54" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N54" s="135">
         <v>0</v>
       </c>
       <c r="O54" s="133" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P54" s="141"/>
     </row>
@@ -7761,31 +7761,31 @@
       <c r="B55" s="140"/>
       <c r="C55" s="119"/>
       <c r="D55" s="121" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E55" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F55" s="135">
         <v>0</v>
       </c>
       <c r="G55" s="117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H55" s="141"/>
       <c r="J55" s="140"/>
       <c r="K55" s="119"/>
       <c r="L55" s="121" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M55" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N55" s="135">
         <v>0</v>
       </c>
       <c r="O55" s="133" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P55" s="141"/>
     </row>
@@ -7793,31 +7793,31 @@
       <c r="B56" s="140"/>
       <c r="C56" s="119"/>
       <c r="D56" s="121" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E56" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F56" s="135">
         <v>0</v>
       </c>
       <c r="G56" s="117" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H56" s="141"/>
       <c r="J56" s="140"/>
       <c r="K56" s="130"/>
       <c r="L56" s="121" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M56" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N56" s="135">
         <v>0</v>
       </c>
       <c r="O56" s="133" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P56" s="141"/>
     </row>
@@ -7825,31 +7825,31 @@
       <c r="B57" s="140"/>
       <c r="C57" s="119"/>
       <c r="D57" s="121" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E57" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F57" s="135">
         <v>0</v>
       </c>
       <c r="G57" s="117" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H57" s="141"/>
       <c r="J57" s="140"/>
       <c r="K57" s="119"/>
       <c r="L57" s="121" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M57" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N57" s="135">
         <v>0</v>
       </c>
       <c r="O57" s="133" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P57" s="141"/>
     </row>
@@ -7857,31 +7857,31 @@
       <c r="B58" s="140"/>
       <c r="C58" s="119"/>
       <c r="D58" s="121" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E58" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F58" s="135">
         <v>0</v>
       </c>
       <c r="G58" s="117" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H58" s="141"/>
       <c r="J58" s="140"/>
       <c r="K58" s="130"/>
       <c r="L58" s="121" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M58" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N58" s="135">
         <v>0</v>
       </c>
       <c r="O58" s="117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P58" s="141"/>
     </row>
@@ -7889,31 +7889,31 @@
       <c r="B59" s="140"/>
       <c r="C59" s="119"/>
       <c r="D59" s="121" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E59" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F59" s="135">
         <v>0</v>
       </c>
       <c r="G59" s="117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H59" s="141"/>
       <c r="J59" s="140"/>
       <c r="K59" s="119"/>
       <c r="L59" s="121" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M59" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N59" s="135">
         <v>0</v>
       </c>
       <c r="O59" s="117" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P59" s="141"/>
     </row>
@@ -7921,31 +7921,31 @@
       <c r="B60" s="140"/>
       <c r="C60" s="119"/>
       <c r="D60" s="121" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E60" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F60" s="135">
         <v>0</v>
       </c>
       <c r="G60" s="117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H60" s="141"/>
       <c r="J60" s="140"/>
       <c r="K60" s="119"/>
       <c r="L60" s="121" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M60" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N60" s="135">
         <v>0</v>
       </c>
       <c r="O60" s="117" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P60" s="141"/>
     </row>
@@ -7953,31 +7953,31 @@
       <c r="B61" s="140"/>
       <c r="C61" s="119"/>
       <c r="D61" s="121" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E61" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F61" s="135">
         <v>0</v>
       </c>
       <c r="G61" s="117" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H61" s="141"/>
       <c r="J61" s="140"/>
       <c r="K61" s="119"/>
       <c r="L61" s="121" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M61" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N61" s="135">
         <v>0</v>
       </c>
       <c r="O61" s="117" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P61" s="141"/>
     </row>
@@ -7985,31 +7985,31 @@
       <c r="B62" s="140"/>
       <c r="C62" s="119"/>
       <c r="D62" s="121" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E62" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F62" s="135">
         <v>0</v>
       </c>
       <c r="G62" s="117" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H62" s="141"/>
       <c r="J62" s="140"/>
       <c r="K62" s="119"/>
       <c r="L62" s="121" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M62" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N62" s="135">
         <v>0</v>
       </c>
       <c r="O62" s="117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P62" s="141"/>
     </row>
@@ -8017,31 +8017,31 @@
       <c r="B63" s="140"/>
       <c r="C63" s="119"/>
       <c r="D63" s="121" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E63" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F63" s="135">
         <v>0</v>
       </c>
       <c r="G63" s="117" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H63" s="141"/>
       <c r="J63" s="140"/>
       <c r="K63" s="119"/>
       <c r="L63" s="121" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M63" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N63" s="135">
         <v>0</v>
       </c>
       <c r="O63" s="117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P63" s="141"/>
     </row>
@@ -8049,31 +8049,31 @@
       <c r="B64" s="140"/>
       <c r="C64" s="119"/>
       <c r="D64" s="121" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E64" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F64" s="135">
         <v>0</v>
       </c>
       <c r="G64" s="117" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H64" s="141"/>
       <c r="J64" s="140"/>
       <c r="K64" s="119"/>
       <c r="L64" s="121" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M64" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N64" s="135">
         <v>0</v>
       </c>
       <c r="O64" s="117" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P64" s="141"/>
     </row>
@@ -8081,31 +8081,31 @@
       <c r="B65" s="140"/>
       <c r="C65" s="119"/>
       <c r="D65" s="121" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E65" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F65" s="135">
         <v>0</v>
       </c>
       <c r="G65" s="117" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H65" s="141"/>
       <c r="J65" s="140"/>
       <c r="K65" s="119"/>
       <c r="L65" s="121" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M65" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N65" s="135">
         <v>0</v>
       </c>
       <c r="O65" s="117" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P65" s="141"/>
     </row>
@@ -8113,31 +8113,31 @@
       <c r="B66" s="140"/>
       <c r="C66" s="119"/>
       <c r="D66" s="121" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E66" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F66" s="135">
         <v>0</v>
       </c>
       <c r="G66" s="117" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H66" s="141"/>
       <c r="J66" s="140"/>
       <c r="K66" s="119"/>
       <c r="L66" s="121" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M66" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N66" s="135">
         <v>0</v>
       </c>
       <c r="O66" s="117" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P66" s="141"/>
     </row>
@@ -8145,31 +8145,31 @@
       <c r="B67" s="140"/>
       <c r="C67" s="119"/>
       <c r="D67" s="121" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E67" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F67" s="135">
         <v>0</v>
       </c>
       <c r="G67" s="117" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H67" s="141"/>
       <c r="J67" s="140"/>
       <c r="K67" s="119"/>
       <c r="L67" s="121" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M67" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N67" s="135">
         <v>0</v>
       </c>
       <c r="O67" s="117" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P67" s="141"/>
     </row>
@@ -8177,31 +8177,31 @@
       <c r="B68" s="140"/>
       <c r="C68" s="119"/>
       <c r="D68" s="121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E68" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F68" s="135">
         <v>0</v>
       </c>
       <c r="G68" s="117" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H68" s="141"/>
       <c r="J68" s="140"/>
       <c r="K68" s="119"/>
       <c r="L68" s="121" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M68" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N68" s="135">
         <v>0</v>
       </c>
       <c r="O68" s="117" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P68" s="141"/>
     </row>
@@ -8209,31 +8209,31 @@
       <c r="B69" s="140"/>
       <c r="C69" s="119"/>
       <c r="D69" s="121" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E69" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F69" s="135">
         <v>0</v>
       </c>
       <c r="G69" s="117" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H69" s="141"/>
       <c r="J69" s="140"/>
       <c r="K69" s="119"/>
       <c r="L69" s="121" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M69" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N69" s="135">
         <v>0</v>
       </c>
       <c r="O69" s="117" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P69" s="141"/>
     </row>
@@ -8241,31 +8241,31 @@
       <c r="B70" s="140"/>
       <c r="C70" s="119"/>
       <c r="D70" s="121" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E70" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F70" s="135">
         <v>0</v>
       </c>
       <c r="G70" s="117" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H70" s="141"/>
       <c r="J70" s="140"/>
       <c r="K70" s="119"/>
       <c r="L70" s="121" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M70" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N70" s="135">
         <v>0</v>
       </c>
       <c r="O70" s="117" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P70" s="141"/>
     </row>
@@ -8273,31 +8273,31 @@
       <c r="B71" s="140"/>
       <c r="C71" s="119"/>
       <c r="D71" s="121" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E71" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F71" s="135">
         <v>0</v>
       </c>
       <c r="G71" s="117" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H71" s="141"/>
       <c r="J71" s="140"/>
       <c r="K71" s="119"/>
       <c r="L71" s="121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M71" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N71" s="135">
         <v>0</v>
       </c>
       <c r="O71" s="117" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P71" s="141"/>
     </row>
@@ -8305,31 +8305,31 @@
       <c r="B72" s="140"/>
       <c r="C72" s="119"/>
       <c r="D72" s="121" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E72" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F72" s="135">
         <v>0</v>
       </c>
       <c r="G72" s="117" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H72" s="141"/>
       <c r="J72" s="140"/>
       <c r="K72" s="119"/>
       <c r="L72" s="121" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M72" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N72" s="135">
         <v>0</v>
       </c>
       <c r="O72" s="117" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P72" s="141"/>
     </row>
@@ -8337,31 +8337,31 @@
       <c r="B73" s="140"/>
       <c r="C73" s="119"/>
       <c r="D73" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E73" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F73" s="135">
         <v>0</v>
       </c>
       <c r="G73" s="117" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H73" s="141"/>
       <c r="J73" s="140"/>
       <c r="K73" s="119"/>
       <c r="L73" s="121" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M73" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N73" s="135">
         <v>0</v>
       </c>
       <c r="O73" s="117" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P73" s="141"/>
     </row>
@@ -8369,31 +8369,31 @@
       <c r="B74" s="140"/>
       <c r="C74" s="119"/>
       <c r="D74" s="121" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E74" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F74" s="135">
         <v>0</v>
       </c>
       <c r="G74" s="117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H74" s="141"/>
       <c r="J74" s="140"/>
       <c r="K74" s="119"/>
       <c r="L74" s="121" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M74" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N74" s="135">
         <v>0</v>
       </c>
       <c r="O74" s="117" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P74" s="141"/>
     </row>
@@ -8401,31 +8401,31 @@
       <c r="B75" s="140"/>
       <c r="C75" s="119"/>
       <c r="D75" s="121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E75" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F75" s="135">
         <v>0</v>
       </c>
       <c r="G75" s="117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H75" s="141"/>
       <c r="J75" s="140"/>
       <c r="K75" s="119"/>
       <c r="L75" s="121" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M75" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N75" s="135">
         <v>0</v>
       </c>
       <c r="O75" s="117" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P75" s="141"/>
     </row>
@@ -8433,31 +8433,31 @@
       <c r="B76" s="140"/>
       <c r="C76" s="119"/>
       <c r="D76" s="121" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E76" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F76" s="135">
         <v>0</v>
       </c>
       <c r="G76" s="117" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H76" s="141"/>
       <c r="J76" s="140"/>
       <c r="K76" s="119"/>
       <c r="L76" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M76" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N76" s="135">
         <v>0</v>
       </c>
       <c r="O76" s="117" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P76" s="141"/>
     </row>
@@ -8465,31 +8465,31 @@
       <c r="B77" s="140"/>
       <c r="C77" s="119"/>
       <c r="D77" s="121" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E77" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F77" s="135">
         <v>0</v>
       </c>
       <c r="G77" s="117" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H77" s="141"/>
       <c r="J77" s="140"/>
       <c r="K77" s="119"/>
       <c r="L77" s="121" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M77" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N77" s="135">
         <v>0</v>
       </c>
       <c r="O77" s="117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P77" s="141"/>
     </row>
@@ -8497,38 +8497,38 @@
       <c r="B78" s="140"/>
       <c r="C78" s="120"/>
       <c r="D78" s="116" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E78" s="125" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F78" s="136">
         <v>0</v>
       </c>
       <c r="G78" s="118" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H78" s="141"/>
       <c r="J78" s="140"/>
       <c r="K78" s="119"/>
       <c r="L78" s="121" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M78" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N78" s="135">
         <v>0</v>
       </c>
       <c r="O78" s="117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P78" s="141"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="140"/>
       <c r="C79" s="137" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E79" s="144">
         <f>ROWS(D28:D78)</f>
@@ -8538,16 +8538,16 @@
       <c r="J79" s="140"/>
       <c r="K79" s="119"/>
       <c r="L79" s="121" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M79" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N79" s="135">
         <v>0</v>
       </c>
       <c r="O79" s="117" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P79" s="141"/>
     </row>
@@ -8562,16 +8562,16 @@
       <c r="J80" s="140"/>
       <c r="K80" s="119"/>
       <c r="L80" s="121" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M80" s="121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N80" s="135">
         <v>0</v>
       </c>
       <c r="O80" s="117" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P80" s="141"/>
     </row>
@@ -8579,23 +8579,23 @@
       <c r="J81" s="140"/>
       <c r="K81" s="120"/>
       <c r="L81" s="116" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M81" s="125" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N81" s="136">
         <v>0</v>
       </c>
       <c r="O81" s="118" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P81" s="141"/>
     </row>
     <row r="82" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J82" s="140"/>
       <c r="K82" s="137" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M82" s="144">
         <f>ROWS(L33:L81)</f>

--- a/Final_pjt2/WBS.xlsx
+++ b/Final_pjt2/WBS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070" activeTab="1"/>
+    <workbookView xWindow="15030" yWindow="645" windowWidth="23370" windowHeight="20070"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="224">
   <si>
     <t>테스트</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>공통</t>
-  </si>
-  <si>
-    <t>진행</t>
   </si>
   <si>
     <t>이찬녕</t>
@@ -1184,7 +1181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="112">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -2150,17 +2147,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -2177,17 +2163,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2579,7 +2554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2694,531 +2669,531 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="65" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="87" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="87" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="87" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="87" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="109" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="65" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="89" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="89" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="89" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="89" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="111" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3237,34 +3212,94 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3288,9 +3323,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3321,79 +3353,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3408,7 +3374,7 @@
     <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3436,7 +3402,1309 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="200">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33FF8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF69"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3751,22 +5019,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
-      <tableStyleElement type="totalRow" dxfId="29"/>
-      <tableStyleElement type="firstColumn" dxfId="28"/>
-      <tableStyleElement type="lastColumn" dxfId="27"/>
-      <tableStyleElement type="firstRowStripe" dxfId="26"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
+      <tableStyleElement type="wholeTable" dxfId="199"/>
+      <tableStyleElement type="headerRow" dxfId="198"/>
+      <tableStyleElement type="totalRow" dxfId="197"/>
+      <tableStyleElement type="firstColumn" dxfId="196"/>
+      <tableStyleElement type="lastColumn" dxfId="195"/>
+      <tableStyleElement type="firstRowStripe" dxfId="194"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="193"/>
     </tableStyle>
     <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
-      <tableStyleElement type="lastColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="192"/>
+      <tableStyleElement type="headerRow" dxfId="191"/>
+      <tableStyleElement type="totalRow" dxfId="190"/>
+      <tableStyleElement type="firstColumn" dxfId="189"/>
+      <tableStyleElement type="lastColumn" dxfId="188"/>
+      <tableStyleElement type="firstRowStripe" dxfId="187"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="186"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4113,8 +5381,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4134,56 +5402,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="184" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="185"/>
       <c r="D2" s="185"/>
       <c r="E2" s="185"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="89">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="88">
         <f>DATE(2024,1,2)</f>
         <v>45293</v>
       </c>
-      <c r="K2" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="91">
+      <c r="K2" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="90">
         <f>K6</f>
         <v>0.76222222222222225</v>
       </c>
       <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="201" t="s">
         <v>6</v>
@@ -4196,13 +5464,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="189"/>
       <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="196"/>
       <c r="C4" s="198"/>
       <c r="D4" s="200"/>
@@ -4216,29 +5484,29 @@
       <c r="L4" s="191"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="216"/>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="66" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -4246,9 +5514,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="210"/>
       <c r="D6" s="16"/>
@@ -4271,11 +5539,11 @@
         <f>SUM(K7, K17, K26, K28)</f>
         <v>0.76222222222222225</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="55">
         <f>SUM(J7, J17, J26, J28)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="49">
         <f>SUM(K7, K17, K26, K28)</f>
         <v>0.76222222222222225</v>
       </c>
@@ -4284,8 +5552,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
       <c r="B7" s="217" t="s">
         <v>9</v>
       </c>
@@ -4309,11 +5577,11 @@
       <c r="I7" s="15">
         <v>0.1</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="56">
         <f>I7</f>
         <v>0.1</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="50">
         <f>SUM(K8:K11)</f>
         <v>4.2222222222222223E-2</v>
       </c>
@@ -4324,15 +5592,15 @@
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="219" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>19</v>
+      <c r="C8" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" ref="E8:E27" si="1">CONCATENATE(NETWORKDAYS(F8,G8),"일")</f>
@@ -4350,11 +5618,11 @@
       <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="57">
         <f>$J$7/COUNT($I$8:$I$16)</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="51">
         <f>I8*J8</f>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -4363,14 +5631,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="220"/>
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69"/>
+      <c r="B9" s="193"/>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4388,11 +5656,11 @@
       <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="57">
         <f t="shared" ref="J9:J16" si="2">$J$7/COUNT($I$8:$I$16)</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="51">
         <f t="shared" ref="K9:K16" si="3">I9*J9</f>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -4401,14 +5669,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="220"/>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4426,11 +5694,11 @@
       <c r="I10" s="11">
         <v>1</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="57">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="51">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -4439,14 +5707,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="220"/>
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="69"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4464,11 +5732,11 @@
       <c r="I11" s="11">
         <v>0.8</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="57">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="51">
         <f t="shared" si="3"/>
         <v>8.8888888888888889E-3</v>
       </c>
@@ -4477,14 +5745,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="220"/>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4502,11 +5770,11 @@
       <c r="I12" s="11">
         <v>0.9</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="57">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="51">
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
@@ -4515,14 +5783,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="77" t="s">
-        <v>43</v>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="76" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4540,11 +5808,11 @@
       <c r="I13" s="11">
         <v>0.9</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="57">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="51">
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
@@ -4554,15 +5822,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="220"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="193"/>
       <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="73" t="str">
+        <v>45</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="72" t="str">
         <f t="shared" si="1"/>
         <v>4일</v>
       </c>
@@ -4572,35 +5840,35 @@
       <c r="G14" s="20">
         <v>45258</v>
       </c>
-      <c r="H14" s="222" t="s">
+      <c r="H14" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="73">
         <v>1</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="57">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="74">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="73" t="str">
+      <c r="A15" s="69"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="72" t="str">
         <f t="shared" si="1"/>
         <v>2일</v>
       </c>
@@ -4610,33 +5878,33 @@
       <c r="G15" s="20">
         <v>45258</v>
       </c>
-      <c r="H15" s="223"/>
-      <c r="I15" s="74">
+      <c r="H15" s="220"/>
+      <c r="I15" s="73">
         <v>1</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="57">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="74">
         <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="73" t="str">
+      <c r="A16" s="69"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="72" t="str">
         <f t="shared" si="1"/>
         <v>2일</v>
       </c>
@@ -4646,25 +5914,25 @@
       <c r="G16" s="20">
         <v>45258</v>
       </c>
-      <c r="H16" s="224"/>
-      <c r="I16" s="74">
+      <c r="H16" s="221"/>
+      <c r="I16" s="73">
         <v>0.9</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="57">
         <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="74">
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="217" t="s">
         <v>4</v>
       </c>
@@ -4686,11 +5954,11 @@
       <c r="I17" s="23">
         <v>0.7</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="58">
         <f>I17</f>
         <v>0.7</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="52">
         <f>SUM(K18:K25)</f>
         <v>0.55999999999999994</v>
       </c>
@@ -4700,15 +5968,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="192" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="211" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>30</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4721,16 +5989,16 @@
         <v>45275</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="11">
         <v>0.8</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="57">
         <f>$J$17/COUNT($I$18:$I$25)</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="51">
         <f>I18*J18</f>
         <v>6.9999999999999993E-2</v>
       </c>
@@ -4739,12 +6007,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
       <c r="B19" s="193"/>
       <c r="C19" s="212"/>
-      <c r="D19" s="45" t="s">
-        <v>31</v>
+      <c r="D19" s="44" t="s">
+        <v>30</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4757,16 +6025,16 @@
         <v>45260</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="11">
         <v>1</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="57">
         <f t="shared" ref="J19:J25" si="4">$J$17/COUNT($I$18:$I$25)</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="51">
         <f t="shared" ref="K19:K25" si="5">I19*J19</f>
         <v>8.7499999999999994E-2</v>
       </c>
@@ -4776,11 +6044,11 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="193"/>
       <c r="C20" s="212"/>
-      <c r="D20" s="43" t="s">
-        <v>31</v>
+      <c r="D20" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4798,11 +6066,11 @@
       <c r="I20" s="11">
         <v>0.8</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="57">
         <f t="shared" si="4"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="51">
         <f t="shared" si="5"/>
         <v>6.9999999999999993E-2</v>
       </c>
@@ -4812,11 +6080,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="193"/>
       <c r="C21" s="213"/>
-      <c r="D21" s="43" t="s">
-        <v>31</v>
+      <c r="D21" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4829,16 +6097,16 @@
         <v>45275</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="11">
         <v>0.8</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="57">
         <f t="shared" si="4"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="51">
         <f t="shared" si="5"/>
         <v>6.9999999999999993E-2</v>
       </c>
@@ -4847,14 +6115,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+    <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="69"/>
       <c r="B22" s="193"/>
-      <c r="C22" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>31</v>
+      <c r="C22" s="182" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>CONCATENATE(NETWORKDAYS(F22,G22),"일")</f>
@@ -4872,11 +6140,11 @@
       <c r="I22" s="11">
         <v>0.8</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="57">
         <f t="shared" si="4"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="51">
         <f t="shared" si="5"/>
         <v>6.9999999999999993E-2</v>
       </c>
@@ -4886,13 +6154,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="193"/>
       <c r="C23" s="207" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4910,11 +6178,11 @@
       <c r="I23" s="11">
         <v>0.7</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="57">
         <f t="shared" si="4"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K23" s="52">
+      <c r="K23" s="51">
         <f t="shared" si="5"/>
         <v>6.1249999999999992E-2</v>
       </c>
@@ -4923,12 +6191,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+    <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
       <c r="B24" s="193"/>
       <c r="C24" s="208"/>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4941,16 +6209,16 @@
         <v>45280</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="11">
         <v>0.7</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="57">
         <f t="shared" si="4"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K24" s="52">
+      <c r="K24" s="51">
         <f t="shared" si="5"/>
         <v>6.1249999999999992E-2</v>
       </c>
@@ -4960,13 +6228,13 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="194"/>
-      <c r="C25" s="46" t="s">
-        <v>64</v>
+      <c r="C25" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4984,11 +6252,11 @@
       <c r="I25" s="11">
         <v>0.8</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="57">
         <f t="shared" si="4"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="51">
         <f t="shared" si="5"/>
         <v>6.9999999999999993E-2</v>
       </c>
@@ -4997,13 +6265,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>15</v>
+    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="69"/>
+      <c r="B26" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="183" t="s">
+        <v>14</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="str">
@@ -5022,11 +6290,11 @@
       <c r="I26" s="23">
         <v>0.1</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="58">
         <f>I26</f>
         <v>0.1</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="52">
         <f>SUM(K27:K27)</f>
         <v>0.06</v>
       </c>
@@ -5036,15 +6304,15 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>63</v>
+      <c r="A27" s="69"/>
+      <c r="B27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5062,10 +6330,10 @@
       <c r="I27" s="12">
         <v>0.6</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="59">
         <v>0.1</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="53">
         <f t="shared" ref="K27" si="6">I27*J27</f>
         <v>0.06</v>
       </c>
@@ -5075,12 +6343,12 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>24</v>
+      <c r="A28" s="69"/>
+      <c r="B28" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="183" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="21" t="str">
@@ -5099,11 +6367,11 @@
       <c r="I28" s="23">
         <v>0.1</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="58">
         <f>I28</f>
         <v>0.1</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="52">
         <f>SUM(K29:K30)</f>
         <v>0.1</v>
       </c>
@@ -5113,37 +6381,37 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="186" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E29" s="26" t="str">
         <f>CONCATENATE(NETWORKDAYS(F29,G29),"일")</f>
         <v>5일</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="48">
         <v>45285</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="48">
         <v>45289</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="29">
         <v>1</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="59">
         <f>$J$28/COUNT($I$29:$I$30)</f>
         <v>0.05</v>
       </c>
-      <c r="K29" s="55">
+      <c r="K29" s="54">
         <f>I29*J29</f>
         <v>0.05</v>
       </c>
@@ -5153,54 +6421,54 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="70"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="187"/>
-      <c r="C30" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="166" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="166" t="str">
+      <c r="C30" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="164" t="str">
         <f>CONCATENATE(NETWORKDAYS(F30,G30),"일")</f>
         <v>5일</v>
       </c>
-      <c r="F30" s="167">
+      <c r="F30" s="165">
         <v>45285</v>
       </c>
-      <c r="G30" s="167">
+      <c r="G30" s="165">
         <v>45289</v>
       </c>
-      <c r="H30" s="62" t="s">
+      <c r="H30" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="62">
         <v>1</v>
       </c>
-      <c r="J30" s="162">
+      <c r="J30" s="160">
         <f>$J$28/COUNT($I$29:$I$30)</f>
         <v>0.05</v>
       </c>
-      <c r="K30" s="168">
+      <c r="K30" s="166">
         <f>I30*J30</f>
         <v>0.05</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="63">
         <f>IF(F30-$J$2&lt;=0,0,F30-$J$2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="165"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5223,46 +6491,46 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D7:D30">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="계획">
+    <cfRule type="containsText" dxfId="185" priority="1" operator="containsText" text="계획">
       <formula>NOT(ISERROR(SEARCH("계획",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="완료">
+    <cfRule type="containsText" dxfId="184" priority="2" operator="containsText" text="완료">
       <formula>NOT(ISERROR(SEARCH("완료",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="진행">
+    <cfRule type="containsText" dxfId="183" priority="3" operator="containsText" text="진행">
       <formula>NOT(ISERROR(SEARCH("진행",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H14 H17:H30">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="공통">
+    <cfRule type="containsText" dxfId="182" priority="4" operator="containsText" text="공통">
       <formula>NOT(ISERROR(SEARCH("공통",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="김민수">
+    <cfRule type="containsText" dxfId="181" priority="5" operator="containsText" text="김민수">
       <formula>NOT(ISERROR(SEARCH("김민수",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="이찬녕">
+    <cfRule type="containsText" dxfId="180" priority="6" operator="containsText" text="이찬녕">
       <formula>NOT(ISERROR(SEARCH("이찬녕",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="임유하">
+    <cfRule type="containsText" dxfId="179" priority="7" operator="containsText" text="임유하">
       <formula>NOT(ISERROR(SEARCH("임유하",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="이형석">
+    <cfRule type="containsText" dxfId="178" priority="8" operator="containsText" text="이형석">
       <formula>NOT(ISERROR(SEARCH("이형석",H6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="전혁선">
+    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="전혁선">
       <formula>NOT(ISERROR(SEARCH("전혁선",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I16 I18:I25 I27 I29:I30">
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="23" operator="between">
       <formula>0.01</formula>
       <formula>0.69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="24" operator="between">
       <formula>0.7</formula>
       <formula>0.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5284,7 +6552,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -5297,664 +6565,664 @@
   <sheetData>
     <row r="2" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="227" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="229" t="s">
+      <c r="B3" s="247" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="250" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="X3" s="251"/>
-      <c r="Y3" s="251"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="251"/>
-      <c r="AB3" s="251"/>
-      <c r="AC3" s="251"/>
-      <c r="AD3" s="251"/>
-      <c r="AE3" s="251"/>
-      <c r="AF3" s="251"/>
-      <c r="AG3" s="251"/>
-      <c r="AH3" s="252"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="228"/>
+      <c r="AH3" s="229"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="228"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="253" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="254"/>
-      <c r="Z4" s="254"/>
-      <c r="AA4" s="254"/>
-      <c r="AB4" s="254"/>
-      <c r="AC4" s="254"/>
-      <c r="AD4" s="254"/>
-      <c r="AE4" s="254"/>
-      <c r="AF4" s="254"/>
-      <c r="AG4" s="254"/>
-      <c r="AH4" s="255"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="230" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="231"/>
+      <c r="L4" s="231"/>
+      <c r="M4" s="231"/>
+      <c r="N4" s="231"/>
+      <c r="O4" s="231"/>
+      <c r="P4" s="231"/>
+      <c r="Q4" s="231"/>
+      <c r="R4" s="231"/>
+      <c r="S4" s="231"/>
+      <c r="T4" s="231"/>
+      <c r="U4" s="231"/>
+      <c r="V4" s="231"/>
+      <c r="W4" s="231"/>
+      <c r="X4" s="231"/>
+      <c r="Y4" s="231"/>
+      <c r="Z4" s="231"/>
+      <c r="AA4" s="231"/>
+      <c r="AB4" s="231"/>
+      <c r="AC4" s="231"/>
+      <c r="AD4" s="231"/>
+      <c r="AE4" s="231"/>
+      <c r="AF4" s="231"/>
+      <c r="AG4" s="231"/>
+      <c r="AH4" s="232"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="240" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="242"/>
+      <c r="B5" s="259" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="260"/>
+      <c r="D5" s="261"/>
       <c r="E5" s="236">
         <v>1</v>
       </c>
-      <c r="F5" s="259"/>
-      <c r="G5" s="259"/>
-      <c r="H5" s="259"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="261">
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="239">
         <v>2</v>
       </c>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="263">
+      <c r="K5" s="231"/>
+      <c r="L5" s="231"/>
+      <c r="M5" s="231"/>
+      <c r="N5" s="240"/>
+      <c r="O5" s="241">
         <v>3</v>
       </c>
-      <c r="P5" s="254"/>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="262"/>
-      <c r="T5" s="256">
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="240"/>
+      <c r="T5" s="233">
         <v>4</v>
       </c>
-      <c r="U5" s="257"/>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="256">
+      <c r="U5" s="234"/>
+      <c r="V5" s="234"/>
+      <c r="W5" s="234"/>
+      <c r="X5" s="235"/>
+      <c r="Y5" s="233">
         <v>5</v>
       </c>
-      <c r="Z5" s="257"/>
-      <c r="AA5" s="257"/>
-      <c r="AB5" s="257"/>
-      <c r="AC5" s="258"/>
-      <c r="AD5" s="264">
+      <c r="Z5" s="234"/>
+      <c r="AA5" s="234"/>
+      <c r="AB5" s="234"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="242">
         <v>6</v>
       </c>
-      <c r="AE5" s="265"/>
-      <c r="AF5" s="265"/>
-      <c r="AG5" s="265"/>
-      <c r="AH5" s="266"/>
+      <c r="AE5" s="243"/>
+      <c r="AF5" s="243"/>
+      <c r="AG5" s="243"/>
+      <c r="AH5" s="244"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B6" s="172" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="232" t="s">
+      <c r="B6" s="170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="233"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="40"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="39"/>
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="156"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="154"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="39"/>
       <c r="AE6" s="27"/>
       <c r="AF6" s="27"/>
       <c r="AG6" s="27"/>
-      <c r="AH6" s="173"/>
+      <c r="AH6" s="171"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B7" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="232" t="s">
+      <c r="B7" s="172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="233"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="39"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="156"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="154"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="39"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
-      <c r="AH7" s="173"/>
+      <c r="AH7" s="171"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="175" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="232" t="s">
+      <c r="B8" s="173" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="233"/>
+      <c r="D8" s="253"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="92"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="91"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="39"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="39"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="156"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="154"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
       <c r="AB8" s="27"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="39"/>
       <c r="AE8" s="27"/>
       <c r="AF8" s="27"/>
       <c r="AG8" s="27"/>
-      <c r="AH8" s="173"/>
+      <c r="AH8" s="171"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B9" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="232" t="s">
+      <c r="B9" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="233"/>
+      <c r="D9" s="253"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="92"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="91"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="39"/>
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="156"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="154"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="39"/>
       <c r="AE9" s="27"/>
       <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
-      <c r="AH9" s="173"/>
+      <c r="AH9" s="171"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="267" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="234" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="235"/>
+      <c r="B10" s="222" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="255"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="157"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="107"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
       <c r="AG10" s="27"/>
-      <c r="AH10" s="173"/>
+      <c r="AH10" s="171"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="268"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="236" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="237"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="256"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="41"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="39"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="156"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="154"/>
       <c r="Z11" s="27"/>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="39"/>
       <c r="AE11" s="27"/>
       <c r="AF11" s="27"/>
       <c r="AG11" s="27"/>
-      <c r="AH11" s="173"/>
+      <c r="AH11" s="171"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="268"/>
-      <c r="C12" s="238" t="s">
+      <c r="B12" s="223"/>
+      <c r="C12" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="239"/>
+      <c r="D12" s="258"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="156"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="154"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="39"/>
       <c r="AE12" s="27"/>
       <c r="AF12" s="27"/>
       <c r="AG12" s="27"/>
-      <c r="AH12" s="173"/>
+      <c r="AH12" s="171"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="268"/>
-      <c r="C13" s="270" t="s">
+      <c r="B13" s="223"/>
+      <c r="C13" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="271"/>
+      <c r="D13" s="226"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="40"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="39"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="156"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="154"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="39"/>
       <c r="AE13" s="27"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
-      <c r="AH13" s="173"/>
+      <c r="AH13" s="171"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="269"/>
-      <c r="C14" s="270" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="271"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="225" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="226"/>
       <c r="E14" s="27"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="39"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="156"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="154"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
       <c r="AB14" s="27"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="39"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="27"/>
-      <c r="AH14" s="173"/>
+      <c r="AH14" s="171"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="247" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="243" t="s">
+      <c r="B15" s="266" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="244"/>
+      <c r="D15" s="263"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
-      <c r="N15" s="41"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
       <c r="AG15" s="27"/>
-      <c r="AH15" s="173"/>
+      <c r="AH15" s="171"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="248"/>
-      <c r="C16" s="245" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="246"/>
+      <c r="B16" s="267"/>
+      <c r="C16" s="264" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="265"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
-      <c r="N16" s="41"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="159"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="98"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="157"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
       <c r="AG16" s="27"/>
-      <c r="AH16" s="173"/>
+      <c r="AH16" s="171"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="249"/>
-      <c r="C17" s="232" t="s">
+      <c r="B17" s="268"/>
+      <c r="C17" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="233"/>
+      <c r="D17" s="253"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="39"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="158"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
       <c r="AG17" s="27"/>
-      <c r="AH17" s="173"/>
+      <c r="AH17" s="171"/>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B18" s="174" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="232" t="s">
+      <c r="B18" s="172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="233"/>
+      <c r="D18" s="253"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="39"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="156"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="154"/>
       <c r="Z18" s="27"/>
       <c r="AA18" s="27"/>
       <c r="AB18" s="27"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
       <c r="AG18" s="27"/>
-      <c r="AH18" s="173"/>
+      <c r="AH18" s="171"/>
     </row>
     <row r="19" spans="2:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="177" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="225" t="s">
+      <c r="B19" s="175" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="226"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="171"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="178"/>
-      <c r="T19" s="179"/>
-      <c r="U19" s="171"/>
-      <c r="V19" s="171"/>
-      <c r="W19" s="171"/>
-      <c r="X19" s="180"/>
-      <c r="Y19" s="181"/>
-      <c r="Z19" s="171"/>
-      <c r="AA19" s="171"/>
-      <c r="AB19" s="171"/>
-      <c r="AC19" s="178"/>
-      <c r="AD19" s="179"/>
-      <c r="AE19" s="171"/>
-      <c r="AF19" s="171"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="183"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="169"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="169"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="169"/>
+      <c r="V19" s="169"/>
+      <c r="W19" s="169"/>
+      <c r="X19" s="178"/>
+      <c r="Y19" s="179"/>
+      <c r="Z19" s="169"/>
+      <c r="AA19" s="169"/>
+      <c r="AB19" s="169"/>
+      <c r="AC19" s="176"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="169"/>
+      <c r="AG19" s="180"/>
+      <c r="AH19" s="181"/>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C20" s="28"/>
@@ -5962,17 +7230,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E3:AH3"/>
-    <mergeCell ref="E4:AH4"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="AD5:AH5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D4"/>
@@ -5989,25 +7246,36 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E3:AH3"/>
+    <mergeCell ref="E4:AH4"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="AD5:AH5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C6:D12 C13:C14 C15:D16 C17 C18:D19">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="공통">
+    <cfRule type="containsText" dxfId="173" priority="1" operator="containsText" text="공통">
       <formula>NOT(ISERROR(SEARCH("공통",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="전혁선">
+    <cfRule type="containsText" dxfId="172" priority="2" operator="containsText" text="전혁선">
       <formula>NOT(ISERROR(SEARCH("전혁선",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="이형석">
+    <cfRule type="containsText" dxfId="171" priority="3" operator="containsText" text="이형석">
       <formula>NOT(ISERROR(SEARCH("이형석",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="임유하">
+    <cfRule type="containsText" dxfId="170" priority="4" operator="containsText" text="임유하">
       <formula>NOT(ISERROR(SEARCH("임유하",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="이찬녕">
+    <cfRule type="containsText" dxfId="169" priority="5" operator="containsText" text="이찬녕">
       <formula>NOT(ISERROR(SEARCH("이찬녕",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="김민수">
+    <cfRule type="containsText" dxfId="168" priority="6" operator="containsText" text="김민수">
       <formula>NOT(ISERROR(SEARCH("김민수",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6041,127 +7309,127 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="D3" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="E3" s="80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="269" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="269"/>
+      <c r="C5" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="D5" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="143" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="79" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="270"/>
+      <c r="C6" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="273" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="274"/>
+      <c r="C8" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="169" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="272"/>
-      <c r="C5" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="145" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="273"/>
-      <c r="C6" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="130" t="s">
+      <c r="D8" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="274"/>
+      <c r="C9" s="271" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="274"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="274"/>
+      <c r="C11" s="82" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="276" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="145" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="277"/>
-      <c r="C8" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="145" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="277"/>
-      <c r="C9" s="274" t="s">
+      <c r="D11" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="275"/>
+      <c r="C12" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="145" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="277"/>
-      <c r="C10" s="275"/>
-      <c r="D10" s="86" t="s">
+      <c r="D12" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="145" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="277"/>
-      <c r="C11" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="131" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="278"/>
-      <c r="C12" s="170" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" s="145" t="s">
-        <v>213</v>
+      <c r="E12" s="143" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6209,2408 +7477,2408 @@
   <sheetData>
     <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="282" t="s">
+      <c r="B3" s="279" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="J3" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="283"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="139"/>
-      <c r="J3" s="142" t="s">
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+    </row>
+    <row r="4" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="J4" s="138"/>
+      <c r="P4" s="139"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="138"/>
+      <c r="C5" s="135" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="139"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="139"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="138"/>
+      <c r="C6" s="276" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="277"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="139"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="276" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" s="277"/>
+      <c r="M6" s="277"/>
+      <c r="N6" s="277"/>
+      <c r="O6" s="278"/>
+      <c r="P6" s="139"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="138"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="139"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="139"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="138"/>
+      <c r="C8" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="161">
+        <v>0</v>
+      </c>
+      <c r="G8" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="139"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="132" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="139"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="138"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="121">
+        <v>0</v>
+      </c>
+      <c r="G9" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="139"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="162">
+        <v>1</v>
+      </c>
+      <c r="O9" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="139"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="138"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="121">
+        <v>0</v>
+      </c>
+      <c r="G10" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="139"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="121">
+        <v>0</v>
+      </c>
+      <c r="O10" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="139"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="138"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="121">
+        <v>0</v>
+      </c>
+      <c r="G11" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="139"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="121">
+        <v>0</v>
+      </c>
+      <c r="O11" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="139"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="138"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="121">
+        <v>0</v>
+      </c>
+      <c r="G12" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="139"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="121">
+        <v>0</v>
+      </c>
+      <c r="O12" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="139"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="138"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="121">
+        <v>0</v>
+      </c>
+      <c r="G13" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="139"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="121">
+        <v>0</v>
+      </c>
+      <c r="O13" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="139"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="138"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="121">
+        <v>0</v>
+      </c>
+      <c r="G14" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="139"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="121">
+        <v>0</v>
+      </c>
+      <c r="O14" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="139"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="138"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="121">
+        <v>0</v>
+      </c>
+      <c r="G15" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="139"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="121">
+        <v>0</v>
+      </c>
+      <c r="O15" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="139"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="138"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="121">
+        <v>0</v>
+      </c>
+      <c r="G16" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="139"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="120">
+        <v>0</v>
+      </c>
+      <c r="O16" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="139"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="138"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="121">
+        <v>0</v>
+      </c>
+      <c r="G17" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="139"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-    </row>
-    <row r="4" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="140"/>
-      <c r="H4" s="141"/>
-      <c r="J4" s="140"/>
-      <c r="P4" s="141"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="140"/>
-      <c r="C5" s="137" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="141"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="P5" s="141"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="140"/>
-      <c r="C6" s="279" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="141"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="279" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="281"/>
-      <c r="P6" s="141"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="140"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="141"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="N7" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="141"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="140"/>
-      <c r="C8" s="145" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="146" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="163">
-        <v>0</v>
-      </c>
-      <c r="G8" s="148" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" s="141"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="131" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="141"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="140"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="123">
-        <v>0</v>
-      </c>
-      <c r="G9" s="133" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="141"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="121" t="s">
-        <v>206</v>
-      </c>
-      <c r="M9" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="164">
-        <v>1</v>
-      </c>
-      <c r="O9" s="133" t="s">
-        <v>207</v>
-      </c>
-      <c r="P9" s="141"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="140"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="123">
-        <v>0</v>
-      </c>
-      <c r="G10" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="141"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="123">
-        <v>0</v>
-      </c>
-      <c r="O10" s="133" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="141"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="140"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="123">
-        <v>0</v>
-      </c>
-      <c r="G11" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="141"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="123">
-        <v>0</v>
-      </c>
-      <c r="O11" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" s="141"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="140"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="123">
-        <v>0</v>
-      </c>
-      <c r="G12" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="141"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="123">
-        <v>0</v>
-      </c>
-      <c r="O12" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="141"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="140"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="123">
-        <v>0</v>
-      </c>
-      <c r="G13" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="141"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="123">
-        <v>0</v>
-      </c>
-      <c r="O13" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="141"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="140"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="123">
-        <v>0</v>
-      </c>
-      <c r="G14" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="141"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="123">
-        <v>0</v>
-      </c>
-      <c r="O14" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="141"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="140"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="123">
-        <v>0</v>
-      </c>
-      <c r="G15" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="141"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" s="123">
-        <v>0</v>
-      </c>
-      <c r="O15" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="P15" s="141"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="140"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="123">
-        <v>0</v>
-      </c>
-      <c r="G16" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="141"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" s="122">
-        <v>0</v>
-      </c>
-      <c r="O16" s="134" t="s">
-        <v>104</v>
-      </c>
-      <c r="P16" s="141"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="140"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="123">
-        <v>0</v>
-      </c>
-      <c r="G17" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="141"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="144" t="s">
-        <v>101</v>
-      </c>
-      <c r="M17" s="144">
+      <c r="M17" s="142">
         <f>ROWS(L8:L16)</f>
         <v>9</v>
       </c>
-      <c r="P17" s="141"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="140"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="121" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="130">
+        <v>0</v>
+      </c>
+      <c r="G18" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="139"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="P18" s="139"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="138"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="132">
-        <v>0</v>
-      </c>
-      <c r="G18" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="141"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="P18" s="141"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="140"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="132">
-        <v>0</v>
-      </c>
-      <c r="G19" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="141"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="137" t="s">
-        <v>201</v>
-      </c>
-      <c r="P19" s="141"/>
+      <c r="E19" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="130">
+        <v>0</v>
+      </c>
+      <c r="G19" s="131" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="139"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="P19" s="139"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="140"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="121" t="s">
+      <c r="B20" s="138"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="139"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="276" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" s="277"/>
+      <c r="M20" s="277"/>
+      <c r="N20" s="277"/>
+      <c r="O20" s="278"/>
+      <c r="P20" s="139"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="138"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="133" t="s">
+      <c r="E21" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="141"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="279" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="280"/>
-      <c r="M20" s="280"/>
-      <c r="N20" s="280"/>
-      <c r="O20" s="281"/>
-      <c r="P20" s="141"/>
-      <c r="R20" s="150"/>
-      <c r="S20" s="150"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="150"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="140"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="121" t="s">
+      <c r="H21" s="139"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="139"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="138"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="133" t="s">
+      <c r="E22" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="120">
+        <v>0</v>
+      </c>
+      <c r="G22" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="141"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="N21" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="141"/>
-      <c r="R21" s="150"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="140"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="125" t="s">
+      <c r="H22" s="139"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="122">
-        <v>0</v>
-      </c>
-      <c r="G22" s="134" t="s">
+      <c r="L22" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="141"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="131" t="s">
+      <c r="N22" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="125" t="s">
+      <c r="O22" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="M22" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" s="141"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="149"/>
+      <c r="P22" s="139"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="147"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="140"/>
-      <c r="C23" s="144" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="144">
+      <c r="B23" s="138"/>
+      <c r="C23" s="142" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="142">
         <f>ROWS(D8:D22)</f>
         <v>15</v>
       </c>
-      <c r="H23" s="141"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="121" t="s">
+      <c r="H23" s="139"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="162">
+        <v>1</v>
+      </c>
+      <c r="O23" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="M23" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N23" s="164">
+      <c r="P23" s="139"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="147"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="138"/>
+      <c r="H24" s="139"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="121">
+        <v>0</v>
+      </c>
+      <c r="O24" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="139"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="147"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="138"/>
+      <c r="C25" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="H25" s="139"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="121">
+        <v>0</v>
+      </c>
+      <c r="O25" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="139"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="147"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="138"/>
+      <c r="C26" s="276" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="277"/>
+      <c r="E26" s="277"/>
+      <c r="F26" s="277"/>
+      <c r="G26" s="278"/>
+      <c r="H26" s="139"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="130">
+        <v>0</v>
+      </c>
+      <c r="O26" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" s="139"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="147"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="138"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="139"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="122">
+        <v>0</v>
+      </c>
+      <c r="O27" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="P27" s="139"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="147"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="138"/>
+      <c r="C28" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="145">
         <v>1</v>
       </c>
-      <c r="O23" s="133" t="s">
-        <v>207</v>
-      </c>
-      <c r="P23" s="141"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="149"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="140"/>
-      <c r="H24" s="141"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="M24" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N24" s="123">
-        <v>0</v>
-      </c>
-      <c r="O24" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" s="141"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="149"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="140"/>
-      <c r="C25" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="H25" s="141"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="123">
-        <v>0</v>
-      </c>
-      <c r="O25" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="P25" s="141"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="149"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="140"/>
-      <c r="C26" s="279" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="280"/>
-      <c r="E26" s="280"/>
-      <c r="F26" s="280"/>
-      <c r="G26" s="281"/>
-      <c r="H26" s="141"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="M26" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="N26" s="132">
-        <v>0</v>
-      </c>
-      <c r="O26" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="P26" s="141"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="149"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="140"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="141"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="M27" s="125" t="s">
-        <v>82</v>
-      </c>
-      <c r="N27" s="124">
-        <v>0</v>
-      </c>
-      <c r="O27" s="134" t="s">
-        <v>195</v>
-      </c>
-      <c r="P27" s="141"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="149"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="140"/>
-      <c r="C28" s="145" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="146" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="147">
-        <v>1</v>
-      </c>
-      <c r="G28" s="148" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="141"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="144" t="s">
-        <v>101</v>
-      </c>
-      <c r="M28" s="144">
+      <c r="G28" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="139"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="142" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="142">
         <f>ROWS(L22:L27)</f>
         <v>6</v>
       </c>
-      <c r="P28" s="141"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="149"/>
+      <c r="P28" s="139"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="147"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="140"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="121" t="s">
+      <c r="B29" s="138"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="139"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="135"/>
+      <c r="P29" s="139"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="142"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="138"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="133" t="s">
+      <c r="E30" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="141"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="137"/>
-      <c r="P29" s="141"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="144"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="140"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="121" t="s">
+      <c r="H30" s="139"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="135" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="139"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="138"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="133" t="s">
+      <c r="E31" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="121">
+        <v>0</v>
+      </c>
+      <c r="G31" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="141"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="P30" s="141"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="140"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="121" t="s">
+      <c r="H31" s="139"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="276" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31" s="277"/>
+      <c r="M31" s="277"/>
+      <c r="N31" s="277"/>
+      <c r="O31" s="278"/>
+      <c r="P31" s="139"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B32" s="138"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="121">
+        <v>1</v>
+      </c>
+      <c r="G32" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="139"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" s="139"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="138"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="133">
+        <v>0</v>
+      </c>
+      <c r="G33" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="139"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="123">
-        <v>0</v>
-      </c>
-      <c r="G31" s="133" t="s">
+      <c r="L33" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="144">
+        <v>1</v>
+      </c>
+      <c r="O33" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="P33" s="139"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="138"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="133">
+        <v>0</v>
+      </c>
+      <c r="G34" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="139"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="279" t="s">
-        <v>209</v>
-      </c>
-      <c r="L31" s="280"/>
-      <c r="M31" s="280"/>
-      <c r="N31" s="280"/>
-      <c r="O31" s="281"/>
-      <c r="P31" s="141"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="140"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="121" t="s">
+      <c r="N34" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="139"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="138"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="133">
+        <v>0</v>
+      </c>
+      <c r="G35" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="139"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" s="119">
+        <v>1</v>
+      </c>
+      <c r="O35" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="123">
-        <v>1</v>
-      </c>
-      <c r="G32" s="133" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="141"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="N32" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="O32" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" s="141"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="140"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="121" t="s">
+      <c r="P35" s="139"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="138"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="133">
+        <v>0</v>
+      </c>
+      <c r="G36" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="139"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="M36" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" s="133">
+        <v>0</v>
+      </c>
+      <c r="O36" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" s="139"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="138"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="133">
+        <v>0</v>
+      </c>
+      <c r="G37" s="131" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="139"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="M37" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" s="133">
+        <v>0</v>
+      </c>
+      <c r="O37" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" s="139"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="138"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="133">
+        <v>0</v>
+      </c>
+      <c r="G38" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="139"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="135">
-        <v>0</v>
-      </c>
-      <c r="G33" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="141"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="145" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="146" t="s">
-        <v>208</v>
-      </c>
-      <c r="M33" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="N33" s="146">
-        <v>1</v>
-      </c>
-      <c r="O33" s="148" t="s">
-        <v>210</v>
-      </c>
-      <c r="P33" s="141"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="140"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="121" t="s">
+      <c r="M38" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" s="133">
+        <v>0</v>
+      </c>
+      <c r="O38" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" s="139"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="138"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="133">
+        <v>0</v>
+      </c>
+      <c r="G39" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="139"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="135">
-        <v>0</v>
-      </c>
-      <c r="G34" s="133" t="s">
+      <c r="M39" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" s="133">
+        <v>0</v>
+      </c>
+      <c r="O39" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39" s="139"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="138"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="133">
+        <v>0</v>
+      </c>
+      <c r="G40" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="139"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="M40" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="133">
+        <v>0</v>
+      </c>
+      <c r="O40" s="131" t="s">
+        <v>114</v>
+      </c>
+      <c r="P40" s="139"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="138"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="133">
+        <v>0</v>
+      </c>
+      <c r="G41" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="139"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="M41" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N41" s="133">
+        <v>0</v>
+      </c>
+      <c r="O41" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="P41" s="139"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="138"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="133">
+        <v>0</v>
+      </c>
+      <c r="G42" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="139"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="M42" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N42" s="133">
+        <v>0</v>
+      </c>
+      <c r="O42" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="141"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="M34" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="N34" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="O34" s="133" t="s">
-        <v>96</v>
-      </c>
-      <c r="P34" s="141"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="140"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="121" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="135">
-        <v>0</v>
-      </c>
-      <c r="G35" s="133" t="s">
+      <c r="P42" s="139"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="138"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="133">
+        <v>0</v>
+      </c>
+      <c r="G43" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="139"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="M43" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N43" s="133">
+        <v>0</v>
+      </c>
+      <c r="O43" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="141"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="M35" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N35" s="121">
-        <v>1</v>
-      </c>
-      <c r="O35" s="133" t="s">
-        <v>93</v>
-      </c>
-      <c r="P35" s="141"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="140"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="121" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="135">
-        <v>0</v>
-      </c>
-      <c r="G36" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="141"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="121" t="s">
-        <v>153</v>
-      </c>
-      <c r="M36" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N36" s="135">
-        <v>0</v>
-      </c>
-      <c r="O36" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="P36" s="141"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="140"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="135">
-        <v>0</v>
-      </c>
-      <c r="G37" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="141"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="M37" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N37" s="135">
-        <v>0</v>
-      </c>
-      <c r="O37" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="P37" s="141"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="140"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="135">
-        <v>0</v>
-      </c>
-      <c r="G38" s="133" t="s">
+      <c r="P43" s="139"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="138"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="133">
+        <v>0</v>
+      </c>
+      <c r="G44" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="139"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="M44" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N44" s="133">
+        <v>0</v>
+      </c>
+      <c r="O44" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="141"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="121" t="s">
-        <v>154</v>
-      </c>
-      <c r="M38" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N38" s="135">
-        <v>0</v>
-      </c>
-      <c r="O38" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="P38" s="141"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="140"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="135">
-        <v>0</v>
-      </c>
-      <c r="G39" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="H39" s="141"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="121" t="s">
-        <v>176</v>
-      </c>
-      <c r="M39" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N39" s="135">
-        <v>0</v>
-      </c>
-      <c r="O39" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="P39" s="141"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="140"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="121" t="s">
+      <c r="P44" s="139"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="138"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="133">
+        <v>0</v>
+      </c>
+      <c r="G45" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="139"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="135">
-        <v>0</v>
-      </c>
-      <c r="G40" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" s="141"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="M40" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" s="135">
-        <v>0</v>
-      </c>
-      <c r="O40" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="P40" s="141"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="140"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="121" t="s">
+      <c r="M45" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N45" s="133">
+        <v>0</v>
+      </c>
+      <c r="O45" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" s="139"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="138"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="133">
+        <v>0</v>
+      </c>
+      <c r="G46" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="139"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="135">
-        <v>0</v>
-      </c>
-      <c r="G41" s="133" t="s">
+      <c r="M46" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N46" s="133">
+        <v>0</v>
+      </c>
+      <c r="O46" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" s="139"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="138"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="133">
+        <v>0</v>
+      </c>
+      <c r="G47" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" s="139"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="M47" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" s="133">
+        <v>0</v>
+      </c>
+      <c r="O47" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" s="139"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="138"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="133">
+        <v>0</v>
+      </c>
+      <c r="G48" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="139"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="M48" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N48" s="133">
+        <v>0</v>
+      </c>
+      <c r="O48" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" s="139"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="138"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="133">
+        <v>0</v>
+      </c>
+      <c r="G49" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="139"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="M49" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N49" s="133">
+        <v>0</v>
+      </c>
+      <c r="O49" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="H41" s="141"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="M41" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N41" s="135">
-        <v>0</v>
-      </c>
-      <c r="O41" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="P41" s="141"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="140"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="135">
-        <v>0</v>
-      </c>
-      <c r="G42" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="141"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="M42" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N42" s="135">
-        <v>0</v>
-      </c>
-      <c r="O42" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="P42" s="141"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="140"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="135">
-        <v>0</v>
-      </c>
-      <c r="G43" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" s="141"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="121" t="s">
-        <v>178</v>
-      </c>
-      <c r="M43" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N43" s="135">
-        <v>0</v>
-      </c>
-      <c r="O43" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="P43" s="141"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="140"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="121" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="135">
-        <v>0</v>
-      </c>
-      <c r="G44" s="133" t="s">
+      <c r="P49" s="139"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="138"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="133">
+        <v>0</v>
+      </c>
+      <c r="G50" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="139"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="M50" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N50" s="133">
+        <v>0</v>
+      </c>
+      <c r="O50" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="141"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="M44" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N44" s="135">
-        <v>0</v>
-      </c>
-      <c r="O44" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="P44" s="141"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="140"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="121" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="135">
-        <v>0</v>
-      </c>
-      <c r="G45" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="141"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="M45" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N45" s="135">
-        <v>0</v>
-      </c>
-      <c r="O45" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="P45" s="141"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="140"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="121" t="s">
+      <c r="P50" s="139"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="138"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="133">
+        <v>0</v>
+      </c>
+      <c r="G51" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="139"/>
+      <c r="J51" s="141"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="135">
-        <v>0</v>
-      </c>
-      <c r="G46" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="H46" s="141"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="M46" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N46" s="135">
-        <v>0</v>
-      </c>
-      <c r="O46" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="P46" s="141"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="140"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="121" t="s">
+      <c r="M51" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N51" s="133">
+        <v>0</v>
+      </c>
+      <c r="O51" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="P51" s="139"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="138"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="133">
+        <v>0</v>
+      </c>
+      <c r="G52" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="139"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="135">
-        <v>0</v>
-      </c>
-      <c r="G47" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="141"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="121" t="s">
-        <v>180</v>
-      </c>
-      <c r="M47" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N47" s="135">
-        <v>0</v>
-      </c>
-      <c r="O47" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="P47" s="141"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="140"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="121" t="s">
+      <c r="M52" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N52" s="133">
+        <v>0</v>
+      </c>
+      <c r="O52" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52" s="139"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="138"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="133">
+        <v>0</v>
+      </c>
+      <c r="G53" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="139"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="E48" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="135">
-        <v>0</v>
-      </c>
-      <c r="G48" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="141"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="121" t="s">
-        <v>159</v>
-      </c>
-      <c r="M48" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N48" s="135">
-        <v>0</v>
-      </c>
-      <c r="O48" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="P48" s="141"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="140"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="121" t="s">
+      <c r="M53" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N53" s="133">
+        <v>0</v>
+      </c>
+      <c r="O53" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="P53" s="139"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="138"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="133">
+        <v>0</v>
+      </c>
+      <c r="G54" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="139"/>
+      <c r="J54" s="138"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="135">
-        <v>0</v>
-      </c>
-      <c r="G49" s="133" t="s">
-        <v>123</v>
-      </c>
-      <c r="H49" s="141"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="121" t="s">
-        <v>181</v>
-      </c>
-      <c r="M49" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N49" s="135">
-        <v>0</v>
-      </c>
-      <c r="O49" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="P49" s="141"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="140"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="121" t="s">
+      <c r="M54" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N54" s="133">
+        <v>0</v>
+      </c>
+      <c r="O54" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" s="139"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="138"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="133">
+        <v>0</v>
+      </c>
+      <c r="G55" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="139"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="135">
-        <v>0</v>
-      </c>
-      <c r="G50" s="133" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" s="141"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="M50" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N50" s="135">
-        <v>0</v>
-      </c>
-      <c r="O50" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="P50" s="141"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="140"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="121" t="s">
+      <c r="M55" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" s="133">
+        <v>0</v>
+      </c>
+      <c r="O55" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" s="139"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="138"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="133">
+        <v>0</v>
+      </c>
+      <c r="G56" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="139"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="E51" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="135">
-        <v>0</v>
-      </c>
-      <c r="G51" s="133" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="141"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="121" t="s">
-        <v>182</v>
-      </c>
-      <c r="M51" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N51" s="135">
-        <v>0</v>
-      </c>
-      <c r="O51" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="P51" s="141"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="140"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="121" t="s">
+      <c r="M56" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N56" s="133">
+        <v>0</v>
+      </c>
+      <c r="O56" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="P56" s="139"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="138"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="119" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="133">
+        <v>0</v>
+      </c>
+      <c r="G57" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="139"/>
+      <c r="J57" s="138"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="135">
-        <v>0</v>
-      </c>
-      <c r="G52" s="133" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" s="141"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="M52" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N52" s="135">
-        <v>0</v>
-      </c>
-      <c r="O52" s="133" t="s">
-        <v>123</v>
-      </c>
-      <c r="P52" s="141"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="140"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="121" t="s">
+      <c r="M57" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N57" s="133">
+        <v>0</v>
+      </c>
+      <c r="O57" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="P57" s="139"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="138"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="133">
+        <v>0</v>
+      </c>
+      <c r="G58" s="115" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="139"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="M58" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N58" s="133">
+        <v>0</v>
+      </c>
+      <c r="O58" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="P58" s="139"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="138"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="135">
-        <v>0</v>
-      </c>
-      <c r="G53" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="141"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="121" t="s">
-        <v>183</v>
-      </c>
-      <c r="M53" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N53" s="135">
-        <v>0</v>
-      </c>
-      <c r="O53" s="133" t="s">
-        <v>124</v>
-      </c>
-      <c r="P53" s="141"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="140"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="121" t="s">
+      <c r="E59" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="133">
+        <v>0</v>
+      </c>
+      <c r="G59" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" s="139"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="M59" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N59" s="133">
+        <v>0</v>
+      </c>
+      <c r="O59" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="P59" s="139"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="138"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="E54" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="135">
-        <v>0</v>
-      </c>
-      <c r="G54" s="133" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="141"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="M54" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N54" s="135">
-        <v>0</v>
-      </c>
-      <c r="O54" s="133" t="s">
-        <v>125</v>
-      </c>
-      <c r="P54" s="141"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="140"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="135">
-        <v>0</v>
-      </c>
-      <c r="G55" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="H55" s="141"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="121" t="s">
-        <v>184</v>
-      </c>
-      <c r="M55" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N55" s="135">
-        <v>0</v>
-      </c>
-      <c r="O55" s="133" t="s">
-        <v>126</v>
-      </c>
-      <c r="P55" s="141"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="140"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="121" t="s">
+      <c r="E60" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="133">
+        <v>0</v>
+      </c>
+      <c r="G60" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" s="139"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="135">
-        <v>0</v>
-      </c>
-      <c r="G56" s="117" t="s">
+      <c r="M60" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N60" s="133">
+        <v>0</v>
+      </c>
+      <c r="O60" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="H56" s="141"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="121" t="s">
+      <c r="P60" s="139"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="138"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="133">
+        <v>0</v>
+      </c>
+      <c r="G61" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="139"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="M61" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N61" s="133">
+        <v>0</v>
+      </c>
+      <c r="O61" s="115" t="s">
+        <v>131</v>
+      </c>
+      <c r="P61" s="139"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="138"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="119" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="133">
+        <v>0</v>
+      </c>
+      <c r="G62" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="139"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="M56" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N56" s="135">
-        <v>0</v>
-      </c>
-      <c r="O56" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="P56" s="141"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="140"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="135">
-        <v>0</v>
-      </c>
-      <c r="G57" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" s="141"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="121" t="s">
+      <c r="M62" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N62" s="133">
+        <v>0</v>
+      </c>
+      <c r="O62" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" s="139"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="138"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="133">
+        <v>0</v>
+      </c>
+      <c r="G63" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="139"/>
+      <c r="J63" s="138"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="M57" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N57" s="135">
-        <v>0</v>
-      </c>
-      <c r="O57" s="133" t="s">
-        <v>128</v>
-      </c>
-      <c r="P57" s="141"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="140"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="135">
-        <v>0</v>
-      </c>
-      <c r="G58" s="117" t="s">
+      <c r="M63" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N63" s="133">
+        <v>0</v>
+      </c>
+      <c r="O63" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="H58" s="141"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="M58" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N58" s="135">
-        <v>0</v>
-      </c>
-      <c r="O58" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="P58" s="141"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="140"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="121" t="s">
+      <c r="P63" s="139"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="138"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="133">
+        <v>0</v>
+      </c>
+      <c r="G64" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="H64" s="139"/>
+      <c r="J64" s="138"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="E59" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="135">
-        <v>0</v>
-      </c>
-      <c r="G59" s="117" t="s">
+      <c r="M64" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N64" s="133">
+        <v>0</v>
+      </c>
+      <c r="O64" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="141"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="121" t="s">
-        <v>196</v>
-      </c>
-      <c r="M59" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N59" s="135">
-        <v>0</v>
-      </c>
-      <c r="O59" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="P59" s="141"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="140"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="121" t="s">
+      <c r="P64" s="139"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="138"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="133">
+        <v>0</v>
+      </c>
+      <c r="G65" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="139"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="135">
-        <v>0</v>
-      </c>
-      <c r="G60" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" s="141"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="M60" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N60" s="135">
-        <v>0</v>
-      </c>
-      <c r="O60" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="P60" s="141"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="140"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="121" t="s">
+      <c r="M65" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N65" s="133">
+        <v>0</v>
+      </c>
+      <c r="O65" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="P65" s="139"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" s="138"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="133">
+        <v>0</v>
+      </c>
+      <c r="G66" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" s="139"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="E61" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F61" s="135">
-        <v>0</v>
-      </c>
-      <c r="G61" s="117" t="s">
-        <v>135</v>
-      </c>
-      <c r="H61" s="141"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="M61" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N61" s="135">
-        <v>0</v>
-      </c>
-      <c r="O61" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="P61" s="141"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="140"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="121" t="s">
+      <c r="M66" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N66" s="133">
+        <v>0</v>
+      </c>
+      <c r="O66" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" s="139"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="138"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="133">
+        <v>0</v>
+      </c>
+      <c r="G67" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="139"/>
+      <c r="J67" s="138"/>
+      <c r="K67" s="117"/>
+      <c r="L67" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="E62" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="135">
-        <v>0</v>
-      </c>
-      <c r="G62" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" s="141"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="121" t="s">
-        <v>164</v>
-      </c>
-      <c r="M62" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N62" s="135">
-        <v>0</v>
-      </c>
-      <c r="O62" s="117" t="s">
-        <v>134</v>
-      </c>
-      <c r="P62" s="141"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="140"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="121" t="s">
+      <c r="M67" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N67" s="133">
+        <v>0</v>
+      </c>
+      <c r="O67" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="P67" s="139"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="138"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="133">
+        <v>0</v>
+      </c>
+      <c r="G68" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="139"/>
+      <c r="J68" s="138"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="E63" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="135">
-        <v>0</v>
-      </c>
-      <c r="G63" s="117" t="s">
-        <v>137</v>
-      </c>
-      <c r="H63" s="141"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="119"/>
-      <c r="L63" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="M63" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N63" s="135">
-        <v>0</v>
-      </c>
-      <c r="O63" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="P63" s="141"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="140"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="121" t="s">
+      <c r="M68" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N68" s="133">
+        <v>0</v>
+      </c>
+      <c r="O68" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="P68" s="139"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="138"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="133">
+        <v>0</v>
+      </c>
+      <c r="G69" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" s="139"/>
+      <c r="J69" s="138"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" s="135">
-        <v>0</v>
-      </c>
-      <c r="G64" s="117" t="s">
+      <c r="M69" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N69" s="133">
+        <v>0</v>
+      </c>
+      <c r="O69" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="H64" s="141"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="119"/>
-      <c r="L64" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="M64" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N64" s="135">
-        <v>0</v>
-      </c>
-      <c r="O64" s="117" t="s">
-        <v>135</v>
-      </c>
-      <c r="P64" s="141"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="140"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="121" t="s">
+      <c r="P69" s="139"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="138"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" s="133">
+        <v>0</v>
+      </c>
+      <c r="G70" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="139"/>
+      <c r="J70" s="138"/>
+      <c r="K70" s="117"/>
+      <c r="L70" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="135">
-        <v>0</v>
-      </c>
-      <c r="G65" s="117" t="s">
+      <c r="M70" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N70" s="133">
+        <v>0</v>
+      </c>
+      <c r="O70" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="H65" s="141"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="M65" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N65" s="135">
-        <v>0</v>
-      </c>
-      <c r="O65" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="P65" s="141"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="140"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="121" t="s">
+      <c r="P70" s="139"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="138"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="133">
+        <v>0</v>
+      </c>
+      <c r="G71" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="139"/>
+      <c r="J71" s="138"/>
+      <c r="K71" s="117"/>
+      <c r="L71" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="E66" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="135">
-        <v>0</v>
-      </c>
-      <c r="G66" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="H66" s="141"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="119"/>
-      <c r="L66" s="121" t="s">
-        <v>166</v>
-      </c>
-      <c r="M66" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N66" s="135">
-        <v>0</v>
-      </c>
-      <c r="O66" s="117" t="s">
-        <v>137</v>
-      </c>
-      <c r="P66" s="141"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="140"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="121" t="s">
+      <c r="M71" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N71" s="133">
+        <v>0</v>
+      </c>
+      <c r="O71" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="P71" s="139"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="138"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="119" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="133">
+        <v>0</v>
+      </c>
+      <c r="G72" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" s="139"/>
+      <c r="J72" s="138"/>
+      <c r="K72" s="117"/>
+      <c r="L72" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F67" s="135">
-        <v>0</v>
-      </c>
-      <c r="G67" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="H67" s="141"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="M67" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N67" s="135">
-        <v>0</v>
-      </c>
-      <c r="O67" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="P67" s="141"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="140"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="121" t="s">
+      <c r="M72" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N72" s="133">
+        <v>0</v>
+      </c>
+      <c r="O72" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="P72" s="139"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" s="138"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="133">
+        <v>0</v>
+      </c>
+      <c r="G73" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" s="139"/>
+      <c r="J73" s="138"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="E68" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F68" s="135">
-        <v>0</v>
-      </c>
-      <c r="G68" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="H68" s="141"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="M68" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N68" s="135">
-        <v>0</v>
-      </c>
-      <c r="O68" s="117" t="s">
-        <v>140</v>
-      </c>
-      <c r="P68" s="141"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="140"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="121" t="s">
+      <c r="M73" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N73" s="133">
+        <v>0</v>
+      </c>
+      <c r="O73" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="P73" s="139"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="138"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="119" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="133">
+        <v>0</v>
+      </c>
+      <c r="G74" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="H74" s="139"/>
+      <c r="J74" s="138"/>
+      <c r="K74" s="117"/>
+      <c r="L74" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="E69" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69" s="135">
-        <v>0</v>
-      </c>
-      <c r="G69" s="117" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" s="141"/>
-      <c r="J69" s="140"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="121" t="s">
-        <v>189</v>
-      </c>
-      <c r="M69" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N69" s="135">
-        <v>0</v>
-      </c>
-      <c r="O69" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="P69" s="141"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="140"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="121" t="s">
+      <c r="M74" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N74" s="133">
+        <v>0</v>
+      </c>
+      <c r="O74" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="P74" s="139"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="138"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="133">
+        <v>0</v>
+      </c>
+      <c r="G75" s="115" t="s">
+        <v>148</v>
+      </c>
+      <c r="H75" s="139"/>
+      <c r="J75" s="138"/>
+      <c r="K75" s="117"/>
+      <c r="L75" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="E70" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="135">
-        <v>0</v>
-      </c>
-      <c r="G70" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="H70" s="141"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="119"/>
-      <c r="L70" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="M70" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N70" s="135">
-        <v>0</v>
-      </c>
-      <c r="O70" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="P70" s="141"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="140"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="121" t="s">
+      <c r="M75" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N75" s="133">
+        <v>0</v>
+      </c>
+      <c r="O75" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="P75" s="139"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="138"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="133">
+        <v>0</v>
+      </c>
+      <c r="G76" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="H76" s="139"/>
+      <c r="J76" s="138"/>
+      <c r="K76" s="117"/>
+      <c r="L76" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="E71" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="135">
-        <v>0</v>
-      </c>
-      <c r="G71" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" s="141"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="119"/>
-      <c r="L71" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="M71" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N71" s="135">
-        <v>0</v>
-      </c>
-      <c r="O71" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="P71" s="141"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="140"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="121" t="s">
+      <c r="M76" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N76" s="133">
+        <v>0</v>
+      </c>
+      <c r="O76" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="P76" s="139"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" s="138"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="133">
+        <v>0</v>
+      </c>
+      <c r="G77" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="H77" s="139"/>
+      <c r="J77" s="138"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="135">
-        <v>0</v>
-      </c>
-      <c r="G72" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="H72" s="141"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="119"/>
-      <c r="L72" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="M72" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N72" s="135">
-        <v>0</v>
-      </c>
-      <c r="O72" s="117" t="s">
-        <v>143</v>
-      </c>
-      <c r="P72" s="141"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="140"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="121" t="s">
+      <c r="M77" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N77" s="133">
+        <v>0</v>
+      </c>
+      <c r="O77" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="P77" s="139"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B78" s="138"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="134">
+        <v>0</v>
+      </c>
+      <c r="G78" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="139"/>
+      <c r="J78" s="138"/>
+      <c r="K78" s="117"/>
+      <c r="L78" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="135">
-        <v>0</v>
-      </c>
-      <c r="G73" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="H73" s="141"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="119"/>
-      <c r="L73" s="121" t="s">
-        <v>191</v>
-      </c>
-      <c r="M73" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N73" s="135">
-        <v>0</v>
-      </c>
-      <c r="O73" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="P73" s="141"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="140"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="121" t="s">
-        <v>193</v>
-      </c>
-      <c r="E74" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="135">
-        <v>0</v>
-      </c>
-      <c r="G74" s="117" t="s">
+      <c r="M78" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N78" s="133">
+        <v>0</v>
+      </c>
+      <c r="O78" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="H74" s="141"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="119"/>
-      <c r="L74" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="M74" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N74" s="135">
-        <v>0</v>
-      </c>
-      <c r="O74" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="P74" s="141"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="140"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="E75" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F75" s="135">
-        <v>0</v>
-      </c>
-      <c r="G75" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="H75" s="141"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="119"/>
-      <c r="L75" s="121" t="s">
-        <v>192</v>
-      </c>
-      <c r="M75" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N75" s="135">
-        <v>0</v>
-      </c>
-      <c r="O75" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="P75" s="141"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="140"/>
-      <c r="C76" s="119"/>
-      <c r="D76" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="135">
-        <v>0</v>
-      </c>
-      <c r="G76" s="117" t="s">
-        <v>150</v>
-      </c>
-      <c r="H76" s="141"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="119"/>
-      <c r="L76" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="M76" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N76" s="135">
-        <v>0</v>
-      </c>
-      <c r="O76" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="P76" s="141"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="140"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="E77" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="135">
-        <v>0</v>
-      </c>
-      <c r="G77" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="H77" s="141"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="119"/>
-      <c r="L77" s="121" t="s">
-        <v>193</v>
-      </c>
-      <c r="M77" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N77" s="135">
-        <v>0</v>
-      </c>
-      <c r="O77" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="P77" s="141"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="140"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="E78" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="136">
-        <v>0</v>
-      </c>
-      <c r="G78" s="118" t="s">
-        <v>152</v>
-      </c>
-      <c r="H78" s="141"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="M78" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N78" s="135">
-        <v>0</v>
-      </c>
-      <c r="O78" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="P78" s="141"/>
+      <c r="P78" s="139"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B79" s="140"/>
-      <c r="C79" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="144">
+      <c r="B79" s="138"/>
+      <c r="C79" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="142">
         <f>ROWS(D28:D78)</f>
         <v>51</v>
       </c>
-      <c r="H79" s="141"/>
-      <c r="J79" s="140"/>
-      <c r="K79" s="119"/>
-      <c r="L79" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="M79" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N79" s="135">
-        <v>0</v>
-      </c>
-      <c r="O79" s="117" t="s">
+      <c r="H79" s="139"/>
+      <c r="J79" s="138"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="M79" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N79" s="133">
+        <v>0</v>
+      </c>
+      <c r="O79" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="P79" s="139"/>
+    </row>
+    <row r="80" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="151"/>
+      <c r="C80" s="152"/>
+      <c r="D80" s="152"/>
+      <c r="E80" s="152"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="152"/>
+      <c r="H80" s="153"/>
+      <c r="J80" s="138"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="M80" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N80" s="133">
+        <v>0</v>
+      </c>
+      <c r="O80" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="P79" s="141"/>
-    </row>
-    <row r="80" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="153"/>
-      <c r="C80" s="154"/>
-      <c r="D80" s="154"/>
-      <c r="E80" s="154"/>
-      <c r="F80" s="154"/>
-      <c r="G80" s="154"/>
-      <c r="H80" s="155"/>
-      <c r="J80" s="140"/>
-      <c r="K80" s="119"/>
-      <c r="L80" s="121" t="s">
+      <c r="P80" s="139"/>
+    </row>
+    <row r="81" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J81" s="138"/>
+      <c r="K81" s="118"/>
+      <c r="L81" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="M80" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="N80" s="135">
-        <v>0</v>
-      </c>
-      <c r="O80" s="117" t="s">
+      <c r="M81" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="N81" s="134">
+        <v>0</v>
+      </c>
+      <c r="O81" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="P80" s="141"/>
-    </row>
-    <row r="81" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J81" s="140"/>
-      <c r="K81" s="120"/>
-      <c r="L81" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="M81" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="N81" s="136">
-        <v>0</v>
-      </c>
-      <c r="O81" s="118" t="s">
-        <v>152</v>
-      </c>
-      <c r="P81" s="141"/>
+      <c r="P81" s="139"/>
     </row>
     <row r="82" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J82" s="140"/>
-      <c r="K82" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="M82" s="144">
+      <c r="J82" s="138"/>
+      <c r="K82" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="M82" s="142">
         <f>ROWS(L33:L81)</f>
         <v>49</v>
       </c>
-      <c r="P82" s="141"/>
+      <c r="P82" s="139"/>
     </row>
     <row r="83" spans="10:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J83" s="153"/>
-      <c r="K83" s="154"/>
-      <c r="L83" s="154"/>
-      <c r="M83" s="154"/>
-      <c r="N83" s="154"/>
-      <c r="O83" s="154"/>
-      <c r="P83" s="155"/>
+      <c r="J83" s="151"/>
+      <c r="K83" s="152"/>
+      <c r="L83" s="152"/>
+      <c r="M83" s="152"/>
+      <c r="N83" s="152"/>
+      <c r="O83" s="152"/>
+      <c r="P83" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="6">
